--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="234">
   <si>
     <t>업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -766,12 +766,6 @@
     <t>모델링</t>
   </si>
   <si>
-    <t>모델링 완성, SQL</t>
-  </si>
-  <si>
-    <t>더미데이터 만들기, UI/이벤트 만들기</t>
-  </si>
-  <si>
     <t>인터페이스, DAO(SQL, UI 참고)</t>
   </si>
   <si>
@@ -882,7 +876,92 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>일일업무 table 물리모델링
+논리모델링 수정
+업무배정, 매뉴얼 UI 수정/임시이벤트 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 전체 틀 수정
+일일업무, 업무배정 임시 이벤트 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매뉴얼업무 더미데이터 insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매뉴얼업무 관련 기능 SQL추출
+일일업무 table 물리모델링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후순위 UI 틀 구현
+일일업무 더미데이터 insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후순위 UI 틀 구현
+업무배정 페이지 이벤트 구현
+일일업무 더미데이터 insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현 마무리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>논리적 모델링 완성
+물리적 모델링 일부
+더미데이터 일부
+SQL추출
+UI수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyBatis 수업
+물리적 모델링 주요 테이블 완성
+더미데이터 주요 테이블 완성
+SQL추출
+UI수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select distinct task_type from manual_tasks m, space_types s, task_types t 
+where m.space_types_seq = s.space_types_seq and m.task_types_seq = t.task_types_seq and s.space_type=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select task, repeat_type, repeat_detail from manual_tasks m, space_types s, task_types t 
+where m.space_types_seq = s.space_types_seq and m.task_types_seq = t.task_types_seq and s.space_type=? and t.task_type=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select distinct repeat_detail from manual_tasks where repeat_type='파트';</t>
+  </si>
+  <si>
     <t>select space_type from space_types;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, '레몬청 만들기', '2018/05/08', 0, '개인', 'yunseok', null, 'yunseok', '장윤석', 'yunyoung', 1);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -893,7 +972,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-412]m&quot;월&quot;\ d&quot;일&quot;\ dddd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -925,8 +1004,25 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -954,6 +1050,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5E0B3"/>
+        <bgColor rgb="FFC5E0B3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor rgb="FFC5E0B3"/>
       </patternFill>
     </fill>
@@ -1018,13 +1126,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1109,13 +1220,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1432,347 +1592,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.09765625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="7" width="15.69921875" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="40"/>
+    <col min="2" max="2" width="16.09765625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="31.09765625" customWidth="1"/>
+    <col min="4" max="4" width="25.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.796875" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" s="11" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="F1" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="21">
+    </row>
+    <row r="2" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="21">
         <v>43214</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="19" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="21">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B3" s="21">
         <v>43215</v>
       </c>
-      <c r="B3" s="19"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="21">
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B4" s="21">
         <v>43216</v>
       </c>
-      <c r="B4" s="19"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="21">
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B5" s="21">
         <v>43217</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="C5" s="19" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="22">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="22">
         <v>43218</v>
       </c>
-      <c r="B6" s="19"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="22">
+      <c r="C6" s="19"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B7" s="22">
         <v>43219</v>
       </c>
-      <c r="B7" s="19"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="21">
+      <c r="C7" s="19"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="21">
         <v>43220</v>
       </c>
-      <c r="B8" s="19"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="21">
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="21">
         <v>43221</v>
       </c>
-      <c r="B9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="21">
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="21">
         <v>43222</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="C10" s="19" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="21">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="21">
         <v>43223</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="C11" s="19" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="21">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="21">
         <v>43224</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="C12" s="19" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="22">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B13" s="22">
         <v>43225</v>
       </c>
-      <c r="B13" s="19"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="22">
+      <c r="C13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B14" s="22">
         <v>43226</v>
       </c>
-      <c r="B14" s="19"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="22">
+      <c r="C14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B15" s="22">
         <v>43227</v>
       </c>
-      <c r="B15" s="19"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="21">
+      <c r="C15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="21">
         <v>43228</v>
       </c>
-      <c r="B16" s="19"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="21">
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="37">
         <v>43229</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="C17" s="19" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="23">
+      <c r="G17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="87" x14ac:dyDescent="0.4">
+      <c r="B18" s="36">
         <v>43230</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="C18" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="87" x14ac:dyDescent="0.4">
+      <c r="B19" s="36">
+        <v>43231</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="22">
+        <v>43232</v>
+      </c>
+      <c r="C20" s="19"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="22">
+        <v>43233</v>
+      </c>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="23">
+        <v>43234</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="23">
-        <v>43231</v>
-      </c>
-      <c r="B19" s="19" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="23">
+        <v>43235</v>
+      </c>
+      <c r="C23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="23">
+        <v>43236</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="22">
-        <v>43232</v>
-      </c>
-      <c r="B20" s="19"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="22">
-        <v>43233</v>
-      </c>
-      <c r="B21" s="19"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="23">
-        <v>43234</v>
-      </c>
-      <c r="B22" s="19" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="21">
+        <v>43237</v>
+      </c>
+      <c r="C25" s="19"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26" s="21">
+        <v>43238</v>
+      </c>
+      <c r="C26" s="19"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="22">
+        <v>43239</v>
+      </c>
+      <c r="C27" s="19"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B28" s="22">
+        <v>43240</v>
+      </c>
+      <c r="C28" s="19"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="B29" s="21">
+        <v>43241</v>
+      </c>
+      <c r="C29" s="19"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" s="21">
+        <v>43242</v>
+      </c>
+      <c r="C30" s="19"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B31" s="23">
+        <v>43243</v>
+      </c>
+      <c r="C31" s="19"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B32" s="23">
+        <v>43244</v>
+      </c>
+      <c r="C32" s="19"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B33" s="23">
+        <v>43245</v>
+      </c>
+      <c r="C33" s="19"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B34" s="22">
+        <v>43246</v>
+      </c>
+      <c r="C34" s="19"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B35" s="22">
+        <v>43247</v>
+      </c>
+      <c r="C35" s="19"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B36" s="23">
+        <v>43248</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="23">
-        <v>43235</v>
-      </c>
-      <c r="B23" s="19"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="23">
-        <v>43236</v>
-      </c>
-      <c r="B24" s="19" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B37" s="23">
+        <v>43249</v>
+      </c>
+      <c r="C37" s="19"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B38" s="23">
+        <v>43250</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" s="21">
+        <v>43251</v>
+      </c>
+      <c r="C39" s="19"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B40" s="21">
+        <v>43252</v>
+      </c>
+      <c r="C40" s="19"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B41" s="22">
+        <v>43253</v>
+      </c>
+      <c r="C41" s="19"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B42" s="22">
+        <v>43254</v>
+      </c>
+      <c r="C42" s="19"/>
+    </row>
+    <row r="43" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="23">
+        <v>43255</v>
+      </c>
+      <c r="C43" s="19"/>
+    </row>
+    <row r="44" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="24">
+        <v>43256</v>
+      </c>
+      <c r="C44" s="19" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="21">
-        <v>43237</v>
-      </c>
-      <c r="B25" s="19"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="21">
-        <v>43238</v>
-      </c>
-      <c r="B26" s="19"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="22">
-        <v>43239</v>
-      </c>
-      <c r="B27" s="19"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="22">
-        <v>43240</v>
-      </c>
-      <c r="B28" s="19"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="21">
-        <v>43241</v>
-      </c>
-      <c r="B29" s="19"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" s="21">
-        <v>43242</v>
-      </c>
-      <c r="B30" s="19"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="23">
-        <v>43243</v>
-      </c>
-      <c r="B31" s="19"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="23">
-        <v>43244</v>
-      </c>
-      <c r="B32" s="19"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="23">
-        <v>43245</v>
-      </c>
-      <c r="B33" s="19"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="22">
-        <v>43246</v>
-      </c>
-      <c r="B34" s="19"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" s="22">
-        <v>43247</v>
-      </c>
-      <c r="B35" s="19"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" s="23">
-        <v>43248</v>
-      </c>
-      <c r="B36" s="19" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B45" s="22">
+        <v>43257</v>
+      </c>
+      <c r="C45" s="19"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B46" s="23">
+        <v>43258</v>
+      </c>
+      <c r="C46" s="19"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B47" s="23">
+        <v>43259</v>
+      </c>
+      <c r="C47" s="19" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" s="23">
-        <v>43249</v>
-      </c>
-      <c r="B37" s="19"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" s="23">
-        <v>43250</v>
-      </c>
-      <c r="B38" s="19"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" s="21">
-        <v>43251</v>
-      </c>
-      <c r="B39" s="19"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" s="21">
-        <v>43252</v>
-      </c>
-      <c r="B40" s="19"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" s="22">
-        <v>43253</v>
-      </c>
-      <c r="B41" s="19"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" s="22">
-        <v>43254</v>
-      </c>
-      <c r="B42" s="19"/>
-    </row>
-    <row r="43" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="23">
-        <v>43255</v>
-      </c>
-      <c r="B43" s="19"/>
-    </row>
-    <row r="44" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="24">
-        <v>43256</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" s="22">
-        <v>43257</v>
-      </c>
-      <c r="B45" s="19"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" s="23">
-        <v>43258</v>
-      </c>
-      <c r="B46" s="19"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" s="23">
-        <v>43259</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" s="21"/>
-      <c r="B48" s="19"/>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B48" s="21"/>
+      <c r="C48" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1787,7 +1991,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" activeCellId="1" sqref="A1:D1048576 H1:H1048576"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1809,11 +2013,11 @@
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1840,89 +2044,155 @@
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31" t="s">
         <v>4</v>
       </c>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="5" t="s">
-        <v>217</v>
-      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F4" t="s">
-        <v>214</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="F5" t="s">
-        <v>216</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="29" t="s">
         <v>153</v>
       </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29" t="s">
         <v>157</v>
       </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="29" t="s">
         <v>149</v>
       </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="29" t="s">
         <v>150</v>
       </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="29" t="s">
         <v>151</v>
       </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="18">
@@ -1936,7 +2206,7 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H11" t="s">
         <v>49</v>
@@ -1962,7 +2232,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" t="s">
@@ -1978,7 +2248,7 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
@@ -1990,7 +2260,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="15"/>
@@ -2010,16 +2280,16 @@
       <c r="D16" s="13"/>
       <c r="E16" s="15"/>
       <c r="F16" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J16" s="26"/>
     </row>
@@ -2048,16 +2318,16 @@
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J18" s="26"/>
     </row>
@@ -2071,16 +2341,16 @@
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J19" s="26"/>
     </row>
@@ -2094,16 +2364,16 @@
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>205</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>207</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J20" s="26"/>
     </row>
@@ -2111,34 +2381,46 @@
       <c r="A21" s="18">
         <v>20</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="18">
         <v>21</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="18">
         <v>22</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="C23" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="18">
@@ -2151,7 +2433,7 @@
         <v>175</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
@@ -2187,254 +2469,351 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="E27" t="s">
+      <c r="C27" s="35"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="H27" t="s">
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31" t="s">
         <v>50</v>
       </c>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="34"/>
+      <c r="C28" s="35" t="s">
         <v>166</v>
       </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="28"/>
+      <c r="C29" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" t="s">
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="31" t="s">
         <v>14</v>
       </c>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" t="s">
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="31" t="s">
         <v>14</v>
       </c>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="B32" s="28"/>
+      <c r="C32" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" t="s">
-        <v>5</v>
-      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="B33" s="28"/>
+      <c r="C33" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" t="s">
-        <v>5</v>
-      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" t="s">
-        <v>5</v>
-      </c>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" t="s">
-        <v>5</v>
-      </c>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="B37" s="28"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" t="s">
-        <v>5</v>
-      </c>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="B38" s="28"/>
+      <c r="C38" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="B39" s="28"/>
+      <c r="C39" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="B40" s="28"/>
+      <c r="C40" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="E41" t="s">
+      <c r="C41" s="35"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="H41" t="s">
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31" t="s">
         <v>15</v>
       </c>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="B42" s="28"/>
+      <c r="C42" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" t="s">
+      <c r="D42" s="30"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="31" t="s">
         <v>43</v>
       </c>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="B43" s="28"/>
+      <c r="C43" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" t="s">
+      <c r="D43" s="30"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="31" t="s">
         <v>46</v>
       </c>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="B44" s="28"/>
+      <c r="C44" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E45" t="s">
+      <c r="C45" s="29"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H45" t="s">
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31" t="s">
         <v>13</v>
       </c>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="B46" s="28"/>
+      <c r="C46" s="29" t="s">
         <v>47</v>
       </c>
+      <c r="D46" s="30"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="18">
@@ -2470,7 +2849,7 @@
         <v>5</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J48" s="26"/>
     </row>
@@ -2490,7 +2869,7 @@
         <v>5</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J49" s="26"/>
     </row>
@@ -3555,8 +3934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3565,18 +3944,18 @@
     <col min="2" max="2" width="6.8984375" style="3" customWidth="1"/>
     <col min="3" max="3" width="5.3984375" style="5" customWidth="1"/>
     <col min="4" max="4" width="50.69921875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="88.19921875" customWidth="1"/>
+    <col min="5" max="5" width="118" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="11" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
@@ -3595,7 +3974,7 @@
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -3603,7 +3982,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -3660,7 +4039,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -3668,8 +4047,8 @@
         <v>6</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="E11" t="s">
-        <v>27</v>
+      <c r="E11" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -3707,7 +4086,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="15"/>
@@ -3743,10 +4122,10 @@
         <v>159</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -3754,11 +4133,11 @@
       <c r="D19" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E19" s="42" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -3766,8 +4145,8 @@
       <c r="D20" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>5</v>
+      <c r="E20" s="14" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -3791,7 +4170,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -3801,8 +4180,8 @@
       <c r="C24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E24" t="s">
-        <v>5</v>
+      <c r="E24" s="41" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -4043,7 +4422,7 @@
         <v>51</v>
       </c>
       <c r="D48" s="13"/>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="43" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4056,7 +4435,7 @@
         <v>52</v>
       </c>
       <c r="D49" s="13"/>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="43" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5021,6 +5400,10 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E48" location="SQL!E18" display="select"/>
+    <hyperlink ref="E49" location="SQL!E18" display="select"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -15,6 +15,8 @@
     <sheet name="진행일정" sheetId="3" r:id="rId1"/>
     <sheet name="업무목록" sheetId="1" r:id="rId2"/>
     <sheet name="SQL" sheetId="2" r:id="rId3"/>
+    <sheet name="우선순위" sheetId="4" r:id="rId4"/>
+    <sheet name="발표컨텐츠" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SQL!$A$1:$A$154</definedName>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="245">
   <si>
     <t>업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -962,6 +964,52 @@
   <si>
     <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, '레몬청 만들기', '2018/05/08', 0, '개인', 'yunseok', null, 'yunseok', '장윤석', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매뉴얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>느낀점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획단계에서 생각했던 우선순위와 실제 모델링을 해나가면서 설정한 우선순위가 서로 다름.
+Actor를 관리자로 설정함에 따라 구현 우선순위가 결정됨.
+때문에 기획단계에서 Persona설정이 중요함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1066,7 +1114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1125,6 +1173,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="8" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1135,7 +1203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1270,6 +1338,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1991,7 +2071,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2013,11 +2093,11 @@
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
@@ -3934,7 +4014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -3951,11 +4031,11 @@
       <c r="A1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
@@ -5405,5 +5485,325 @@
     <hyperlink ref="E49" location="SQL!E18" display="select"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="48" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="44" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="48">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="48">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="48">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="48">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="48">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="48">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="48">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="48">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" s="48">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" s="48">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" s="48">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" s="48">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" s="48">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" s="48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" s="48">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" s="48">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" s="48">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" s="48">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.796875" style="48" customWidth="1"/>
+    <col min="3" max="3" width="79.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="44" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:4" ht="52.8" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="48">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="48">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -19,7 +19,7 @@
     <sheet name="발표컨텐츠" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SQL!$A$1:$A$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SQL!$B$1:$B$160</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="260">
   <si>
     <t>업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -955,15 +955,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select distinct repeat_detail from manual_tasks where repeat_type='파트';</t>
-  </si>
-  <si>
     <t>select space_type from space_types;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, '레몬청 만들기', '2018/05/08', 0, '개인', 'yunseok', null, 'yunseok', '장윤석', 'yunyoung', 1);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1010,6 +1002,72 @@
   </si>
   <si>
     <t>관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매뉴얼 업무 검색해서 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">select </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찬영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찬영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤영</t>
+  </si>
+  <si>
+    <t>윤영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>업무분류 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 공간에 속한 공간분류 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 업무/공간분류에 속한 업무 목록 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1020,7 +1078,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-412]m&quot;월&quot;\ d&quot;일&quot;\ dddd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1066,6 +1124,15 @@
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1203,7 +1270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1333,9 +1400,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1349,6 +1413,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2071,7 +2162,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2093,11 +2184,11 @@
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2278,19 +2369,23 @@
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="E11" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" s="31"/>
+      <c r="H11" s="31" t="s">
         <v>49</v>
       </c>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="18">
@@ -2546,7 +2641,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27">
+      <c r="A27" s="18">
         <v>26</v>
       </c>
       <c r="B27" s="34" t="s">
@@ -2566,7 +2661,7 @@
       <c r="J27" s="32"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28">
+      <c r="A28" s="18">
         <v>27</v>
       </c>
       <c r="B28" s="34"/>
@@ -2582,7 +2677,7 @@
       <c r="J28" s="32"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29">
+      <c r="A29" s="18">
         <v>28</v>
       </c>
       <c r="B29" s="28"/>
@@ -2598,7 +2693,7 @@
       <c r="J29" s="32"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30">
+      <c r="A30" s="18">
         <v>29</v>
       </c>
       <c r="B30" s="28"/>
@@ -2616,7 +2711,7 @@
       <c r="J30" s="32"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31">
+      <c r="A31" s="18">
         <v>30</v>
       </c>
       <c r="B31" s="28"/>
@@ -2634,7 +2729,7 @@
       <c r="J31" s="32"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32">
+      <c r="A32" s="18">
         <v>31</v>
       </c>
       <c r="B32" s="28"/>
@@ -2652,7 +2747,7 @@
       <c r="J32" s="32"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33">
+      <c r="A33" s="18">
         <v>32</v>
       </c>
       <c r="B33" s="28"/>
@@ -2670,7 +2765,7 @@
       <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34">
+      <c r="A34" s="18">
         <v>33</v>
       </c>
       <c r="B34" s="28"/>
@@ -2686,7 +2781,7 @@
       <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35">
+      <c r="A35" s="18">
         <v>34</v>
       </c>
       <c r="B35" s="28"/>
@@ -2704,7 +2799,7 @@
       <c r="J35" s="32"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36">
+      <c r="A36" s="18">
         <v>35</v>
       </c>
       <c r="B36" s="28"/>
@@ -2722,7 +2817,7 @@
       <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37">
+      <c r="A37" s="18">
         <v>36</v>
       </c>
       <c r="B37" s="28"/>
@@ -2740,7 +2835,7 @@
       <c r="J37" s="32"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38">
+      <c r="A38" s="18">
         <v>37</v>
       </c>
       <c r="B38" s="28"/>
@@ -2756,7 +2851,7 @@
       <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39">
+      <c r="A39" s="18">
         <v>38</v>
       </c>
       <c r="B39" s="28"/>
@@ -2772,7 +2867,7 @@
       <c r="J39" s="32"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40">
+      <c r="A40" s="18">
         <v>39</v>
       </c>
       <c r="B40" s="28"/>
@@ -2788,7 +2883,7 @@
       <c r="J40" s="32"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41">
+      <c r="A41" s="18">
         <v>40</v>
       </c>
       <c r="B41" s="34" t="s">
@@ -2808,7 +2903,7 @@
       <c r="J41" s="32"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42">
+      <c r="A42" s="18">
         <v>41</v>
       </c>
       <c r="B42" s="28"/>
@@ -2826,7 +2921,7 @@
       <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43">
+      <c r="A43" s="18">
         <v>42</v>
       </c>
       <c r="B43" s="28"/>
@@ -2844,7 +2939,7 @@
       <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44">
+      <c r="A44" s="18">
         <v>43</v>
       </c>
       <c r="B44" s="28"/>
@@ -2860,7 +2955,7 @@
       <c r="J44" s="32"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45">
+      <c r="A45" s="18">
         <v>44</v>
       </c>
       <c r="B45" s="28" t="s">
@@ -2880,7 +2975,7 @@
       <c r="J45" s="32"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46">
+      <c r="A46" s="18">
         <v>45</v>
       </c>
       <c r="B46" s="28"/>
@@ -4012,1478 +4107,1639 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.69921875" customWidth="1"/>
-    <col min="2" max="2" width="6.8984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="50.69921875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="118" customWidth="1"/>
+    <col min="2" max="2" width="10.296875" style="54" customWidth="1"/>
+    <col min="3" max="3" width="6.8984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.3984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="50.69921875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="118" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E4" s="30"/>
+      <c r="F4" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E5" s="30"/>
+      <c r="F5" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="E11" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D11" s="35"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="33" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="52"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F13" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="B14" s="52"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F14" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="52"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E16" s="13"/>
+      <c r="F16" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="52"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13" t="s">
+      <c r="B18" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="F18" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13" t="s">
+      <c r="B19" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="F19" s="42" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13" t="s">
+      <c r="B20" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="F20" s="14" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="18">
         <v>20</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="18">
         <v>21</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="18">
         <v>22</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="41" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F24" s="41" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="18">
         <v>24</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="18">
         <v>25</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="18">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="E27" t="s">
+      <c r="D27" s="35"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="18">
         <v>27</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="18">
         <v>28</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="18">
         <v>29</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31">
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="18">
         <v>30</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32">
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="18">
         <v>31</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="B32" s="52"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="18">
+        <v>32</v>
+      </c>
+      <c r="B33" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="18">
+        <v>33</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="18">
+        <v>34</v>
+      </c>
+      <c r="B35" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A36" s="18">
+        <v>35</v>
+      </c>
+      <c r="B36" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A37" s="18">
+        <v>36</v>
+      </c>
+      <c r="B37" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="18">
+        <v>37</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="18">
+        <v>38</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="18">
+        <v>39</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="18">
+        <v>40</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="18">
+        <v>41</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="18">
         <v>42</v>
       </c>
-      <c r="E32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="E41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="C42" s="5" t="s">
+      <c r="D43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="18">
+        <v>43</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="18">
+        <v>44</v>
+      </c>
+      <c r="B45" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="18">
         <v>45</v>
       </c>
-      <c r="E42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="18">
         <v>46</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="52"/>
+      <c r="C47" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="15"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D47" s="51"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="50"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="18">
         <v>47</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="12" t="s">
+      <c r="B48" s="52"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E48" s="49"/>
+      <c r="F48" s="56"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="18">
         <v>48</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="12" t="s">
+      <c r="B49" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A50" s="18">
+        <v>49</v>
+      </c>
+      <c r="B50" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F50" s="42" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A51" s="18">
+        <v>50</v>
+      </c>
+      <c r="B51" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" s="18">
+        <v>51</v>
+      </c>
+      <c r="B52" s="52"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" s="3" t="s">
+      <c r="E52" s="49"/>
+      <c r="F52" s="56"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" s="18">
+        <v>52</v>
+      </c>
+      <c r="B53" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="C53" s="27"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F53" s="15"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" s="18">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="C51" s="5" t="s">
+      <c r="B54" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="F54" s="42"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55" s="18">
+        <v>54</v>
+      </c>
+      <c r="B55" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="C55" s="27"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="F55" s="14"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56" s="50">
+        <v>55</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" s="50">
+        <v>56</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="D52" s="7" t="s">
+      <c r="F57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" s="50">
+        <v>57</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F58" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="D53" s="7" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" s="50">
+        <v>58</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F59" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="C54" s="5" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" s="50">
+        <v>59</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A55">
+      <c r="F60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" s="50">
+        <v>60</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62" s="50">
+        <v>61</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" s="50">
+        <v>62</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64" s="50">
+        <v>63</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" s="50">
+        <v>64</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" s="50">
+        <v>65</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" s="50">
+        <v>66</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" t="s">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" s="50">
+        <v>67</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" s="50">
+        <v>68</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" s="50">
+        <v>69</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" s="50">
+        <v>70</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A72" s="50">
+        <v>71</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73" s="50">
+        <v>72</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" s="50">
+        <v>73</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75" s="50">
+        <v>74</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76" s="50">
+        <v>75</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77" s="50">
+        <v>76</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A78" s="50">
+        <v>77</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79" s="50">
+        <v>78</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80" s="50">
+        <v>79</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A81" s="50">
+        <v>80</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A82" s="50">
+        <v>81</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A83" s="50">
+        <v>82</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A84" s="50">
+        <v>83</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A85" s="50">
+        <v>84</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A86" s="50">
+        <v>85</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A87" s="50">
+        <v>86</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A88" s="50">
+        <v>87</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A89" s="50">
+        <v>88</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A90" s="50">
+        <v>89</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A91" s="50">
+        <v>90</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A92" s="50">
+        <v>91</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A93" s="50">
+        <v>92</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A94" s="50">
+        <v>93</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A95" s="50">
+        <v>94</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A96" s="50">
+        <v>95</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F96" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A58">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A97" s="50">
+        <v>96</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A98" s="50">
+        <v>97</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A99" s="50">
+        <v>98</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A100" s="50">
+        <v>99</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A101" s="50">
+        <v>100</v>
+      </c>
+      <c r="E101" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A61">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A102" s="50">
+        <v>101</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A103" s="50">
+        <v>102</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A104" s="50">
+        <v>103</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A105" s="50">
+        <v>104</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A106" s="50">
+        <v>105</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A107" s="50">
+        <v>106</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A108" s="50">
+        <v>107</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F108" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A109" s="50">
+        <v>108</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A110" s="50">
+        <v>109</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A111" s="50">
+        <v>110</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A112" s="50">
+        <v>111</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A113" s="50">
+        <v>112</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A114" s="50">
+        <v>113</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A115" s="50">
+        <v>114</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A116" s="50">
+        <v>115</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A117" s="50">
+        <v>116</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A118" s="50">
+        <v>117</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A119" s="50">
+        <v>118</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A120" s="50">
+        <v>119</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A121" s="50">
+        <v>120</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A122" s="50">
+        <v>121</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A123" s="50">
+        <v>122</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A124" s="50">
+        <v>123</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A125" s="50">
+        <v>124</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A126" s="50">
+        <v>125</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A127" s="50">
+        <v>126</v>
+      </c>
+      <c r="E127" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A63">
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A128" s="50">
+        <v>127</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A129" s="50">
+        <v>128</v>
+      </c>
+      <c r="E129" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E63" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="C64" s="5" t="s">
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A130" s="50">
+        <v>129</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A131" s="50">
+        <v>130</v>
+      </c>
+      <c r="E131" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="C66" s="5" t="s">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A132" s="50">
+        <v>131</v>
+      </c>
+      <c r="E132" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="C67" s="5" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A133" s="50">
+        <v>132</v>
+      </c>
+      <c r="E133" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="C68" s="5" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A134" s="50">
+        <v>133</v>
+      </c>
+      <c r="E134" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E68" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E71" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A81">
+      <c r="F134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A135" s="50">
+        <v>134</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A136" s="50">
+        <v>135</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F136" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A137" s="50">
+        <v>136</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A138" s="50">
+        <v>137</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A139" s="50">
+        <v>138</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A140" s="50">
+        <v>139</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A141" s="50">
+        <v>140</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A142" s="50">
+        <v>141</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A143" s="50">
+        <v>142</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A144" s="50">
+        <v>143</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A145" s="50">
+        <v>144</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A146" s="50">
+        <v>145</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A147" s="50">
+        <v>146</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A148" s="50">
+        <v>147</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A149" s="50">
+        <v>148</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A150" s="50">
+        <v>149</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A151" s="50">
+        <v>150</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A152" s="50">
+        <v>151</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A153" s="50">
+        <v>152</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A154" s="50">
+        <v>153</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A155" s="50">
+        <v>154</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A156" s="50">
+        <v>155</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A157" s="50">
+        <v>156</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A158" s="50">
+        <v>157</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E84" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E89" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E90" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E92" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E93" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E97" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E98" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E102" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E104" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E105" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E106" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E107" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E108" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E109" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E110" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E117" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E118" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A127">
-        <v>126</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A128">
-        <v>127</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E128" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A129">
-        <v>128</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E130" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A131">
-        <v>130</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E131" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A132">
-        <v>131</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A133">
-        <v>132</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A134">
-        <v>133</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E134" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A135">
-        <v>134</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E135" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A136">
-        <v>135</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A137">
-        <v>136</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A138">
-        <v>137</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A139">
-        <v>138</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A140">
-        <v>139</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A141">
-        <v>140</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A142">
-        <v>141</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E142" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A143">
-        <v>142</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E143" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A144">
-        <v>143</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A145">
-        <v>144</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A146">
-        <v>145</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A147">
-        <v>146</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A148">
-        <v>147</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A149">
-        <v>148</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A150">
-        <v>149</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E150" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A151">
-        <v>150</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A152">
-        <v>151</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A153">
-        <v>152</v>
-      </c>
-      <c r="B153" s="3" t="s">
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A159" s="50">
+        <v>158</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A154">
-        <v>153</v>
-      </c>
-      <c r="B154" s="3" t="s">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A160" s="50">
+        <v>159</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>177</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A154">
-    <sortState ref="A2:E154">
-      <sortCondition ref="A1:A154"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="B1:B160"/>
   <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E48" location="SQL!E18" display="select"/>
-    <hyperlink ref="E49" location="SQL!E18" display="select"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5491,201 +5747,200 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="48" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" style="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="44" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="1:3" s="44" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="47">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="47">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="47">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="47">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="46" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1" s="46"/>
-    </row>
-    <row r="2" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="48">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="48">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C5" t="s">
         <v>235</v>
       </c>
-      <c r="C3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="48">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="48">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="48">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="47">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="48">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="47">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="48">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="47">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="48">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="47">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="48">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="47">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="48">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="47">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="48">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="47">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="48">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="47">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="48">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="47">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="48">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="47">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="48">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="47">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="48">
+      <c r="A17" s="47">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="48">
+      <c r="A18" s="47">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="48">
+      <c r="A19" s="47">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="48">
+      <c r="A20" s="47">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="48">
+      <c r="A21" s="47">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="48">
+      <c r="A22" s="47">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="48">
+      <c r="A23" s="47">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" s="48">
+      <c r="A24" s="47">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" s="48">
+      <c r="A25" s="47">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="48">
+      <c r="A26" s="47">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="48">
+      <c r="A27" s="47">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="48">
+      <c r="A28" s="47">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" s="48">
+      <c r="A29" s="47">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" s="48">
+      <c r="A30" s="47">
         <v>29</v>
       </c>
     </row>
@@ -5705,100 +5960,100 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.796875" style="48" customWidth="1"/>
+    <col min="1" max="1" width="5.796875" style="47" customWidth="1"/>
     <col min="3" max="3" width="79.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="44" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:4" s="43" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="D1" s="46"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:4" ht="52.8" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="48">
+      <c r="A2" s="47">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="48">
+      <c r="A3" s="47">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="48">
+      <c r="A4" s="47">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="48">
+      <c r="A5" s="47">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="48">
+      <c r="A6" s="47">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="48">
+      <c r="A7" s="47">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="48">
+      <c r="A8" s="47">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="48">
+      <c r="A9" s="47">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="48">
+      <c r="A10" s="47">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="48">
+      <c r="A11" s="47">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="48">
+      <c r="A12" s="47">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="48">
+      <c r="A13" s="47">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="48">
+      <c r="A14" s="47">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="48">
+      <c r="A15" s="47">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="48">
+      <c r="A16" s="47">
         <v>15</v>
       </c>
     </row>

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="진행일정" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="261">
   <si>
     <t>업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -811,10 +811,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>배정대상 목록 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>매뉴얼업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -863,10 +859,6 @@
   </si>
   <si>
     <t>일일업무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배정대상 목록 보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1068,6 +1060,18 @@
   </si>
   <si>
     <t>insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 날짜에 해당하는 배정대상 목록 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 날짜에 해당하는 선택한 배정대상에 속한 업무 목록 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 날짜에 해당하는 일일업무 날짜 선택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1415,9 +1419,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1441,6 +1442,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1784,7 +1788,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="11" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>192</v>
@@ -1916,7 +1920,7 @@
         <v>186</v>
       </c>
       <c r="G17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="87" x14ac:dyDescent="0.4">
@@ -1924,22 +1928,22 @@
         <v>43230</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="87" x14ac:dyDescent="0.4">
@@ -1947,7 +1951,7 @@
         <v>43231</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -1986,7 +1990,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B25" s="21">
         <v>43237</v>
@@ -1995,7 +1999,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B26" s="21">
         <v>43238</v>
@@ -2016,7 +2020,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="40" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B29" s="21">
         <v>43241</v>
@@ -2025,7 +2029,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B30" s="21">
         <v>43242</v>
@@ -2081,12 +2085,12 @@
         <v>43250</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B39" s="21">
         <v>43251</v>
@@ -2160,9 +2164,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2184,11 +2188,11 @@
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2235,7 +2239,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="29" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="31"/>
@@ -2251,12 +2255,12 @@
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="29" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="31"/>
       <c r="F4" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G4" s="31"/>
       <c r="H4" s="31" t="s">
@@ -2276,7 +2280,7 @@
       <c r="D5" s="30"/>
       <c r="E5" s="31"/>
       <c r="F5" s="31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="31" t="s">
@@ -2378,7 +2382,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G11" s="31"/>
       <c r="H11" s="31" t="s">
@@ -2407,7 +2411,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" t="s">
@@ -2423,7 +2427,7 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
@@ -2435,7 +2439,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="15"/>
@@ -2455,16 +2459,16 @@
       <c r="D16" s="13"/>
       <c r="E16" s="15"/>
       <c r="F16" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J16" s="26"/>
     </row>
@@ -2493,16 +2497,16 @@
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J18" s="26"/>
     </row>
@@ -2516,16 +2520,16 @@
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J19" s="26"/>
     </row>
@@ -2539,16 +2543,16 @@
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J20" s="26"/>
     </row>
@@ -2587,7 +2591,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="33"/>
@@ -2608,7 +2612,7 @@
         <v>175</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
@@ -3024,7 +3028,7 @@
         <v>5</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J48" s="26"/>
     </row>
@@ -3044,7 +3048,7 @@
         <v>5</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J49" s="26"/>
     </row>
@@ -4109,14 +4113,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.69921875" customWidth="1"/>
-    <col min="2" max="2" width="10.296875" style="54" customWidth="1"/>
+    <col min="2" max="2" width="10.296875" style="53" customWidth="1"/>
     <col min="3" max="3" width="6.8984375" style="3" customWidth="1"/>
     <col min="4" max="4" width="5.3984375" style="5" customWidth="1"/>
     <col min="5" max="5" width="50.69921875" style="7" customWidth="1"/>
@@ -4128,13 +4132,13 @@
         <v>33</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="C1" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="16" t="s">
         <v>2</v>
       </c>
@@ -4143,7 +4147,7 @@
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="17" t="s">
         <v>48</v>
       </c>
@@ -4152,22 +4156,22 @@
       <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="17"/>
       <c r="D3" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>249</v>
+      <c r="B4" s="52" t="s">
+        <v>247</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="29" t="s">
-        <v>199</v>
+        <v>258</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="31" t="s">
@@ -4178,12 +4182,12 @@
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="53" t="s">
-        <v>248</v>
+      <c r="B5" s="52" t="s">
+        <v>246</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="29" t="s">
-        <v>152</v>
+        <v>259</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="31" t="s">
@@ -4234,8 +4238,8 @@
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="53" t="s">
-        <v>251</v>
+      <c r="B11" s="52" t="s">
+        <v>249</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>6</v>
@@ -4243,7 +4247,7 @@
       <c r="D11" s="35"/>
       <c r="E11" s="30"/>
       <c r="F11" s="33" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -4258,13 +4262,13 @@
       <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="52"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="49" t="s">
+      <c r="D13" s="50"/>
+      <c r="E13" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="49" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4272,13 +4276,13 @@
       <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="52"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="49" t="s">
+      <c r="D14" s="50"/>
+      <c r="E14" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="F14" s="49" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4286,20 +4290,20 @@
       <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="52"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
+      <c r="D15" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>253</v>
+      <c r="B16" s="54" t="s">
+        <v>251</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="12" t="s">
@@ -4314,20 +4318,20 @@
       <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="52"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="55" t="s">
-        <v>250</v>
+      <c r="B18" s="54" t="s">
+        <v>248</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="12"/>
@@ -4335,15 +4339,15 @@
         <v>159</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="55" t="s">
-        <v>250</v>
+      <c r="B19" s="54" t="s">
+        <v>248</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="12"/>
@@ -4351,15 +4355,15 @@
         <v>161</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="55" t="s">
-        <v>250</v>
+      <c r="B20" s="54" t="s">
+        <v>248</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="12"/>
@@ -4367,7 +4371,7 @@
         <v>163</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -4391,7 +4395,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
@@ -4402,7 +4406,7 @@
         <v>45</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -4428,8 +4432,8 @@
       <c r="A27" s="18">
         <v>26</v>
       </c>
-      <c r="B27" s="53" t="s">
-        <v>250</v>
+      <c r="B27" s="52" t="s">
+        <v>248</v>
       </c>
       <c r="C27" s="34" t="s">
         <v>8</v>
@@ -4483,20 +4487,20 @@
       <c r="A32" s="18">
         <v>31</v>
       </c>
-      <c r="B32" s="52"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="17"/>
-      <c r="D32" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
+      <c r="D32" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" s="48"/>
+      <c r="F32" s="49"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="18">
         <v>32</v>
       </c>
-      <c r="B33" s="55" t="s">
-        <v>254</v>
+      <c r="B33" s="54" t="s">
+        <v>252</v>
       </c>
       <c r="C33" s="27"/>
       <c r="D33" s="12" t="s">
@@ -4519,8 +4523,8 @@
       <c r="A35" s="18">
         <v>34</v>
       </c>
-      <c r="B35" s="55" t="s">
-        <v>254</v>
+      <c r="B35" s="54" t="s">
+        <v>252</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="12"/>
@@ -4528,15 +4532,15 @@
         <v>159</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A36" s="18">
         <v>35</v>
       </c>
-      <c r="B36" s="55" t="s">
-        <v>254</v>
+      <c r="B36" s="54" t="s">
+        <v>252</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="12"/>
@@ -4544,15 +4548,15 @@
         <v>161</v>
       </c>
       <c r="F36" s="42" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A37" s="18">
         <v>36</v>
       </c>
-      <c r="B37" s="55" t="s">
-        <v>254</v>
+      <c r="B37" s="54" t="s">
+        <v>252</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="12"/>
@@ -4560,7 +4564,7 @@
         <v>163</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -4591,8 +4595,8 @@
       <c r="A41" s="18">
         <v>40</v>
       </c>
-      <c r="B41" s="53" t="s">
-        <v>246</v>
+      <c r="B41" s="52" t="s">
+        <v>244</v>
       </c>
       <c r="C41" s="34" t="s">
         <v>9</v>
@@ -4637,8 +4641,8 @@
       <c r="A45" s="18">
         <v>44</v>
       </c>
-      <c r="B45" s="53" t="s">
-        <v>247</v>
+      <c r="B45" s="52" t="s">
+        <v>245</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>11</v>
@@ -4661,32 +4665,32 @@
       <c r="A47" s="18">
         <v>46</v>
       </c>
-      <c r="B47" s="52"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="49"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="18">
         <v>47</v>
       </c>
-      <c r="B48" s="52"/>
+      <c r="B48" s="51"/>
       <c r="C48" s="17"/>
-      <c r="D48" s="51" t="s">
+      <c r="D48" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="49"/>
-      <c r="F48" s="56"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="55"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="18">
         <v>48</v>
       </c>
-      <c r="B49" s="55" t="s">
-        <v>254</v>
+      <c r="B49" s="54" t="s">
+        <v>252</v>
       </c>
       <c r="C49" s="27"/>
       <c r="D49" s="12"/>
@@ -4694,15 +4698,15 @@
         <v>159</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A50" s="18">
         <v>49</v>
       </c>
-      <c r="B50" s="55" t="s">
-        <v>254</v>
+      <c r="B50" s="54" t="s">
+        <v>252</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="12"/>
@@ -4710,15 +4714,15 @@
         <v>161</v>
       </c>
       <c r="F50" s="42" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A51" s="18">
         <v>50</v>
       </c>
-      <c r="B51" s="55" t="s">
-        <v>254</v>
+      <c r="B51" s="54" t="s">
+        <v>252</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="12"/>
@@ -4726,32 +4730,32 @@
         <v>163</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="18">
         <v>51</v>
       </c>
-      <c r="B52" s="52"/>
+      <c r="B52" s="51"/>
       <c r="C52" s="17"/>
-      <c r="D52" s="51" t="s">
+      <c r="D52" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="49"/>
-      <c r="F52" s="56"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="55"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="18">
         <v>52</v>
       </c>
-      <c r="B53" s="55" t="s">
-        <v>252</v>
+      <c r="B53" s="54" t="s">
+        <v>250</v>
       </c>
       <c r="C53" s="27"/>
       <c r="D53" s="12"/>
       <c r="E53" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F53" s="15"/>
     </row>
@@ -4759,13 +4763,13 @@
       <c r="A54" s="18">
         <v>53</v>
       </c>
-      <c r="B54" s="55" t="s">
-        <v>252</v>
+      <c r="B54" s="54" t="s">
+        <v>250</v>
       </c>
       <c r="C54" s="27"/>
       <c r="D54" s="12"/>
       <c r="E54" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F54" s="42"/>
     </row>
@@ -4773,18 +4777,18 @@
       <c r="A55" s="18">
         <v>54</v>
       </c>
-      <c r="B55" s="55" t="s">
-        <v>252</v>
+      <c r="B55" s="54" t="s">
+        <v>250</v>
       </c>
       <c r="C55" s="27"/>
       <c r="D55" s="12"/>
       <c r="E55" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F55" s="14"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A56" s="50">
+      <c r="A56" s="49">
         <v>55</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -4792,7 +4796,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57" s="50">
+      <c r="A57" s="49">
         <v>56</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -4803,7 +4807,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="50">
+      <c r="A58" s="49">
         <v>57</v>
       </c>
       <c r="E58" s="7" t="s">
@@ -4814,7 +4818,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A59" s="50">
+      <c r="A59" s="49">
         <v>58</v>
       </c>
       <c r="E59" s="7" t="s">
@@ -4825,7 +4829,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60" s="50">
+      <c r="A60" s="49">
         <v>59</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -4836,7 +4840,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A61" s="50">
+      <c r="A61" s="49">
         <v>60</v>
       </c>
       <c r="E61" s="7" t="s">
@@ -4847,7 +4851,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A62" s="50">
+      <c r="A62" s="49">
         <v>61</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -4858,7 +4862,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A63" s="50">
+      <c r="A63" s="49">
         <v>62</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -4869,7 +4873,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64" s="50">
+      <c r="A64" s="49">
         <v>63</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -4880,7 +4884,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A65" s="50">
+      <c r="A65" s="49">
         <v>64</v>
       </c>
       <c r="D65" s="5" t="s">
@@ -4888,7 +4892,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A66" s="50">
+      <c r="A66" s="49">
         <v>65</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -4896,7 +4900,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A67" s="50">
+      <c r="A67" s="49">
         <v>66</v>
       </c>
       <c r="D67" s="5" t="s">
@@ -4904,7 +4908,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A68" s="50">
+      <c r="A68" s="49">
         <v>67</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -4912,7 +4916,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A69" s="50">
+      <c r="A69" s="49">
         <v>68</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -4923,7 +4927,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A70" s="50">
+      <c r="A70" s="49">
         <v>69</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -4931,7 +4935,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A71" s="50">
+      <c r="A71" s="49">
         <v>70</v>
       </c>
       <c r="D71" s="5" t="s">
@@ -4942,7 +4946,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A72" s="50">
+      <c r="A72" s="49">
         <v>71</v>
       </c>
       <c r="D72" s="5" t="s">
@@ -4950,7 +4954,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A73" s="50">
+      <c r="A73" s="49">
         <v>72</v>
       </c>
       <c r="D73" s="5" t="s">
@@ -4958,7 +4962,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A74" s="50">
+      <c r="A74" s="49">
         <v>73</v>
       </c>
       <c r="D74" s="5" t="s">
@@ -4969,7 +4973,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A75" s="50">
+      <c r="A75" s="49">
         <v>74</v>
       </c>
       <c r="D75" s="5" t="s">
@@ -4977,7 +4981,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A76" s="50">
+      <c r="A76" s="49">
         <v>75</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -4985,7 +4989,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A77" s="50">
+      <c r="A77" s="49">
         <v>76</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -4996,7 +5000,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A78" s="50">
+      <c r="A78" s="49">
         <v>77</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -5004,7 +5008,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A79" s="50">
+      <c r="A79" s="49">
         <v>78</v>
       </c>
       <c r="D79" s="5" t="s">
@@ -5012,7 +5016,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A80" s="50">
+      <c r="A80" s="49">
         <v>79</v>
       </c>
       <c r="D80" s="5" t="s">
@@ -5020,7 +5024,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A81" s="50">
+      <c r="A81" s="49">
         <v>80</v>
       </c>
       <c r="D81" s="5" t="s">
@@ -5028,7 +5032,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A82" s="50">
+      <c r="A82" s="49">
         <v>81</v>
       </c>
       <c r="D82" s="5" t="s">
@@ -5036,7 +5040,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A83" s="50">
+      <c r="A83" s="49">
         <v>82</v>
       </c>
       <c r="D83" s="5" t="s">
@@ -5044,7 +5048,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A84" s="50">
+      <c r="A84" s="49">
         <v>83</v>
       </c>
       <c r="D84" s="5" t="s">
@@ -5052,7 +5056,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A85" s="50">
+      <c r="A85" s="49">
         <v>84</v>
       </c>
       <c r="D85" s="5" t="s">
@@ -5060,7 +5064,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A86" s="50">
+      <c r="A86" s="49">
         <v>85</v>
       </c>
       <c r="D86" s="5" t="s">
@@ -5068,7 +5072,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A87" s="50">
+      <c r="A87" s="49">
         <v>86</v>
       </c>
       <c r="D87" s="5" t="s">
@@ -5076,7 +5080,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A88" s="50">
+      <c r="A88" s="49">
         <v>87</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -5084,7 +5088,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A89" s="50">
+      <c r="A89" s="49">
         <v>88</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -5092,7 +5096,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A90" s="50">
+      <c r="A90" s="49">
         <v>89</v>
       </c>
       <c r="D90" s="5" t="s">
@@ -5103,7 +5107,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A91" s="50">
+      <c r="A91" s="49">
         <v>90</v>
       </c>
       <c r="E91" s="7" t="s">
@@ -5111,7 +5115,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A92" s="50">
+      <c r="A92" s="49">
         <v>91</v>
       </c>
       <c r="E92" s="7" t="s">
@@ -5119,7 +5123,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A93" s="50">
+      <c r="A93" s="49">
         <v>92</v>
       </c>
       <c r="E93" s="7" t="s">
@@ -5127,7 +5131,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A94" s="50">
+      <c r="A94" s="49">
         <v>93</v>
       </c>
       <c r="E94" s="7" t="s">
@@ -5135,7 +5139,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A95" s="50">
+      <c r="A95" s="49">
         <v>94</v>
       </c>
       <c r="E95" s="7" t="s">
@@ -5146,7 +5150,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A96" s="50">
+      <c r="A96" s="49">
         <v>95</v>
       </c>
       <c r="D96" s="5" t="s">
@@ -5157,7 +5161,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A97" s="50">
+      <c r="A97" s="49">
         <v>96</v>
       </c>
       <c r="E97" s="7" t="s">
@@ -5165,7 +5169,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A98" s="50">
+      <c r="A98" s="49">
         <v>97</v>
       </c>
       <c r="E98" s="7" t="s">
@@ -5176,7 +5180,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A99" s="50">
+      <c r="A99" s="49">
         <v>98</v>
       </c>
       <c r="E99" s="7" t="s">
@@ -5187,7 +5191,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A100" s="50">
+      <c r="A100" s="49">
         <v>99</v>
       </c>
       <c r="E100" s="7" t="s">
@@ -5195,7 +5199,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A101" s="50">
+      <c r="A101" s="49">
         <v>100</v>
       </c>
       <c r="E101" s="7" t="s">
@@ -5203,7 +5207,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A102" s="50">
+      <c r="A102" s="49">
         <v>101</v>
       </c>
       <c r="E102" s="7" t="s">
@@ -5211,7 +5215,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A103" s="50">
+      <c r="A103" s="49">
         <v>102</v>
       </c>
       <c r="E103" s="7" t="s">
@@ -5222,7 +5226,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A104" s="50">
+      <c r="A104" s="49">
         <v>103</v>
       </c>
       <c r="E104" s="7" t="s">
@@ -5233,7 +5237,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A105" s="50">
+      <c r="A105" s="49">
         <v>104</v>
       </c>
       <c r="E105" s="7" t="s">
@@ -5241,7 +5245,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A106" s="50">
+      <c r="A106" s="49">
         <v>105</v>
       </c>
       <c r="E106" s="7" t="s">
@@ -5249,7 +5253,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A107" s="50">
+      <c r="A107" s="49">
         <v>106</v>
       </c>
       <c r="C107" s="3" t="s">
@@ -5257,7 +5261,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A108" s="50">
+      <c r="A108" s="49">
         <v>107</v>
       </c>
       <c r="C108" s="3" t="s">
@@ -5268,7 +5272,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A109" s="50">
+      <c r="A109" s="49">
         <v>108</v>
       </c>
       <c r="D109" s="5" t="s">
@@ -5276,7 +5280,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A110" s="50">
+      <c r="A110" s="49">
         <v>109</v>
       </c>
       <c r="D110" s="5" t="s">
@@ -5287,7 +5291,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A111" s="50">
+      <c r="A111" s="49">
         <v>110</v>
       </c>
       <c r="D111" s="5" t="s">
@@ -5298,7 +5302,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A112" s="50">
+      <c r="A112" s="49">
         <v>111</v>
       </c>
       <c r="C112" s="3" t="s">
@@ -5309,7 +5313,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A113" s="50">
+      <c r="A113" s="49">
         <v>112</v>
       </c>
       <c r="D113" s="5" t="s">
@@ -5320,7 +5324,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A114" s="50">
+      <c r="A114" s="49">
         <v>113</v>
       </c>
       <c r="D114" s="5" t="s">
@@ -5331,7 +5335,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A115" s="50">
+      <c r="A115" s="49">
         <v>114</v>
       </c>
       <c r="D115" s="5" t="s">
@@ -5342,7 +5346,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A116" s="50">
+      <c r="A116" s="49">
         <v>115</v>
       </c>
       <c r="D116" s="5" t="s">
@@ -5353,7 +5357,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A117" s="50">
+      <c r="A117" s="49">
         <v>116</v>
       </c>
       <c r="D117" s="5" t="s">
@@ -5361,7 +5365,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A118" s="50">
+      <c r="A118" s="49">
         <v>117</v>
       </c>
       <c r="D118" s="5" t="s">
@@ -5369,7 +5373,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A119" s="50">
+      <c r="A119" s="49">
         <v>118</v>
       </c>
       <c r="D119" s="5" t="s">
@@ -5377,7 +5381,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A120" s="50">
+      <c r="A120" s="49">
         <v>119</v>
       </c>
       <c r="D120" s="5" t="s">
@@ -5385,7 +5389,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A121" s="50">
+      <c r="A121" s="49">
         <v>120</v>
       </c>
       <c r="D121" s="5" t="s">
@@ -5393,7 +5397,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A122" s="50">
+      <c r="A122" s="49">
         <v>121</v>
       </c>
       <c r="C122" s="3" t="s">
@@ -5401,7 +5405,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A123" s="50">
+      <c r="A123" s="49">
         <v>122</v>
       </c>
       <c r="D123" s="5" t="s">
@@ -5412,7 +5416,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A124" s="50">
+      <c r="A124" s="49">
         <v>123</v>
       </c>
       <c r="D124" s="5" t="s">
@@ -5423,7 +5427,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A125" s="50">
+      <c r="A125" s="49">
         <v>124</v>
       </c>
       <c r="E125" s="7" t="s">
@@ -5431,7 +5435,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A126" s="50">
+      <c r="A126" s="49">
         <v>125</v>
       </c>
       <c r="E126" s="7" t="s">
@@ -5439,7 +5443,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A127" s="50">
+      <c r="A127" s="49">
         <v>126</v>
       </c>
       <c r="E127" s="7" t="s">
@@ -5447,7 +5451,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A128" s="50">
+      <c r="A128" s="49">
         <v>127</v>
       </c>
       <c r="E128" s="7" t="s">
@@ -5455,7 +5459,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A129" s="50">
+      <c r="A129" s="49">
         <v>128</v>
       </c>
       <c r="E129" s="7" t="s">
@@ -5463,7 +5467,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A130" s="50">
+      <c r="A130" s="49">
         <v>129</v>
       </c>
       <c r="E130" s="7" t="s">
@@ -5471,7 +5475,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A131" s="50">
+      <c r="A131" s="49">
         <v>130</v>
       </c>
       <c r="E131" s="7" t="s">
@@ -5479,7 +5483,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A132" s="50">
+      <c r="A132" s="49">
         <v>131</v>
       </c>
       <c r="E132" s="7" t="s">
@@ -5487,7 +5491,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A133" s="50">
+      <c r="A133" s="49">
         <v>132</v>
       </c>
       <c r="E133" s="7" t="s">
@@ -5495,7 +5499,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A134" s="50">
+      <c r="A134" s="49">
         <v>133</v>
       </c>
       <c r="E134" s="7" t="s">
@@ -5506,7 +5510,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A135" s="50">
+      <c r="A135" s="49">
         <v>134</v>
       </c>
       <c r="E135" s="7" t="s">
@@ -5514,7 +5518,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A136" s="50">
+      <c r="A136" s="49">
         <v>135</v>
       </c>
       <c r="D136" s="5" t="s">
@@ -5525,7 +5529,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A137" s="50">
+      <c r="A137" s="49">
         <v>136</v>
       </c>
       <c r="E137" s="7" t="s">
@@ -5536,7 +5540,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A138" s="50">
+      <c r="A138" s="49">
         <v>137</v>
       </c>
       <c r="E138" s="7" t="s">
@@ -5544,7 +5548,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A139" s="50">
+      <c r="A139" s="49">
         <v>138</v>
       </c>
       <c r="E139" s="7" t="s">
@@ -5552,7 +5556,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A140" s="50">
+      <c r="A140" s="49">
         <v>139</v>
       </c>
       <c r="D140" s="5" t="s">
@@ -5563,7 +5567,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A141" s="50">
+      <c r="A141" s="49">
         <v>140</v>
       </c>
       <c r="E141" s="7" t="s">
@@ -5574,7 +5578,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A142" s="50">
+      <c r="A142" s="49">
         <v>141</v>
       </c>
       <c r="E142" s="7" t="s">
@@ -5582,7 +5586,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A143" s="50">
+      <c r="A143" s="49">
         <v>142</v>
       </c>
       <c r="E143" s="7" t="s">
@@ -5590,7 +5594,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A144" s="50">
+      <c r="A144" s="49">
         <v>143</v>
       </c>
       <c r="E144" s="7" t="s">
@@ -5598,7 +5602,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A145" s="50">
+      <c r="A145" s="49">
         <v>144</v>
       </c>
       <c r="E145" s="7" t="s">
@@ -5606,7 +5610,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A146" s="50">
+      <c r="A146" s="49">
         <v>145</v>
       </c>
       <c r="E146" s="7" t="s">
@@ -5614,7 +5618,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A147" s="50">
+      <c r="A147" s="49">
         <v>146</v>
       </c>
       <c r="E147" s="7" t="s">
@@ -5622,7 +5626,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A148" s="50">
+      <c r="A148" s="49">
         <v>147</v>
       </c>
       <c r="D148" s="5" t="s">
@@ -5633,7 +5637,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A149" s="50">
+      <c r="A149" s="49">
         <v>148</v>
       </c>
       <c r="E149" s="7" t="s">
@@ -5644,7 +5648,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A150" s="50">
+      <c r="A150" s="49">
         <v>149</v>
       </c>
       <c r="E150" s="7" t="s">
@@ -5652,7 +5656,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A151" s="50">
+      <c r="A151" s="49">
         <v>150</v>
       </c>
       <c r="E151" s="7" t="s">
@@ -5660,7 +5664,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A152" s="50">
+      <c r="A152" s="49">
         <v>151</v>
       </c>
       <c r="E152" s="7" t="s">
@@ -5668,7 +5672,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A153" s="50">
+      <c r="A153" s="49">
         <v>152</v>
       </c>
       <c r="E153" s="7" t="s">
@@ -5676,7 +5680,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A154" s="50">
+      <c r="A154" s="49">
         <v>153</v>
       </c>
       <c r="E154" s="7" t="s">
@@ -5684,7 +5688,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A155" s="50">
+      <c r="A155" s="49">
         <v>154</v>
       </c>
       <c r="C155" s="3" t="s">
@@ -5692,7 +5696,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A156" s="50">
+      <c r="A156" s="49">
         <v>155</v>
       </c>
       <c r="D156" s="5" t="s">
@@ -5703,7 +5707,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A157" s="50">
+      <c r="A157" s="49">
         <v>156</v>
       </c>
       <c r="D157" s="5" t="s">
@@ -5711,7 +5715,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A158" s="50">
+      <c r="A158" s="49">
         <v>157</v>
       </c>
       <c r="C158" s="3" t="s">
@@ -5719,7 +5723,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A159" s="50">
+      <c r="A159" s="49">
         <v>158</v>
       </c>
       <c r="C159" s="3" t="s">
@@ -5727,7 +5731,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A160" s="50">
+      <c r="A160" s="49">
         <v>159</v>
       </c>
       <c r="C160" s="3" t="s">
@@ -5760,13 +5764,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="44" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="46" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
@@ -5774,10 +5778,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -5785,10 +5789,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" t="s">
         <v>233</v>
-      </c>
-      <c r="C3" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -5796,7 +5800,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -5804,10 +5808,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -5815,7 +5819,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -5823,10 +5827,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -5969,7 +5973,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>193</v>
@@ -5981,10 +5985,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="진행일정" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SQL!$B$1:$B$160</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="264">
   <si>
     <t>업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1036,10 +1036,6 @@
     <t>윤영</t>
   </si>
   <si>
-    <t>윤영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>same</t>
   </si>
   <si>
@@ -1072,6 +1068,24 @@
   </si>
   <si>
     <t>선택한 날짜에 해당하는 일일업무 날짜 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select space_type from space_types;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select distinct task_type from manual_tasks m, space_types s, task_types t 
+where m.space_types_seq = s.space_types_seq and m.task_types_seq = t.task_types_seq and s.space_type=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select task, repeat_type, repeat_detail from manual_tasks m, space_types s, task_types t 
+where m.space_types_seq = s.space_types_seq and m.task_types_seq = t.task_types_seq and s.space_type=? and t.task_type=?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2162,11 +2176,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K154"/>
+  <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H155" sqref="H155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2239,7 +2253,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="31"/>
@@ -2255,7 +2269,7 @@
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="31"/>
@@ -4097,6 +4111,12 @@
       </c>
       <c r="E154" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="H155">
+        <f>COUNTA(H2:H154)</f>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4113,8 +4133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4171,7 +4191,7 @@
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="31" t="s">
@@ -4187,7 +4207,7 @@
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="31" t="s">
@@ -4247,7 +4267,7 @@
       <c r="D11" s="35"/>
       <c r="E11" s="30"/>
       <c r="F11" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -4303,7 +4323,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="12" t="s">
@@ -4500,7 +4520,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C33" s="27"/>
       <c r="D33" s="12" t="s">
@@ -4524,7 +4544,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="12"/>
@@ -4540,7 +4560,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="12"/>
@@ -4556,7 +4576,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="12"/>
@@ -4690,7 +4710,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C49" s="27"/>
       <c r="D49" s="12"/>
@@ -4698,7 +4718,7 @@
         <v>159</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
@@ -4706,7 +4726,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="12"/>
@@ -4714,7 +4734,7 @@
         <v>161</v>
       </c>
       <c r="F50" s="42" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -4722,7 +4742,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="12"/>
@@ -4730,7 +4750,7 @@
         <v>163</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
@@ -4755,7 +4775,7 @@
       <c r="C53" s="27"/>
       <c r="D53" s="12"/>
       <c r="E53" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F53" s="15"/>
     </row>
@@ -4769,7 +4789,7 @@
       <c r="C54" s="27"/>
       <c r="D54" s="12"/>
       <c r="E54" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F54" s="42"/>
     </row>
@@ -4783,7 +4803,7 @@
       <c r="C55" s="27"/>
       <c r="D55" s="12"/>
       <c r="E55" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F55" s="14"/>
     </row>
@@ -5764,7 +5784,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="44" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>237</v>

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="267">
   <si>
     <t>업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1001,10 +1001,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">select </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>담당</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1086,6 +1082,22 @@
   <si>
     <t>select task, repeat_type, repeat_detail from manual_tasks m, space_types s, task_types t 
 where m.space_types_seq = s.space_types_seq and m.task_types_seq = t.task_types_seq and s.space_type=? and t.task_type=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select distinct work_part from branch_staffs where leave_date is null;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select staff_id from branch_staffs where leave_date is not null;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찬영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1155,7 +1167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1196,6 +1208,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FFC5E0B3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1288,7 +1306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1412,9 +1430,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1455,6 +1470,24 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2202,11 +2235,11 @@
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2253,7 +2286,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="31"/>
@@ -2269,7 +2302,7 @@
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="31"/>
@@ -4133,14 +4166,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.69921875" customWidth="1"/>
-    <col min="2" max="2" width="10.296875" style="53" customWidth="1"/>
+    <col min="2" max="2" width="10.296875" style="52" customWidth="1"/>
     <col min="3" max="3" width="6.8984375" style="3" customWidth="1"/>
     <col min="4" max="4" width="5.3984375" style="5" customWidth="1"/>
     <col min="5" max="5" width="50.69921875" style="7" customWidth="1"/>
@@ -4151,14 +4184,14 @@
       <c r="A1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" s="56" t="s">
+      <c r="B1" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="16" t="s">
         <v>2</v>
       </c>
@@ -4167,7 +4200,7 @@
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="17" t="s">
         <v>48</v>
       </c>
@@ -4176,7 +4209,7 @@
       <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="17"/>
       <c r="D3" s="5" t="s">
         <v>213</v>
@@ -4186,12 +4219,12 @@
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>247</v>
+      <c r="B4" s="51" t="s">
+        <v>246</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="31" t="s">
@@ -4202,12 +4235,12 @@
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="52" t="s">
-        <v>246</v>
+      <c r="B5" s="51" t="s">
+        <v>245</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="31" t="s">
@@ -4258,8 +4291,8 @@
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="52" t="s">
-        <v>249</v>
+      <c r="B11" s="51" t="s">
+        <v>248</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>6</v>
@@ -4267,7 +4300,7 @@
       <c r="D11" s="35"/>
       <c r="E11" s="30"/>
       <c r="F11" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -4282,13 +4315,13 @@
       <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="48" t="s">
+      <c r="D13" s="49"/>
+      <c r="E13" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F13" s="48" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4296,13 +4329,13 @@
       <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="48" t="s">
+      <c r="D14" s="49"/>
+      <c r="E14" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="48" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4310,20 +4343,20 @@
       <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="51"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="54" t="s">
-        <v>260</v>
+      <c r="B16" s="53" t="s">
+        <v>259</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="12" t="s">
@@ -4338,20 +4371,20 @@
       <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="51"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="54" t="s">
-        <v>248</v>
+      <c r="B18" s="53" t="s">
+        <v>247</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="12"/>
@@ -4366,15 +4399,15 @@
       <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="54" t="s">
-        <v>248</v>
+      <c r="B19" s="53" t="s">
+        <v>247</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="12"/>
       <c r="E19" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="41" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4382,8 +4415,8 @@
       <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="54" t="s">
-        <v>248</v>
+      <c r="B20" s="53" t="s">
+        <v>247</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="12"/>
@@ -4422,22 +4455,32 @@
       <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="B24" s="59" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" s="60"/>
+      <c r="D24" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="41" t="s">
-        <v>242</v>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="18">
         <v>24</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="B25" s="59" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" s="60"/>
+      <c r="D25" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="F25" t="s">
-        <v>5</v>
+      <c r="E25" s="56"/>
+      <c r="F25" s="58" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -4452,8 +4495,8 @@
       <c r="A27" s="18">
         <v>26</v>
       </c>
-      <c r="B27" s="52" t="s">
-        <v>248</v>
+      <c r="B27" s="51" t="s">
+        <v>247</v>
       </c>
       <c r="C27" s="34" t="s">
         <v>8</v>
@@ -4507,20 +4550,20 @@
       <c r="A32" s="18">
         <v>31</v>
       </c>
-      <c r="B32" s="51"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="17"/>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="49"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="48"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="18">
         <v>32</v>
       </c>
-      <c r="B33" s="54" t="s">
-        <v>251</v>
+      <c r="B33" s="53" t="s">
+        <v>250</v>
       </c>
       <c r="C33" s="27"/>
       <c r="D33" s="12" t="s">
@@ -4543,8 +4586,8 @@
       <c r="A35" s="18">
         <v>34</v>
       </c>
-      <c r="B35" s="54" t="s">
-        <v>251</v>
+      <c r="B35" s="53" t="s">
+        <v>250</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="12"/>
@@ -4559,15 +4602,15 @@
       <c r="A36" s="18">
         <v>35</v>
       </c>
-      <c r="B36" s="54" t="s">
-        <v>251</v>
+      <c r="B36" s="53" t="s">
+        <v>250</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="12"/>
       <c r="E36" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F36" s="42" t="s">
+      <c r="F36" s="41" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4575,8 +4618,8 @@
       <c r="A37" s="18">
         <v>36</v>
       </c>
-      <c r="B37" s="54" t="s">
-        <v>251</v>
+      <c r="B37" s="53" t="s">
+        <v>250</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="12"/>
@@ -4615,8 +4658,8 @@
       <c r="A41" s="18">
         <v>40</v>
       </c>
-      <c r="B41" s="52" t="s">
-        <v>244</v>
+      <c r="B41" s="51" t="s">
+        <v>243</v>
       </c>
       <c r="C41" s="34" t="s">
         <v>9</v>
@@ -4631,10 +4674,15 @@
       <c r="A42" s="18">
         <v>41</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="B42" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="C42" s="60"/>
+      <c r="D42" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="F42" t="s">
+      <c r="E42" s="56"/>
+      <c r="F42" s="58" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4642,10 +4690,15 @@
       <c r="A43" s="18">
         <v>42</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="B43" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="C43" s="60"/>
+      <c r="D43" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="F43" t="s">
+      <c r="E43" s="56"/>
+      <c r="F43" s="58" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4661,8 +4714,8 @@
       <c r="A45" s="18">
         <v>44</v>
       </c>
-      <c r="B45" s="52" t="s">
-        <v>245</v>
+      <c r="B45" s="51" t="s">
+        <v>244</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>11</v>
@@ -4685,32 +4738,32 @@
       <c r="A47" s="18">
         <v>46</v>
       </c>
-      <c r="B47" s="51"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D47" s="50"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="48"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="18">
         <v>47</v>
       </c>
-      <c r="B48" s="51"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="17"/>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="55"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="54"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="18">
         <v>48</v>
       </c>
-      <c r="B49" s="54" t="s">
-        <v>251</v>
+      <c r="B49" s="53" t="s">
+        <v>250</v>
       </c>
       <c r="C49" s="27"/>
       <c r="D49" s="12"/>
@@ -4718,31 +4771,31 @@
         <v>159</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A50" s="18">
         <v>49</v>
       </c>
-      <c r="B50" s="54" t="s">
-        <v>251</v>
+      <c r="B50" s="53" t="s">
+        <v>250</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="12"/>
       <c r="E50" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F50" s="42" t="s">
-        <v>262</v>
+      <c r="F50" s="41" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A51" s="18">
         <v>50</v>
       </c>
-      <c r="B51" s="54" t="s">
-        <v>251</v>
+      <c r="B51" s="53" t="s">
+        <v>250</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="12"/>
@@ -4750,32 +4803,32 @@
         <v>163</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="18">
         <v>51</v>
       </c>
-      <c r="B52" s="51"/>
+      <c r="B52" s="50"/>
       <c r="C52" s="17"/>
-      <c r="D52" s="50" t="s">
+      <c r="D52" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="55"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="54"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="18">
         <v>52</v>
       </c>
-      <c r="B53" s="54" t="s">
-        <v>250</v>
+      <c r="B53" s="53" t="s">
+        <v>249</v>
       </c>
       <c r="C53" s="27"/>
       <c r="D53" s="12"/>
       <c r="E53" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F53" s="15"/>
     </row>
@@ -4783,32 +4836,32 @@
       <c r="A54" s="18">
         <v>53</v>
       </c>
-      <c r="B54" s="54" t="s">
-        <v>250</v>
+      <c r="B54" s="53" t="s">
+        <v>249</v>
       </c>
       <c r="C54" s="27"/>
       <c r="D54" s="12"/>
       <c r="E54" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="F54" s="42"/>
+        <v>252</v>
+      </c>
+      <c r="F54" s="41"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="18">
         <v>54</v>
       </c>
-      <c r="B55" s="54" t="s">
-        <v>250</v>
+      <c r="B55" s="53" t="s">
+        <v>249</v>
       </c>
       <c r="C55" s="27"/>
       <c r="D55" s="12"/>
       <c r="E55" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F55" s="14"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A56" s="49">
+      <c r="A56" s="48">
         <v>55</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -4816,7 +4869,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57" s="49">
+      <c r="A57" s="48">
         <v>56</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -4827,7 +4880,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="49">
+      <c r="A58" s="48">
         <v>57</v>
       </c>
       <c r="E58" s="7" t="s">
@@ -4838,7 +4891,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A59" s="49">
+      <c r="A59" s="48">
         <v>58</v>
       </c>
       <c r="E59" s="7" t="s">
@@ -4849,7 +4902,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60" s="49">
+      <c r="A60" s="48">
         <v>59</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -4860,7 +4913,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A61" s="49">
+      <c r="A61" s="48">
         <v>60</v>
       </c>
       <c r="E61" s="7" t="s">
@@ -4871,7 +4924,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A62" s="49">
+      <c r="A62" s="48">
         <v>61</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -4882,7 +4935,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A63" s="49">
+      <c r="A63" s="48">
         <v>62</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -4893,7 +4946,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64" s="49">
+      <c r="A64" s="48">
         <v>63</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -4904,7 +4957,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A65" s="49">
+      <c r="A65" s="48">
         <v>64</v>
       </c>
       <c r="D65" s="5" t="s">
@@ -4912,7 +4965,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A66" s="49">
+      <c r="A66" s="48">
         <v>65</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -4920,7 +4973,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A67" s="49">
+      <c r="A67" s="48">
         <v>66</v>
       </c>
       <c r="D67" s="5" t="s">
@@ -4928,7 +4981,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A68" s="49">
+      <c r="A68" s="48">
         <v>67</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -4936,7 +4989,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A69" s="49">
+      <c r="A69" s="48">
         <v>68</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -4947,7 +5000,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A70" s="49">
+      <c r="A70" s="48">
         <v>69</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -4955,7 +5008,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A71" s="49">
+      <c r="A71" s="48">
         <v>70</v>
       </c>
       <c r="D71" s="5" t="s">
@@ -4966,7 +5019,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A72" s="49">
+      <c r="A72" s="48">
         <v>71</v>
       </c>
       <c r="D72" s="5" t="s">
@@ -4974,7 +5027,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A73" s="49">
+      <c r="A73" s="48">
         <v>72</v>
       </c>
       <c r="D73" s="5" t="s">
@@ -4982,7 +5035,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A74" s="49">
+      <c r="A74" s="48">
         <v>73</v>
       </c>
       <c r="D74" s="5" t="s">
@@ -4993,7 +5046,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A75" s="49">
+      <c r="A75" s="48">
         <v>74</v>
       </c>
       <c r="D75" s="5" t="s">
@@ -5001,7 +5054,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A76" s="49">
+      <c r="A76" s="48">
         <v>75</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -5009,7 +5062,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A77" s="49">
+      <c r="A77" s="48">
         <v>76</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -5020,7 +5073,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A78" s="49">
+      <c r="A78" s="48">
         <v>77</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -5028,7 +5081,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A79" s="49">
+      <c r="A79" s="48">
         <v>78</v>
       </c>
       <c r="D79" s="5" t="s">
@@ -5036,7 +5089,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A80" s="49">
+      <c r="A80" s="48">
         <v>79</v>
       </c>
       <c r="D80" s="5" t="s">
@@ -5044,7 +5097,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A81" s="49">
+      <c r="A81" s="48">
         <v>80</v>
       </c>
       <c r="D81" s="5" t="s">
@@ -5052,7 +5105,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A82" s="49">
+      <c r="A82" s="48">
         <v>81</v>
       </c>
       <c r="D82" s="5" t="s">
@@ -5060,7 +5113,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A83" s="49">
+      <c r="A83" s="48">
         <v>82</v>
       </c>
       <c r="D83" s="5" t="s">
@@ -5068,7 +5121,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A84" s="49">
+      <c r="A84" s="48">
         <v>83</v>
       </c>
       <c r="D84" s="5" t="s">
@@ -5076,7 +5129,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A85" s="49">
+      <c r="A85" s="48">
         <v>84</v>
       </c>
       <c r="D85" s="5" t="s">
@@ -5084,7 +5137,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A86" s="49">
+      <c r="A86" s="48">
         <v>85</v>
       </c>
       <c r="D86" s="5" t="s">
@@ -5092,7 +5145,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A87" s="49">
+      <c r="A87" s="48">
         <v>86</v>
       </c>
       <c r="D87" s="5" t="s">
@@ -5100,7 +5153,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A88" s="49">
+      <c r="A88" s="48">
         <v>87</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -5108,7 +5161,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A89" s="49">
+      <c r="A89" s="48">
         <v>88</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -5116,7 +5169,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A90" s="49">
+      <c r="A90" s="48">
         <v>89</v>
       </c>
       <c r="D90" s="5" t="s">
@@ -5127,7 +5180,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A91" s="49">
+      <c r="A91" s="48">
         <v>90</v>
       </c>
       <c r="E91" s="7" t="s">
@@ -5135,7 +5188,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A92" s="49">
+      <c r="A92" s="48">
         <v>91</v>
       </c>
       <c r="E92" s="7" t="s">
@@ -5143,7 +5196,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A93" s="49">
+      <c r="A93" s="48">
         <v>92</v>
       </c>
       <c r="E93" s="7" t="s">
@@ -5151,7 +5204,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A94" s="49">
+      <c r="A94" s="48">
         <v>93</v>
       </c>
       <c r="E94" s="7" t="s">
@@ -5159,7 +5212,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A95" s="49">
+      <c r="A95" s="48">
         <v>94</v>
       </c>
       <c r="E95" s="7" t="s">
@@ -5170,7 +5223,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A96" s="49">
+      <c r="A96" s="48">
         <v>95</v>
       </c>
       <c r="D96" s="5" t="s">
@@ -5181,7 +5234,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A97" s="49">
+      <c r="A97" s="48">
         <v>96</v>
       </c>
       <c r="E97" s="7" t="s">
@@ -5189,7 +5242,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A98" s="49">
+      <c r="A98" s="48">
         <v>97</v>
       </c>
       <c r="E98" s="7" t="s">
@@ -5200,7 +5253,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A99" s="49">
+      <c r="A99" s="48">
         <v>98</v>
       </c>
       <c r="E99" s="7" t="s">
@@ -5211,7 +5264,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A100" s="49">
+      <c r="A100" s="48">
         <v>99</v>
       </c>
       <c r="E100" s="7" t="s">
@@ -5219,7 +5272,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A101" s="49">
+      <c r="A101" s="48">
         <v>100</v>
       </c>
       <c r="E101" s="7" t="s">
@@ -5227,7 +5280,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A102" s="49">
+      <c r="A102" s="48">
         <v>101</v>
       </c>
       <c r="E102" s="7" t="s">
@@ -5235,7 +5288,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A103" s="49">
+      <c r="A103" s="48">
         <v>102</v>
       </c>
       <c r="E103" s="7" t="s">
@@ -5246,7 +5299,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A104" s="49">
+      <c r="A104" s="48">
         <v>103</v>
       </c>
       <c r="E104" s="7" t="s">
@@ -5257,7 +5310,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A105" s="49">
+      <c r="A105" s="48">
         <v>104</v>
       </c>
       <c r="E105" s="7" t="s">
@@ -5265,7 +5318,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A106" s="49">
+      <c r="A106" s="48">
         <v>105</v>
       </c>
       <c r="E106" s="7" t="s">
@@ -5273,7 +5326,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A107" s="49">
+      <c r="A107" s="48">
         <v>106</v>
       </c>
       <c r="C107" s="3" t="s">
@@ -5281,7 +5334,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A108" s="49">
+      <c r="A108" s="48">
         <v>107</v>
       </c>
       <c r="C108" s="3" t="s">
@@ -5292,7 +5345,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A109" s="49">
+      <c r="A109" s="48">
         <v>108</v>
       </c>
       <c r="D109" s="5" t="s">
@@ -5300,7 +5353,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A110" s="49">
+      <c r="A110" s="48">
         <v>109</v>
       </c>
       <c r="D110" s="5" t="s">
@@ -5311,7 +5364,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A111" s="49">
+      <c r="A111" s="48">
         <v>110</v>
       </c>
       <c r="D111" s="5" t="s">
@@ -5322,7 +5375,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A112" s="49">
+      <c r="A112" s="48">
         <v>111</v>
       </c>
       <c r="C112" s="3" t="s">
@@ -5333,7 +5386,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A113" s="49">
+      <c r="A113" s="48">
         <v>112</v>
       </c>
       <c r="D113" s="5" t="s">
@@ -5344,7 +5397,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A114" s="49">
+      <c r="A114" s="48">
         <v>113</v>
       </c>
       <c r="D114" s="5" t="s">
@@ -5355,7 +5408,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A115" s="49">
+      <c r="A115" s="48">
         <v>114</v>
       </c>
       <c r="D115" s="5" t="s">
@@ -5366,7 +5419,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A116" s="49">
+      <c r="A116" s="48">
         <v>115</v>
       </c>
       <c r="D116" s="5" t="s">
@@ -5377,7 +5430,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A117" s="49">
+      <c r="A117" s="48">
         <v>116</v>
       </c>
       <c r="D117" s="5" t="s">
@@ -5385,7 +5438,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A118" s="49">
+      <c r="A118" s="48">
         <v>117</v>
       </c>
       <c r="D118" s="5" t="s">
@@ -5393,7 +5446,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A119" s="49">
+      <c r="A119" s="48">
         <v>118</v>
       </c>
       <c r="D119" s="5" t="s">
@@ -5401,7 +5454,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A120" s="49">
+      <c r="A120" s="48">
         <v>119</v>
       </c>
       <c r="D120" s="5" t="s">
@@ -5409,7 +5462,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A121" s="49">
+      <c r="A121" s="48">
         <v>120</v>
       </c>
       <c r="D121" s="5" t="s">
@@ -5417,7 +5470,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A122" s="49">
+      <c r="A122" s="48">
         <v>121</v>
       </c>
       <c r="C122" s="3" t="s">
@@ -5425,7 +5478,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A123" s="49">
+      <c r="A123" s="48">
         <v>122</v>
       </c>
       <c r="D123" s="5" t="s">
@@ -5436,7 +5489,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A124" s="49">
+      <c r="A124" s="48">
         <v>123</v>
       </c>
       <c r="D124" s="5" t="s">
@@ -5447,7 +5500,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A125" s="49">
+      <c r="A125" s="48">
         <v>124</v>
       </c>
       <c r="E125" s="7" t="s">
@@ -5455,7 +5508,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A126" s="49">
+      <c r="A126" s="48">
         <v>125</v>
       </c>
       <c r="E126" s="7" t="s">
@@ -5463,7 +5516,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A127" s="49">
+      <c r="A127" s="48">
         <v>126</v>
       </c>
       <c r="E127" s="7" t="s">
@@ -5471,7 +5524,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A128" s="49">
+      <c r="A128" s="48">
         <v>127</v>
       </c>
       <c r="E128" s="7" t="s">
@@ -5479,7 +5532,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A129" s="49">
+      <c r="A129" s="48">
         <v>128</v>
       </c>
       <c r="E129" s="7" t="s">
@@ -5487,7 +5540,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A130" s="49">
+      <c r="A130" s="48">
         <v>129</v>
       </c>
       <c r="E130" s="7" t="s">
@@ -5495,7 +5548,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A131" s="49">
+      <c r="A131" s="48">
         <v>130</v>
       </c>
       <c r="E131" s="7" t="s">
@@ -5503,7 +5556,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A132" s="49">
+      <c r="A132" s="48">
         <v>131</v>
       </c>
       <c r="E132" s="7" t="s">
@@ -5511,7 +5564,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A133" s="49">
+      <c r="A133" s="48">
         <v>132</v>
       </c>
       <c r="E133" s="7" t="s">
@@ -5519,7 +5572,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A134" s="49">
+      <c r="A134" s="48">
         <v>133</v>
       </c>
       <c r="E134" s="7" t="s">
@@ -5530,7 +5583,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A135" s="49">
+      <c r="A135" s="48">
         <v>134</v>
       </c>
       <c r="E135" s="7" t="s">
@@ -5538,7 +5591,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A136" s="49">
+      <c r="A136" s="48">
         <v>135</v>
       </c>
       <c r="D136" s="5" t="s">
@@ -5549,7 +5602,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A137" s="49">
+      <c r="A137" s="48">
         <v>136</v>
       </c>
       <c r="E137" s="7" t="s">
@@ -5560,7 +5613,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A138" s="49">
+      <c r="A138" s="48">
         <v>137</v>
       </c>
       <c r="E138" s="7" t="s">
@@ -5568,7 +5621,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A139" s="49">
+      <c r="A139" s="48">
         <v>138</v>
       </c>
       <c r="E139" s="7" t="s">
@@ -5576,7 +5629,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A140" s="49">
+      <c r="A140" s="48">
         <v>139</v>
       </c>
       <c r="D140" s="5" t="s">
@@ -5587,7 +5640,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A141" s="49">
+      <c r="A141" s="48">
         <v>140</v>
       </c>
       <c r="E141" s="7" t="s">
@@ -5598,7 +5651,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A142" s="49">
+      <c r="A142" s="48">
         <v>141</v>
       </c>
       <c r="E142" s="7" t="s">
@@ -5606,7 +5659,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A143" s="49">
+      <c r="A143" s="48">
         <v>142</v>
       </c>
       <c r="E143" s="7" t="s">
@@ -5614,7 +5667,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A144" s="49">
+      <c r="A144" s="48">
         <v>143</v>
       </c>
       <c r="E144" s="7" t="s">
@@ -5622,7 +5675,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A145" s="49">
+      <c r="A145" s="48">
         <v>144</v>
       </c>
       <c r="E145" s="7" t="s">
@@ -5630,7 +5683,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A146" s="49">
+      <c r="A146" s="48">
         <v>145</v>
       </c>
       <c r="E146" s="7" t="s">
@@ -5638,7 +5691,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A147" s="49">
+      <c r="A147" s="48">
         <v>146</v>
       </c>
       <c r="E147" s="7" t="s">
@@ -5646,7 +5699,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A148" s="49">
+      <c r="A148" s="48">
         <v>147</v>
       </c>
       <c r="D148" s="5" t="s">
@@ -5657,7 +5710,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A149" s="49">
+      <c r="A149" s="48">
         <v>148</v>
       </c>
       <c r="E149" s="7" t="s">
@@ -5668,7 +5721,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A150" s="49">
+      <c r="A150" s="48">
         <v>149</v>
       </c>
       <c r="E150" s="7" t="s">
@@ -5676,7 +5729,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A151" s="49">
+      <c r="A151" s="48">
         <v>150</v>
       </c>
       <c r="E151" s="7" t="s">
@@ -5684,7 +5737,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A152" s="49">
+      <c r="A152" s="48">
         <v>151</v>
       </c>
       <c r="E152" s="7" t="s">
@@ -5692,7 +5745,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A153" s="49">
+      <c r="A153" s="48">
         <v>152</v>
       </c>
       <c r="E153" s="7" t="s">
@@ -5700,7 +5753,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A154" s="49">
+      <c r="A154" s="48">
         <v>153</v>
       </c>
       <c r="E154" s="7" t="s">
@@ -5708,7 +5761,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A155" s="49">
+      <c r="A155" s="48">
         <v>154</v>
       </c>
       <c r="C155" s="3" t="s">
@@ -5716,7 +5769,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A156" s="49">
+      <c r="A156" s="48">
         <v>155</v>
       </c>
       <c r="D156" s="5" t="s">
@@ -5727,7 +5780,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A157" s="49">
+      <c r="A157" s="48">
         <v>156</v>
       </c>
       <c r="D157" s="5" t="s">
@@ -5735,7 +5788,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A158" s="49">
+      <c r="A158" s="48">
         <v>157</v>
       </c>
       <c r="C158" s="3" t="s">
@@ -5743,7 +5796,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A159" s="49">
+      <c r="A159" s="48">
         <v>158</v>
       </c>
       <c r="C159" s="3" t="s">
@@ -5751,7 +5804,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A160" s="49">
+      <c r="A160" s="48">
         <v>159</v>
       </c>
       <c r="C160" s="3" t="s">
@@ -5779,22 +5832,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="47" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="44" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="1:3" s="43" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="47">
+      <c r="A2" s="46">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -5805,7 +5858,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="47">
+      <c r="A3" s="46">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -5816,7 +5869,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="47">
+      <c r="A4" s="46">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -5824,7 +5877,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="47">
+      <c r="A5" s="46">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -5835,7 +5888,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="47">
+      <c r="A6" s="46">
         <v>5</v>
       </c>
       <c r="C6" t="s">
@@ -5843,7 +5896,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="47">
+      <c r="A7" s="46">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -5854,117 +5907,117 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="47">
+      <c r="A8" s="46">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="47">
+      <c r="A9" s="46">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="47">
+      <c r="A10" s="46">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="47">
+      <c r="A11" s="46">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="47">
+      <c r="A12" s="46">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="47">
+      <c r="A13" s="46">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="47">
+      <c r="A14" s="46">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="47">
+      <c r="A15" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="47">
+      <c r="A16" s="46">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="47">
+      <c r="A17" s="46">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="47">
+      <c r="A18" s="46">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="47">
+      <c r="A19" s="46">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="47">
+      <c r="A20" s="46">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="47">
+      <c r="A21" s="46">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="47">
+      <c r="A22" s="46">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="47">
+      <c r="A23" s="46">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" s="47">
+      <c r="A24" s="46">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" s="47">
+      <c r="A25" s="46">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="47">
+      <c r="A26" s="46">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="47">
+      <c r="A27" s="46">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="47">
+      <c r="A28" s="46">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" s="47">
+      <c r="A29" s="46">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" s="47">
+      <c r="A30" s="46">
         <v>29</v>
       </c>
     </row>
@@ -5984,24 +6037,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.796875" style="47" customWidth="1"/>
+    <col min="1" max="1" width="5.796875" style="46" customWidth="1"/>
     <col min="3" max="3" width="79.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="43" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:4" s="42" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="D1" s="45"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" ht="52.8" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="47">
+      <c r="A2" s="46">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -6012,72 +6065,72 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="47">
+      <c r="A3" s="46">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="47">
+      <c r="A4" s="46">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="47">
+      <c r="A5" s="46">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="47">
+      <c r="A6" s="46">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="47">
+      <c r="A7" s="46">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="47">
+      <c r="A8" s="46">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="47">
+      <c r="A9" s="46">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="47">
+      <c r="A10" s="46">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="47">
+      <c r="A11" s="46">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="47">
+      <c r="A12" s="46">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="47">
+      <c r="A13" s="46">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="47">
+      <c r="A14" s="46">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="47">
+      <c r="A15" s="46">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="47">
+      <c r="A16" s="46">
         <v>15</v>
       </c>
     </row>

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="283">
   <si>
     <t>업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1051,10 +1051,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>선택한 날짜에 해당하는 배정대상 목록 보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1093,11 +1089,149 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select staff_id from branch_staffs where leave_date is not null;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>찬영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select m.TASK, s.SPACE_TYPE
+from MANUAL_TASKS m inner join SPACE_TYPES s
+on m.SPACE_TYPES_SEQ=s.SPACE_TYPES_SEQ
+order by m.SPACE_TYPES_SEQ asc, m.MANUAL_TASKS_SEQ asc;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select task_type from task_types;</t>
+  </si>
+  <si>
+    <t>select distinct space_type from manual_tasks m, space_types s, task_types t 
+where m.space_types_seq = s.space_types_seq and m.task_types_seq = t.task_types_seq and t.task_type=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select task, repeat_type, repeat_detail from manual_tasks m, space_types s, task_types t 
+where m.space_types_seq = s.space_types_seq and m.task_types_seq = t.task_types_seq and s.space_type=? and t.task_type=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무배정 페이지 이벤트 구현
+업무배정 관련 기능 SQL추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일업무 더미데이터 문서정리
+업무배정 관련 기능 SQL추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일업무 더미데이터 문서정리
+일일업무 관련 기능 SQL추출
+지점직원정보 table 물리모델링
+지점직원정보 더미데이터 insert
+지점직원정보 관련 기능 SQL추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일업무 더미데이터 insert
+업무배정 관련 기능 SQL추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>논리모델링 수정
+지점직원정보 table 물리모델링
+매뉴얼업무 관련 기능 SQL추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select m.TASK, s.SPACE_TYPE
+from MANUAL_TASKS m, SPACE_TYPES s 
+where m.SPACE_TYPES_SEQ=s.SPACE_TYPES_SEQ
+order by m.SPACE_TYPES_SEQ asc, m.MANUAL_TASKS_SEQ asc;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 직접인지, 매뉴얼 업무인지 판별
+select manual_tasks_seq from manual_tasks where task=?
+2-1. 직접일 경우
+update daily_tasks set assign_type=?, assign_detail=? where assign_date=? and assign_detail=? and input_task=?
+2-2. 매뉴얼일 경우
+update daily_tasks set assign_type=?, assign_detail=? where assign_date=? and manual_tasks_seq=(select m.manual_tasks_seq from manual_tasks m where task=?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 매뉴얼 목록에서 배정된 업무를 삭제
+delete daily_tasks where assign_date=? and assign_type=? and assign_detail=? and manual_tasks_seq=(select m.manual_tasks_seq from manual_tasks m where task=?) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 직접 입력 목록에서 배정된 업무를 삭제
+delete daily_tasks where assgin_date=? and assign_type=? and assign_detail=? and input_task=?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.매뉴얼에서 선택
+insert into daily_tasks (daily_tasks_seq, input_task, assign_date, importance, assign_type, assign_detail, manual_tasks_seq, finisher_id, finisher_name, assigner_id, branch_seq) 
+values(daily_tasks_seq.nextval, null, ?, ?, ?, ?, (select manual_tasks_seq from manual_tasks where task=?), null, null, ?, ?);
+2.직접입력
+insert into daily_tasks (daily_tasks_seq, input_task, assign_date, importance, assign_type, assign_detail, manual_tasks_seq, finisher_id, finisher_name, assigner_id, branch_seq) 
+values(daily_tasks_seq.nextval, ?, ?, ?, ?, ?, null, null, null, ?, ?);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1.매뉴얼-&gt;매뉴얼
+update daily_tasks
+set manual_tasks_seq=(select manual_tasks_seq from manual_tasks where task=?)
+where assign_date=? and assign_detail=? and manual_tasks_seq=(select manual_tasks_seq from manual_tasks where task=?)
+1-2.매뉴얼-&gt;직접
+update daily_tasks
+set input_task=?, manual_tasks_seq=null
+where assign_date=? and assign_detail=? and manual_tasks_seq=(select manual_tasks_seq from manual_tasks where task=?)
+2-1.직접-&gt;매뉴얼
+update daily_tasks
+set manual_tasks_seq = (select manual_tasks_seq from manual_tasks where task=?), input_task=null
+where assign_date=? and assign_detail=? and input_task=?
+2-2.직접-&gt;직접
+update daily_tasks
+set input_task=?
+where assign_date=? and assign_detail=? and input_task=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select distinct assign_detail from daily_tasks where assign_type='파트' and assign_date = ?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.파트별 업무보기
+1-1.매뉴얼에서 선택한 업무
+select d.importance, m.task, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_tasks_seq=m.manual_tasks_seq and d.assign_detail='오픈' and d.assign_date='2018/05/09';
+select d.importance, m.task, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_tasks_seq=m.manual_tasks_seq and d.assign_detail=? and d.assign_date=?;
+1-2.직접입력 업무
+select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_detail='마감' and assign_date='2018/05/07';
+select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_detail=? and assign_date=?;
+2.개인업무로 배정된 업무 보기
+2-1.매뉴얼에서 선택한 업무
+select d.importance, m.task, d.assign_detail, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_tasks_seq=m.manual_tasks_seq and d.assign_type='개인' and d.assign_date='2018/05/09';
+select d.importance, m.task, d.assign_detail, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_tasks_seq=m.manual_tasks_seq and d.assign_type='개인' and d.assign_date=?;
+2-2.직접입력 업무
+select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_type='개인' and assign_date='2018/05/09';
+select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_type='개인' and assign_date=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select staff_id from branch_staffs where leave_date is null;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1306,7 +1440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1478,9 +1612,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1491,6 +1622,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1818,7 +1955,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1826,11 +1963,11 @@
     <col min="1" max="1" width="8.796875" style="40"/>
     <col min="2" max="2" width="16.09765625" style="25" customWidth="1"/>
     <col min="3" max="3" width="31.09765625" customWidth="1"/>
-    <col min="4" max="4" width="25.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.796875" customWidth="1"/>
-    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.19921875" customWidth="1"/>
+    <col min="5" max="5" width="32.8984375" customWidth="1"/>
+    <col min="6" max="6" width="31.5" customWidth="1"/>
+    <col min="7" max="7" width="33.69921875" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="11" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -1999,6 +2136,21 @@
       </c>
       <c r="C19" s="38" t="s">
         <v>225</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2212,8 +2364,8 @@
   <dimension ref="A1:K155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H155" sqref="H155"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2235,11 +2387,11 @@
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2286,7 +2438,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="31"/>
@@ -2302,7 +2454,7 @@
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="31"/>
@@ -2652,44 +2804,54 @@
       <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="D24" s="56"/>
+      <c r="E24" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" t="s">
+      <c r="G24" s="61"/>
+      <c r="H24" s="57" t="s">
         <v>43</v>
       </c>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="18">
         <v>24</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" t="s">
+      <c r="D25" s="56"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="57" t="s">
         <v>46</v>
       </c>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="18">
         <v>25</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="18">
@@ -4166,8 +4328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4187,11 +4349,11 @@
       <c r="B1" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="16" t="s">
         <v>2</v>
       </c>
@@ -4224,14 +4386,14 @@
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="348" x14ac:dyDescent="0.4">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -4240,11 +4402,11 @@
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E5" s="30"/>
-      <c r="F5" s="31" t="s">
-        <v>5</v>
+      <c r="F5" s="33" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -4287,7 +4449,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -4300,7 +4462,7 @@
       <c r="D11" s="35"/>
       <c r="E11" s="30"/>
       <c r="F11" s="33" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -4351,20 +4513,20 @@
       <c r="E15" s="47"/>
       <c r="F15" s="48"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A16" s="18">
         <v>15</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="12" t="s">
         <v>158</v>
       </c>
       <c r="E16" s="13"/>
-      <c r="F16" s="15" t="s">
-        <v>5</v>
+      <c r="F16" s="14" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -4455,32 +4617,32 @@
       <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="B24" s="59" t="s">
-        <v>266</v>
-      </c>
-      <c r="C24" s="60"/>
+      <c r="B24" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="C24" s="59"/>
       <c r="D24" s="55" t="s">
         <v>45</v>
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="18">
         <v>24</v>
       </c>
-      <c r="B25" s="59" t="s">
-        <v>266</v>
-      </c>
-      <c r="C25" s="60"/>
+      <c r="B25" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25" s="59"/>
       <c r="D25" s="55" t="s">
         <v>44</v>
       </c>
       <c r="E25" s="56"/>
-      <c r="F25" s="58" t="s">
-        <v>265</v>
+      <c r="F25" s="57" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -4491,7 +4653,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="278.39999999999998" x14ac:dyDescent="0.4">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -4503,8 +4665,8 @@
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="30"/>
-      <c r="F27" s="31" t="s">
-        <v>15</v>
+      <c r="F27" s="33" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -4543,7 +4705,7 @@
         <v>162</v>
       </c>
       <c r="F31" t="s">
-        <v>5</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -4558,7 +4720,7 @@
       <c r="E32" s="47"/>
       <c r="F32" s="48"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A33" s="18">
         <v>32</v>
       </c>
@@ -4570,8 +4732,8 @@
         <v>158</v>
       </c>
       <c r="E33" s="13"/>
-      <c r="F33" s="15" t="s">
-        <v>5</v>
+      <c r="F33" s="14" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -4654,7 +4816,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A41" s="18">
         <v>40</v>
       </c>
@@ -4666,23 +4828,23 @@
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="30"/>
-      <c r="F41" s="31" t="s">
-        <v>15</v>
+      <c r="F41" s="33" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="18">
         <v>41</v>
       </c>
-      <c r="B42" s="59" t="s">
-        <v>263</v>
-      </c>
-      <c r="C42" s="60"/>
+      <c r="B42" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="C42" s="59"/>
       <c r="D42" s="55" t="s">
         <v>45</v>
       </c>
       <c r="E42" s="56"/>
-      <c r="F42" s="58" t="s">
+      <c r="F42" s="57" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4690,15 +4852,15 @@
       <c r="A43" s="18">
         <v>42</v>
       </c>
-      <c r="B43" s="59" t="s">
-        <v>263</v>
-      </c>
-      <c r="C43" s="60"/>
+      <c r="B43" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="C43" s="59"/>
       <c r="D43" s="55" t="s">
         <v>44</v>
       </c>
       <c r="E43" s="56"/>
-      <c r="F43" s="58" t="s">
+      <c r="F43" s="57" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4710,7 +4872,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" ht="87" x14ac:dyDescent="0.4">
       <c r="A45" s="18">
         <v>44</v>
       </c>
@@ -4722,8 +4884,8 @@
       </c>
       <c r="D45" s="29"/>
       <c r="E45" s="30"/>
-      <c r="F45" s="31" t="s">
-        <v>13</v>
+      <c r="F45" s="33" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
@@ -4771,7 +4933,7 @@
         <v>159</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
@@ -4787,7 +4949,7 @@
         <v>161</v>
       </c>
       <c r="F50" s="41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -4803,7 +4965,7 @@
         <v>163</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
@@ -4830,9 +4992,11 @@
       <c r="E53" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F53" s="15"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F53" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A54" s="18">
         <v>53</v>
       </c>
@@ -4844,9 +5008,11 @@
       <c r="E54" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="F54" s="41"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F54" s="41" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A55" s="18">
         <v>54</v>
       </c>
@@ -4858,7 +5024,9 @@
       <c r="E55" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="F55" s="14"/>
+      <c r="F55" s="14" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="48">

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="진행일정" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="292">
   <si>
     <t>업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -766,9 +766,6 @@
   </si>
   <si>
     <t>모델링</t>
-  </si>
-  <si>
-    <t>인터페이스, DAO(SQL, UI 참고)</t>
   </si>
   <si>
     <t>서블릿 컨테이너 시작</t>
@@ -937,11 +934,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select distinct task_type from manual_tasks m, space_types s, task_types t 
-where m.space_types_seq = s.space_types_seq and m.task_types_seq = t.task_types_seq and s.space_type=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select task, repeat_type, repeat_detail from manual_tasks m, space_types s, task_types t 
 where m.space_types_seq = s.space_types_seq and m.task_types_seq = t.task_types_seq and s.space_type=? and t.task_type=?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1067,48 +1059,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select space_type from space_types;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select distinct task_type from manual_tasks m, space_types s, task_types t 
-where m.space_types_seq = s.space_types_seq and m.task_types_seq = t.task_types_seq and s.space_type=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select task, repeat_type, repeat_detail from manual_tasks m, space_types s, task_types t 
-where m.space_types_seq = s.space_types_seq and m.task_types_seq = t.task_types_seq and s.space_type=? and t.task_type=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>same</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select distinct work_part from branch_staffs where leave_date is null;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>찬영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select m.TASK, s.SPACE_TYPE
-from MANUAL_TASKS m inner join SPACE_TYPES s
-on m.SPACE_TYPES_SEQ=s.SPACE_TYPES_SEQ
-order by m.SPACE_TYPES_SEQ asc, m.MANUAL_TASKS_SEQ asc;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select task_type from task_types;</t>
-  </si>
-  <si>
-    <t>select distinct space_type from manual_tasks m, space_types s, task_types t 
-where m.space_types_seq = s.space_types_seq and m.task_types_seq = t.task_types_seq and t.task_type=?;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1143,22 +1102,6 @@
     <t>논리모델링 수정
 지점직원정보 table 물리모델링
 매뉴얼업무 관련 기능 SQL추출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select m.TASK, s.SPACE_TYPE
-from MANUAL_TASKS m, SPACE_TYPES s 
-where m.SPACE_TYPES_SEQ=s.SPACE_TYPES_SEQ
-order by m.SPACE_TYPES_SEQ asc, m.MANUAL_TASKS_SEQ asc;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 직접인지, 매뉴얼 업무인지 판별
-select manual_tasks_seq from manual_tasks where task=?
-2-1. 직접일 경우
-update daily_tasks set assign_type=?, assign_detail=? where assign_date=? and assign_detail=? and input_task=?
-2-2. 매뉴얼일 경우
-update daily_tasks set assign_type=?, assign_detail=? where assign_date=? and manual_tasks_seq=(select m.manual_tasks_seq from manual_tasks m where task=?)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1191,6 +1134,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>select distinct assign_detail from daily_tasks where assign_type='파트' and assign_date = ?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAO 인터페이스 설계
+직원관련 table들 물리모델링
+직원관련 table 더미데이터 작성
+직원조회 관련 기능 SQL문 추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.파트별 업무보기
+1-1.매뉴얼에서 선택한 업무
+select d.importance, m.task, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_tasks_seq=m.manual_tasks_seq and d.assign_detail='오픈' and d.assign_date='2018/05/09';
+select d.importance, m.task, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_tasks_seq=m.manual_tasks_seq and d.assign_detail=? and d.assign_date=?;
+1-2.직접입력 업무
+select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_detail='마감' and assign_date='2018/05/07';
+select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_detail=? and assign_date=?;
+2.개인업무로 배정된 업무 보기
+2-1.매뉴얼에서 선택한 업무
+select d.importance, m.task, d.assign_detail, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_tasks_seq=m.manual_tasks_seq and d.assign_type='개인' and d.assign_date='2018/05/09';
+select d.importance, m.task, d.assign_detail, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_tasks_seq=m.manual_tasks_seq and d.assign_type='개인' and d.assign_date=?;
+2-2.직접입력 업무
+select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_type='개인' and assign_date='2018/05/09';
+select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_type='개인' and assign_date=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select m.TASK, s.SPACE_TYPE
+from MANUAL_TASKS m, SPACE_TYPES s 
+where m.SPACE_TYPES_SEQ=s.SPACE_TYPES_SEQ
+order by m.SPACE_TYPES_SEQ asc, m.MANUAL_TASKS_SEQ asc;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select distinct task_type from manual_tasks m, space_types s, task_types t 
+where m.space_types_seq = s.space_types_seq and m.task_types_seq = t.task_types_seq and s.space_type=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select distinct work_part from branch_staffs where leave_date is null;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select staff_id from branch_staffs where leave_date is null;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1-1.매뉴얼-&gt;매뉴얼
 update daily_tasks
 set manual_tasks_seq=(select manual_tasks_seq from manual_tasks where task=?)
@@ -1210,28 +1209,69 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select distinct assign_detail from daily_tasks where assign_type='파트' and assign_date = ?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.파트별 업무보기
-1-1.매뉴얼에서 선택한 업무
-select d.importance, m.task, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_tasks_seq=m.manual_tasks_seq and d.assign_detail='오픈' and d.assign_date='2018/05/09';
-select d.importance, m.task, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_tasks_seq=m.manual_tasks_seq and d.assign_detail=? and d.assign_date=?;
-1-2.직접입력 업무
-select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_detail='마감' and assign_date='2018/05/07';
-select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_detail=? and assign_date=?;
-2.개인업무로 배정된 업무 보기
-2-1.매뉴얼에서 선택한 업무
-select d.importance, m.task, d.assign_detail, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_tasks_seq=m.manual_tasks_seq and d.assign_type='개인' and d.assign_date='2018/05/09';
-select d.importance, m.task, d.assign_detail, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_tasks_seq=m.manual_tasks_seq and d.assign_type='개인' and d.assign_date=?;
-2-2.직접입력 업무
-select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_type='개인' and assign_date='2018/05/09';
-select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_type='개인' and assign_date=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select staff_id from branch_staffs where leave_date is null;</t>
+    <t>select m.TASK, s.SPACE_TYPE
+from MANUAL_TASKS m inner join SPACE_TYPES s
+on m.SPACE_TYPES_SEQ=s.SPACE_TYPES_SEQ
+order by m.SPACE_TYPES_SEQ asc, m.MANUAL_TASKS_SEQ asc;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select space_type from space_types;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select task, repeat_type, repeat_detail from manual_tasks m, space_types s, task_types t 
+where m.space_types_seq = s.space_types_seq and m.task_types_seq = t.task_types_seq and s.space_type=? and t.task_type=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 직접인지, 매뉴얼 업무인지 판별
+select manual_tasks_seq from manual_tasks where task=?
+2-1. 직접일 경우
+update daily_tasks set assign_type=?, assign_detail=? where assign_date=? and assign_detail=? and input_task=?
+2-2. 매뉴얼일 경우
+update daily_tasks set assign_type=?, assign_detail=? where assign_date=? and manual_tasks_seq=(select m.manual_tasks_seq from manual_tasks m where task=?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select space_type from space_types;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select task_type from task_types;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select distinct space_type from manual_tasks m, space_types s, task_types t 
+where m.space_types_seq = s.space_types_seq and m.task_types_seq = t.task_types_seq and t.task_type=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1621,13 +1661,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1954,8 +1994,8 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1972,28 +2012,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="11" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>197</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
@@ -2104,7 +2144,7 @@
         <v>186</v>
       </c>
       <c r="G17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="87" x14ac:dyDescent="0.4">
@@ -2112,22 +2152,22 @@
         <v>43230</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="G18" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="87" x14ac:dyDescent="0.4">
@@ -2135,22 +2175,22 @@
         <v>43231</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2165,12 +2205,12 @@
       </c>
       <c r="C21" s="19"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B22" s="23">
         <v>43234</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>187</v>
+      <c r="C22" s="38" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -2184,12 +2224,12 @@
         <v>43236</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B25" s="21">
         <v>43237</v>
@@ -2198,7 +2238,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B26" s="21">
         <v>43238</v>
@@ -2219,7 +2259,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B29" s="21">
         <v>43241</v>
@@ -2228,7 +2268,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B30" s="21">
         <v>43242</v>
@@ -2270,7 +2310,7 @@
         <v>43248</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
@@ -2284,12 +2324,12 @@
         <v>43250</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B39" s="21">
         <v>43251</v>
@@ -2325,7 +2365,7 @@
         <v>43256</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
@@ -2345,7 +2385,7 @@
         <v>43259</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
@@ -2363,9 +2403,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2387,11 +2427,11 @@
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2438,7 +2478,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="29" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="31"/>
@@ -2454,12 +2494,12 @@
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="29" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="31"/>
       <c r="F4" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G4" s="31"/>
       <c r="H4" s="31" t="s">
@@ -2479,7 +2519,7 @@
       <c r="D5" s="30"/>
       <c r="E5" s="31"/>
       <c r="F5" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="31" t="s">
@@ -2581,7 +2621,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G11" s="31"/>
       <c r="H11" s="31" t="s">
@@ -2610,7 +2650,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" t="s">
@@ -2626,7 +2666,7 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
@@ -2638,7 +2678,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="15"/>
@@ -2658,16 +2698,16 @@
       <c r="D16" s="13"/>
       <c r="E16" s="15"/>
       <c r="F16" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J16" s="26"/>
     </row>
@@ -2696,16 +2736,16 @@
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J18" s="26"/>
     </row>
@@ -2719,16 +2759,16 @@
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J19" s="26"/>
     </row>
@@ -2742,16 +2782,16 @@
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J20" s="26"/>
     </row>
@@ -2790,7 +2830,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="33"/>
@@ -2808,18 +2848,18 @@
         <v>45</v>
       </c>
       <c r="D24" s="56"/>
-      <c r="E24" s="61" t="s">
+      <c r="E24" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="F24" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="G24" s="61"/>
+      <c r="F24" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" s="60"/>
       <c r="H24" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="18">
@@ -2829,14 +2869,14 @@
         <v>44</v>
       </c>
       <c r="D25" s="56"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
       <c r="H25" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="18">
@@ -2846,12 +2886,12 @@
         <v>164</v>
       </c>
       <c r="D26" s="56"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
       <c r="H26" s="57"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="18">
@@ -3237,7 +3277,7 @@
         <v>5</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J48" s="26"/>
     </row>
@@ -3257,7 +3297,7 @@
         <v>5</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J49" s="26"/>
     </row>
@@ -4328,8 +4368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4347,15 +4387,15 @@
         <v>33</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>242</v>
-      </c>
-      <c r="C1" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
       <c r="F1" s="16" t="s">
-        <v>2</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
@@ -4374,7 +4414,7 @@
       <c r="B3" s="50"/>
       <c r="C3" s="17"/>
       <c r="D3" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -4382,15 +4422,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="29" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="31" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="348" x14ac:dyDescent="0.4">
@@ -4398,15 +4438,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="29" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="33" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -4454,7 +4494,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>6</v>
@@ -4462,7 +4502,7 @@
       <c r="D11" s="35"/>
       <c r="E11" s="30"/>
       <c r="F11" s="33" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -4498,7 +4538,7 @@
         <v>162</v>
       </c>
       <c r="F14" s="48" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -4508,7 +4548,7 @@
       <c r="B15" s="50"/>
       <c r="C15" s="17"/>
       <c r="D15" s="49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="48"/>
@@ -4518,7 +4558,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="12" t="s">
@@ -4526,7 +4566,7 @@
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -4546,7 +4586,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="12"/>
@@ -4554,7 +4594,7 @@
         <v>159</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
@@ -4562,7 +4602,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="12"/>
@@ -4570,7 +4610,7 @@
         <v>161</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -4578,7 +4618,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="12"/>
@@ -4586,7 +4626,7 @@
         <v>163</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -4610,7 +4650,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
@@ -4618,7 +4658,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C24" s="59"/>
       <c r="D24" s="55" t="s">
@@ -4626,7 +4666,7 @@
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="57" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -4634,7 +4674,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C25" s="59"/>
       <c r="D25" s="55" t="s">
@@ -4642,7 +4682,7 @@
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="57" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -4658,7 +4698,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C27" s="34" t="s">
         <v>8</v>
@@ -4666,7 +4706,7 @@
       <c r="D27" s="35"/>
       <c r="E27" s="30"/>
       <c r="F27" s="33" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -4694,7 +4734,7 @@
         <v>159</v>
       </c>
       <c r="F30" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
@@ -4705,7 +4745,7 @@
         <v>162</v>
       </c>
       <c r="F31" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -4715,7 +4755,7 @@
       <c r="B32" s="50"/>
       <c r="C32" s="17"/>
       <c r="D32" s="49" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="48"/>
@@ -4725,7 +4765,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="53" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C33" s="27"/>
       <c r="D33" s="12" t="s">
@@ -4733,7 +4773,7 @@
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="14" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -4749,7 +4789,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="53" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="12"/>
@@ -4757,7 +4797,7 @@
         <v>159</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
@@ -4765,7 +4805,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="53" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="12"/>
@@ -4773,7 +4813,7 @@
         <v>161</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -4781,7 +4821,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="53" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="12"/>
@@ -4789,7 +4829,7 @@
         <v>163</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>228</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -4821,7 +4861,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="51" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C41" s="34" t="s">
         <v>9</v>
@@ -4829,7 +4869,7 @@
       <c r="D41" s="35"/>
       <c r="E41" s="30"/>
       <c r="F41" s="33" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
@@ -4837,7 +4877,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="58" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C42" s="59"/>
       <c r="D42" s="55" t="s">
@@ -4845,7 +4885,7 @@
       </c>
       <c r="E42" s="56"/>
       <c r="F42" s="57" t="s">
-        <v>173</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
@@ -4853,7 +4893,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="58" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C43" s="59"/>
       <c r="D43" s="55" t="s">
@@ -4877,7 +4917,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>11</v>
@@ -4885,7 +4925,7 @@
       <c r="D45" s="29"/>
       <c r="E45" s="30"/>
       <c r="F45" s="33" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
@@ -4925,7 +4965,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C49" s="27"/>
       <c r="D49" s="12"/>
@@ -4933,7 +4973,7 @@
         <v>159</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
@@ -4941,7 +4981,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="53" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="12"/>
@@ -4949,7 +4989,7 @@
         <v>161</v>
       </c>
       <c r="F50" s="41" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -4957,7 +4997,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="53" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="12"/>
@@ -4965,7 +5005,7 @@
         <v>163</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
@@ -4985,15 +5025,15 @@
         <v>52</v>
       </c>
       <c r="B53" s="53" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C53" s="27"/>
       <c r="D53" s="12"/>
       <c r="E53" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
@@ -5001,15 +5041,15 @@
         <v>53</v>
       </c>
       <c r="B54" s="53" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C54" s="27"/>
       <c r="D54" s="12"/>
       <c r="E54" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F54" s="41" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -5017,15 +5057,15 @@
         <v>54</v>
       </c>
       <c r="B55" s="53" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C55" s="27"/>
       <c r="D55" s="12"/>
       <c r="E55" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
@@ -5066,7 +5106,7 @@
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>286</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
@@ -5088,7 +5128,7 @@
         <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
@@ -5099,7 +5139,7 @@
         <v>23</v>
       </c>
       <c r="F62" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
@@ -5121,7 +5161,7 @@
         <v>24</v>
       </c>
       <c r="F64" t="s">
-        <v>5</v>
+        <v>282</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
@@ -5164,7 +5204,7 @@
         <v>26</v>
       </c>
       <c r="F69" t="s">
-        <v>27</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
@@ -5210,7 +5250,7 @@
         <v>76</v>
       </c>
       <c r="F74" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
@@ -5237,7 +5277,7 @@
         <v>68</v>
       </c>
       <c r="F77" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
@@ -5387,7 +5427,7 @@
         <v>76</v>
       </c>
       <c r="F95" t="s">
-        <v>5</v>
+        <v>282</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.4">
@@ -5398,7 +5438,7 @@
         <v>35</v>
       </c>
       <c r="F96" t="s">
-        <v>15</v>
+        <v>290</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.4">
@@ -5463,7 +5503,7 @@
         <v>76</v>
       </c>
       <c r="F103" t="s">
-        <v>5</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.4">
@@ -5474,7 +5514,7 @@
         <v>88</v>
       </c>
       <c r="F104" t="s">
-        <v>5</v>
+        <v>282</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.4">
@@ -5528,7 +5568,7 @@
         <v>91</v>
       </c>
       <c r="F110" t="s">
-        <v>5</v>
+        <v>282</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.4">
@@ -5539,7 +5579,7 @@
         <v>92</v>
       </c>
       <c r="F111" t="s">
-        <v>5</v>
+        <v>291</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.4">
@@ -5561,7 +5601,7 @@
         <v>95</v>
       </c>
       <c r="F113" t="s">
-        <v>5</v>
+        <v>282</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.4">
@@ -5572,7 +5612,7 @@
         <v>103</v>
       </c>
       <c r="F114" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.4">
@@ -5664,7 +5704,7 @@
         <v>133</v>
       </c>
       <c r="F124" t="s">
-        <v>15</v>
+        <v>287</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.4">
@@ -5777,7 +5817,7 @@
         <v>113</v>
       </c>
       <c r="F137" t="s">
-        <v>5</v>
+        <v>272</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.4">
@@ -5804,7 +5844,7 @@
         <v>108</v>
       </c>
       <c r="F140" t="s">
-        <v>15</v>
+        <v>290</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.4">
@@ -5944,7 +5984,7 @@
         <v>143</v>
       </c>
       <c r="F156" t="s">
-        <v>5</v>
+        <v>291</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.4">
@@ -6005,13 +6045,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="43" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="45" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
@@ -6019,10 +6059,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -6030,10 +6070,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" t="s">
         <v>231</v>
-      </c>
-      <c r="C3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -6041,7 +6081,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -6049,10 +6089,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -6060,7 +6100,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -6068,10 +6108,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -6214,10 +6254,10 @@
         <v>33</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D1" s="44"/>
     </row>
@@ -6226,10 +6266,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="317">
   <si>
     <t>업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -808,38 +808,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>공간분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>매뉴얼업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>업무분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매뉴얼업무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매뉴얼업무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MANUAL_TASKS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SPACE_TYPES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TASK_TYPES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>매뉴얼 업무 검색해서 선택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -852,10 +832,6 @@
   </si>
   <si>
     <t>ManualDAO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일일업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1272,6 +1248,158 @@
   </si>
   <si>
     <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAILY_TASKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAILY_TASKS
+MANUAL_TASKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일업무
+매뉴얼업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일업무
+매뉴얼업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANUAL_TASKS
+SPACE_TYPES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매뉴얼업무
+공간분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPACE_TYPES
+TASK_TYPES
+MANUAL_TASKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간분류
+업무분류
+매뉴얼업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간분류
+업무분류
+매뉴얼업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRANCH_STAFFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점_직원정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점_직원정보
+직원인증정보
+회원정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRANCH_STAFFS
+STAFFS
+USERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAILY_TASKS
+MANUAL_TASKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일업무
+매뉴얼업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANUAL_TASKS
+SPACE_TYPES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매뉴얼업무
+공간분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPACE_TYPES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPACE_TYPES
+TASK_TYPES
+MANUAL_TASKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간분류
+업무분류
+매뉴얼업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANUAL_TASKS
+DAILY_TASKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매뉴얼업무
+일일업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일업무
+매뉴얼업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간분류
+업무분류
+매뉴얼업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaffDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManualDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManualDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManualDAO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1480,7 +1608,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1668,6 +1796,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2012,7 +2146,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="11" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>191</v>
@@ -2144,7 +2278,7 @@
         <v>186</v>
       </c>
       <c r="G17" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="87" x14ac:dyDescent="0.4">
@@ -2152,22 +2286,22 @@
         <v>43230</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="87" x14ac:dyDescent="0.4">
@@ -2175,22 +2309,22 @@
         <v>43231</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2210,7 +2344,7 @@
         <v>43234</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -2229,7 +2363,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="40" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B25" s="21">
         <v>43237</v>
@@ -2238,7 +2372,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="40" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B26" s="21">
         <v>43238</v>
@@ -2259,7 +2393,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="40" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B29" s="21">
         <v>43241</v>
@@ -2268,7 +2402,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="40" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B30" s="21">
         <v>43242</v>
@@ -2324,12 +2458,12 @@
         <v>43250</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="40" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B39" s="21">
         <v>43251</v>
@@ -2404,8 +2538,8 @@
   <dimension ref="A1:K155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2478,7 +2612,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="29" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="31"/>
@@ -2494,21 +2628,25 @@
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="29" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="31"/>
       <c r="F4" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="G4" s="31"/>
+        <v>205</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>286</v>
+      </c>
       <c r="H4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="32"/>
+      <c r="I4" s="32" t="s">
+        <v>311</v>
+      </c>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -2518,14 +2656,18 @@
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="G5" s="31"/>
+      <c r="F5" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>287</v>
+      </c>
       <c r="H5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="32"/>
+      <c r="I5" s="32" t="s">
+        <v>312</v>
+      </c>
       <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -2608,7 +2750,7 @@
       <c r="I10" s="32"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -2620,14 +2762,18 @@
       <c r="E11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="G11" s="31"/>
+      <c r="F11" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>287</v>
+      </c>
       <c r="H11" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="32"/>
+      <c r="I11" s="32" t="s">
+        <v>312</v>
+      </c>
       <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -2650,7 +2796,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" t="s">
@@ -2666,7 +2812,7 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
@@ -2678,7 +2824,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="15"/>
@@ -2688,7 +2834,7 @@
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -2698,16 +2844,16 @@
       <c r="D16" s="13"/>
       <c r="E16" s="15"/>
       <c r="F16" s="14" t="s">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J16" s="26"/>
     </row>
@@ -2736,20 +2882,20 @@
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>200</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>204</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J18" s="26"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -2759,20 +2905,20 @@
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="14" t="s">
-        <v>199</v>
+        <v>293</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>205</v>
+        <v>292</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J19" s="26"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -2782,16 +2928,16 @@
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="14" t="s">
-        <v>201</v>
+        <v>294</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>203</v>
+        <v>292</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J20" s="26"/>
     </row>
@@ -2830,7 +2976,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="33"/>
@@ -2852,16 +2998,20 @@
         <v>175</v>
       </c>
       <c r="F24" s="60" t="s">
-        <v>211</v>
-      </c>
-      <c r="G24" s="60"/>
+        <v>296</v>
+      </c>
+      <c r="G24" s="60" t="s">
+        <v>295</v>
+      </c>
       <c r="H24" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="61"/>
+      <c r="I24" s="61" t="s">
+        <v>313</v>
+      </c>
       <c r="J24" s="61"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A25" s="18">
         <v>24</v>
       </c>
@@ -2870,12 +3020,18 @@
       </c>
       <c r="D25" s="56"/>
       <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
+      <c r="F25" s="60" t="s">
+        <v>297</v>
+      </c>
+      <c r="G25" s="60" t="s">
+        <v>298</v>
+      </c>
       <c r="H25" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="61"/>
+      <c r="I25" s="61" t="s">
+        <v>313</v>
+      </c>
       <c r="J25" s="61"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
@@ -2893,7 +3049,7 @@
       <c r="I26" s="61"/>
       <c r="J26" s="61"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -2905,12 +3061,18 @@
       <c r="E27" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
+      <c r="F27" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>299</v>
+      </c>
       <c r="H27" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="32"/>
+      <c r="I27" s="32" t="s">
+        <v>311</v>
+      </c>
       <c r="J27" s="32"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
@@ -2934,52 +3096,52 @@
         <v>28</v>
       </c>
       <c r="B29" s="28"/>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="18">
         <v>29</v>
       </c>
       <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30" t="s">
+      <c r="C30" s="49"/>
+      <c r="D30" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="31" t="s">
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="18">
         <v>30</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30" t="s">
+      <c r="C31" s="49"/>
+      <c r="D31" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="31" t="s">
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="18">
@@ -2993,13 +3155,11 @@
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
-      <c r="H32" s="31" t="s">
-        <v>5</v>
-      </c>
+      <c r="H32" s="31"/>
       <c r="I32" s="32"/>
       <c r="J32" s="32"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A33" s="18">
         <v>32</v>
       </c>
@@ -3009,12 +3169,18 @@
       </c>
       <c r="D33" s="30"/>
       <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
+      <c r="F33" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>301</v>
+      </c>
       <c r="H33" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="32"/>
+      <c r="I33" s="32" t="s">
+        <v>314</v>
+      </c>
       <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
@@ -3043,15 +3209,21 @@
         <v>160</v>
       </c>
       <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
+      <c r="F35" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>304</v>
+      </c>
       <c r="H35" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I35" s="32"/>
+      <c r="I35" s="32" t="s">
+        <v>315</v>
+      </c>
       <c r="J35" s="32"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A36" s="18">
         <v>35</v>
       </c>
@@ -3061,15 +3233,21 @@
         <v>161</v>
       </c>
       <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
+      <c r="F36" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>305</v>
+      </c>
       <c r="H36" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I36" s="32"/>
+      <c r="I36" s="32" t="s">
+        <v>316</v>
+      </c>
       <c r="J36" s="32"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A37" s="18">
         <v>36</v>
       </c>
@@ -3079,12 +3257,18 @@
         <v>163</v>
       </c>
       <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
+      <c r="F37" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>305</v>
+      </c>
       <c r="H37" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I37" s="32"/>
+      <c r="I37" s="32" t="s">
+        <v>316</v>
+      </c>
       <c r="J37" s="32"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
@@ -3135,7 +3319,7 @@
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A41" s="18">
         <v>40</v>
       </c>
@@ -3147,12 +3331,18 @@
       <c r="E41" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
+      <c r="F41" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>307</v>
+      </c>
       <c r="H41" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="32"/>
+      <c r="I41" s="32" t="s">
+        <v>311</v>
+      </c>
       <c r="J41" s="32"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
@@ -3160,36 +3350,48 @@
         <v>41</v>
       </c>
       <c r="B42" s="28"/>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="31" t="s">
+      <c r="D42" s="56"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60" t="s">
+        <v>296</v>
+      </c>
+      <c r="G42" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="H42" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I42" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="J42" s="61"/>
+    </row>
+    <row r="43" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A43" s="18">
         <v>42</v>
       </c>
       <c r="B43" s="28"/>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="31" t="s">
+      <c r="D43" s="56"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60" t="s">
+        <v>297</v>
+      </c>
+      <c r="G43" s="60" t="s">
+        <v>298</v>
+      </c>
+      <c r="H43" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
+      <c r="I43" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="J43" s="61"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="18">
@@ -3207,7 +3409,7 @@
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A45" s="18">
         <v>44</v>
       </c>
@@ -3219,12 +3421,18 @@
       <c r="E45" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
+      <c r="F45" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>287</v>
+      </c>
       <c r="H45" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I45" s="32"/>
+      <c r="I45" s="32" t="s">
+        <v>311</v>
+      </c>
       <c r="J45" s="32"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
@@ -3261,7 +3469,7 @@
       <c r="I47" s="26"/>
       <c r="J47" s="26"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A48" s="18">
         <v>47</v>
       </c>
@@ -3271,17 +3479,21 @@
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
+      <c r="F48" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>305</v>
+      </c>
       <c r="H48" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J48" s="26"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A49" s="18">
         <v>48</v>
       </c>
@@ -3291,13 +3503,17 @@
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
+      <c r="F49" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>305</v>
+      </c>
       <c r="H49" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J49" s="26"/>
     </row>
@@ -4351,7 +4567,7 @@
     <row r="155" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H155">
         <f>COUNTA(H2:H154)</f>
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4387,7 +4603,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C1" s="62" t="s">
         <v>0</v>
@@ -4395,7 +4611,7 @@
       <c r="D1" s="62"/>
       <c r="E1" s="62"/>
       <c r="F1" s="16" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
@@ -4414,7 +4630,7 @@
       <c r="B3" s="50"/>
       <c r="C3" s="17"/>
       <c r="D3" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -4422,15 +4638,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="29" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="31" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="348" x14ac:dyDescent="0.4">
@@ -4438,15 +4654,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="29" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="33" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -4494,7 +4710,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>6</v>
@@ -4502,7 +4718,7 @@
       <c r="D11" s="35"/>
       <c r="E11" s="30"/>
       <c r="F11" s="33" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -4538,7 +4754,7 @@
         <v>162</v>
       </c>
       <c r="F14" s="48" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -4548,7 +4764,7 @@
       <c r="B15" s="50"/>
       <c r="C15" s="17"/>
       <c r="D15" s="49" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="48"/>
@@ -4558,7 +4774,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="12" t="s">
@@ -4566,7 +4782,7 @@
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="14" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -4586,7 +4802,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="12"/>
@@ -4594,7 +4810,7 @@
         <v>159</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
@@ -4602,7 +4818,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="12"/>
@@ -4610,7 +4826,7 @@
         <v>161</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -4618,7 +4834,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="12"/>
@@ -4626,7 +4842,7 @@
         <v>163</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -4650,7 +4866,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
@@ -4658,7 +4874,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C24" s="59"/>
       <c r="D24" s="55" t="s">
@@ -4666,7 +4882,7 @@
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="57" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -4674,7 +4890,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C25" s="59"/>
       <c r="D25" s="55" t="s">
@@ -4682,7 +4898,7 @@
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="57" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -4698,7 +4914,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C27" s="34" t="s">
         <v>8</v>
@@ -4706,7 +4922,7 @@
       <c r="D27" s="35"/>
       <c r="E27" s="30"/>
       <c r="F27" s="33" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -4734,7 +4950,7 @@
         <v>159</v>
       </c>
       <c r="F30" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
@@ -4745,7 +4961,7 @@
         <v>162</v>
       </c>
       <c r="F31" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -4755,7 +4971,7 @@
       <c r="B32" s="50"/>
       <c r="C32" s="17"/>
       <c r="D32" s="49" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="48"/>
@@ -4765,7 +4981,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="53" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C33" s="27"/>
       <c r="D33" s="12" t="s">
@@ -4773,7 +4989,7 @@
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="14" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -4789,7 +5005,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="53" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="12"/>
@@ -4797,7 +5013,7 @@
         <v>159</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
@@ -4805,7 +5021,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="53" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="12"/>
@@ -4813,7 +5029,7 @@
         <v>161</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -4821,7 +5037,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="53" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="12"/>
@@ -4829,7 +5045,7 @@
         <v>163</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -4861,7 +5077,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="51" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C41" s="34" t="s">
         <v>9</v>
@@ -4869,7 +5085,7 @@
       <c r="D41" s="35"/>
       <c r="E41" s="30"/>
       <c r="F41" s="33" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
@@ -4877,7 +5093,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="58" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C42" s="59"/>
       <c r="D42" s="55" t="s">
@@ -4885,7 +5101,7 @@
       </c>
       <c r="E42" s="56"/>
       <c r="F42" s="57" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
@@ -4893,7 +5109,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="58" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C43" s="59"/>
       <c r="D43" s="55" t="s">
@@ -4917,7 +5133,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="51" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>11</v>
@@ -4925,7 +5141,7 @@
       <c r="D45" s="29"/>
       <c r="E45" s="30"/>
       <c r="F45" s="33" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
@@ -4965,7 +5181,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C49" s="27"/>
       <c r="D49" s="12"/>
@@ -4973,7 +5189,7 @@
         <v>159</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
@@ -4981,7 +5197,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="53" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="12"/>
@@ -4989,7 +5205,7 @@
         <v>161</v>
       </c>
       <c r="F50" s="41" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -4997,7 +5213,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="53" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="12"/>
@@ -5005,7 +5221,7 @@
         <v>163</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
@@ -5025,15 +5241,15 @@
         <v>52</v>
       </c>
       <c r="B53" s="53" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C53" s="27"/>
       <c r="D53" s="12"/>
       <c r="E53" s="13" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
@@ -5041,15 +5257,15 @@
         <v>53</v>
       </c>
       <c r="B54" s="53" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C54" s="27"/>
       <c r="D54" s="12"/>
       <c r="E54" s="13" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F54" s="41" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -5057,15 +5273,15 @@
         <v>54</v>
       </c>
       <c r="B55" s="53" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C55" s="27"/>
       <c r="D55" s="12"/>
       <c r="E55" s="13" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
@@ -5106,7 +5322,7 @@
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
@@ -5128,7 +5344,7 @@
         <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
@@ -5139,7 +5355,7 @@
         <v>23</v>
       </c>
       <c r="F62" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
@@ -5161,7 +5377,7 @@
         <v>24</v>
       </c>
       <c r="F64" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
@@ -5204,7 +5420,7 @@
         <v>26</v>
       </c>
       <c r="F69" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
@@ -5250,7 +5466,7 @@
         <v>76</v>
       </c>
       <c r="F74" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
@@ -5277,7 +5493,7 @@
         <v>68</v>
       </c>
       <c r="F77" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
@@ -5427,7 +5643,7 @@
         <v>76</v>
       </c>
       <c r="F95" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.4">
@@ -5438,7 +5654,7 @@
         <v>35</v>
       </c>
       <c r="F96" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.4">
@@ -5503,7 +5719,7 @@
         <v>76</v>
       </c>
       <c r="F103" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.4">
@@ -5514,7 +5730,7 @@
         <v>88</v>
       </c>
       <c r="F104" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.4">
@@ -5568,7 +5784,7 @@
         <v>91</v>
       </c>
       <c r="F110" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.4">
@@ -5579,7 +5795,7 @@
         <v>92</v>
       </c>
       <c r="F111" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.4">
@@ -5601,7 +5817,7 @@
         <v>95</v>
       </c>
       <c r="F113" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.4">
@@ -5612,7 +5828,7 @@
         <v>103</v>
       </c>
       <c r="F114" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.4">
@@ -5704,7 +5920,7 @@
         <v>133</v>
       </c>
       <c r="F124" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.4">
@@ -5817,7 +6033,7 @@
         <v>113</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.4">
@@ -5844,7 +6060,7 @@
         <v>108</v>
       </c>
       <c r="F140" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.4">
@@ -5984,7 +6200,7 @@
         <v>143</v>
       </c>
       <c r="F156" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.4">
@@ -6045,13 +6261,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="43" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="45" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
@@ -6059,10 +6275,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -6070,10 +6286,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -6081,7 +6297,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -6089,10 +6305,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -6100,7 +6316,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -6108,10 +6324,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -6254,7 +6470,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C1" s="44" t="s">
         <v>192</v>
@@ -6266,10 +6482,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="진행일정" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="320">
   <si>
     <t>업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -634,10 +634,6 @@
   </si>
   <si>
     <t>내일 날짜 선택시 업무배정, 수정, 삭제 버튼 보여주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 배정대상에 속한 업무 목록 보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1007,10 +1003,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>선택한 공간에 속한 공간분류 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>선택한 업무/공간분류에 속한 업무 목록 보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1078,6 +1070,318 @@
     <t>논리모델링 수정
 지점직원정보 table 물리모델링
 매뉴얼업무 관련 기능 SQL추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.매뉴얼에서 선택
+insert into daily_tasks (daily_tasks_seq, input_task, assign_date, importance, assign_type, assign_detail, manual_tasks_seq, finisher_id, finisher_name, assigner_id, branch_seq) 
+values(daily_tasks_seq.nextval, null, ?, ?, ?, ?, (select manual_tasks_seq from manual_tasks where task=?), null, null, ?, ?);
+2.직접입력
+insert into daily_tasks (daily_tasks_seq, input_task, assign_date, importance, assign_type, assign_detail, manual_tasks_seq, finisher_id, finisher_name, assigner_id, branch_seq) 
+values(daily_tasks_seq.nextval, ?, ?, ?, ?, ?, null, null, null, ?, ?);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAO 인터페이스 설계
+직원관련 table들 물리모델링
+직원관련 table 더미데이터 작성
+직원조회 관련 기능 SQL문 추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select m.TASK, s.SPACE_TYPE
+from MANUAL_TASKS m, SPACE_TYPES s 
+where m.SPACE_TYPES_SEQ=s.SPACE_TYPES_SEQ
+order by m.SPACE_TYPES_SEQ asc, m.MANUAL_TASKS_SEQ asc;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select distinct task_type from manual_tasks m, space_types s, task_types t 
+where m.space_types_seq = s.space_types_seq and m.task_types_seq = t.task_types_seq and s.space_type=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select distinct work_part from branch_staffs where leave_date is null;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select staff_id from branch_staffs where leave_date is null;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select space_type from space_types;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select space_type from space_types;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select task_type from task_types;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select distinct space_type from manual_tasks m, space_types s, task_types t 
+where m.space_types_seq = s.space_types_seq and m.task_types_seq = t.task_types_seq and t.task_type=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAILY_TASKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAILY_TASKS
+MANUAL_TASKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일업무
+매뉴얼업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일업무
+매뉴얼업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANUAL_TASKS
+SPACE_TYPES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매뉴얼업무
+공간분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPACE_TYPES
+TASK_TYPES
+MANUAL_TASKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간분류
+업무분류
+매뉴얼업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간분류
+업무분류
+매뉴얼업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRANCH_STAFFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점_직원정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점_직원정보
+직원인증정보
+회원정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRANCH_STAFFS
+STAFFS
+USERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAILY_TASKS
+MANUAL_TASKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일업무
+매뉴얼업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANUAL_TASKS
+SPACE_TYPES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매뉴얼업무
+공간분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPACE_TYPES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPACE_TYPES
+TASK_TYPES
+MANUAL_TASKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간분류
+업무분류
+매뉴얼업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANUAL_TASKS
+DAILY_TASKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매뉴얼업무
+일일업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일업무
+매뉴얼업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간분류
+업무분류
+매뉴얼업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaffDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManualDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManualDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManualDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 날짜에 해당하는 배정대상 목록 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 배정대상에 속한 업무 목록 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 배정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 재배정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1.매뉴얼-&gt;매뉴얼
+update daily_tasks
+set manual_tasks_seq=(select manual_tasks_seq from manual_tasks where task=?)
+where assign_date=? and assign_detail=? and manual_tasks_seq=(select manual_tasks_seq from manual_tasks where task=?)
+1-2.매뉴얼-&gt;직접
+update daily_tasks
+set input_task=?, manual_tasks_seq=null
+where assign_date=? and assign_detail=? and manual_tasks_seq=(select manual_tasks_seq from manual_tasks where task=?)
+2-1.직접-&gt;매뉴얼
+update daily_tasks
+set manual_tasks_seq = (select manual_tasks_seq from manual_tasks where task=?), input_task=null
+where assign_date=? and assign_detail=? and input_task=?
+2-2.직접-&gt;직접
+update daily_tasks
+set input_task=?
+where assign_date=? and assign_detail=? and input_task=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select m.TASK, s.SPACE_TYPE
+from MANUAL_TASKS m, SPACE_TYPES s
+where m.SPACE_TYPES_SEQ=s.SPACE_TYPES_SEQ
+order by m.SPACE_TYPES_SEQ asc, m.MANUAL_TASKS_SEQ asc;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 업무에 속한 공간분류 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.파트별 업무보기
+1-1.매뉴얼에서 선택한 업무
+select d.importance, m.task, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_tasks_seq=m.manual_tasks_seq and d.assign_detail='오픈' and d.assign_date='2018/05/09';
+select d.importance, m.task, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_tasks_seq=m.manual_tasks_seq and d.assign_detail=? and d.assign_date=?;
+1-2.직접입력 업무
+select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_detail='마감' and assign_date='2018/05/07';
+select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_detail=? and assign_date=?;
+2.개인업무로 배정된 업무 보기
+2-1.매뉴얼에서 선택한 업무
+select d.importance, m.task, d.assign_detail, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_tasks_seq=m.manual_tasks_seq and d.assign_type='개인' and d.assign_date='2018/05/09';
+select d.importance, m.task, d.assign_detail, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_tasks_seq=m.manual_tasks_seq and d.assign_type='개인' and d.assign_date=?;
+2-2.직접입력 업무
+select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_type='개인' and assign_date='2018/05/09';
+select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_type='개인' and assign_date=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select distinct assign_detail from daily_tasks where assign_type='파트' and assign_date = ?;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1101,305 +1405,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.매뉴얼에서 선택
-insert into daily_tasks (daily_tasks_seq, input_task, assign_date, importance, assign_type, assign_detail, manual_tasks_seq, finisher_id, finisher_name, assigner_id, branch_seq) 
-values(daily_tasks_seq.nextval, null, ?, ?, ?, ?, (select manual_tasks_seq from manual_tasks where task=?), null, null, ?, ?);
-2.직접입력
-insert into daily_tasks (daily_tasks_seq, input_task, assign_date, importance, assign_type, assign_detail, manual_tasks_seq, finisher_id, finisher_name, assigner_id, branch_seq) 
-values(daily_tasks_seq.nextval, ?, ?, ?, ?, ?, null, null, null, ?, ?);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select distinct assign_detail from daily_tasks where assign_type='파트' and assign_date = ?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAO 인터페이스 설계
-직원관련 table들 물리모델링
-직원관련 table 더미데이터 작성
-직원조회 관련 기능 SQL문 추출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.파트별 업무보기
-1-1.매뉴얼에서 선택한 업무
-select d.importance, m.task, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_tasks_seq=m.manual_tasks_seq and d.assign_detail='오픈' and d.assign_date='2018/05/09';
-select d.importance, m.task, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_tasks_seq=m.manual_tasks_seq and d.assign_detail=? and d.assign_date=?;
-1-2.직접입력 업무
-select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_detail='마감' and assign_date='2018/05/07';
-select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_detail=? and assign_date=?;
-2.개인업무로 배정된 업무 보기
-2-1.매뉴얼에서 선택한 업무
-select d.importance, m.task, d.assign_detail, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_tasks_seq=m.manual_tasks_seq and d.assign_type='개인' and d.assign_date='2018/05/09';
-select d.importance, m.task, d.assign_detail, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_tasks_seq=m.manual_tasks_seq and d.assign_type='개인' and d.assign_date=?;
-2-2.직접입력 업무
-select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_type='개인' and assign_date='2018/05/09';
-select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_type='개인' and assign_date=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select m.TASK, s.SPACE_TYPE
-from MANUAL_TASKS m, SPACE_TYPES s 
-where m.SPACE_TYPES_SEQ=s.SPACE_TYPES_SEQ
-order by m.SPACE_TYPES_SEQ asc, m.MANUAL_TASKS_SEQ asc;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select distinct task_type from manual_tasks m, space_types s, task_types t 
-where m.space_types_seq = s.space_types_seq and m.task_types_seq = t.task_types_seq and s.space_type=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select distinct work_part from branch_staffs where leave_date is null;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select staff_id from branch_staffs where leave_date is null;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1.매뉴얼-&gt;매뉴얼
-update daily_tasks
-set manual_tasks_seq=(select manual_tasks_seq from manual_tasks where task=?)
-where assign_date=? and assign_detail=? and manual_tasks_seq=(select manual_tasks_seq from manual_tasks where task=?)
-1-2.매뉴얼-&gt;직접
-update daily_tasks
-set input_task=?, manual_tasks_seq=null
-where assign_date=? and assign_detail=? and manual_tasks_seq=(select manual_tasks_seq from manual_tasks where task=?)
-2-1.직접-&gt;매뉴얼
-update daily_tasks
-set manual_tasks_seq = (select manual_tasks_seq from manual_tasks where task=?), input_task=null
-where assign_date=? and assign_detail=? and input_task=?
-2-2.직접-&gt;직접
-update daily_tasks
-set input_task=?
-where assign_date=? and assign_detail=? and input_task=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select m.TASK, s.SPACE_TYPE
-from MANUAL_TASKS m inner join SPACE_TYPES s
-on m.SPACE_TYPES_SEQ=s.SPACE_TYPES_SEQ
-order by m.SPACE_TYPES_SEQ asc, m.MANUAL_TASKS_SEQ asc;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select space_type from space_types;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select task, repeat_type, repeat_detail from manual_tasks m, space_types s, task_types t 
-where m.space_types_seq = s.space_types_seq and m.task_types_seq = t.task_types_seq and s.space_type=? and t.task_type=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 직접인지, 매뉴얼 업무인지 판별
 select manual_tasks_seq from manual_tasks where task=?
 2-1. 직접일 경우
 update daily_tasks set assign_type=?, assign_detail=? where assign_date=? and assign_detail=? and input_task=?
 2-2. 매뉴얼일 경우
-update daily_tasks set assign_type=?, assign_detail=? where assign_date=? and manual_tasks_seq=(select m.manual_tasks_seq from manual_tasks m where task=?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select space_type from space_types;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select task_type from task_types;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select distinct space_type from manual_tasks m, space_types s, task_types t 
-where m.space_types_seq = s.space_types_seq and m.task_types_seq = t.task_types_seq and t.task_type=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAILY_TASKS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAILY_TASKS
-MANUAL_TASKS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일일업무
-매뉴얼업무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일일업무
-매뉴얼업무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MANUAL_TASKS
-SPACE_TYPES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매뉴얼업무
-공간분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPACE_TYPES
-TASK_TYPES
-MANUAL_TASKS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간분류
-업무분류
-매뉴얼업무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간분류
-업무분류
-매뉴얼업무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRANCH_STAFFS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지점_직원정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지점_직원정보
-직원인증정보
-회원정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRANCH_STAFFS
-STAFFS
-USERS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAILY_TASKS
-MANUAL_TASKS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일일업무
-매뉴얼업무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MANUAL_TASKS
-SPACE_TYPES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매뉴얼업무
-공간분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPACE_TYPES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPACE_TYPES
-TASK_TYPES
-MANUAL_TASKS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간분류
-업무분류
-매뉴얼업무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MANUAL_TASKS
-DAILY_TASKS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매뉴얼업무
-일일업무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일일업무
-매뉴얼업무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간분류
-업무분류
-매뉴얼업무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DailyDAO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DailyDAO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StaffDAO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ManualDAO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ManualDAO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ManualDAO</t>
+update daily_tasks set assign_type=?, assign_detail=? where assign_date=? and assign_detail=? and manual_tasks_seq=(select m.manual_tasks_seq from manual_tasks m where task=?)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1410,7 +1421,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-412]m&quot;월&quot;\ d&quot;일&quot;\ dddd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1441,14 +1452,6 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1604,11 +1607,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1732,9 +1735,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1759,19 +1759,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1">
@@ -1783,7 +1783,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -1795,13 +1795,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2146,28 +2146,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="11" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>196</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
@@ -2175,7 +2175,7 @@
         <v>43214</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -2195,7 +2195,7 @@
         <v>43217</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -2227,7 +2227,7 @@
         <v>43222</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -2235,7 +2235,7 @@
         <v>43223</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -2243,7 +2243,7 @@
         <v>43224</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -2275,10 +2275,10 @@
         <v>43229</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="87" x14ac:dyDescent="0.4">
@@ -2286,22 +2286,22 @@
         <v>43230</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="G18" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="87" x14ac:dyDescent="0.4">
@@ -2309,22 +2309,22 @@
         <v>43231</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2344,7 +2344,7 @@
         <v>43234</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -2358,12 +2358,12 @@
         <v>43236</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B25" s="21">
         <v>43237</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B26" s="21">
         <v>43238</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B29" s="21">
         <v>43241</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B30" s="21">
         <v>43242</v>
@@ -2444,7 +2444,7 @@
         <v>43248</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
@@ -2458,12 +2458,12 @@
         <v>43250</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B39" s="21">
         <v>43251</v>
@@ -2499,7 +2499,7 @@
         <v>43256</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
@@ -2519,7 +2519,7 @@
         <v>43259</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
@@ -2537,9 +2537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2561,19 +2561,19 @@
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>180</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>2</v>
@@ -2582,10 +2582,10 @@
         <v>3</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" thickTop="1" x14ac:dyDescent="0.4">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="31"/>
@@ -2628,21 +2628,21 @@
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="29" t="s">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="31"/>
       <c r="F4" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="H4" s="31" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="J4" s="32"/>
     </row>
@@ -2652,21 +2652,21 @@
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="29" t="s">
-        <v>152</v>
+        <v>309</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="31"/>
       <c r="F5" s="33" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="J5" s="32"/>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="31"/>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="31"/>
@@ -2755,7 +2755,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>6</v>
+        <v>310</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="30"/>
@@ -2763,16 +2763,16 @@
         <v>7</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>49</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="J11" s="32"/>
     </row>
@@ -2792,11 +2792,11 @@
         <v>12</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" t="s">
@@ -2808,11 +2808,11 @@
         <v>13</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
@@ -2824,7 +2824,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="15"/>
@@ -2839,21 +2839,21 @@
         <v>15</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="15"/>
       <c r="F16" s="14" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J16" s="26"/>
     </row>
@@ -2878,20 +2878,20 @@
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J18" s="26"/>
     </row>
@@ -2901,20 +2901,20 @@
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="14" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J19" s="26"/>
     </row>
@@ -2924,20 +2924,20 @@
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="14" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J20" s="26"/>
     </row>
@@ -2961,7 +2961,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="33"/>
@@ -2976,7 +2976,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="33"/>
@@ -2990,71 +2990,71 @@
       <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="60" t="s">
-        <v>175</v>
-      </c>
-      <c r="F24" s="60" t="s">
-        <v>296</v>
-      </c>
-      <c r="G24" s="60" t="s">
-        <v>295</v>
-      </c>
-      <c r="H24" s="57" t="s">
+      <c r="D24" s="55"/>
+      <c r="E24" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="G24" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="H24" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="61" t="s">
-        <v>313</v>
-      </c>
-      <c r="J24" s="61"/>
+      <c r="I24" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="J24" s="60"/>
     </row>
     <row r="25" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A25" s="18">
         <v>24</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60" t="s">
-        <v>297</v>
-      </c>
-      <c r="G25" s="60" t="s">
-        <v>298</v>
-      </c>
-      <c r="H25" s="57" t="s">
+      <c r="D25" s="55"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="H25" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="61" t="s">
-        <v>313</v>
-      </c>
-      <c r="J25" s="61"/>
+      <c r="I25" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="J25" s="60"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="18">
         <v>25</v>
       </c>
-      <c r="C26" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
+      <c r="C26" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="55"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
     </row>
     <row r="27" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A27" s="18">
         <v>26</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>8</v>
+        <v>311</v>
       </c>
       <c r="C27" s="35"/>
       <c r="D27" s="30"/>
@@ -3062,16 +3062,16 @@
         <v>39</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="H27" s="31" t="s">
         <v>50</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="J27" s="32"/>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="31"/>
@@ -3096,52 +3096,52 @@
         <v>28</v>
       </c>
       <c r="B29" s="28"/>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="18">
         <v>29</v>
       </c>
       <c r="B30" s="28"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="48" t="s">
+      <c r="C30" s="48"/>
+      <c r="D30" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="18">
         <v>30</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="48" t="s">
+      <c r="C31" s="48"/>
+      <c r="D31" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="18">
@@ -3165,21 +3165,21 @@
       </c>
       <c r="B33" s="28"/>
       <c r="C33" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D33" s="30"/>
       <c r="E33" s="33"/>
       <c r="F33" s="33" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="H33" s="31" t="s">
         <v>5</v>
       </c>
       <c r="I33" s="32" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="J33" s="32"/>
     </row>
@@ -3206,20 +3206,20 @@
       <c r="B35" s="28"/>
       <c r="C35" s="29"/>
       <c r="D35" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E35" s="33"/>
       <c r="F35" s="33" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="H35" s="31" t="s">
         <v>5</v>
       </c>
       <c r="I35" s="32" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="J35" s="32"/>
     </row>
@@ -3230,20 +3230,20 @@
       <c r="B36" s="28"/>
       <c r="C36" s="29"/>
       <c r="D36" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E36" s="33"/>
       <c r="F36" s="33" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="H36" s="31" t="s">
         <v>5</v>
       </c>
       <c r="I36" s="32" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="J36" s="32"/>
     </row>
@@ -3254,20 +3254,20 @@
       <c r="B37" s="28"/>
       <c r="C37" s="29"/>
       <c r="D37" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E37" s="33"/>
       <c r="F37" s="33" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>5</v>
       </c>
       <c r="I37" s="32" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="J37" s="32"/>
     </row>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="B39" s="28"/>
       <c r="C39" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D39" s="30"/>
       <c r="E39" s="33"/>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B40" s="28"/>
       <c r="C40" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D40" s="30"/>
       <c r="E40" s="33"/>
@@ -3324,7 +3324,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>9</v>
+        <v>312</v>
       </c>
       <c r="C41" s="35"/>
       <c r="D41" s="30"/>
@@ -3332,16 +3332,16 @@
         <v>10</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G41" s="33" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="H41" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I41" s="32" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="J41" s="32"/>
     </row>
@@ -3350,48 +3350,48 @@
         <v>41</v>
       </c>
       <c r="B42" s="28"/>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60" t="s">
-        <v>296</v>
-      </c>
-      <c r="G42" s="60" t="s">
-        <v>295</v>
-      </c>
-      <c r="H42" s="57" t="s">
+      <c r="D42" s="55"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="G42" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="H42" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="I42" s="61" t="s">
-        <v>313</v>
-      </c>
-      <c r="J42" s="61"/>
+      <c r="I42" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="J42" s="60"/>
     </row>
     <row r="43" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A43" s="18">
         <v>42</v>
       </c>
       <c r="B43" s="28"/>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60" t="s">
-        <v>297</v>
-      </c>
-      <c r="G43" s="60" t="s">
-        <v>298</v>
-      </c>
-      <c r="H43" s="57" t="s">
+      <c r="D43" s="55"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59" t="s">
+        <v>288</v>
+      </c>
+      <c r="G43" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="H43" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="I43" s="61" t="s">
-        <v>313</v>
-      </c>
-      <c r="J43" s="61"/>
+      <c r="I43" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="J43" s="60"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="18">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="B44" s="28"/>
       <c r="C44" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="33"/>
@@ -3422,16 +3422,16 @@
         <v>12</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="G45" s="33" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H45" s="31" t="s">
         <v>13</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="J45" s="32"/>
     </row>
@@ -3456,7 +3456,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="13"/>
@@ -3480,16 +3480,16 @@
       <c r="D48" s="13"/>
       <c r="E48" s="15"/>
       <c r="F48" s="14" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="H48" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J48" s="26"/>
     </row>
@@ -3504,16 +3504,16 @@
       <c r="D49" s="13"/>
       <c r="E49" s="15"/>
       <c r="F49" s="14" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="H49" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J49" s="26"/>
     </row>
@@ -3631,7 +3631,7 @@
         <v>14</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
@@ -3658,7 +3658,7 @@
         <v>54</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.4">
@@ -3669,7 +3669,7 @@
         <v>55</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
@@ -3732,7 +3732,7 @@
         <v>5</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
@@ -4435,7 +4435,7 @@
         <v>136</v>
       </c>
       <c r="H142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.4">
@@ -4446,7 +4446,7 @@
         <v>137</v>
       </c>
       <c r="H143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.4">
@@ -4519,7 +4519,7 @@
         <v>144</v>
       </c>
       <c r="J151" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.4">
@@ -4533,7 +4533,7 @@
         <v>81</v>
       </c>
       <c r="J152" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K152" s="9" t="s">
         <v>82</v>
@@ -4544,13 +4544,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E153" t="s">
         <v>154</v>
       </c>
-      <c r="E153" t="s">
+      <c r="K153" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="K153" s="9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.4">
@@ -4558,10 +4558,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E154" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.4">
@@ -4584,14 +4584,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.69921875" customWidth="1"/>
-    <col min="2" max="2" width="10.296875" style="52" customWidth="1"/>
+    <col min="2" max="2" width="10.296875" style="51" customWidth="1"/>
     <col min="3" max="3" width="6.8984375" style="3" customWidth="1"/>
     <col min="4" max="4" width="5.3984375" style="5" customWidth="1"/>
     <col min="5" max="5" width="50.69921875" style="7" customWidth="1"/>
@@ -4602,23 +4602,23 @@
       <c r="A1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="C1" s="62" t="s">
+      <c r="B1" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
       <c r="F1" s="16" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="17" t="s">
         <v>48</v>
       </c>
@@ -4627,42 +4627,42 @@
       <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="17"/>
       <c r="D3" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="51" t="s">
-        <v>238</v>
+      <c r="B4" s="50" t="s">
+        <v>237</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="31" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="348" x14ac:dyDescent="0.4">
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>237</v>
+      <c r="B5" s="50" t="s">
+        <v>236</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="33" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -4670,7 +4670,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -4678,7 +4678,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -4709,8 +4709,8 @@
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="51" t="s">
-        <v>240</v>
+      <c r="B11" s="50" t="s">
+        <v>239</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>6</v>
@@ -4718,7 +4718,7 @@
       <c r="D11" s="35"/>
       <c r="E11" s="30"/>
       <c r="F11" s="33" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -4733,13 +4733,13 @@
       <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="F13" s="48" t="s">
+      <c r="D13" s="48"/>
+      <c r="E13" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="47" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4747,102 +4747,102 @@
       <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="50"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>266</v>
+      <c r="D14" s="48"/>
+      <c r="E14" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="50"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48"/>
+      <c r="D15" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="53" t="s">
-        <v>250</v>
+      <c r="B16" s="52" t="s">
+        <v>248</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="14" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="53" t="s">
-        <v>239</v>
+      <c r="B18" s="52" t="s">
+        <v>238</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="12"/>
       <c r="E18" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="53" t="s">
-        <v>239</v>
+      <c r="B19" s="52" t="s">
+        <v>238</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="12"/>
       <c r="E19" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="F19" s="41" t="s">
-        <v>268</v>
+        <v>160</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="53" t="s">
-        <v>239</v>
+      <c r="B20" s="52" t="s">
+        <v>238</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="12"/>
       <c r="E20" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -4858,7 +4858,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -4866,39 +4866,39 @@
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="B24" s="58" t="s">
-        <v>252</v>
-      </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="55" t="s">
+      <c r="B24" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="56"/>
-      <c r="F24" s="57" t="s">
-        <v>269</v>
+      <c r="E24" s="55"/>
+      <c r="F24" s="56" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="18">
         <v>24</v>
       </c>
-      <c r="B25" s="58" t="s">
-        <v>252</v>
-      </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="55" t="s">
+      <c r="B25" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" s="58"/>
+      <c r="D25" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="56"/>
-      <c r="F25" s="57" t="s">
-        <v>270</v>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -4906,15 +4906,15 @@
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="278.39999999999998" x14ac:dyDescent="0.4">
       <c r="A27" s="18">
         <v>26</v>
       </c>
-      <c r="B27" s="51" t="s">
-        <v>239</v>
+      <c r="B27" s="50" t="s">
+        <v>238</v>
       </c>
       <c r="C27" s="34" t="s">
         <v>8</v>
@@ -4922,7 +4922,7 @@
       <c r="D27" s="35"/>
       <c r="E27" s="30"/>
       <c r="F27" s="33" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
@@ -4947,10 +4947,10 @@
         <v>29</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
@@ -4958,38 +4958,38 @@
         <v>30</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="18">
         <v>31</v>
       </c>
-      <c r="B32" s="50"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="17"/>
-      <c r="D32" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="E32" s="47"/>
-      <c r="F32" s="48"/>
+      <c r="D32" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
     </row>
     <row r="33" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A33" s="18">
         <v>32</v>
       </c>
-      <c r="B33" s="53" t="s">
-        <v>242</v>
+      <c r="B33" s="52" t="s">
+        <v>241</v>
       </c>
       <c r="C33" s="27"/>
       <c r="D33" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="14" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -5004,48 +5004,48 @@
       <c r="A35" s="18">
         <v>34</v>
       </c>
-      <c r="B35" s="53" t="s">
-        <v>242</v>
+      <c r="B35" s="52" t="s">
+        <v>241</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="12"/>
       <c r="E35" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A36" s="18">
         <v>35</v>
       </c>
-      <c r="B36" s="53" t="s">
-        <v>242</v>
+      <c r="B36" s="52" t="s">
+        <v>241</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="12"/>
       <c r="E36" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="F36" s="41" t="s">
-        <v>268</v>
+        <v>160</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A37" s="18">
         <v>36</v>
       </c>
-      <c r="B37" s="53" t="s">
-        <v>242</v>
+      <c r="B37" s="52" t="s">
+        <v>241</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="12"/>
       <c r="E37" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>274</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -5061,7 +5061,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
@@ -5069,15 +5069,15 @@
         <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A41" s="18">
         <v>40</v>
       </c>
-      <c r="B41" s="51" t="s">
-        <v>235</v>
+      <c r="B41" s="50" t="s">
+        <v>234</v>
       </c>
       <c r="C41" s="34" t="s">
         <v>9</v>
@@ -5085,38 +5085,38 @@
       <c r="D41" s="35"/>
       <c r="E41" s="30"/>
       <c r="F41" s="33" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="18">
         <v>41</v>
       </c>
-      <c r="B42" s="58" t="s">
-        <v>251</v>
-      </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="55" t="s">
+      <c r="B42" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="C42" s="58"/>
+      <c r="D42" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="56"/>
-      <c r="F42" s="57" t="s">
-        <v>276</v>
+      <c r="E42" s="55"/>
+      <c r="F42" s="56" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="18">
         <v>42</v>
       </c>
-      <c r="B43" s="58" t="s">
-        <v>251</v>
-      </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="55" t="s">
+      <c r="B43" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="C43" s="58"/>
+      <c r="D43" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="56"/>
-      <c r="F43" s="57" t="s">
+      <c r="E43" s="55"/>
+      <c r="F43" s="56" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5125,15 +5125,15 @@
         <v>43</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="87" x14ac:dyDescent="0.4">
       <c r="A45" s="18">
         <v>44</v>
       </c>
-      <c r="B45" s="51" t="s">
-        <v>236</v>
+      <c r="B45" s="50" t="s">
+        <v>235</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>11</v>
@@ -5141,7 +5141,7 @@
       <c r="D45" s="29"/>
       <c r="E45" s="30"/>
       <c r="F45" s="33" t="s">
-        <v>260</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
@@ -5156,136 +5156,136 @@
       <c r="A47" s="18">
         <v>46</v>
       </c>
-      <c r="B47" s="50"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="48"/>
+        <v>177</v>
+      </c>
+      <c r="D47" s="48"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="47"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="18">
         <v>47</v>
       </c>
-      <c r="B48" s="50"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="17"/>
-      <c r="D48" s="49" t="s">
+      <c r="D48" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="47"/>
-      <c r="F48" s="54"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="53"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="18">
         <v>48</v>
       </c>
-      <c r="B49" s="53" t="s">
-        <v>242</v>
+      <c r="B49" s="52" t="s">
+        <v>241</v>
       </c>
       <c r="C49" s="27"/>
       <c r="D49" s="12"/>
       <c r="E49" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A50" s="18">
         <v>49</v>
       </c>
-      <c r="B50" s="53" t="s">
-        <v>242</v>
+      <c r="B50" s="52" t="s">
+        <v>241</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="12"/>
       <c r="E50" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="F50" s="41" t="s">
-        <v>268</v>
+        <v>160</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A51" s="18">
         <v>50</v>
       </c>
-      <c r="B51" s="53" t="s">
-        <v>242</v>
+      <c r="B51" s="52" t="s">
+        <v>241</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="12"/>
       <c r="E51" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="18">
         <v>51</v>
       </c>
-      <c r="B52" s="50"/>
+      <c r="B52" s="49"/>
       <c r="C52" s="17"/>
-      <c r="D52" s="49" t="s">
+      <c r="D52" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="47"/>
-      <c r="F52" s="54"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="53"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="18">
         <v>52</v>
       </c>
-      <c r="B53" s="53" t="s">
-        <v>241</v>
+      <c r="B53" s="52" t="s">
+        <v>240</v>
       </c>
       <c r="C53" s="27"/>
       <c r="D53" s="12"/>
       <c r="E53" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A54" s="18">
         <v>53</v>
       </c>
-      <c r="B54" s="53" t="s">
-        <v>241</v>
+      <c r="B54" s="52" t="s">
+        <v>240</v>
       </c>
       <c r="C54" s="27"/>
       <c r="D54" s="12"/>
       <c r="E54" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="F54" s="41" t="s">
-        <v>279</v>
+        <v>315</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A55" s="18">
         <v>54</v>
       </c>
-      <c r="B55" s="53" t="s">
-        <v>241</v>
+      <c r="B55" s="52" t="s">
+        <v>240</v>
       </c>
       <c r="C55" s="27"/>
       <c r="D55" s="12"/>
       <c r="E55" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A56" s="48">
+      <c r="A56" s="47">
         <v>55</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -5293,7 +5293,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57" s="48">
+      <c r="A57" s="47">
         <v>56</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -5304,7 +5304,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="48">
+      <c r="A58" s="47">
         <v>57</v>
       </c>
       <c r="E58" s="7" t="s">
@@ -5315,18 +5315,18 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A59" s="48">
+      <c r="A59" s="47">
         <v>58</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60" s="48">
+      <c r="A60" s="47">
         <v>59</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -5337,29 +5337,29 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A61" s="48">
+      <c r="A61" s="47">
         <v>60</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A62" s="48">
+      <c r="A62" s="47">
         <v>61</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F62" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A63" s="48">
+      <c r="A63" s="47">
         <v>62</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -5370,18 +5370,18 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64" s="48">
+      <c r="A64" s="47">
         <v>63</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F64" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A65" s="48">
+      <c r="A65" s="47">
         <v>64</v>
       </c>
       <c r="D65" s="5" t="s">
@@ -5389,7 +5389,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A66" s="48">
+      <c r="A66" s="47">
         <v>65</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -5397,7 +5397,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A67" s="48">
+      <c r="A67" s="47">
         <v>66</v>
       </c>
       <c r="D67" s="5" t="s">
@@ -5405,7 +5405,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A68" s="48">
+      <c r="A68" s="47">
         <v>67</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -5413,18 +5413,18 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A69" s="48">
+      <c r="A69" s="47">
         <v>68</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F69" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A70" s="48">
+      <c r="A70" s="47">
         <v>69</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -5432,7 +5432,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A71" s="48">
+      <c r="A71" s="47">
         <v>70</v>
       </c>
       <c r="D71" s="5" t="s">
@@ -5443,7 +5443,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A72" s="48">
+      <c r="A72" s="47">
         <v>71</v>
       </c>
       <c r="D72" s="5" t="s">
@@ -5451,7 +5451,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A73" s="48">
+      <c r="A73" s="47">
         <v>72</v>
       </c>
       <c r="D73" s="5" t="s">
@@ -5459,18 +5459,18 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A74" s="48">
+      <c r="A74" s="47">
         <v>73</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F74" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A75" s="48">
+      <c r="A75" s="47">
         <v>74</v>
       </c>
       <c r="D75" s="5" t="s">
@@ -5478,7 +5478,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A76" s="48">
+      <c r="A76" s="47">
         <v>75</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -5486,18 +5486,18 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A77" s="48">
+      <c r="A77" s="47">
         <v>76</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>68</v>
       </c>
       <c r="F77" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A78" s="48">
+      <c r="A78" s="47">
         <v>77</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -5505,7 +5505,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A79" s="48">
+      <c r="A79" s="47">
         <v>78</v>
       </c>
       <c r="D79" s="5" t="s">
@@ -5513,7 +5513,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A80" s="48">
+      <c r="A80" s="47">
         <v>79</v>
       </c>
       <c r="D80" s="5" t="s">
@@ -5521,7 +5521,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A81" s="48">
+      <c r="A81" s="47">
         <v>80</v>
       </c>
       <c r="D81" s="5" t="s">
@@ -5529,7 +5529,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A82" s="48">
+      <c r="A82" s="47">
         <v>81</v>
       </c>
       <c r="D82" s="5" t="s">
@@ -5537,7 +5537,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A83" s="48">
+      <c r="A83" s="47">
         <v>82</v>
       </c>
       <c r="D83" s="5" t="s">
@@ -5545,7 +5545,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A84" s="48">
+      <c r="A84" s="47">
         <v>83</v>
       </c>
       <c r="D84" s="5" t="s">
@@ -5553,7 +5553,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A85" s="48">
+      <c r="A85" s="47">
         <v>84</v>
       </c>
       <c r="D85" s="5" t="s">
@@ -5561,7 +5561,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A86" s="48">
+      <c r="A86" s="47">
         <v>85</v>
       </c>
       <c r="D86" s="5" t="s">
@@ -5569,7 +5569,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A87" s="48">
+      <c r="A87" s="47">
         <v>86</v>
       </c>
       <c r="D87" s="5" t="s">
@@ -5577,7 +5577,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A88" s="48">
+      <c r="A88" s="47">
         <v>87</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -5585,7 +5585,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A89" s="48">
+      <c r="A89" s="47">
         <v>88</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -5593,7 +5593,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A90" s="48">
+      <c r="A90" s="47">
         <v>89</v>
       </c>
       <c r="D90" s="5" t="s">
@@ -5604,7 +5604,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A91" s="48">
+      <c r="A91" s="47">
         <v>90</v>
       </c>
       <c r="E91" s="7" t="s">
@@ -5612,7 +5612,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A92" s="48">
+      <c r="A92" s="47">
         <v>91</v>
       </c>
       <c r="E92" s="7" t="s">
@@ -5620,7 +5620,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A93" s="48">
+      <c r="A93" s="47">
         <v>92</v>
       </c>
       <c r="E93" s="7" t="s">
@@ -5628,7 +5628,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A94" s="48">
+      <c r="A94" s="47">
         <v>93</v>
       </c>
       <c r="E94" s="7" t="s">
@@ -5636,29 +5636,29 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A95" s="48">
+      <c r="A95" s="47">
         <v>94</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F95" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A96" s="48">
+      <c r="A96" s="47">
         <v>95</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F96" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A97" s="48">
+      <c r="A97" s="47">
         <v>96</v>
       </c>
       <c r="E97" s="7" t="s">
@@ -5666,7 +5666,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A98" s="48">
+      <c r="A98" s="47">
         <v>97</v>
       </c>
       <c r="E98" s="7" t="s">
@@ -5677,7 +5677,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A99" s="48">
+      <c r="A99" s="47">
         <v>98</v>
       </c>
       <c r="E99" s="7" t="s">
@@ -5688,7 +5688,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A100" s="48">
+      <c r="A100" s="47">
         <v>99</v>
       </c>
       <c r="E100" s="7" t="s">
@@ -5696,7 +5696,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A101" s="48">
+      <c r="A101" s="47">
         <v>100</v>
       </c>
       <c r="E101" s="7" t="s">
@@ -5704,7 +5704,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A102" s="48">
+      <c r="A102" s="47">
         <v>101</v>
       </c>
       <c r="E102" s="7" t="s">
@@ -5712,29 +5712,29 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A103" s="48">
+      <c r="A103" s="47">
         <v>102</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F103" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A104" s="48">
+      <c r="A104" s="47">
         <v>103</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>88</v>
       </c>
       <c r="F104" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A105" s="48">
+      <c r="A105" s="47">
         <v>104</v>
       </c>
       <c r="E105" s="7" t="s">
@@ -5742,7 +5742,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A106" s="48">
+      <c r="A106" s="47">
         <v>105</v>
       </c>
       <c r="E106" s="7" t="s">
@@ -5750,7 +5750,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A107" s="48">
+      <c r="A107" s="47">
         <v>106</v>
       </c>
       <c r="C107" s="3" t="s">
@@ -5758,7 +5758,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A108" s="48">
+      <c r="A108" s="47">
         <v>107</v>
       </c>
       <c r="C108" s="3" t="s">
@@ -5769,7 +5769,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A109" s="48">
+      <c r="A109" s="47">
         <v>108</v>
       </c>
       <c r="D109" s="5" t="s">
@@ -5777,29 +5777,29 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A110" s="48">
+      <c r="A110" s="47">
         <v>109</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F110" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A111" s="48">
+      <c r="A111" s="47">
         <v>110</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>92</v>
       </c>
       <c r="F111" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A112" s="48">
+      <c r="A112" s="47">
         <v>111</v>
       </c>
       <c r="C112" s="3" t="s">
@@ -5810,29 +5810,29 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A113" s="48">
+      <c r="A113" s="47">
         <v>112</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>95</v>
       </c>
       <c r="F113" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A114" s="48">
+      <c r="A114" s="47">
         <v>113</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>103</v>
       </c>
       <c r="F114" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A115" s="48">
+      <c r="A115" s="47">
         <v>114</v>
       </c>
       <c r="D115" s="5" t="s">
@@ -5843,7 +5843,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A116" s="48">
+      <c r="A116" s="47">
         <v>115</v>
       </c>
       <c r="D116" s="5" t="s">
@@ -5854,7 +5854,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A117" s="48">
+      <c r="A117" s="47">
         <v>116</v>
       </c>
       <c r="D117" s="5" t="s">
@@ -5862,7 +5862,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A118" s="48">
+      <c r="A118" s="47">
         <v>117</v>
       </c>
       <c r="D118" s="5" t="s">
@@ -5870,7 +5870,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A119" s="48">
+      <c r="A119" s="47">
         <v>118</v>
       </c>
       <c r="D119" s="5" t="s">
@@ -5878,7 +5878,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A120" s="48">
+      <c r="A120" s="47">
         <v>119</v>
       </c>
       <c r="D120" s="5" t="s">
@@ -5886,7 +5886,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A121" s="48">
+      <c r="A121" s="47">
         <v>120</v>
       </c>
       <c r="D121" s="5" t="s">
@@ -5894,7 +5894,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A122" s="48">
+      <c r="A122" s="47">
         <v>121</v>
       </c>
       <c r="C122" s="3" t="s">
@@ -5902,7 +5902,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A123" s="48">
+      <c r="A123" s="47">
         <v>122</v>
       </c>
       <c r="D123" s="5" t="s">
@@ -5913,18 +5913,18 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A124" s="48">
+      <c r="A124" s="47">
         <v>123</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>133</v>
       </c>
       <c r="F124" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A125" s="48">
+      <c r="A125" s="47">
         <v>124</v>
       </c>
       <c r="E125" s="7" t="s">
@@ -5932,7 +5932,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A126" s="48">
+      <c r="A126" s="47">
         <v>125</v>
       </c>
       <c r="E126" s="7" t="s">
@@ -5940,7 +5940,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A127" s="48">
+      <c r="A127" s="47">
         <v>126</v>
       </c>
       <c r="E127" s="7" t="s">
@@ -5948,7 +5948,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A128" s="48">
+      <c r="A128" s="47">
         <v>127</v>
       </c>
       <c r="E128" s="7" t="s">
@@ -5956,7 +5956,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A129" s="48">
+      <c r="A129" s="47">
         <v>128</v>
       </c>
       <c r="E129" s="7" t="s">
@@ -5964,7 +5964,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A130" s="48">
+      <c r="A130" s="47">
         <v>129</v>
       </c>
       <c r="E130" s="7" t="s">
@@ -5972,7 +5972,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A131" s="48">
+      <c r="A131" s="47">
         <v>130</v>
       </c>
       <c r="E131" s="7" t="s">
@@ -5980,7 +5980,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A132" s="48">
+      <c r="A132" s="47">
         <v>131</v>
       </c>
       <c r="E132" s="7" t="s">
@@ -5988,7 +5988,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A133" s="48">
+      <c r="A133" s="47">
         <v>132</v>
       </c>
       <c r="E133" s="7" t="s">
@@ -5996,7 +5996,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A134" s="48">
+      <c r="A134" s="47">
         <v>133</v>
       </c>
       <c r="E134" s="7" t="s">
@@ -6007,7 +6007,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A135" s="48">
+      <c r="A135" s="47">
         <v>134</v>
       </c>
       <c r="E135" s="7" t="s">
@@ -6015,7 +6015,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A136" s="48">
+      <c r="A136" s="47">
         <v>135</v>
       </c>
       <c r="D136" s="5" t="s">
@@ -6026,18 +6026,18 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A137" s="48">
+      <c r="A137" s="47">
         <v>136</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>113</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A138" s="48">
+      <c r="A138" s="47">
         <v>137</v>
       </c>
       <c r="E138" s="7" t="s">
@@ -6045,7 +6045,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A139" s="48">
+      <c r="A139" s="47">
         <v>138</v>
       </c>
       <c r="E139" s="7" t="s">
@@ -6053,18 +6053,18 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A140" s="48">
+      <c r="A140" s="47">
         <v>139</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>108</v>
       </c>
       <c r="F140" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A141" s="48">
+      <c r="A141" s="47">
         <v>140</v>
       </c>
       <c r="E141" s="7" t="s">
@@ -6075,7 +6075,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A142" s="48">
+      <c r="A142" s="47">
         <v>141</v>
       </c>
       <c r="E142" s="7" t="s">
@@ -6083,7 +6083,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A143" s="48">
+      <c r="A143" s="47">
         <v>142</v>
       </c>
       <c r="E143" s="7" t="s">
@@ -6091,7 +6091,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A144" s="48">
+      <c r="A144" s="47">
         <v>143</v>
       </c>
       <c r="E144" s="7" t="s">
@@ -6099,7 +6099,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A145" s="48">
+      <c r="A145" s="47">
         <v>144</v>
       </c>
       <c r="E145" s="7" t="s">
@@ -6107,7 +6107,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A146" s="48">
+      <c r="A146" s="47">
         <v>145</v>
       </c>
       <c r="E146" s="7" t="s">
@@ -6115,7 +6115,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A147" s="48">
+      <c r="A147" s="47">
         <v>146</v>
       </c>
       <c r="E147" s="7" t="s">
@@ -6123,7 +6123,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A148" s="48">
+      <c r="A148" s="47">
         <v>147</v>
       </c>
       <c r="D148" s="5" t="s">
@@ -6134,7 +6134,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A149" s="48">
+      <c r="A149" s="47">
         <v>148</v>
       </c>
       <c r="E149" s="7" t="s">
@@ -6145,7 +6145,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A150" s="48">
+      <c r="A150" s="47">
         <v>149</v>
       </c>
       <c r="E150" s="7" t="s">
@@ -6153,7 +6153,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A151" s="48">
+      <c r="A151" s="47">
         <v>150</v>
       </c>
       <c r="E151" s="7" t="s">
@@ -6161,7 +6161,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A152" s="48">
+      <c r="A152" s="47">
         <v>151</v>
       </c>
       <c r="E152" s="7" t="s">
@@ -6169,7 +6169,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A153" s="48">
+      <c r="A153" s="47">
         <v>152</v>
       </c>
       <c r="E153" s="7" t="s">
@@ -6177,7 +6177,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A154" s="48">
+      <c r="A154" s="47">
         <v>153</v>
       </c>
       <c r="E154" s="7" t="s">
@@ -6185,7 +6185,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A155" s="48">
+      <c r="A155" s="47">
         <v>154</v>
       </c>
       <c r="C155" s="3" t="s">
@@ -6193,18 +6193,18 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A156" s="48">
+      <c r="A156" s="47">
         <v>155</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>143</v>
       </c>
       <c r="F156" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A157" s="48">
+      <c r="A157" s="47">
         <v>156</v>
       </c>
       <c r="D157" s="5" t="s">
@@ -6212,7 +6212,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A158" s="48">
+      <c r="A158" s="47">
         <v>157</v>
       </c>
       <c r="C158" s="3" t="s">
@@ -6220,19 +6220,19 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A159" s="48">
+      <c r="A159" s="47">
         <v>158</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A160" s="48">
+      <c r="A160" s="47">
         <v>159</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6256,192 +6256,192 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="46" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="43" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="C1" s="43" t="s">
+    <row r="1" spans="1:3" s="42" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>228</v>
       </c>
+      <c r="C1" s="42" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="2" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="46">
+      <c r="A2" s="45">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="45">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>222</v>
       </c>
-      <c r="C2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="46">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="45">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>223</v>
       </c>
-      <c r="C3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="46">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="45">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="46">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="45">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>231</v>
       </c>
-      <c r="C5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="46">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="46">
+      <c r="A7" s="45">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="46">
+      <c r="A8" s="45">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="46">
+      <c r="A9" s="45">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="46">
+      <c r="A10" s="45">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="46">
+      <c r="A11" s="45">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="46">
+      <c r="A12" s="45">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="46">
+      <c r="A13" s="45">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="46">
+      <c r="A14" s="45">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="46">
+      <c r="A15" s="45">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="46">
+      <c r="A16" s="45">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="46">
+      <c r="A17" s="45">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="46">
+      <c r="A18" s="45">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="46">
+      <c r="A19" s="45">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="46">
+      <c r="A20" s="45">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="46">
+      <c r="A21" s="45">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="46">
+      <c r="A22" s="45">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="46">
+      <c r="A23" s="45">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" s="46">
+      <c r="A24" s="45">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" s="46">
+      <c r="A25" s="45">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="46">
+      <c r="A26" s="45">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="46">
+      <c r="A27" s="45">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="46">
+      <c r="A28" s="45">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" s="46">
+      <c r="A29" s="45">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" s="46">
+      <c r="A30" s="45">
         <v>29</v>
       </c>
     </row>
@@ -6461,100 +6461,100 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.796875" style="46" customWidth="1"/>
+    <col min="1" max="1" width="5.796875" style="45" customWidth="1"/>
     <col min="3" max="3" width="79.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="42" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:4" s="41" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" s="44"/>
+      <c r="B1" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="43"/>
     </row>
     <row r="2" spans="1:4" ht="52.8" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="46">
+      <c r="A2" s="45">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>227</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="46">
+      <c r="A3" s="45">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="46">
+      <c r="A4" s="45">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="46">
+      <c r="A5" s="45">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="46">
+      <c r="A6" s="45">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="46">
+      <c r="A7" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="46">
+      <c r="A8" s="45">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="46">
+      <c r="A9" s="45">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="46">
+      <c r="A10" s="45">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="46">
+      <c r="A11" s="45">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="46">
+      <c r="A12" s="45">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="46">
+      <c r="A13" s="45">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="46">
+      <c r="A14" s="45">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="46">
+      <c r="A15" s="45">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="46">
+      <c r="A16" s="45">
         <v>15</v>
       </c>
     </row>

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="진행일정" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="338">
   <si>
     <t>업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1143,14 +1143,6 @@
   </si>
   <si>
     <t>update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1411,6 +1403,95 @@
 update daily_tasks set assign_type=?, assign_detail=? where assign_date=? and assign_detail=? and input_task=?
 2-2. 매뉴얼일 경우
 update daily_tasks set assign_type=?, assign_detail=? where assign_date=? and assign_detail=? and manual_tasks_seq=(select m.manual_tasks_seq from manual_tasks m where task=?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select staff_id from branch_staffs where leave_date is not null and  branches_seq=(select branches_seq from branches where branch_name=?);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( ?, ?, ?, ?, ?, ?, ?, ?, ?, ? );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select user_id from users where user_id = ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select phone_num from users where phone_num= ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select user_id from users where phone_num = ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update users set pw=? where user_id=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰 번호 명의자 일치여부 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 회원 인증 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs(staff_id, resume_file, health_file, bank_file, bank_name, account_num, status)
+values(?, ?, ?, ?, ?, 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update users set email=?, address_city=?, address_gu=?, address_dong=?, phone_num=? where user_id=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update users set pw=? where user_id=? and pw=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select pw from users where pw=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--1. 모든 정보 변경
+update staffs set resume_file=?, health_file=?, bank_file=?, bank_name=?, account_num=? where staff_id=?
+--2. 일부 정보만 변경?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select resume_file, health_file, bank_file, bank_name, account_num from staffs where staff_id=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원인증정보, 회원정보 더미데이터
+직원, 회원정보 관련 기능 SQL추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원인증정보, 회원정보 table 물리모델링
+DDL, insert문 순서 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDBC - DailyDAO 인터페이스 설계 및 구현
+DailyVO 구현
+MyBatis 기본 세팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDBC - ManualDAO, StaffDAO 인터페이스 설계 및 구현
+ManualVO, StaffVO 구현
+MyBatis 기본 세팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1472,7 +1553,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1518,6 +1599,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1611,7 +1704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1803,6 +1896,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2127,9 +2250,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2138,10 +2261,10 @@
     <col min="2" max="2" width="16.09765625" style="25" customWidth="1"/>
     <col min="3" max="3" width="31.09765625" customWidth="1"/>
     <col min="4" max="4" width="31.19921875" customWidth="1"/>
-    <col min="5" max="5" width="32.8984375" customWidth="1"/>
+    <col min="5" max="5" width="34.796875" customWidth="1"/>
     <col min="6" max="6" width="31.5" customWidth="1"/>
-    <col min="7" max="7" width="33.69921875" customWidth="1"/>
-    <col min="8" max="8" width="30" customWidth="1"/>
+    <col min="7" max="7" width="34.59765625" customWidth="1"/>
+    <col min="8" max="8" width="31.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="11" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -2345,6 +2468,21 @@
       </c>
       <c r="C22" s="38" t="s">
         <v>259</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -2628,7 +2766,7 @@
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="29" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="31"/>
@@ -2636,13 +2774,13 @@
         <v>204</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H4" s="31" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J4" s="32"/>
     </row>
@@ -2652,21 +2790,21 @@
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="29" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="31"/>
       <c r="F5" s="33" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J5" s="32"/>
     </row>
@@ -2755,7 +2893,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="30"/>
@@ -2763,16 +2901,16 @@
         <v>7</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>49</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J11" s="32"/>
     </row>
@@ -2844,10 +2982,10 @@
       <c r="D16" s="13"/>
       <c r="E16" s="15"/>
       <c r="F16" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>14</v>
@@ -2905,10 +3043,10 @@
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>14</v>
@@ -2928,10 +3066,10 @@
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>14</v>
@@ -2998,16 +3136,16 @@
         <v>174</v>
       </c>
       <c r="F24" s="59" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G24" s="59" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H24" s="56" t="s">
         <v>43</v>
       </c>
       <c r="I24" s="60" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J24" s="60"/>
     </row>
@@ -3021,16 +3159,16 @@
       <c r="D25" s="55"/>
       <c r="E25" s="59"/>
       <c r="F25" s="59" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G25" s="59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H25" s="56" t="s">
         <v>46</v>
       </c>
       <c r="I25" s="60" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J25" s="60"/>
     </row>
@@ -3054,7 +3192,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C27" s="35"/>
       <c r="D27" s="30"/>
@@ -3062,16 +3200,16 @@
         <v>39</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H27" s="31" t="s">
         <v>50</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J27" s="32"/>
     </row>
@@ -3170,16 +3308,16 @@
       <c r="D33" s="30"/>
       <c r="E33" s="33"/>
       <c r="F33" s="33" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H33" s="31" t="s">
         <v>5</v>
       </c>
       <c r="I33" s="32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J33" s="32"/>
     </row>
@@ -3210,16 +3348,16 @@
       </c>
       <c r="E35" s="33"/>
       <c r="F35" s="33" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H35" s="31" t="s">
         <v>5</v>
       </c>
       <c r="I35" s="32" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J35" s="32"/>
     </row>
@@ -3234,16 +3372,16 @@
       </c>
       <c r="E36" s="33"/>
       <c r="F36" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H36" s="31" t="s">
         <v>5</v>
       </c>
       <c r="I36" s="32" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J36" s="32"/>
     </row>
@@ -3258,16 +3396,16 @@
       </c>
       <c r="E37" s="33"/>
       <c r="F37" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>5</v>
       </c>
       <c r="I37" s="32" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J37" s="32"/>
     </row>
@@ -3324,7 +3462,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C41" s="35"/>
       <c r="D41" s="30"/>
@@ -3332,16 +3470,16 @@
         <v>10</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G41" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H41" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I41" s="32" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J41" s="32"/>
     </row>
@@ -3356,16 +3494,16 @@
       <c r="D42" s="55"/>
       <c r="E42" s="59"/>
       <c r="F42" s="59" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G42" s="59" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H42" s="56" t="s">
         <v>43</v>
       </c>
       <c r="I42" s="60" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J42" s="60"/>
     </row>
@@ -3380,16 +3518,16 @@
       <c r="D43" s="55"/>
       <c r="E43" s="59"/>
       <c r="F43" s="59" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G43" s="59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H43" s="56" t="s">
         <v>46</v>
       </c>
       <c r="I43" s="60" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J43" s="60"/>
     </row>
@@ -3422,16 +3560,16 @@
         <v>12</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G45" s="33" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H45" s="31" t="s">
         <v>13</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J45" s="32"/>
     </row>
@@ -3480,10 +3618,10 @@
       <c r="D48" s="13"/>
       <c r="E48" s="15"/>
       <c r="F48" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H48" s="15" t="s">
         <v>5</v>
@@ -3504,10 +3642,10 @@
       <c r="D49" s="13"/>
       <c r="E49" s="15"/>
       <c r="F49" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H49" s="15" t="s">
         <v>5</v>
@@ -4584,8 +4722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4646,7 +4784,7 @@
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="31" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="348" x14ac:dyDescent="0.4">
@@ -4662,7 +4800,7 @@
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="33" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -4922,7 +5060,7 @@
       <c r="D27" s="35"/>
       <c r="E27" s="30"/>
       <c r="F27" s="33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -4989,7 +5127,7 @@
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -5085,7 +5223,7 @@
       <c r="D41" s="35"/>
       <c r="E41" s="30"/>
       <c r="F41" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
@@ -5141,7 +5279,7 @@
       <c r="D45" s="29"/>
       <c r="E45" s="30"/>
       <c r="F45" s="33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
@@ -5262,7 +5400,7 @@
       <c r="C54" s="27"/>
       <c r="D54" s="12"/>
       <c r="E54" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F54" s="14" t="s">
         <v>270</v>
@@ -5329,11 +5467,12 @@
       <c r="A60" s="47">
         <v>59</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="F60" t="s">
-        <v>5</v>
+      <c r="E60" s="65"/>
+      <c r="F60" s="66" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
@@ -5416,11 +5555,13 @@
       <c r="A69" s="47">
         <v>68</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F69" t="s">
-        <v>273</v>
+      <c r="D69" s="64"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="66" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
@@ -5435,11 +5576,12 @@
       <c r="A71" s="47">
         <v>70</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="F71" t="s">
-        <v>5</v>
+      <c r="E71" s="65"/>
+      <c r="F71" s="66" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
@@ -5489,11 +5631,12 @@
       <c r="A77" s="47">
         <v>76</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="F77" t="s">
-        <v>274</v>
+      <c r="E77" s="65"/>
+      <c r="F77" s="66" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
@@ -5596,11 +5739,12 @@
       <c r="A90" s="47">
         <v>89</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="F90" t="s">
-        <v>5</v>
+      <c r="E90" s="65"/>
+      <c r="F90" s="66" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.4">
@@ -5615,8 +5759,11 @@
       <c r="A92" s="47">
         <v>91</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" s="65" t="s">
         <v>67</v>
+      </c>
+      <c r="F92" s="66" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
@@ -5650,11 +5797,12 @@
       <c r="A96" s="47">
         <v>95</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="F96" t="s">
-        <v>275</v>
+      <c r="E96" s="65"/>
+      <c r="F96" s="66" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.4">
@@ -5669,21 +5817,21 @@
       <c r="A98" s="47">
         <v>97</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E98" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="F98" t="s">
-        <v>5</v>
+      <c r="F98" s="66" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="47">
         <v>98</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E99" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="66" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5726,11 +5874,11 @@
       <c r="A104" s="47">
         <v>103</v>
       </c>
-      <c r="E104" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F104" t="s">
-        <v>267</v>
+      <c r="E104" s="65" t="s">
+        <v>325</v>
+      </c>
+      <c r="F104" s="66" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.4">
@@ -5795,18 +5943,20 @@
         <v>92</v>
       </c>
       <c r="F111" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A112" s="47">
         <v>111</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F112" t="s">
-        <v>27</v>
+      <c r="C112" s="69" t="s">
+        <v>327</v>
+      </c>
+      <c r="D112" s="70"/>
+      <c r="E112" s="68"/>
+      <c r="F112" s="71" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.4">
@@ -5905,10 +6055,11 @@
       <c r="A123" s="47">
         <v>122</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D123" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="F123" t="s">
+      <c r="E123" s="68"/>
+      <c r="F123" s="72" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5916,11 +6067,12 @@
       <c r="A124" s="47">
         <v>123</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D124" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="F124" t="s">
-        <v>272</v>
+      <c r="E124" s="68"/>
+      <c r="F124" s="72" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.4">
@@ -6018,22 +6170,24 @@
       <c r="A136" s="47">
         <v>135</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D136" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="F136" t="s">
-        <v>15</v>
+      <c r="E136" s="68"/>
+      <c r="F136" s="72" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="47">
         <v>136</v>
       </c>
-      <c r="E137" s="7" t="s">
+      <c r="D137" s="70"/>
+      <c r="E137" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="F137" t="s">
-        <v>261</v>
+      <c r="F137" s="72" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.4">
@@ -6060,7 +6214,7 @@
         <v>108</v>
       </c>
       <c r="F140" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.4">
@@ -6122,26 +6276,28 @@
         <v>122</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A148" s="47">
         <v>147</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D148" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="F148" t="s">
-        <v>15</v>
+      <c r="E148" s="68"/>
+      <c r="F148" s="73" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" s="47">
         <v>148</v>
       </c>
-      <c r="E149" s="7" t="s">
+      <c r="D149" s="48"/>
+      <c r="E149" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="F149" t="s">
-        <v>5</v>
+      <c r="F149" s="72" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.4">
@@ -6200,7 +6356,7 @@
         <v>143</v>
       </c>
       <c r="F156" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.4">

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbstj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A0AFAB-F604-434E-8EBD-4893A80D0992}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="진행일정" sheetId="3" r:id="rId1"/>
@@ -19,9 +20,9 @@
     <sheet name="발표컨텐츠" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SQL!$B$1:$B$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SQL!$B$1:$B$161</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="333">
   <si>
     <t>업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -634,6 +635,10 @@
   </si>
   <si>
     <t>내일 날짜 선택시 업무배정, 수정, 삭제 버튼 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 배정대상에 속한 업무 목록 보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -906,11 +911,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select task, repeat_type, repeat_detail from manual_tasks m, space_types s, task_types t 
-where m.space_types_seq = s.space_types_seq and m.task_types_seq = t.task_types_seq and s.space_type=? and t.task_type=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select space_type from space_types;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1003,6 +1003,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>선택한 공간에 속한 공간분류 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>선택한 업무/공간분류에 속한 업무 목록 보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1036,11 +1040,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select task, repeat_type, repeat_detail from manual_tasks m, space_types s, task_types t 
-where m.space_types_seq = s.space_types_seq and m.task_types_seq = t.task_types_seq and s.space_type=? and t.task_type=?;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1073,12 +1072,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.매뉴얼에서 선택
-insert into daily_tasks (daily_tasks_seq, input_task, assign_date, importance, assign_type, assign_detail, manual_tasks_seq, finisher_id, finisher_name, assigner_id, branch_seq) 
-values(daily_tasks_seq.nextval, null, ?, ?, ?, ?, (select manual_tasks_seq from manual_tasks where task=?), null, null, ?, ?);
-2.직접입력
-insert into daily_tasks (daily_tasks_seq, input_task, assign_date, importance, assign_type, assign_detail, manual_tasks_seq, finisher_id, finisher_name, assigner_id, branch_seq) 
-values(daily_tasks_seq.nextval, ?, ?, ?, ?, ?, null, null, null, ?, ?);</t>
+    <t>select distinct assign_detail from daily_tasks where assign_type='파트' and assign_date = ?;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1097,18 +1091,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select m.TASK, s.SPACE_TYPE
-from MANUAL_TASKS m, SPACE_TYPES s 
-where m.SPACE_TYPES_SEQ=s.SPACE_TYPES_SEQ
-order by m.SPACE_TYPES_SEQ asc, m.MANUAL_TASKS_SEQ asc;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select distinct task_type from manual_tasks m, space_types s, task_types t 
-where m.space_types_seq = s.space_types_seq and m.task_types_seq = t.task_types_seq and s.space_type=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select distinct work_part from branch_staffs where leave_date is null;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1130,27 +1112,6 @@
   </si>
   <si>
     <t>select task_type from task_types;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select distinct space_type from manual_tasks m, space_types s, task_types t 
-where m.space_types_seq = s.space_types_seq and m.task_types_seq = t.task_types_seq and t.task_type=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1306,203 +1267,201 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>선택한 날짜에 해당하는 배정대상 목록 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 배정대상에 속한 업무 목록 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업무 배정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업무 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업무 재배정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>select resume_file, health_file, bank_file, bank_name, account_num from staffs where staff_id=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select pw from users where pw=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update users set email=?, address_city=?, address_gu=?, address_dong=?, phone_num=? where user_id=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select staff_id from branch_staffs where leave_date is not null and  branches_seq=(select branches_seq from branches where branch_name=?);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( ?, ?, ?, ?, ?, ?, ?, ?, ?, ? );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update users set pw=? where user_id=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update users set pw=? where user_id=? and pw=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">--1. 모든 정보 변경
+update staffs set resume_file=?, health_file=?, bank_file=?, bank_name=?, account_num=? where staff_id=?
+--2. 일부 정보만 변경?
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select branch_name from branches where address_city=? and address_gu=? and address_dong=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select address_gu from addresses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select address_city from addresses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(phone_num) from users where phone_num= ? //말이 안되잖아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(user_id) from users where user_id = ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select phone_num from users where user_id=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs(staff_id, resume_file, health_file, bank_file, bank_name, account_num, status) values(?, ?, ?, ?, ?, 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">--1. 프로필 사진, 이름을 users에서 조회 
+select u.name, u.profile_photo from users where user_id=?
+--2. 회원 인증 유형을 조회; 점주일 경우 branch_seq가 존재하겠지. 직원이면?
+select branch_seq from admins where admin_id=(select user_id from users where user_id=?)
+--3. 해당 회원이 속한 지점명 조회
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select branch_seq, branch_name from branches where address_city=? and address_gu=? and address_dong=? and address_detail=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select profile_photo, name from users where user_id=(select staff_id from staffs where status=0) and  ////테스트 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">update staffs set status=1 where staff_id=? And </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 주소 정보 페이징  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         페이징 기본 쿼리: inline view(예제 DB 활용)      select rownum, e.employee_id, e.job_id from (select employee_id, job_id from employees) e where rownum&lt;=50
+         지점 주소 정보 페이징      select rownum, b.address_city, b.address_gu, b.address_dong, b.address_detail from (select address_city, address_gu, address_dong, address_detail from branches) b where rownum&gt;=1
+         회원가입 시 주소 정보 페이징      select rownum, a.address_city, a.address_gu, a.address_dong from (select address_city, address_gu, address_dong from address) a where rownum&gt;=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.파트별 업무보기
+1-1.매뉴얼에서 선택한 업무
+select d.importance, m.task, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_task_seq=m.manual_task_seq and d.assign_detail='오픈' and d.assign_date='2018/05/09';
+select d.importance, m.task, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_task_seq=m.manual_task_seq and d.assign_detail=? and d.assign_date=?;
+1-2.직접입력 업무
+select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_detail='마감' and assign_date='2018/05/07';
+select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_detail=? and assign_date=?;
+2.개인업무로 배정된 업무 보기
+2-1.매뉴얼에서 선택한 업무
+select d.importance, m.task, d.assign_detail, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_task_seq=m.manual_task_seq and d.assign_type='개인' and d.assign_date='2018/05/09';
+select d.importance, m.task, d.assign_detail, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_task_seq=m.manual_task_seq and d.assign_type='개인' and d.assign_date=?;
+2-2.직접입력 업무
+select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_type='개인' and assign_date='2018/05/09';
+select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_type='개인' and assign_date=?;</t>
+  </si>
+  <si>
+    <t>1.매뉴얼에서 선택
+insert into daily_tasks (daily_task_seq, input_task, assign_date, importance, assign_type, assign_detail, manual_task_seq, finisher_id, finisher_name, assigner_id, branch_seq) 
+values(daily_task_seq.nextval, null, ?, ?, ?, ?, (select manual_task_seq from manual_tasks where task=?), null, null, ?, ?);
+2.직접입력
+insert into daily_tasks (daily_task_seq, input_task, assign_date, importance, assign_type, assign_detail, manual_task_seq, finisher_id, finisher_name, assigner_id, branch_seq) 
+values(daily_task_seq.nextval, ?, ?, ?, ?, ?, null, null, null, ?, ?);</t>
   </si>
   <si>
     <t>1-1.매뉴얼-&gt;매뉴얼
 update daily_tasks
-set manual_tasks_seq=(select manual_tasks_seq from manual_tasks where task=?)
-where assign_date=? and assign_detail=? and manual_tasks_seq=(select manual_tasks_seq from manual_tasks where task=?)
+set manual_task_seq=(select manual_task_seq from manual_tasks where task=?)
+where assign_date=? and assign_detail=? and manual_task_seq=(select manual_task_seq from manual_tasks where task=?)
 1-2.매뉴얼-&gt;직접
 update daily_tasks
-set input_task=?, manual_tasks_seq=null
-where assign_date=? and assign_detail=? and manual_tasks_seq=(select manual_tasks_seq from manual_tasks where task=?)
+set input_task=?, manual_task_seq=null
+where assign_date=? and assign_detail=? and manual_task_seq=(select manual_task_seq from manual_tasks where task=?)
 2-1.직접-&gt;매뉴얼
 update daily_tasks
-set manual_tasks_seq = (select manual_tasks_seq from manual_tasks where task=?), input_task=null
+set manual_task_seq = (select manual_task_seq from manual_tasks where task=?), input_task=null
 where assign_date=? and assign_detail=? and input_task=?
 2-2.직접-&gt;직접
 update daily_tasks
 set input_task=?
 where assign_date=? and assign_detail=? and input_task=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select m.TASK, s.SPACE_TYPE
-from MANUAL_TASKS m, SPACE_TYPES s
-where m.SPACE_TYPES_SEQ=s.SPACE_TYPES_SEQ
-order by m.SPACE_TYPES_SEQ asc, m.MANUAL_TASKS_SEQ asc;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 업무에 속한 공간분류 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.파트별 업무보기
-1-1.매뉴얼에서 선택한 업무
-select d.importance, m.task, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_tasks_seq=m.manual_tasks_seq and d.assign_detail='오픈' and d.assign_date='2018/05/09';
-select d.importance, m.task, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_tasks_seq=m.manual_tasks_seq and d.assign_detail=? and d.assign_date=?;
-1-2.직접입력 업무
-select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_detail='마감' and assign_date='2018/05/07';
-select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_detail=? and assign_date=?;
-2.개인업무로 배정된 업무 보기
-2-1.매뉴얼에서 선택한 업무
-select d.importance, m.task, d.assign_detail, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_tasks_seq=m.manual_tasks_seq and d.assign_type='개인' and d.assign_date='2018/05/09';
-select d.importance, m.task, d.assign_detail, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_tasks_seq=m.manual_tasks_seq and d.assign_type='개인' and d.assign_date=?;
-2-2.직접입력 업무
-select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_type='개인' and assign_date='2018/05/09';
-select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_type='개인' and assign_date=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select distinct assign_detail from daily_tasks where assign_type='파트' and assign_date = ?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. 매뉴얼 목록에서 배정된 업무를 삭제
-delete daily_tasks where assign_date=? and assign_type=? and assign_detail=? and manual_tasks_seq=(select m.manual_tasks_seq from manual_tasks m where task=?) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. 직접 입력 목록에서 배정된 업무를 삭제
-delete daily_tasks where assgin_date=? and assign_type=? and assign_detail=? and input_task=?</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--1. 직접입력된 업무일 경우
+update daily_tasks set importance=1 where input_tasks=?
+--2. 매뉴얼에서 선택된 업무일 경우
+update daily_tasks set importance=1 where manual_task_seq=(select manual_task_seq from manual_tasks where tasks=?)</t>
   </si>
   <si>
     <t>1. 직접인지, 매뉴얼 업무인지 판별
-select manual_tasks_seq from manual_tasks where task=?
+select manual_task_seq from manual_tasks where task=?
 2-1. 직접일 경우
 update daily_tasks set assign_type=?, assign_detail=? where assign_date=? and assign_detail=? and input_task=?
 2-2. 매뉴얼일 경우
-update daily_tasks set assign_type=?, assign_detail=? where assign_date=? and assign_detail=? and manual_tasks_seq=(select m.manual_tasks_seq from manual_tasks m where task=?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select staff_id from branch_staffs where leave_date is not null and  branches_seq=(select branches_seq from branches where branch_name=?);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( ?, ?, ?, ?, ?, ?, ?, ?, ?, ? );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select user_id from users where user_id = ?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select phone_num from users where phone_num= ?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select user_id from users where phone_num = ?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update users set pw=? where user_id=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴대폰 번호 명의자 일치여부 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원 회원 인증 요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into staffs(staff_id, resume_file, health_file, bank_file, bank_name, account_num, status)
-values(?, ?, ?, ?, ?, 0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update users set email=?, address_city=?, address_gu=?, address_dong=?, phone_num=? where user_id=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update users set pw=? where user_id=? and pw=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select pw from users where pw=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--1. 모든 정보 변경
-update staffs set resume_file=?, health_file=?, bank_file=?, bank_name=?, account_num=? where staff_id=?
---2. 일부 정보만 변경?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select resume_file, health_file, bank_file, bank_name, account_num from staffs where staff_id=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원인증정보, 회원정보 더미데이터
-직원, 회원정보 관련 기능 SQL추출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원인증정보, 회원정보 table 물리모델링
-DDL, insert문 순서 정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JDBC - DailyDAO 인터페이스 설계 및 구현
-DailyVO 구현
-MyBatis 기본 세팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JDBC - ManualDAO, StaffDAO 인터페이스 설계 및 구현
-ManualVO, StaffVO 구현
-MyBatis 기본 세팅</t>
+update daily_tasks set assign_type=?, assign_detail=? where assign_date=? and manual_task_seq=(select m.manual_task_seq from manual_tasks m where task=?)</t>
+  </si>
+  <si>
+    <t>1. 매뉴얼 목록에서 배정된 업무를 삭제
+delete daily_tasks where assign_date=? and assign_type=? and assign_detail=? and manual_task_seq=(select m.manual_task_seq from manual_tasks m where task=?) 
+2. 직접 입력 목록에서 배정된 업무를 삭제
+delete daily_tasks where assgin_date=? and assign_type=? and assign_detail=? and input_task=?</t>
+  </si>
+  <si>
+    <t>select m.TASK, s.SPACE_TYPE
+from MANUAL_TASKS m, SPACE_TYPES s 
+where m.space_type_seq=s.space_type_seq
+order by m.space_type_seq asc, m.manual_task_seq asc;</t>
+  </si>
+  <si>
+    <t>select m.TASK, s.SPACE_TYPE
+from MANUAL_TASKS m inner join SPACE_TYPES s
+on m.space_type_seq=s.space_type_seq
+order by m.space_type_seq asc, m.manual_task_seq asc;</t>
+  </si>
+  <si>
+    <t>select distinct task_type from manual_tasks m, space_types s, task_types t 
+where m.space_type_seq = s.space_type_seq and m.task_type_seq = t.task_type_seq and s.space_type=?;</t>
+  </si>
+  <si>
+    <t>select task, repeat_type, repeat_detail from manual_tasks m, space_types s, task_types t 
+where m.space_type_seq = s.space_type_seq and m.task_type_seq = t.task_type_seq and s.space_type=? and t.task_type=?</t>
+  </si>
+  <si>
+    <t>select distinct space_type from manual_tasks m, space_types s, task_types t 
+where m.space_type_seq = s.space_type_seq and m.task_type_seq = t.task_type_seq and t.task_type=?;</t>
+  </si>
+  <si>
+    <t>select task, repeat_type, repeat_detail from manual_tasks m, space_types s, task_types t 
+where m.space_type_seq = s.space_type_seq and m.task_type_seq = t.task_type_seq and s.space_type=? and t.task_type=?;</t>
+  </si>
+  <si>
+    <t>select count(phone_num) from users where phone_num=?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-412]m&quot;월&quot;\ d&quot;일&quot;\ dddd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1535,6 +1494,14 @@
       <charset val="129"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -1553,7 +1520,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1604,13 +1571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1700,11 +1661,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1828,6 +1789,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1852,19 +1816,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1">
@@ -1876,7 +1840,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -1894,6 +1858,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1903,34 +1870,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2247,192 +2193,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="40"/>
-    <col min="2" max="2" width="16.09765625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="31.09765625" customWidth="1"/>
-    <col min="4" max="4" width="31.19921875" customWidth="1"/>
-    <col min="5" max="5" width="34.796875" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="40"/>
+    <col min="2" max="2" width="16.08203125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="31.08203125" customWidth="1"/>
+    <col min="4" max="4" width="31.25" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" customWidth="1"/>
     <col min="6" max="6" width="31.5" customWidth="1"/>
-    <col min="7" max="7" width="34.59765625" customWidth="1"/>
-    <col min="8" max="8" width="31.59765625" customWidth="1"/>
+    <col min="7" max="7" width="33.75" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="11" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>194</v>
-      </c>
       <c r="H1" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B2" s="21">
         <v>43214</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B3" s="21">
         <v>43215</v>
       </c>
       <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4" s="21">
         <v>43216</v>
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="21">
         <v>43217</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="22">
         <v>43218</v>
       </c>
       <c r="C6" s="19"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="22">
         <v>43219</v>
       </c>
       <c r="C7" s="19"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="21">
         <v>43220</v>
       </c>
       <c r="C8" s="19"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="21">
         <v>43221</v>
       </c>
       <c r="C9" s="19"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="21">
         <v>43222</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" s="21">
         <v>43223</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" s="21">
         <v>43224</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" s="22">
         <v>43225</v>
       </c>
       <c r="C13" s="19"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" s="22">
         <v>43226</v>
       </c>
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B15" s="22">
         <v>43227</v>
       </c>
       <c r="C15" s="19"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B16" s="21">
         <v>43228</v>
       </c>
       <c r="C16" s="19"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B17" s="37">
         <v>43229</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="87" x14ac:dyDescent="0.4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="85" x14ac:dyDescent="0.45">
       <c r="B18" s="36">
         <v>43230</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="87" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:8" ht="85" x14ac:dyDescent="0.45">
       <c r="B19" s="36">
         <v>43231</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>257</v>
@@ -2450,217 +2396,202 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B20" s="22">
         <v>43232</v>
       </c>
       <c r="C20" s="19"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B21" s="22">
         <v>43233</v>
       </c>
       <c r="C21" s="19"/>
     </row>
-    <row r="22" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="68" x14ac:dyDescent="0.45">
       <c r="B22" s="23">
         <v>43234</v>
       </c>
       <c r="C22" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
         <v>43235</v>
       </c>
       <c r="C23" s="19"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B24" s="23">
         <v>43236</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B25" s="21">
         <v>43237</v>
       </c>
       <c r="C25" s="19"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B26" s="21">
         <v>43238</v>
       </c>
       <c r="C26" s="19"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B27" s="22">
         <v>43239</v>
       </c>
       <c r="C27" s="19"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B28" s="22">
         <v>43240</v>
       </c>
       <c r="C28" s="19"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="40" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B29" s="21">
         <v>43241</v>
       </c>
       <c r="C29" s="19"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B30" s="21">
         <v>43242</v>
       </c>
       <c r="C30" s="19"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B31" s="23">
         <v>43243</v>
       </c>
       <c r="C31" s="19"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B32" s="23">
         <v>43244</v>
       </c>
       <c r="C32" s="19"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B33" s="23">
         <v>43245</v>
       </c>
       <c r="C33" s="19"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B34" s="22">
         <v>43246</v>
       </c>
       <c r="C34" s="19"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B35" s="22">
         <v>43247</v>
       </c>
       <c r="C35" s="19"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B36" s="23">
         <v>43248</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B37" s="23">
         <v>43249</v>
       </c>
       <c r="C37" s="19"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B38" s="23">
         <v>43250</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B39" s="21">
         <v>43251</v>
       </c>
       <c r="C39" s="19"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B40" s="21">
         <v>43252</v>
       </c>
       <c r="C40" s="19"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B41" s="22">
         <v>43253</v>
       </c>
       <c r="C41" s="19"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B42" s="22">
         <v>43254</v>
       </c>
       <c r="C42" s="19"/>
     </row>
-    <row r="43" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B43" s="23">
         <v>43255</v>
       </c>
       <c r="C43" s="19"/>
     </row>
-    <row r="44" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="24">
         <v>43256</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B45" s="22">
         <v>43257</v>
       </c>
       <c r="C45" s="19"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B46" s="23">
         <v>43258</v>
       </c>
       <c r="C46" s="19"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B47" s="23">
         <v>43259</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B48" s="21"/>
       <c r="C48" s="19"/>
     </row>
@@ -2672,46 +2603,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" customWidth="1"/>
-    <col min="2" max="2" width="6.8984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="50.69921875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="23.19921875" customWidth="1"/>
-    <col min="6" max="6" width="19.59765625" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="50.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
+    <col min="6" max="6" width="19.58203125" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="11.69921875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="8.69921875" style="9"/>
+    <col min="9" max="9" width="11.58203125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="10" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>2</v>
@@ -2720,13 +2651,13 @@
         <v>3</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -2744,13 +2675,13 @@
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="29" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="31"/>
@@ -2760,61 +2691,61 @@
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="18">
         <v>3</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="29" t="s">
-        <v>306</v>
+        <v>246</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="31"/>
       <c r="F4" s="31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H4" s="31" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.45">
       <c r="A5" s="18">
         <v>4</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="29" t="s">
-        <v>307</v>
+        <v>152</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="31"/>
       <c r="F5" s="33" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="18">
         <v>5</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="31"/>
@@ -2824,13 +2755,13 @@
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="31"/>
@@ -2840,7 +2771,7 @@
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -2856,7 +2787,7 @@
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -2872,7 +2803,7 @@
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -2888,12 +2819,12 @@
       <c r="I10" s="32"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="34" x14ac:dyDescent="0.45">
       <c r="A11" s="18">
         <v>10</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>308</v>
+        <v>6</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="30"/>
@@ -2901,20 +2832,20 @@
         <v>7</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>49</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="J11" s="32"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -2925,44 +2856,44 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="18">
         <v>12</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="18">
         <v>13</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="18">
         <v>14</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="15"/>
@@ -2972,30 +2903,30 @@
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
     </row>
-    <row r="16" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="34" x14ac:dyDescent="0.45">
       <c r="A16" s="18">
         <v>15</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="15"/>
       <c r="F16" s="14" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J16" s="26"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -3010,76 +2941,76 @@
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="18">
         <v>17</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J18" s="26"/>
     </row>
-    <row r="19" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A19" s="18">
         <v>18</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="14" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J19" s="26"/>
     </row>
-    <row r="20" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A20" s="18">
         <v>19</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="14" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J20" s="26"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -3094,12 +3025,12 @@
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="18">
         <v>21</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="33"/>
@@ -3109,12 +3040,12 @@
       <c r="I22" s="32"/>
       <c r="J22" s="32"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="18">
         <v>22</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="33"/>
@@ -3124,75 +3055,75 @@
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="F24" s="59" t="s">
-        <v>285</v>
-      </c>
-      <c r="G24" s="59" t="s">
-        <v>284</v>
-      </c>
-      <c r="H24" s="56" t="s">
+      <c r="D24" s="56"/>
+      <c r="E24" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" s="60" t="s">
+        <v>278</v>
+      </c>
+      <c r="G24" s="60" t="s">
+        <v>277</v>
+      </c>
+      <c r="H24" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="60" t="s">
-        <v>302</v>
-      </c>
-      <c r="J24" s="60"/>
-    </row>
-    <row r="25" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="I24" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="J24" s="61"/>
+    </row>
+    <row r="25" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A25" s="18">
         <v>24</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59" t="s">
-        <v>286</v>
-      </c>
-      <c r="G25" s="59" t="s">
-        <v>287</v>
-      </c>
-      <c r="H25" s="56" t="s">
+      <c r="D25" s="56"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="G25" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="H25" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="60" t="s">
-        <v>302</v>
-      </c>
-      <c r="J25" s="60"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I25" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="J25" s="61"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="18">
         <v>25</v>
       </c>
-      <c r="C26" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-    </row>
-    <row r="27" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C26" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="56"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+    </row>
+    <row r="27" spans="1:10" ht="34" x14ac:dyDescent="0.45">
       <c r="A27" s="18">
         <v>26</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>309</v>
+        <v>8</v>
       </c>
       <c r="C27" s="35"/>
       <c r="D27" s="30"/>
@@ -3200,26 +3131,26 @@
         <v>39</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H27" s="31" t="s">
         <v>50</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="J27" s="32"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="18">
         <v>27</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="31"/>
@@ -3229,59 +3160,59 @@
       <c r="I28" s="32"/>
       <c r="J28" s="32"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="18">
         <v>28</v>
       </c>
       <c r="B29" s="28"/>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D29" s="47"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="18">
         <v>29</v>
       </c>
       <c r="B30" s="28"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="47" t="s">
+      <c r="C30" s="49"/>
+      <c r="D30" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="18">
         <v>30</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="47" t="s">
+      <c r="C31" s="49"/>
+      <c r="D31" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="18">
         <v>31</v>
       </c>
@@ -3297,31 +3228,31 @@
       <c r="I32" s="32"/>
       <c r="J32" s="32"/>
     </row>
-    <row r="33" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" ht="34" x14ac:dyDescent="0.45">
       <c r="A33" s="18">
         <v>32</v>
       </c>
       <c r="B33" s="28"/>
       <c r="C33" s="29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D33" s="30"/>
       <c r="E33" s="33"/>
       <c r="F33" s="33" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H33" s="31" t="s">
         <v>5</v>
       </c>
       <c r="I33" s="32" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="J33" s="32"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="18">
         <v>33</v>
       </c>
@@ -3337,79 +3268,79 @@
       <c r="I34" s="32"/>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="18">
         <v>34</v>
       </c>
       <c r="B35" s="28"/>
       <c r="C35" s="29"/>
       <c r="D35" s="30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E35" s="33"/>
       <c r="F35" s="33" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="H35" s="31" t="s">
         <v>5</v>
       </c>
       <c r="I35" s="32" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="J35" s="32"/>
     </row>
-    <row r="36" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A36" s="18">
         <v>35</v>
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="29"/>
       <c r="D36" s="30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E36" s="33"/>
       <c r="F36" s="33" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H36" s="31" t="s">
         <v>5</v>
       </c>
       <c r="I36" s="32" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="J36" s="32"/>
     </row>
-    <row r="37" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A37" s="18">
         <v>36</v>
       </c>
       <c r="B37" s="28"/>
       <c r="C37" s="29"/>
       <c r="D37" s="30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E37" s="33"/>
       <c r="F37" s="33" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>5</v>
       </c>
       <c r="I37" s="32" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="J37" s="32"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="18">
         <v>37</v>
       </c>
@@ -3425,13 +3356,13 @@
       <c r="I38" s="32"/>
       <c r="J38" s="32"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="18">
         <v>38</v>
       </c>
       <c r="B39" s="28"/>
       <c r="C39" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D39" s="30"/>
       <c r="E39" s="33"/>
@@ -3441,13 +3372,13 @@
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="18">
         <v>39</v>
       </c>
       <c r="B40" s="28"/>
       <c r="C40" s="29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D40" s="30"/>
       <c r="E40" s="33"/>
@@ -3457,12 +3388,12 @@
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
     </row>
-    <row r="41" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" ht="34" x14ac:dyDescent="0.45">
       <c r="A41" s="18">
         <v>40</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="C41" s="35"/>
       <c r="D41" s="30"/>
@@ -3470,74 +3401,74 @@
         <v>10</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="G41" s="33" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H41" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I41" s="32" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="J41" s="32"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="18">
         <v>41</v>
       </c>
       <c r="B42" s="28"/>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="55"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59" t="s">
-        <v>285</v>
-      </c>
-      <c r="G42" s="59" t="s">
-        <v>284</v>
-      </c>
-      <c r="H42" s="56" t="s">
+      <c r="D42" s="56"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60" t="s">
+        <v>278</v>
+      </c>
+      <c r="G42" s="60" t="s">
+        <v>277</v>
+      </c>
+      <c r="H42" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="I42" s="60" t="s">
-        <v>302</v>
-      </c>
-      <c r="J42" s="60"/>
-    </row>
-    <row r="43" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="I42" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="J42" s="61"/>
+    </row>
+    <row r="43" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A43" s="18">
         <v>42</v>
       </c>
       <c r="B43" s="28"/>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="55"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59" t="s">
-        <v>286</v>
-      </c>
-      <c r="G43" s="59" t="s">
-        <v>287</v>
-      </c>
-      <c r="H43" s="56" t="s">
+      <c r="D43" s="56"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="G43" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="H43" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I43" s="60" t="s">
-        <v>302</v>
-      </c>
-      <c r="J43" s="60"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I43" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="J43" s="61"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="18">
         <v>43</v>
       </c>
       <c r="B44" s="28"/>
       <c r="C44" s="29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="33"/>
@@ -3547,7 +3478,7 @@
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
     </row>
-    <row r="45" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" ht="34" x14ac:dyDescent="0.45">
       <c r="A45" s="18">
         <v>44</v>
       </c>
@@ -3560,20 +3491,20 @@
         <v>12</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G45" s="33" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H45" s="31" t="s">
         <v>13</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="J45" s="32"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="18">
         <v>45</v>
       </c>
@@ -3589,12 +3520,12 @@
       <c r="I46" s="32"/>
       <c r="J46" s="32"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="18">
         <v>46</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="13"/>
@@ -3607,7 +3538,7 @@
       <c r="I47" s="26"/>
       <c r="J47" s="26"/>
     </row>
-    <row r="48" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A48" s="18">
         <v>47</v>
       </c>
@@ -3618,20 +3549,20 @@
       <c r="D48" s="13"/>
       <c r="E48" s="15"/>
       <c r="F48" s="14" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H48" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J48" s="26"/>
     </row>
-    <row r="49" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A49" s="18">
         <v>48</v>
       </c>
@@ -3642,20 +3573,20 @@
       <c r="D49" s="13"/>
       <c r="E49" s="15"/>
       <c r="F49" s="14" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H49" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J49" s="26"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3666,7 +3597,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3680,7 +3611,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3691,7 +3622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3702,7 +3633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3716,7 +3647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3727,7 +3658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3741,7 +3672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3755,7 +3686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3769,10 +3700,10 @@
         <v>14</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3780,7 +3711,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3788,7 +3719,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3796,10 +3727,10 @@
         <v>54</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3807,10 +3738,10 @@
         <v>55</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3824,7 +3755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3832,7 +3763,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3843,7 +3774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3851,7 +3782,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3859,7 +3790,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3870,10 +3801,10 @@
         <v>5</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3884,7 +3815,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3892,7 +3823,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3903,7 +3834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3911,7 +3842,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3919,7 +3850,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3927,7 +3858,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3935,7 +3866,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3943,7 +3874,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3951,7 +3882,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3959,7 +3890,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3967,7 +3898,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3975,7 +3906,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3983,7 +3914,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3991,7 +3922,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4002,7 +3933,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4013,7 +3944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4021,7 +3952,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4029,7 +3960,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4037,7 +3968,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4045,7 +3976,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4056,7 +3987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4067,7 +3998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4075,7 +4006,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4086,7 +4017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4097,7 +4028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4105,7 +4036,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4113,7 +4044,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4121,7 +4052,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4132,7 +4063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4146,7 +4077,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4154,7 +4085,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4162,7 +4093,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4173,7 +4104,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4187,7 +4118,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4195,7 +4126,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4206,7 +4137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4217,7 +4148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4231,7 +4162,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4245,7 +4176,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4256,7 +4187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4267,7 +4198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4278,7 +4209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4289,7 +4220,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4297,7 +4228,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4305,7 +4236,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4316,7 +4247,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4324,7 +4255,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4335,7 +4266,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4346,7 +4277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4360,7 +4291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4368,7 +4299,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4376,7 +4307,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4384,7 +4315,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4392,7 +4323,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4400,7 +4331,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4408,7 +4339,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4416,7 +4347,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4424,7 +4355,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4432,7 +4363,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4443,7 +4374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4451,7 +4382,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4462,7 +4393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4473,7 +4404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4481,7 +4412,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4489,7 +4420,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4503,7 +4434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4514,7 +4445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4522,7 +4453,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4530,7 +4461,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4538,7 +4469,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4546,7 +4477,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4554,7 +4485,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4562,7 +4493,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4573,10 +4504,10 @@
         <v>136</v>
       </c>
       <c r="H142" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4584,10 +4515,10 @@
         <v>137</v>
       </c>
       <c r="H143" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4595,7 +4526,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4603,7 +4534,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4611,7 +4542,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4619,7 +4550,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4627,7 +4558,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4638,7 +4569,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4649,7 +4580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4657,10 +4588,10 @@
         <v>144</v>
       </c>
       <c r="J151" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4671,38 +4602,38 @@
         <v>81</v>
       </c>
       <c r="J152" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K152" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E153" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K153" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E154" t="s">
         <v>176</v>
       </c>
-      <c r="E154" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H155">
         <f>COUNTA(H2:H154)</f>
         <v>61</v>
@@ -4719,107 +4650,107 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F160"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E156" sqref="E156"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" customWidth="1"/>
-    <col min="2" max="2" width="10.296875" style="51" customWidth="1"/>
-    <col min="3" max="3" width="6.8984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.3984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="50.69921875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="118" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="52" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="62.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="175.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
       <c r="F1" s="16" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="17"/>
       <c r="D3" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>237</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="31" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="348" x14ac:dyDescent="0.4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="255" x14ac:dyDescent="0.45">
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="51" t="s">
         <v>236</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="33" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="18">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -4827,7 +4758,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -4835,7 +4766,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -4843,11 +4774,11 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="102" x14ac:dyDescent="0.45">
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="51" t="s">
         <v>239</v>
       </c>
       <c r="C11" s="34" t="s">
@@ -4856,10 +4787,10 @@
       <c r="D11" s="35"/>
       <c r="E11" s="30"/>
       <c r="F11" s="33" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -4867,123 +4798,123 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="47" t="s">
+      <c r="D13" s="49"/>
+      <c r="E13" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="48" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="49"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="F14" s="47" t="s">
+      <c r="D14" s="49"/>
+      <c r="E14" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="48" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="49"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
-    </row>
-    <row r="16" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="D15" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
+    </row>
+    <row r="16" spans="1:6" ht="68" x14ac:dyDescent="0.45">
       <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="52" t="s">
-        <v>248</v>
+      <c r="B16" s="53" t="s">
+        <v>249</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="47"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="53" t="s">
         <v>238</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="12"/>
       <c r="E18" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="32" x14ac:dyDescent="0.45">
       <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="53" t="s">
         <v>238</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="12"/>
       <c r="E19" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>161</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.45">
       <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="53" t="s">
         <v>238</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="12"/>
       <c r="E20" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -4991,67 +4922,67 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="18">
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="18">
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="B24" s="57" t="s">
-        <v>250</v>
-      </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="54" t="s">
+      <c r="B24" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="C24" s="59"/>
+      <c r="D24" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="56" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E24" s="56"/>
+      <c r="F24" s="57" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="18">
         <v>24</v>
       </c>
-      <c r="B25" s="57" t="s">
-        <v>250</v>
-      </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="54" t="s">
+      <c r="B25" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="56" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E25" s="56"/>
+      <c r="F25" s="57" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="18">
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="278.39999999999998" x14ac:dyDescent="0.4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="272" x14ac:dyDescent="0.45">
       <c r="A27" s="18">
         <v>26</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="51" t="s">
         <v>238</v>
       </c>
       <c r="C27" s="34" t="s">
@@ -5060,19 +4991,19 @@
       <c r="D27" s="35"/>
       <c r="E27" s="30"/>
       <c r="F27" s="33" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="18">
         <v>27</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="18">
         <v>28</v>
       </c>
@@ -5080,57 +5011,57 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="18">
         <v>29</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F30" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="18">
         <v>30</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F31" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="18">
         <v>31</v>
       </c>
-      <c r="B32" s="49"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="17"/>
-      <c r="D32" s="48" t="s">
+      <c r="D32" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
-    </row>
-    <row r="33" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="E32" s="47"/>
+      <c r="F32" s="48"/>
+    </row>
+    <row r="33" spans="1:6" ht="68" x14ac:dyDescent="0.45">
       <c r="A33" s="18">
         <v>32</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="53" t="s">
         <v>241</v>
       </c>
       <c r="C33" s="27"/>
       <c r="D33" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="18">
         <v>33</v>
       </c>
@@ -5138,55 +5069,55 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="18">
         <v>34</v>
       </c>
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="53" t="s">
         <v>241</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="12"/>
       <c r="E35" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="32" x14ac:dyDescent="0.45">
       <c r="A36" s="18">
         <v>35</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="53" t="s">
         <v>241</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="12"/>
       <c r="E36" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>161</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="34" x14ac:dyDescent="0.45">
       <c r="A37" s="18">
         <v>36</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="53" t="s">
         <v>241</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="12"/>
       <c r="E37" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="18">
         <v>37</v>
       </c>
@@ -5194,27 +5125,30 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" ht="68" x14ac:dyDescent="0.45">
       <c r="A39" s="18">
         <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+        <v>165</v>
+      </c>
+      <c r="F39" s="64" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="18">
         <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="121.8" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="102" x14ac:dyDescent="0.45">
       <c r="A41" s="18">
         <v>40</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="51" t="s">
         <v>234</v>
       </c>
       <c r="C41" s="34" t="s">
@@ -5223,54 +5157,54 @@
       <c r="D41" s="35"/>
       <c r="E41" s="30"/>
       <c r="F41" s="33" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="18">
         <v>41</v>
       </c>
-      <c r="B42" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="C42" s="58"/>
-      <c r="D42" s="54" t="s">
+      <c r="B42" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="C42" s="59"/>
+      <c r="D42" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="55"/>
-      <c r="F42" s="56" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E42" s="56"/>
+      <c r="F42" s="57" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="18">
         <v>42</v>
       </c>
-      <c r="B43" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="54" t="s">
+      <c r="B43" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" s="59"/>
+      <c r="D43" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="55"/>
-      <c r="F43" s="56" t="s">
+      <c r="E43" s="56"/>
+      <c r="F43" s="57" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="18">
         <v>43</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="87" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="68" x14ac:dyDescent="0.45">
       <c r="A45" s="18">
         <v>44</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="51" t="s">
         <v>235</v>
       </c>
       <c r="C45" s="28" t="s">
@@ -5279,10 +5213,10 @@
       <c r="D45" s="29"/>
       <c r="E45" s="30"/>
       <c r="F45" s="33" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="18">
         <v>45</v>
       </c>
@@ -5290,95 +5224,95 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="18">
         <v>46</v>
       </c>
-      <c r="B47" s="49"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="47"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+        <v>178</v>
+      </c>
+      <c r="D47" s="49"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="48"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="18">
         <v>47</v>
       </c>
-      <c r="B48" s="49"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="17"/>
-      <c r="D48" s="48" t="s">
+      <c r="D48" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="46"/>
-      <c r="F48" s="53"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E48" s="47"/>
+      <c r="F48" s="54"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="18">
         <v>48</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="53" t="s">
         <v>241</v>
       </c>
       <c r="C49" s="27"/>
       <c r="D49" s="12"/>
       <c r="E49" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="32" x14ac:dyDescent="0.45">
       <c r="A50" s="18">
         <v>49</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="53" t="s">
         <v>241</v>
       </c>
       <c r="C50" s="27"/>
       <c r="D50" s="12"/>
       <c r="E50" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>161</v>
+      </c>
+      <c r="F50" s="41" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.45">
       <c r="A51" s="18">
         <v>50</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="53" t="s">
         <v>241</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="12"/>
       <c r="E51" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="18">
         <v>51</v>
       </c>
-      <c r="B52" s="49"/>
+      <c r="B52" s="50"/>
       <c r="C52" s="17"/>
-      <c r="D52" s="48" t="s">
+      <c r="D52" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="46"/>
-      <c r="F52" s="53"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E52" s="47"/>
+      <c r="F52" s="54"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="18">
         <v>52</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="53" t="s">
         <v>240</v>
       </c>
       <c r="C53" s="27"/>
@@ -5387,118 +5321,114 @@
         <v>242</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="32" x14ac:dyDescent="0.45">
       <c r="A54" s="18">
         <v>53</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="53" t="s">
         <v>240</v>
       </c>
       <c r="C54" s="27"/>
       <c r="D54" s="12"/>
       <c r="E54" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>243</v>
+      </c>
+      <c r="F54" s="41" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.45">
       <c r="A55" s="18">
         <v>54</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="53" t="s">
         <v>240</v>
       </c>
       <c r="C55" s="27"/>
       <c r="D55" s="12"/>
       <c r="E55" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A56" s="47">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" s="48">
         <v>55</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57" s="47">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" s="48">
         <v>56</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F57" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="47">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="48">
         <v>57</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A59" s="47">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="48">
         <v>58</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60" s="47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="48">
         <v>59</v>
       </c>
-      <c r="D60" s="64" t="s">
+      <c r="D60" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E60" s="65"/>
-      <c r="F60" s="66" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A61" s="47">
+      <c r="F60" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="48">
         <v>60</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F61" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A62" s="47">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="48">
         <v>61</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F62" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A63" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="48">
         <v>62</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -5508,405 +5438,399 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64" s="47">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" s="48">
         <v>63</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F64" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A65" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="48">
         <v>64</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A66" s="47">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="48">
         <v>65</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A67" s="47">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" s="48">
         <v>66</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A68" s="47">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" s="48">
         <v>67</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A69" s="47">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" s="48">
         <v>68</v>
       </c>
-      <c r="C69" s="67" t="s">
+      <c r="C69" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D69" s="64"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="66" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A70" s="47">
+      <c r="D69" s="7"/>
+      <c r="F69" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" s="48">
         <v>69</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A71" s="47">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" s="48">
         <v>70</v>
       </c>
-      <c r="D71" s="64" t="s">
+      <c r="D71" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E71" s="65"/>
-      <c r="F71" s="66" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A72" s="47">
+      <c r="F71" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" s="48">
         <v>71</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A73" s="47">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" s="48">
         <v>72</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A74" s="47">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" s="48">
         <v>73</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F74" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A75" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" s="48">
         <v>74</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A76" s="47">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="48">
         <v>75</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A77" s="47">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" s="48">
         <v>76</v>
       </c>
-      <c r="D77" s="64" t="s">
+      <c r="D77" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E77" s="65"/>
-      <c r="F77" s="66" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A78" s="47">
+      <c r="F77" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" s="48">
         <v>77</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A79" s="47">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="48">
         <v>78</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A80" s="47">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" s="48">
         <v>79</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A81" s="47">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" s="48">
         <v>80</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A82" s="47">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" s="48">
         <v>81</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A83" s="47">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" s="48">
         <v>82</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A84" s="47">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84" s="48">
         <v>83</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A85" s="47">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85" s="48">
         <v>84</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A86" s="47">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A86" s="48">
         <v>85</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A87" s="47">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87" s="48">
         <v>86</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A88" s="47">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88" s="48">
         <v>87</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A89" s="47">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89" s="48">
         <v>88</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A90" s="47">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" s="48">
         <v>89</v>
       </c>
-      <c r="D90" s="64" t="s">
+      <c r="D90" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E90" s="65"/>
-      <c r="F90" s="66" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A91" s="47">
+      <c r="F90" s="7"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91" s="48">
         <v>90</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A92" s="47">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A92" s="48">
         <v>91</v>
       </c>
-      <c r="E92" s="65" t="s">
+      <c r="E92" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F92" s="66" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A93" s="47">
+      <c r="F92" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A93" s="48">
         <v>92</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A94" s="47">
+      <c r="F93" s="7"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94" s="48">
         <v>93</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A95" s="47">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95" s="48">
         <v>94</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F95" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A96" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A96" s="48">
         <v>95</v>
       </c>
-      <c r="D96" s="64" t="s">
+      <c r="D96" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E96" s="65"/>
-      <c r="F96" s="66" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A97" s="47">
+      <c r="F96" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A97" s="48">
         <v>96</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A98" s="47">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98" s="48">
         <v>97</v>
       </c>
-      <c r="E98" s="65" t="s">
+      <c r="E98" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F98" s="66" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A99" s="47">
+      <c r="F98" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A99" s="48">
         <v>98</v>
       </c>
-      <c r="E99" s="65" t="s">
+      <c r="E99" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F99" s="66" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A100" s="47">
+      <c r="F99" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A100" s="48">
         <v>99</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A101" s="47">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A101" s="48">
         <v>100</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A102" s="47">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A102" s="48">
         <v>101</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A103" s="47">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A103" s="48">
         <v>102</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F103" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A104" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A104" s="48">
         <v>103</v>
       </c>
-      <c r="E104" s="65" t="s">
-        <v>325</v>
-      </c>
-      <c r="F104" s="66" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A105" s="47">
+      <c r="E104" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A105" s="48">
         <v>104</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A106" s="47">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A106" s="48">
         <v>105</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A107" s="47">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A107" s="48">
         <v>106</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A108" s="47">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A108" s="48">
         <v>107</v>
       </c>
       <c r="C108" s="3" t="s">
@@ -5916,483 +5840,493 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A109" s="47">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A109" s="48">
         <v>108</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A110" s="47">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A110" s="48">
         <v>109</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>91</v>
       </c>
       <c r="F110" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A111" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A111" s="48">
         <v>110</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>92</v>
       </c>
       <c r="F111" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A112" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="68" x14ac:dyDescent="0.45">
+      <c r="A112" s="48">
         <v>111</v>
       </c>
-      <c r="C112" s="69" t="s">
-        <v>327</v>
-      </c>
-      <c r="D112" s="70"/>
-      <c r="E112" s="68"/>
-      <c r="F112" s="71" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A113" s="47">
+      <c r="D112" s="66" t="s">
+        <v>318</v>
+      </c>
+      <c r="E112" s="67"/>
+      <c r="F112" s="68" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A113" s="48">
         <v>112</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="C113" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D113" s="7"/>
+      <c r="E113" s="67"/>
+      <c r="F113" s="68" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A114" s="48">
+        <v>113</v>
+      </c>
+      <c r="D114" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F113" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A114" s="47">
+      <c r="F114" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A115" s="48">
+        <v>114</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F115" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A116" s="48">
+        <v>115</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F116" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A117" s="48">
+        <v>116</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F117" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A118" s="48">
+        <v>117</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A119" s="48">
+        <v>118</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A120" s="48">
+        <v>119</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A121" s="48">
+        <v>120</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A122" s="48">
+        <v>121</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A123" s="48">
+        <v>122</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A124" s="48">
+        <v>123</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A125" s="48">
+        <v>124</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F125" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A126" s="48">
+        <v>125</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A127" s="48">
+        <v>126</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A128" s="48">
+        <v>127</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A129" s="48">
+        <v>128</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A130" s="48">
+        <v>129</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A131" s="48">
+        <v>130</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A132" s="48">
+        <v>131</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A133" s="48">
+        <v>132</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A134" s="48">
+        <v>133</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A135" s="48">
+        <v>134</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A136" s="48">
+        <v>135</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A137" s="48">
+        <v>136</v>
+      </c>
+      <c r="D137" t="s">
+        <v>107</v>
+      </c>
+      <c r="E137"/>
+      <c r="F137" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A138" s="48">
+        <v>137</v>
+      </c>
+      <c r="D138"/>
+      <c r="E138" t="s">
         <v>113</v>
       </c>
-      <c r="D114" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F114" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A115" s="47">
+      <c r="F138" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A139" s="48">
+        <v>138</v>
+      </c>
+      <c r="E139" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D115" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F115" t="s">
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A140" s="48">
+        <v>139</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A141" s="48">
+        <v>140</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F141" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A142" s="48">
+        <v>141</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F142" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A116" s="47">
-        <v>115</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F116" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A117" s="47">
-        <v>116</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A118" s="47">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A143" s="48">
+        <v>142</v>
+      </c>
+      <c r="E143" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D118" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A119" s="47">
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A144" s="48">
+        <v>143</v>
+      </c>
+      <c r="E144" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D119" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A120" s="47">
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A145" s="48">
+        <v>144</v>
+      </c>
+      <c r="E145" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D120" s="5" t="s">
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A146" s="48">
+        <v>145</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A147" s="48">
+        <v>146</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A148" s="48">
+        <v>147</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A149" s="48">
+        <v>148</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A150" s="48">
+        <v>149</v>
+      </c>
+      <c r="D150" s="49"/>
+      <c r="E150" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A151" s="48">
+        <v>150</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A152" s="48">
+        <v>151</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A153" s="48">
+        <v>152</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A154" s="48">
+        <v>153</v>
+      </c>
+      <c r="E154" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A121" s="47">
-        <v>120</v>
-      </c>
-      <c r="D121" s="5" t="s">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A155" s="48">
+        <v>154</v>
+      </c>
+      <c r="E155" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A122" s="47">
-        <v>121</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A123" s="47">
-        <v>122</v>
-      </c>
-      <c r="D123" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="E123" s="68"/>
-      <c r="F123" s="72" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A124" s="47">
-        <v>123</v>
-      </c>
-      <c r="D124" s="70" t="s">
-        <v>133</v>
-      </c>
-      <c r="E124" s="68"/>
-      <c r="F124" s="72" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A125" s="47">
-        <v>124</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A126" s="47">
-        <v>125</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A127" s="47">
-        <v>126</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A128" s="47">
-        <v>127</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A129" s="47">
-        <v>128</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A130" s="47">
-        <v>129</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A131" s="47">
-        <v>130</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A132" s="47">
-        <v>131</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A133" s="47">
-        <v>132</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A134" s="47">
-        <v>133</v>
-      </c>
-      <c r="E134" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F134" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A135" s="47">
-        <v>134</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A136" s="47">
-        <v>135</v>
-      </c>
-      <c r="D136" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="E136" s="68"/>
-      <c r="F136" s="72" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A137" s="47">
-        <v>136</v>
-      </c>
-      <c r="D137" s="70"/>
-      <c r="E137" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="F137" s="72" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A138" s="47">
-        <v>137</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A139" s="47">
-        <v>138</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A140" s="47">
-        <v>139</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F140" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A141" s="47">
-        <v>140</v>
-      </c>
-      <c r="E141" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F141" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A142" s="47">
-        <v>141</v>
-      </c>
-      <c r="E142" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A143" s="47">
-        <v>142</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A144" s="47">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A156" s="48">
+        <v>155</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="102" x14ac:dyDescent="0.45">
+      <c r="A157" s="48">
+        <v>156</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E144" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A145" s="47">
+      <c r="F157" s="64" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A158" s="48">
+        <v>157</v>
+      </c>
+      <c r="D158" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E145" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A146" s="47">
-        <v>145</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A147" s="47">
-        <v>146</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A148" s="47">
-        <v>147</v>
-      </c>
-      <c r="D148" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="E148" s="68"/>
-      <c r="F148" s="73" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A149" s="47">
-        <v>148</v>
-      </c>
-      <c r="D149" s="48"/>
-      <c r="E149" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="F149" s="72" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A150" s="47">
-        <v>149</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A151" s="47">
-        <v>150</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A152" s="47">
-        <v>151</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A153" s="47">
-        <v>152</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A154" s="47">
-        <v>153</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A155" s="47">
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A159" s="48">
+        <v>158</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A160" s="48">
+        <v>159</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C155" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A156" s="47">
-        <v>155</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F156" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A157" s="47">
-        <v>156</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A158" s="47">
-        <v>157</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A159" s="47">
-        <v>158</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A160" s="47">
-        <v>159</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>176</v>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A161" s="48">
+        <v>160</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B160"/>
+  <autoFilter ref="B1:B161" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="1">
     <mergeCell ref="C1:E1"/>
   </mergeCells>
@@ -6403,31 +6337,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="42" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="1:3" s="43" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="45">
+    <row r="2" spans="1:3" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="46">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -6437,8 +6371,8 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="46">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -6448,16 +6382,16 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="46">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="46">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -6467,16 +6401,16 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="46">
         <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="46">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -6486,118 +6420,118 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="46">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="46">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="46">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="46">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="46">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="46">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="46">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="46">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="46">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" s="46">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" s="46">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" s="46">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" s="46">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" s="46">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" s="46">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" s="46">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" s="45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" s="46">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" s="45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" s="46">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" s="46">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" s="46">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" s="46">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" s="45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" s="46">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" s="45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" s="46">
         <v>29</v>
       </c>
     </row>
@@ -6608,33 +6542,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.796875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="79.8984375" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="46" customWidth="1"/>
+    <col min="3" max="3" width="79.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="41" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:4" s="42" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="D1" s="43"/>
-    </row>
-    <row r="2" spans="1:4" ht="52.8" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="45">
+      <c r="C1" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="44"/>
+    </row>
+    <row r="2" spans="1:4" ht="51.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="46">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -6644,73 +6578,73 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="46">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="46">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="46">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="46">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="46">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="46">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="46">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="46">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="46">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="46">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="46">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="46">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="46">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="46">
         <v>15</v>
       </c>
     </row>

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1030,14 +1030,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select distinct work_part from branch_staffs where leave_date is null;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select staff_id from branch_staffs where leave_date is null;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DAILY_TASKS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1279,34 +1271,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.파트별 업무보기
-1-1.매뉴얼에서 선택한 업무
-select d.importance, m.task, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_task_seq=m.manual_task_seq and d.assign_detail='오픈' and d.assign_date='2018/05/09';
-select d.importance, m.task, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_task_seq=m.manual_task_seq and d.assign_detail=? and d.assign_date=?;
-1-2.직접입력 업무
-select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_detail='마감' and assign_date='2018/05/07';
-select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_detail=? and assign_date=?;
-2.개인업무로 배정된 업무 보기
-2-1.매뉴얼에서 선택한 업무
-select d.importance, m.task, d.assign_detail, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_task_seq=m.manual_task_seq and d.assign_type='개인' and d.assign_date='2018/05/09';
-select d.importance, m.task, d.assign_detail, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_task_seq=m.manual_task_seq and d.assign_type='개인' and d.assign_date=?;
-2-2.직접입력 업무
-select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_type='개인' and assign_date='2018/05/09';
-select importance, input_task, finisher_name from daily_tasks where input_task is not null and assign_type='개인' and assign_date=?;</t>
-  </si>
-  <si>
     <t>지난 날짜 선택시 오른쪽 화살표 버튼 숨기기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.매뉴얼에서 선택
-insert into daily_tasks (daily_task_seq, input_task, assign_date, importance, assign_type, assign_detail, manual_task_seq, finisher_id, finisher_name, assigner_id, branch_seq) 
-values(daily_task_seq.nextval, null, ?, ?, ?, ?, (select manual_task_seq from manual_tasks where task=?), null, null, ?, ?);
-2.직접입력
-insert into daily_tasks (daily_task_seq, input_task, assign_date, importance, assign_type, assign_detail, manual_task_seq, finisher_id, finisher_name, assigner_id, branch_seq) 
-values(daily_task_seq.nextval, ?, ?, ?, ?, ?, null, null, null, ?, ?);</t>
-  </si>
-  <si>
     <t>select</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1317,12 +1285,6 @@
   <si>
     <t>매뉴얼 업무 검색 자동완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select m.TASK, s.SPACE_TYPE
-from MANUAL_TASKS m, SPACE_TYPES s 
-where m.space_type_seq=s.space_type_seq
-order by m.space_type_seq asc, m.manual_task_seq asc;</t>
   </si>
   <si>
     <t>매뉴얼 목록 보기</t>
@@ -1365,24 +1327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-1.매뉴얼-&gt;매뉴얼
-update daily_tasks
-set manual_task_seq=(select manual_task_seq from manual_tasks where task=?)
-where assign_date=? and assign_detail=? and manual_task_seq=(select manual_task_seq from manual_tasks where task=?)
-1-2.매뉴얼-&gt;직접
-update daily_tasks
-set input_task=?, manual_task_seq=null
-where assign_date=? and assign_detail=? and manual_task_seq=(select manual_task_seq from manual_tasks where task=?)
-2-1.직접-&gt;매뉴얼
-update daily_tasks
-set manual_task_seq = (select manual_task_seq from manual_tasks where task=?), input_task=null
-where assign_date=? and assign_detail=? and input_task=?
-2-2.직접-&gt;직접
-update daily_tasks
-set input_task=?
-where assign_date=? and assign_detail=? and input_task=?</t>
-  </si>
-  <si>
     <t>선택한 공간에 속한 업무목록 보기(업무분류통합)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1391,18 +1335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select m.TASK, s.SPACE_TYPE
-from MANUAL_TASKS m inner join SPACE_TYPES s
-on m.space_type_seq=s.space_type_seq
-order by m.space_type_seq asc, m.manual_task_seq asc;</t>
-  </si>
-  <si>
-    <t>--1. 직접입력된 업무일 경우
-update daily_tasks set importance=1 where input_tasks=?
---2. 매뉴얼에서 선택된 업무일 경우
-update daily_tasks set importance=1 where manual_task_seq=(select manual_task_seq from manual_tasks where tasks=?)</t>
-  </si>
-  <si>
     <t>새로 입력/선택한 업무 및 중요여부 보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1415,22 +1347,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 직접인지, 매뉴얼 업무인지 판별
-select manual_task_seq from manual_tasks where task=?
-2-1. 직접일 경우
-update daily_tasks set assign_type=?, assign_detail=? where assign_date=? and assign_detail=? and input_task=?
-2-2. 매뉴얼일 경우
-update daily_tasks set assign_type=?, assign_detail=? where assign_date=? and manual_task_seq=(select m.manual_task_seq from manual_tasks m where task=?)</t>
-  </si>
-  <si>
     <t>배정할 직원 목록 보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 매뉴얼 목록에서 배정된 업무를 삭제
-delete daily_tasks where assign_date=? and assign_type=? and assign_detail=? and manual_task_seq=(select m.manual_task_seq from manual_tasks m where task=?) 
-2. 직접 입력 목록에서 배정된 업무를 삭제
-delete daily_tasks where assgin_date=? and assign_type=? and assign_detail=? and input_task=?</t>
   </si>
   <si>
     <t>공간분류 보기</t>
@@ -1671,6 +1589,75 @@
   </si>
   <si>
     <t>로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.파트별 업무보기
+1-1.매뉴얼에서 선택한 업무
+select d.importance, m.task, d.finisher_id, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_task_seq=m.manual_task_seq and d.assign_detail='오픈' and d.assign_date='2018/05/09';
+select d.importance, m.task, d.finisher_id, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_task_seq=m.manual_task_seq and d.assign_detail=? and d.assign_date=?;
+1-2.직접입력 업무
+select importance, input_task, finisher_id, finisher_name from daily_tasks where input_task is not null and assign_detail='마감' and assign_date='2018/05/07';
+select importance, input_task, finisher_id, finisher_name from daily_tasks where input_task is not null and assign_detail=? and assign_date=?;
+2.개인업무로 배정된 업무 보기
+2-1.매뉴얼에서 선택한 업무
+select d.importance, m.task, d.assign_detail, d.finisher_id, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_task_seq=m.manual_task_seq and d.assign_type='개인' and d.assign_date='2018/05/09';
+select d.importance, m.task, d.assign_detail, d.finisher_id, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_task_seq=m.manual_task_seq and d.assign_type='개인' and d.assign_date=?;
+2-2.직접입력 업무
+select importance, input_task, finisher_id, finisher_name from daily_tasks where input_task is not null and assign_type='개인' and assign_date='2018/05/09';
+select importance, input_task, finisher_id, finisher_name from daily_tasks where input_task is not null and assign_type='개인' and assign_date=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select m.MANUAL_TASK, s.SPACE_TYPE
+from MANUAL_TASKS m, SPACE_TYPES s 
+where m.space_type_seq=s.space_type_seq
+order by m.space_type_seq asc, m.manual_task_seq asc;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select manual_task, repeat_type, repeat_detail from manual_tasks m, space_types s, task_types t 
+where m.space_type_seq = s.space_type_seq and m.task_type_seq = t.task_type_seq and s.space_type=? and t.task_type=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.매뉴얼에서 선택
+insert into daily_tasks (daily_task_seq, daily_task, assign_date, importance, assign_type, assign_detail, manual_task_seq, finisher_id, finisher_name, admin_seq) 
+values(daily_task_seq.nextval, ?, ?, ?, ?, ?, (select manual_task_seq from manual_tasks where manual_task=?), null, null, ?, ?);
+2.직접입력
+insert into daily_tasks (daily_task_seq, daily_task, assign_date, importance, assign_type, assign_detail, manual_task_seq, finisher_id, finisher_name, admin_seq) 
+values(daily_task_seq.nextval, ?, ?, ?, ?, ?, null, null, null, ?, ?);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select distinct work_part from staffs where branch_seq=? and join_date is not null and leave_date is null;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select staff_id from staffs where branch_seq=? and join_date is not null and leave_date is null;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete daily_tasks where assgin_date=? and assign_type=? and assign_detail=? and daily_task=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update daily_tasks set assign_type=?, assign_detail=? where assign_date=? and assign_detail=? and daily_task=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update daily_tasks set importance=1 where daily_task=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.매뉴얼업무로 변경
+update daily_tasks
+set daily_task=?, manual_task_seq = (select manual_task_seq from manual_tasks where manual_task=?)
+where assign_date=? and assign_detail=? and daily_task=?
+2.직접 업무입력해서 변경
+update daily_tasks
+set daily_task=?, manual_task_seq = null
+where assign_date=? and assign_detail=? and daily_task=?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1732,7 +1719,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1740,7 +1727,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1792,6 +1779,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1885,7 +1878,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2075,23 +2068,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2637,19 +2636,19 @@
         <v>246</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -2867,11 +2866,11 @@
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2934,7 +2933,7 @@
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="30"/>
@@ -2942,13 +2941,13 @@
         <v>202</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H4" s="30" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J4" s="31"/>
     </row>
@@ -2958,21 +2957,21 @@
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="28" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
       <c r="F5" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -3061,7 +3060,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="29"/>
@@ -3069,16 +3068,16 @@
         <v>7</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>47</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J11" s="31"/>
     </row>
@@ -3150,10 +3149,10 @@
       <c r="D16" s="13"/>
       <c r="E16" s="15"/>
       <c r="F16" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>12</v>
@@ -3211,10 +3210,10 @@
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>12</v>
@@ -3234,10 +3233,10 @@
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>12</v>
@@ -3304,16 +3303,16 @@
         <v>172</v>
       </c>
       <c r="F24" s="58" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G24" s="58" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H24" s="55" t="s">
         <v>41</v>
       </c>
       <c r="I24" s="59" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J24" s="59"/>
     </row>
@@ -3327,16 +3326,16 @@
       <c r="D25" s="54"/>
       <c r="E25" s="58"/>
       <c r="F25" s="58" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G25" s="58" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H25" s="55" t="s">
         <v>44</v>
       </c>
       <c r="I25" s="59" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J25" s="59"/>
     </row>
@@ -3360,7 +3359,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C27" s="34"/>
       <c r="D27" s="29"/>
@@ -3368,16 +3367,16 @@
         <v>37</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H27" s="30" t="s">
         <v>48</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J27" s="31"/>
     </row>
@@ -3476,16 +3475,16 @@
       <c r="D33" s="29"/>
       <c r="E33" s="32"/>
       <c r="F33" s="32" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H33" s="30" t="s">
         <v>5</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J33" s="31"/>
     </row>
@@ -3516,16 +3515,16 @@
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H35" s="30" t="s">
         <v>5</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J35" s="31"/>
     </row>
@@ -3540,16 +3539,16 @@
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H36" s="30" t="s">
         <v>5</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J36" s="31"/>
     </row>
@@ -3564,16 +3563,16 @@
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H37" s="30" t="s">
         <v>5</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J37" s="31"/>
     </row>
@@ -3630,7 +3629,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C41" s="34"/>
       <c r="D41" s="29"/>
@@ -3638,16 +3637,16 @@
         <v>8</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H41" s="30" t="s">
         <v>13</v>
       </c>
       <c r="I41" s="31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J41" s="31"/>
     </row>
@@ -3662,16 +3661,16 @@
       <c r="D42" s="54"/>
       <c r="E42" s="58"/>
       <c r="F42" s="58" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G42" s="58" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H42" s="55" t="s">
         <v>41</v>
       </c>
       <c r="I42" s="59" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J42" s="59"/>
     </row>
@@ -3686,16 +3685,16 @@
       <c r="D43" s="54"/>
       <c r="E43" s="58"/>
       <c r="F43" s="58" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G43" s="58" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H43" s="55" t="s">
         <v>44</v>
       </c>
       <c r="I43" s="59" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J43" s="59"/>
     </row>
@@ -3728,16 +3727,16 @@
         <v>10</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G45" s="32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H45" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I45" s="31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J45" s="31"/>
     </row>
@@ -3786,10 +3785,10 @@
       <c r="D48" s="13"/>
       <c r="E48" s="15"/>
       <c r="F48" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H48" s="15" t="s">
         <v>5</v>
@@ -3810,10 +3809,10 @@
       <c r="D49" s="13"/>
       <c r="E49" s="15"/>
       <c r="F49" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H49" s="15" t="s">
         <v>5</v>
@@ -3839,7 +3838,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E51" t="s">
         <v>123</v>
@@ -4891,8 +4890,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4907,18 +4906,18 @@
   <sheetData>
     <row r="1" spans="1:6" s="62" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="62" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B1" s="62" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="63" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="C1" s="67" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="F1" s="62" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
@@ -4953,10 +4952,10 @@
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="30" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="261" x14ac:dyDescent="0.4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="302.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -4965,11 +4964,11 @@
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="28" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="32" t="s">
-        <v>300</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -5001,7 +5000,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -5012,7 +5011,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="109.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -5025,7 +5024,7 @@
       <c r="D11" s="34"/>
       <c r="E11" s="29"/>
       <c r="F11" s="32" t="s">
-        <v>302</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -5061,7 +5060,7 @@
         <v>159</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -5071,7 +5070,7 @@
       <c r="B15" s="48"/>
       <c r="C15" s="16"/>
       <c r="D15" s="47" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -5085,11 +5084,11 @@
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="12" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="14" t="s">
-        <v>306</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -5099,7 +5098,7 @@
       <c r="B17" s="48"/>
       <c r="C17" s="16"/>
       <c r="D17" s="47" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E17" s="45"/>
       <c r="F17" s="46"/>
@@ -5114,13 +5113,13 @@
       <c r="C18" s="26"/>
       <c r="D18" s="12"/>
       <c r="E18" s="13" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A19" s="17">
         <v>18</v>
       </c>
@@ -5130,10 +5129,10 @@
       <c r="C19" s="26"/>
       <c r="D19" s="12"/>
       <c r="E19" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="F19" s="64" t="s">
-        <v>310</v>
+        <v>304</v>
+      </c>
+      <c r="F19" s="68" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -5146,10 +5145,10 @@
       <c r="C20" s="26"/>
       <c r="D20" s="12"/>
       <c r="E20" s="13" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -5165,7 +5164,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -5185,11 +5184,11 @@
       </c>
       <c r="C24" s="57"/>
       <c r="D24" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E24" s="54"/>
       <c r="F24" s="55" t="s">
-        <v>247</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -5197,7 +5196,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C25" s="57"/>
       <c r="D25" s="53" t="s">
@@ -5205,7 +5204,7 @@
       </c>
       <c r="E25" s="54"/>
       <c r="F25" s="55" t="s">
-        <v>248</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -5216,7 +5215,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="278.39999999999998" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A27" s="17">
         <v>26</v>
       </c>
@@ -5224,12 +5223,12 @@
         <v>231</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="29"/>
       <c r="F27" s="32" t="s">
-        <v>317</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -5265,7 +5264,7 @@
         <v>30</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F31" t="s">
         <v>240</v>
@@ -5292,11 +5291,11 @@
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="12" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="14" t="s">
-        <v>320</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -5304,7 +5303,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
@@ -5323,7 +5322,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A36" s="17">
         <v>35</v>
       </c>
@@ -5335,8 +5334,8 @@
       <c r="E36" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="F36" s="64" t="s">
-        <v>310</v>
+      <c r="F36" s="68" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -5352,7 +5351,7 @@
         <v>160</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -5363,15 +5362,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="17">
         <v>38</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="F39" s="65" t="s">
-        <v>321</v>
+      <c r="E39" s="29"/>
+      <c r="F39" s="69" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
@@ -5379,23 +5379,23 @@
         <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="104.4" x14ac:dyDescent="0.4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="17">
         <v>40</v>
       </c>
       <c r="B41" s="49" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D41" s="34"/>
       <c r="E41" s="29"/>
       <c r="F41" s="32" t="s">
-        <v>325</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
@@ -5407,11 +5407,11 @@
       </c>
       <c r="C42" s="57"/>
       <c r="D42" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E42" s="54"/>
       <c r="F42" s="55" t="s">
-        <v>5</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
@@ -5423,11 +5423,11 @@
       </c>
       <c r="C43" s="57"/>
       <c r="D43" s="53" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E43" s="54"/>
       <c r="F43" s="55" t="s">
-        <v>5</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
@@ -5438,12 +5438,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="17">
         <v>44</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C45" s="27" t="s">
         <v>9</v>
@@ -5451,7 +5451,7 @@
       <c r="D45" s="28"/>
       <c r="E45" s="29"/>
       <c r="F45" s="32" t="s">
-        <v>327</v>
+        <v>382</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
@@ -5484,7 +5484,7 @@
         <v>49</v>
       </c>
       <c r="E48" s="45"/>
-      <c r="F48" s="52"/>
+      <c r="F48" s="70"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="17">
@@ -5496,13 +5496,13 @@
       <c r="C49" s="26"/>
       <c r="D49" s="12"/>
       <c r="E49" s="13" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="F49" s="15" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A50" s="17">
         <v>49</v>
       </c>
@@ -5512,10 +5512,10 @@
       <c r="C50" s="26"/>
       <c r="D50" s="12"/>
       <c r="E50" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="F50" s="64" t="s">
-        <v>310</v>
+        <v>304</v>
+      </c>
+      <c r="F50" s="68" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -5531,7 +5531,7 @@
         <v>160</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
@@ -5559,10 +5559,10 @@
         <v>234</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A54" s="17">
         <v>53</v>
       </c>
@@ -5572,10 +5572,10 @@
       <c r="C54" s="26"/>
       <c r="D54" s="12"/>
       <c r="E54" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="F54" s="64" t="s">
-        <v>331</v>
+        <v>320</v>
+      </c>
+      <c r="F54" s="68" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -5588,10 +5588,10 @@
       <c r="C55" s="26"/>
       <c r="D55" s="12"/>
       <c r="E55" s="13" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
@@ -5599,7 +5599,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
@@ -5610,7 +5610,7 @@
         <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
@@ -5618,10 +5618,10 @@
         <v>57</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="F58" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
@@ -5629,7 +5629,7 @@
         <v>58</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F59" t="s">
         <v>11</v>
@@ -5643,7 +5643,7 @@
         <v>20</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
@@ -5670,7 +5670,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="D69" s="7"/>
       <c r="F69" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
@@ -5744,10 +5744,10 @@
         <v>70</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
@@ -5774,7 +5774,7 @@
         <v>74</v>
       </c>
       <c r="F74" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
@@ -5798,10 +5798,10 @@
         <v>76</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
@@ -5825,7 +5825,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
@@ -5833,7 +5833,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
@@ -5873,7 +5873,7 @@
         <v>85</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
@@ -5881,7 +5881,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
@@ -5914,7 +5914,7 @@
         <v>90</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
@@ -5922,10 +5922,10 @@
         <v>91</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
@@ -5964,7 +5964,7 @@
         <v>33</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.4">
@@ -5983,7 +5983,7 @@
         <v>84</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.4">
@@ -5994,7 +5994,7 @@
         <v>85</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.4">
@@ -6064,7 +6064,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.4">
@@ -6075,7 +6075,7 @@
         <v>91</v>
       </c>
       <c r="F108" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.4">
@@ -6083,7 +6083,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.4">
@@ -6105,19 +6105,19 @@
         <v>90</v>
       </c>
       <c r="F111" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A112" s="46">
         <v>111</v>
       </c>
-      <c r="D112" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="E112" s="67"/>
-      <c r="F112" s="68" t="s">
-        <v>360</v>
+      <c r="D112" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="E112" s="65"/>
+      <c r="F112" s="66" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.4">
@@ -6128,9 +6128,9 @@
         <v>92</v>
       </c>
       <c r="D113" s="7"/>
-      <c r="E113" s="67"/>
-      <c r="F113" s="68" t="s">
-        <v>361</v>
+      <c r="E113" s="65"/>
+      <c r="F113" s="66" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.4">
@@ -6138,10 +6138,10 @@
         <v>113</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F114" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.4">
@@ -6152,7 +6152,7 @@
         <v>101</v>
       </c>
       <c r="F115" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.4">
@@ -6163,7 +6163,7 @@
         <v>102</v>
       </c>
       <c r="F116" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.4">
@@ -6174,7 +6174,7 @@
         <v>103</v>
       </c>
       <c r="F117" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.4">
@@ -6198,7 +6198,7 @@
         <v>119</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.4">
@@ -6244,7 +6244,7 @@
         <v>131</v>
       </c>
       <c r="F125" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.4">
@@ -6260,7 +6260,7 @@
         <v>126</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.4">
@@ -6300,7 +6300,7 @@
         <v>131</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.4">
@@ -6308,7 +6308,7 @@
         <v>132</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.4">
@@ -6335,7 +6335,7 @@
         <v>135</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.4">
@@ -6347,7 +6347,7 @@
       </c>
       <c r="E137"/>
       <c r="F137" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.4">
@@ -6359,7 +6359,7 @@
         <v>111</v>
       </c>
       <c r="F138" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.4">
@@ -6383,7 +6383,7 @@
         <v>140</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="F141" t="s">
         <v>13</v>
@@ -6394,10 +6394,10 @@
         <v>141</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="F142" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.4">
@@ -6413,7 +6413,7 @@
         <v>143</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.4">
@@ -6421,7 +6421,7 @@
         <v>144</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.4">
@@ -6437,7 +6437,7 @@
         <v>146</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.4">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="E149" s="3"/>
       <c r="F149" s="3" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.4">
@@ -6469,7 +6469,7 @@
         <v>135</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.4">
@@ -6485,7 +6485,7 @@
         <v>151</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.4">
@@ -6493,7 +6493,7 @@
         <v>152</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.4">
@@ -6509,7 +6509,7 @@
         <v>154</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.4">
@@ -6525,10 +6525,10 @@
         <v>156</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="F157" s="65" t="s">
-        <v>384</v>
+        <v>373</v>
+      </c>
+      <c r="F157" s="63" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.4">
@@ -6536,7 +6536,7 @@
         <v>157</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.4">
@@ -6823,10 +6823,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -1307,10 +1307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select task, repeat_type, repeat_detail from manual_tasks m, space_types s, task_types t 
-where m.space_type_seq = s.space_type_seq and m.task_type_seq = t.task_type_seq and s.space_type=? and t.task_type=?</t>
-  </si>
-  <si>
     <t>업무 중요여부 선택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1363,23 +1359,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select distinct space_type from manual_tasks m, space_types s, task_types t 
-where m.space_type_seq = s.space_type_seq and m.task_type_seq = t.task_type_seq and t.task_type=?;</t>
-  </si>
-  <si>
     <t>선택한 업무/공간분류에 속한 업무 목록 보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select task, repeat_type, repeat_detail from manual_tasks m, space_types s, task_types t 
-where m.space_type_seq = s.space_type_seq and m.task_type_seq = t.task_type_seq and s.space_type=? and t.task_type=?;</t>
-  </si>
-  <si>
     <t>직원 목록 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select profile_photo, name from users where user_id=(select staff_id from staffs where status=0) and  ////테스트 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1592,23 +1576,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.파트별 업무보기
-1-1.매뉴얼에서 선택한 업무
-select d.importance, m.task, d.finisher_id, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_task_seq=m.manual_task_seq and d.assign_detail='오픈' and d.assign_date='2018/05/09';
-select d.importance, m.task, d.finisher_id, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_task_seq=m.manual_task_seq and d.assign_detail=? and d.assign_date=?;
-1-2.직접입력 업무
-select importance, input_task, finisher_id, finisher_name from daily_tasks where input_task is not null and assign_detail='마감' and assign_date='2018/05/07';
-select importance, input_task, finisher_id, finisher_name from daily_tasks where input_task is not null and assign_detail=? and assign_date=?;
-2.개인업무로 배정된 업무 보기
-2-1.매뉴얼에서 선택한 업무
-select d.importance, m.task, d.assign_detail, d.finisher_id, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_task_seq=m.manual_task_seq and d.assign_type='개인' and d.assign_date='2018/05/09';
-select d.importance, m.task, d.assign_detail, d.finisher_id, d.finisher_name from daily_tasks d, manual_tasks m where d.manual_task_seq=m.manual_task_seq and d.assign_type='개인' and d.assign_date=?;
-2-2.직접입력 업무
-select importance, input_task, finisher_id, finisher_name from daily_tasks where input_task is not null and assign_type='개인' and assign_date='2018/05/09';
-select importance, input_task, finisher_id, finisher_name from daily_tasks where input_task is not null and assign_type='개인' and assign_date=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select m.MANUAL_TASK, s.SPACE_TYPE
 from MANUAL_TASKS m, SPACE_TYPES s 
 where m.space_type_seq=s.space_type_seq
@@ -1621,15 +1588,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.매뉴얼에서 선택
-insert into daily_tasks (daily_task_seq, daily_task, assign_date, importance, assign_type, assign_detail, manual_task_seq, finisher_id, finisher_name, admin_seq) 
-values(daily_task_seq.nextval, ?, ?, ?, ?, ?, (select manual_task_seq from manual_tasks where manual_task=?), null, null, ?, ?);
-2.직접입력
-insert into daily_tasks (daily_task_seq, daily_task, assign_date, importance, assign_type, assign_detail, manual_task_seq, finisher_id, finisher_name, admin_seq) 
-values(daily_task_seq.nextval, ?, ?, ?, ?, ?, null, null, null, ?, ?);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select distinct work_part from staffs where branch_seq=? and join_date is not null and leave_date is null;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1643,10 +1601,6 @@
   </si>
   <si>
     <t>update daily_tasks set assign_type=?, assign_detail=? where assign_date=? and assign_detail=? and daily_task=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update daily_tasks set importance=1 where daily_task=?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1658,6 +1612,44 @@
 update daily_tasks
 set daily_task=?, manual_task_seq = null
 where assign_date=? and assign_detail=? and daily_task=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select distinct space_type from manual_tasks m, space_types s, task_types t 
+where m.space_type_seq = s.space_type_seq and m.task_type_seq = t.task_type_seq and t.task_type=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select manual_task, repeat_type, repeat_detail from manual_tasks m, space_types s, task_types t 
+where m.space_type_seq = s.space_type_seq and m.task_type_seq = t.task_type_seq and s.space_type=? and t.task_type=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select profile_photo, name from users where user_id=(select staff_id from staffs where status=0) and  ////테스트 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.파트별 업무보기
+select importance, daily_task, finisher_id, finisher_name from daily_tasks where assign_date=? and assign_detail=?;
+2.개인업무로 배정된 업무 보기
+select importance, daily_task, assign_detail, finisher_id, finisher_name from daily_tasks where assign_date=? and assign_type='개인';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select staff_id from staffs where branch_seq=? and join_date is not null and leave_date is null;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update daily_tasks set importance=? where daily_task=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.매뉴얼에서 선택
+insert into daily_tasks (daily_task_seq, daily_task, assign_date, importance, assign_type, assign_detail, manual_task_seq, admin_seq) 
+values(daily_task_seq.nextval, ?, ?, ?, ?, ?, (select manual_task_seq from manual_tasks where manual_task=?), ?, ?);
+2.직접입력
+insert into daily_tasks (daily_task_seq, daily_task, assign_date, importance, assign_type, assign_detail, manual_task_seq, admin_seq) 
+values(daily_task_seq.nextval, ?, ?, ?, ?, ?, null, ?, ?);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2080,17 +2072,17 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="2" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2866,11 +2858,11 @@
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
@@ -4890,8 +4882,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4911,11 +4903,11 @@
       <c r="B1" s="62" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="70" t="s">
         <v>295</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
       <c r="F1" s="62" t="s">
         <v>296</v>
       </c>
@@ -4955,7 +4947,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="302.39999999999998" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -4968,7 +4960,7 @@
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="32" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -5024,7 +5016,7 @@
       <c r="D11" s="34"/>
       <c r="E11" s="29"/>
       <c r="F11" s="32" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -5088,7 +5080,7 @@
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="14" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -5131,7 +5123,7 @@
       <c r="E19" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="F19" s="68" t="s">
+      <c r="F19" s="67" t="s">
         <v>305</v>
       </c>
     </row>
@@ -5148,7 +5140,7 @@
         <v>306</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -5164,7 +5156,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -5184,11 +5176,11 @@
       </c>
       <c r="C24" s="57"/>
       <c r="D24" s="53" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E24" s="54"/>
       <c r="F24" s="55" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -5196,7 +5188,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C25" s="57"/>
       <c r="D25" s="53" t="s">
@@ -5204,7 +5196,7 @@
       </c>
       <c r="E25" s="54"/>
       <c r="F25" s="55" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -5223,12 +5215,12 @@
         <v>231</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="29"/>
       <c r="F27" s="32" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -5264,7 +5256,7 @@
         <v>30</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F31" t="s">
         <v>240</v>
@@ -5291,11 +5283,11 @@
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="14" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -5334,7 +5326,7 @@
       <c r="E36" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="F36" s="68" t="s">
+      <c r="F36" s="67" t="s">
         <v>305</v>
       </c>
     </row>
@@ -5351,7 +5343,7 @@
         <v>160</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -5370,7 +5362,7 @@
         <v>162</v>
       </c>
       <c r="E39" s="29"/>
-      <c r="F39" s="69" t="s">
+      <c r="F39" s="68" t="s">
         <v>384</v>
       </c>
     </row>
@@ -5379,7 +5371,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
@@ -5387,15 +5379,15 @@
         <v>40</v>
       </c>
       <c r="B41" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="C41" s="33" t="s">
         <v>315</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>316</v>
       </c>
       <c r="D41" s="34"/>
       <c r="E41" s="29"/>
       <c r="F41" s="32" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
@@ -5407,11 +5399,11 @@
       </c>
       <c r="C42" s="57"/>
       <c r="D42" s="53" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E42" s="54"/>
       <c r="F42" s="55" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
@@ -5423,11 +5415,11 @@
       </c>
       <c r="C43" s="57"/>
       <c r="D43" s="53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E43" s="54"/>
       <c r="F43" s="55" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
@@ -5443,7 +5435,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C45" s="27" t="s">
         <v>9</v>
@@ -5451,7 +5443,7 @@
       <c r="D45" s="28"/>
       <c r="E45" s="29"/>
       <c r="F45" s="32" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
@@ -5484,7 +5476,7 @@
         <v>49</v>
       </c>
       <c r="E48" s="45"/>
-      <c r="F48" s="70"/>
+      <c r="F48" s="69"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="17">
@@ -5496,7 +5488,7 @@
       <c r="C49" s="26"/>
       <c r="D49" s="12"/>
       <c r="E49" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F49" s="15" t="s">
         <v>217</v>
@@ -5514,7 +5506,7 @@
       <c r="E50" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="F50" s="68" t="s">
+      <c r="F50" s="67" t="s">
         <v>305</v>
       </c>
     </row>
@@ -5531,7 +5523,7 @@
         <v>160</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
@@ -5559,7 +5551,7 @@
         <v>234</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -5572,10 +5564,10 @@
       <c r="C54" s="26"/>
       <c r="D54" s="12"/>
       <c r="E54" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="F54" s="68" t="s">
-        <v>321</v>
+        <v>319</v>
+      </c>
+      <c r="F54" s="67" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -5588,10 +5580,10 @@
       <c r="C55" s="26"/>
       <c r="D55" s="12"/>
       <c r="E55" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>323</v>
+        <v>380</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
@@ -5599,7 +5591,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
@@ -5610,7 +5602,7 @@
         <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>325</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
@@ -5618,10 +5610,10 @@
         <v>57</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F58" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
@@ -5629,7 +5621,7 @@
         <v>58</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F59" t="s">
         <v>11</v>
@@ -5643,7 +5635,7 @@
         <v>20</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
@@ -5670,7 +5662,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -5744,10 +5736,10 @@
         <v>70</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
@@ -5774,7 +5766,7 @@
         <v>74</v>
       </c>
       <c r="F74" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
@@ -5798,10 +5790,10 @@
         <v>76</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
@@ -5825,7 +5817,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
@@ -5833,7 +5825,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
@@ -5873,7 +5865,7 @@
         <v>85</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
@@ -5881,7 +5873,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
@@ -5914,7 +5906,7 @@
         <v>90</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
@@ -5922,10 +5914,10 @@
         <v>91</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
@@ -5964,7 +5956,7 @@
         <v>33</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.4">
@@ -5983,7 +5975,7 @@
         <v>84</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.4">
@@ -5994,7 +5986,7 @@
         <v>85</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.4">
@@ -6064,7 +6056,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.4">
@@ -6075,7 +6067,7 @@
         <v>91</v>
       </c>
       <c r="F108" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.4">
@@ -6083,7 +6075,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.4">
@@ -6113,11 +6105,11 @@
         <v>111</v>
       </c>
       <c r="D112" s="64" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E112" s="65"/>
       <c r="F112" s="66" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.4">
@@ -6130,7 +6122,7 @@
       <c r="D113" s="7"/>
       <c r="E113" s="65"/>
       <c r="F113" s="66" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.4">
@@ -6138,10 +6130,10 @@
         <v>113</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F114" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.4">
@@ -6152,7 +6144,7 @@
         <v>101</v>
       </c>
       <c r="F115" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.4">
@@ -6163,7 +6155,7 @@
         <v>102</v>
       </c>
       <c r="F116" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.4">
@@ -6174,7 +6166,7 @@
         <v>103</v>
       </c>
       <c r="F117" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.4">
@@ -6198,7 +6190,7 @@
         <v>119</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.4">
@@ -6244,7 +6236,7 @@
         <v>131</v>
       </c>
       <c r="F125" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.4">
@@ -6260,7 +6252,7 @@
         <v>126</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.4">
@@ -6300,7 +6292,7 @@
         <v>131</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.4">
@@ -6308,7 +6300,7 @@
         <v>132</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.4">
@@ -6335,7 +6327,7 @@
         <v>135</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.4">
@@ -6383,7 +6375,7 @@
         <v>140</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F141" t="s">
         <v>13</v>
@@ -6394,10 +6386,10 @@
         <v>141</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F142" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.4">
@@ -6413,7 +6405,7 @@
         <v>143</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.4">
@@ -6421,7 +6413,7 @@
         <v>144</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.4">
@@ -6437,7 +6429,7 @@
         <v>146</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.4">
@@ -6457,7 +6449,7 @@
       </c>
       <c r="E149" s="3"/>
       <c r="F149" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.4">
@@ -6469,7 +6461,7 @@
         <v>135</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.4">
@@ -6485,7 +6477,7 @@
         <v>151</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.4">
@@ -6493,7 +6485,7 @@
         <v>152</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.4">
@@ -6509,7 +6501,7 @@
         <v>154</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.4">
@@ -6525,10 +6517,10 @@
         <v>156</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F157" s="63" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.4">
@@ -6536,7 +6528,7 @@
         <v>157</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.4">

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -1596,6 +1596,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>select distinct space_type from manual_tasks m, space_types s, task_types t 
+where m.space_type_seq = s.space_type_seq and m.task_type_seq = t.task_type_seq and t.task_type=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select manual_task, repeat_type, repeat_detail from manual_tasks m, space_types s, task_types t 
+where m.space_type_seq = s.space_type_seq and m.task_type_seq = t.task_type_seq and s.space_type=? and t.task_type=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select profile_photo, name from users where user_id=(select staff_id from staffs where status=0) and  ////테스트 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select staff_id from staffs where branch_seq=? and join_date is not null and leave_date is null;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update daily_tasks set importance=? where daily_task=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.매뉴얼에서 선택
+insert into daily_tasks (daily_task_seq, daily_task, assign_date, importance, assign_type, assign_detail, manual_task_seq, admin_seq) 
+values(daily_task_seq.nextval, ?, ?, ?, ?, ?, (select manual_task_seq from manual_tasks where manual_task=?), ?, ?);
+2.직접입력
+insert into daily_tasks (daily_task_seq, daily_task, assign_date, importance, assign_type, assign_detail, manual_task_seq, admin_seq) 
+values(daily_task_seq.nextval, ?, ?, ?, ?, ?, null, ?, ?);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>delete daily_tasks where assgin_date=? and assign_type=? and assign_detail=? and daily_task=?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1615,41 +1646,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select distinct space_type from manual_tasks m, space_types s, task_types t 
-where m.space_type_seq = s.space_type_seq and m.task_type_seq = t.task_type_seq and t.task_type=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select manual_task, repeat_type, repeat_detail from manual_tasks m, space_types s, task_types t 
-where m.space_type_seq = s.space_type_seq and m.task_type_seq = t.task_type_seq and s.space_type=? and t.task_type=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select profile_photo, name from users where user_id=(select staff_id from staffs where status=0) and  ////테스트 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.파트별 업무보기
 select importance, daily_task, finisher_id, finisher_name from daily_tasks where assign_date=? and assign_detail=?;
 2.개인업무로 배정된 업무 보기
 select importance, daily_task, assign_detail, finisher_id, finisher_name from daily_tasks where assign_date=? and assign_type='개인';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select staff_id from staffs where branch_seq=? and join_date is not null and leave_date is null;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update daily_tasks set importance=? where daily_task=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.매뉴얼에서 선택
-insert into daily_tasks (daily_task_seq, daily_task, assign_date, importance, assign_type, assign_detail, manual_task_seq, admin_seq) 
-values(daily_task_seq.nextval, ?, ?, ?, ?, ?, (select manual_task_seq from manual_tasks where manual_task=?), ?, ?);
-2.직접입력
-insert into daily_tasks (daily_task_seq, daily_task, assign_date, importance, assign_type, assign_detail, manual_task_seq, admin_seq) 
-values(daily_task_seq.nextval, ?, ?, ?, ?, ?, null, ?, ?);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4882,8 +4882,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="32" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -5016,7 +5016,7 @@
       <c r="D11" s="34"/>
       <c r="E11" s="29"/>
       <c r="F11" s="32" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="E25" s="54"/>
       <c r="F25" s="55" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -5220,7 +5220,7 @@
       <c r="D27" s="34"/>
       <c r="E27" s="29"/>
       <c r="F27" s="32" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="E39" s="29"/>
       <c r="F39" s="68" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
@@ -5387,7 +5387,7 @@
       <c r="D41" s="34"/>
       <c r="E41" s="29"/>
       <c r="F41" s="32" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
@@ -5443,7 +5443,7 @@
       <c r="D45" s="28"/>
       <c r="E45" s="29"/>
       <c r="F45" s="32" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
@@ -5567,7 +5567,7 @@
         <v>319</v>
       </c>
       <c r="F54" s="67" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -5583,7 +5583,7 @@
         <v>320</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
@@ -5602,7 +5602,7 @@
         <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -1202,10 +1202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select distinct assign_detail from daily_tasks where assign_type='파트' and assign_date = ?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( ?, ?, ?, ?, ?, ?, ?, ?, ?, ? );</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1615,15 +1611,6 @@
   </si>
   <si>
     <t>update daily_tasks set importance=? where daily_task=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.매뉴얼에서 선택
-insert into daily_tasks (daily_task_seq, daily_task, assign_date, importance, assign_type, assign_detail, manual_task_seq, admin_seq) 
-values(daily_task_seq.nextval, ?, ?, ?, ?, ?, (select manual_task_seq from manual_tasks where manual_task=?), ?, ?);
-2.직접입력
-insert into daily_tasks (daily_task_seq, daily_task, assign_date, importance, assign_type, assign_detail, manual_task_seq, admin_seq) 
-values(daily_task_seq.nextval, ?, ?, ?, ?, ?, null, ?, ?);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1646,10 +1633,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>select distinct assign_detail from daily_tasks where assign_type='파트' and assign_date = ?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.파트별 업무보기
-select importance, daily_task, finisher_id, finisher_name from daily_tasks where assign_date=? and assign_detail=?;
+select importance, daily_task, finisher_id, finisher_name from daily_tasks where assign_date=? and assign_type='파트' and assign_detail=?;
 2.개인업무로 배정된 업무 보기
 select importance, daily_task, assign_detail, finisher_id, finisher_name from daily_tasks where assign_date=? and assign_type='개인';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.매뉴얼에서 선택
+insert into daily_tasks (daily_task_seq, daily_task, assign_date, importance, assign_type, assign_detail, manual_task_seq, admin_seq) 
+values(daily_task_seq.nextval, ?, ?, ?, ?, ?, (select manual_task_seq from manual_tasks where manual_task=?), ?);
+2.직접입력
+insert into daily_tasks (daily_task_seq, daily_task, assign_date, importance, assign_type, assign_detail, manual_task_seq, admin_seq) 
+values(daily_task_seq.nextval, ?, ?, ?, ?, ?, null, ?, ?);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2628,19 +2628,19 @@
         <v>246</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="F22" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -3830,7 +3830,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E51" t="s">
         <v>123</v>
@@ -4883,7 +4883,7 @@
   <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4898,18 +4898,18 @@
   <sheetData>
     <row r="1" spans="1:6" s="62" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="62" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B1" s="62" t="s">
         <v>229</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D1" s="70"/>
       <c r="E1" s="70"/>
       <c r="F1" s="62" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="30" t="s">
-        <v>283</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -4956,11 +4956,11 @@
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -4992,7 +4992,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -5016,7 +5016,7 @@
       <c r="D11" s="34"/>
       <c r="E11" s="29"/>
       <c r="F11" s="32" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -5052,7 +5052,7 @@
         <v>159</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -5062,7 +5062,7 @@
       <c r="B15" s="48"/>
       <c r="C15" s="16"/>
       <c r="D15" s="47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -5076,11 +5076,11 @@
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -5090,7 +5090,7 @@
       <c r="B17" s="48"/>
       <c r="C17" s="16"/>
       <c r="D17" s="47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E17" s="45"/>
       <c r="F17" s="46"/>
@@ -5105,7 +5105,7 @@
       <c r="C18" s="26"/>
       <c r="D18" s="12"/>
       <c r="E18" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>217</v>
@@ -5121,10 +5121,10 @@
       <c r="C19" s="26"/>
       <c r="D19" s="12"/>
       <c r="E19" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F19" s="67" t="s">
         <v>304</v>
-      </c>
-      <c r="F19" s="67" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -5137,10 +5137,10 @@
       <c r="C20" s="26"/>
       <c r="D20" s="12"/>
       <c r="E20" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -5156,7 +5156,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -5176,11 +5176,11 @@
       </c>
       <c r="C24" s="57"/>
       <c r="D24" s="53" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E24" s="54"/>
       <c r="F24" s="55" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -5188,7 +5188,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C25" s="57"/>
       <c r="D25" s="53" t="s">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="E25" s="54"/>
       <c r="F25" s="55" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -5215,12 +5215,12 @@
         <v>231</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="29"/>
       <c r="F27" s="32" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -5256,7 +5256,7 @@
         <v>30</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F31" t="s">
         <v>240</v>
@@ -5283,11 +5283,11 @@
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -5295,7 +5295,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
@@ -5327,7 +5327,7 @@
         <v>158</v>
       </c>
       <c r="F36" s="67" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -5343,7 +5343,7 @@
         <v>160</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="E39" s="29"/>
       <c r="F39" s="68" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
@@ -5371,7 +5371,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
@@ -5379,15 +5379,15 @@
         <v>40</v>
       </c>
       <c r="B41" s="49" t="s">
+        <v>313</v>
+      </c>
+      <c r="C41" s="33" t="s">
         <v>314</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>315</v>
       </c>
       <c r="D41" s="34"/>
       <c r="E41" s="29"/>
       <c r="F41" s="32" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
@@ -5399,11 +5399,11 @@
       </c>
       <c r="C42" s="57"/>
       <c r="D42" s="53" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E42" s="54"/>
       <c r="F42" s="55" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
@@ -5415,11 +5415,11 @@
       </c>
       <c r="C43" s="57"/>
       <c r="D43" s="53" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E43" s="54"/>
       <c r="F43" s="55" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
@@ -5435,7 +5435,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C45" s="27" t="s">
         <v>9</v>
@@ -5443,7 +5443,7 @@
       <c r="D45" s="28"/>
       <c r="E45" s="29"/>
       <c r="F45" s="32" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
@@ -5488,7 +5488,7 @@
       <c r="C49" s="26"/>
       <c r="D49" s="12"/>
       <c r="E49" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F49" s="15" t="s">
         <v>217</v>
@@ -5504,10 +5504,10 @@
       <c r="C50" s="26"/>
       <c r="D50" s="12"/>
       <c r="E50" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F50" s="67" t="s">
         <v>304</v>
-      </c>
-      <c r="F50" s="67" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -5523,7 +5523,7 @@
         <v>160</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
@@ -5551,7 +5551,7 @@
         <v>234</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -5564,10 +5564,10 @@
       <c r="C54" s="26"/>
       <c r="D54" s="12"/>
       <c r="E54" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F54" s="67" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -5580,10 +5580,10 @@
       <c r="C55" s="26"/>
       <c r="D55" s="12"/>
       <c r="E55" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
@@ -5591,7 +5591,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
@@ -5602,7 +5602,7 @@
         <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
@@ -5610,10 +5610,10 @@
         <v>57</v>
       </c>
       <c r="E58" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F58" t="s">
         <v>322</v>
-      </c>
-      <c r="F58" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
@@ -5621,7 +5621,7 @@
         <v>58</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F59" t="s">
         <v>11</v>
@@ -5635,7 +5635,7 @@
         <v>20</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
@@ -5662,7 +5662,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -5720,7 +5720,7 @@
       </c>
       <c r="D69" s="7"/>
       <c r="F69" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
@@ -5736,10 +5736,10 @@
         <v>70</v>
       </c>
       <c r="D71" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
@@ -5766,7 +5766,7 @@
         <v>74</v>
       </c>
       <c r="F74" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
@@ -5790,10 +5790,10 @@
         <v>76</v>
       </c>
       <c r="D77" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F77" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
@@ -5817,7 +5817,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
@@ -5825,7 +5825,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
@@ -5865,7 +5865,7 @@
         <v>85</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
@@ -5873,7 +5873,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
@@ -5906,7 +5906,7 @@
         <v>90</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
@@ -5914,10 +5914,10 @@
         <v>91</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
@@ -5956,7 +5956,7 @@
         <v>33</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.4">
@@ -5975,7 +5975,7 @@
         <v>84</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.4">
@@ -5986,7 +5986,7 @@
         <v>85</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.4">
@@ -6056,7 +6056,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.4">
@@ -6067,7 +6067,7 @@
         <v>91</v>
       </c>
       <c r="F108" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.4">
@@ -6075,7 +6075,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.4">
@@ -6097,7 +6097,7 @@
         <v>90</v>
       </c>
       <c r="F111" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -6105,11 +6105,11 @@
         <v>111</v>
       </c>
       <c r="D112" s="64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E112" s="65"/>
       <c r="F112" s="66" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.4">
@@ -6122,7 +6122,7 @@
       <c r="D113" s="7"/>
       <c r="E113" s="65"/>
       <c r="F113" s="66" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.4">
@@ -6130,10 +6130,10 @@
         <v>113</v>
       </c>
       <c r="D114" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F114" t="s">
         <v>348</v>
-      </c>
-      <c r="F114" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.4">
@@ -6144,7 +6144,7 @@
         <v>101</v>
       </c>
       <c r="F115" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.4">
@@ -6155,7 +6155,7 @@
         <v>102</v>
       </c>
       <c r="F116" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.4">
@@ -6166,7 +6166,7 @@
         <v>103</v>
       </c>
       <c r="F117" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.4">
@@ -6190,7 +6190,7 @@
         <v>119</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.4">
@@ -6236,7 +6236,7 @@
         <v>131</v>
       </c>
       <c r="F125" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.4">
@@ -6252,7 +6252,7 @@
         <v>126</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.4">
@@ -6292,7 +6292,7 @@
         <v>131</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.4">
@@ -6300,7 +6300,7 @@
         <v>132</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.4">
@@ -6327,7 +6327,7 @@
         <v>135</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.4">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="E137"/>
       <c r="F137" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.4">
@@ -6351,7 +6351,7 @@
         <v>111</v>
       </c>
       <c r="F138" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.4">
@@ -6375,7 +6375,7 @@
         <v>140</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F141" t="s">
         <v>13</v>
@@ -6386,10 +6386,10 @@
         <v>141</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F142" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.4">
@@ -6405,7 +6405,7 @@
         <v>143</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.4">
@@ -6413,7 +6413,7 @@
         <v>144</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.4">
@@ -6429,7 +6429,7 @@
         <v>146</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.4">
@@ -6449,7 +6449,7 @@
       </c>
       <c r="E149" s="3"/>
       <c r="F149" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.4">
@@ -6461,7 +6461,7 @@
         <v>135</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.4">
@@ -6477,7 +6477,7 @@
         <v>151</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.4">
@@ -6485,7 +6485,7 @@
         <v>152</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.4">
@@ -6501,7 +6501,7 @@
         <v>154</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.4">
@@ -6517,10 +6517,10 @@
         <v>156</v>
       </c>
       <c r="D157" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F157" s="63" t="s">
         <v>369</v>
-      </c>
-      <c r="F157" s="63" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.4">
@@ -6528,7 +6528,7 @@
         <v>157</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.4">
@@ -6815,10 +6815,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -1649,7 +1649,7 @@
 values(daily_task_seq.nextval, ?, ?, ?, ?, ?, (select manual_task_seq from manual_tasks where manual_task=?), ?);
 2.직접입력
 insert into daily_tasks (daily_task_seq, daily_task, assign_date, importance, assign_type, assign_detail, manual_task_seq, admin_seq) 
-values(daily_task_seq.nextval, ?, ?, ?, ?, ?, null, ?, ?);</t>
+values(daily_task_seq.nextval, ?, ?, ?, ?, ?, null, ?);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1719,7 +1719,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1771,12 +1771,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1870,7 +1864,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2077,9 +2071,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="2" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2858,11 +2849,11 @@
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
@@ -4882,8 +4873,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4903,11 +4894,11 @@
       <c r="B1" s="62" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="69" t="s">
         <v>294</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
       <c r="F1" s="62" t="s">
         <v>295</v>
       </c>
@@ -5476,7 +5467,7 @@
         <v>49</v>
       </c>
       <c r="E48" s="45"/>
-      <c r="F48" s="69"/>
+      <c r="F48" s="52"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="17">

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{41F6C046-1D78-4474-A312-59CCA54126F5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="진행일정" sheetId="3" r:id="rId1"/>
@@ -21,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SQL!$B$1:$B$161</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="407">
   <si>
     <t>업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1202,18 +1203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( ?, ?, ?, ?, ?, ?, ?, ?, ?, ? );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update users set pw=? where user_id=? and pw=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select pw from users where pw=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>직원인증정보, 회원정보 더미데이터
 직원, 회원정보 관련 기능 SQL추출</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1367,18 +1356,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">update staffs set status=1 where staff_id=? And </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>직원 승인 거부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select staff_id from branch_staffs where leave_date is not null and  branches_seq=(select branches_seq from branches where branch_name=?);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>직원 상세 정보 보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1391,10 +1372,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select count(phone_num) from users where phone_num=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1403,10 +1380,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select count(user_id) from users where user_id = ?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이름 입력값 형식 검사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1427,30 +1400,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select count(phone_num) from users where phone_num= ? //말이 안되잖아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update users set pw=? where user_id=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select count(user_id) from users where user_id = ?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select phone_num from users where user_id=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인증유형 선택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사업자 등록번호 입력값 형식 검사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1458,44 +1411,10 @@
     <t xml:space="preserve"> 주소 정보 페이징  </t>
   </si>
   <si>
-    <t xml:space="preserve">         페이징 기본 쿼리: inline view(예제 DB 활용)      select rownum, e.employee_id, e.job_id from (select employee_id, job_id from employees) e where rownum&lt;=50
-         지점 주소 정보 페이징      select rownum, b.address_city, b.address_gu, b.address_dong, b.address_detail from (select address_city, address_gu, address_dong, address_detail from branches) b where rownum&gt;=1
-         회원가입 시 주소 정보 페이징      select rownum, a.address_city, a.address_gu, a.address_dong from (select address_city, address_gu, address_dong from address) a where rownum&gt;=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into staffs(staff_id, resume_file, health_file, bank_file, bank_name, account_num, status) values(?, ?, ?, ?, ?, 0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지점 검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select branch_seq, branch_name from branches where address_city=? and address_gu=? and address_dong=? and address_detail=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select address_city from addresses</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select address_gu from addresses</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select branch_name from branches where address_city=? and address_gu=? and address_dong=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>통장사본 파일 첨부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>update users set email=?, address_city=?, address_gu=?, address_dong=?, phone_num=? where user_id=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이메일 입력값 형식 검사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1532,17 +1451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">--1. 모든 정보 변경
-update staffs set resume_file=?, health_file=?, bank_file=?, bank_name=?, account_num=? where staff_id=?
---2. 일부 정보만 변경?
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select resume_file, health_file, bank_file, bank_name, account_num from staffs where staff_id=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>새 보건증 파일 첨부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1556,15 +1464,6 @@
   </si>
   <si>
     <t>프로필 사진, 속한 지점, 회원인증유형, 이름 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">--1. 프로필 사진, 이름을 users에서 조회 
-select u.name, u.profile_photo from users where user_id=?
---2. 회원 인증 유형을 조회; 점주일 경우 branch_seq가 존재하겠지. 직원이면?
-select branch_seq from admins where admin_id=(select user_id from users where user_id=?)
---3. 해당 회원이 속한 지점명 조회
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1602,10 +1501,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select profile_photo, name from users where user_id=(select staff_id from staffs where status=0) and  ////테스트 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select staff_id from staffs where branch_seq=? and join_date is not null and leave_date is null;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1615,21 +1510,6 @@
   </si>
   <si>
     <t>delete daily_tasks where assgin_date=? and assign_type=? and assign_detail=? and daily_task=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update daily_tasks set assign_type=?, assign_detail=? where assign_date=? and assign_detail=? and daily_task=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.매뉴얼업무로 변경
-update daily_tasks
-set daily_task=?, manual_task_seq = (select manual_task_seq from manual_tasks where manual_task=?)
-where assign_date=? and assign_detail=? and daily_task=?
-2.직접 업무입력해서 변경
-update daily_tasks
-set daily_task=?, manual_task_seq = null
-where assign_date=? and assign_detail=? and daily_task=?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1652,15 +1532,441 @@
 values(daily_task_seq.nextval, ?, ?, ?, ?, ?, null, ?);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 매뉴얼업무인지 확인
+select manual_task_seq from manual_tasks where manual_task=?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(새로운업무명)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2-1.매뉴얼업무로 변경
+update daily_tasks
+set daily_task=?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(새로운업무명)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, manual_task_seq =?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1 결과)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+where assign_date=? and assign_detail=? and daily_task=?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(옛날업무명)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2-2.직접 업무입력해서 변경
+update daily_tasks
+set daily_task=?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(새로운업무명)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, manual_task_seq = null
+where assign_date=? and assign_detail=? and daily_task=?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(옛날업무명)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>update daily_tasks set assign_type=?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(새 배정유형)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, assign_detail=?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(새 배정대상)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> where assign_date=? and assign_type=? and assign_detail=? and daily_task=?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--전체 직원 목록 보기  select u.profile_photo, u.name from users u, staffs s where s.branch_seq=? And u.user_id=s.staff_id;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select u.profile_photo, u.name from users u, staffs s where s.branch_seq=? And s.join_date is null And u.user_id=s.staff_id order by u.name asc;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update staffs set join_date=? where staff_id=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select u.profile_photo, u.name from users u, staffs s where s.branch_seq=? and s.join_date is not null and s.leave_date is null And u.user_id=s.staff_id order by u.name asc;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update staffs set leave_date=? where staff_id=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select u.profile_photo, u.name from users u, staffs s where s.branch_seq=? and s.join_date is not null and s.leave_date is not null And u.user_id=s.staff_id order by u.name asc;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select staff_id, join_date, leave_date, work_part, bank_name, account_num, resume_file, health_file, bank_file from staffs where staff_id=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select user_id, pw from users where user_id=? And pw=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( ?, ?, ?, ?, ?, ?, ?, ?, ?, ?, 1, ? );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(phone_num) from users where phone_num=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(user_id) from users where user_id = ?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(phone_num) from users where phone_num= ? ;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update users set pw=? where user_id=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select phone_num from users where user_id=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into admins(admin_seq, admin_id, branch_seq, approve_date, revoke_date) values(admin_seq.nextval, ?, (select branch_seq from branches where branch_name=?), null, null);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(license_num) from branches where branch_name=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select representative, branch_name, address_city||' '||address_gu||' '||address_dong||' '||address_detail as address, opening_hour from branches where license_num=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--지점 주소 정보 페이징(조건 설정하기 전에 모든 지점들이 출력되어야 함)
+select rownum as r, a.branch_name, a.address_dong, a.address_detail
+ from (select rownum as rnum, branch_name, address_dong, address_detail
+ from (select branch_name, address_dong, address_detail
+            from branches)
+                   where rownum &lt;=(select count(rownum) from branches)) a
+                    where a.rnum &gt;0 ;    
+--회원가입 시 주소 정보 페이징: 시/도, 군/구가 선택되었을 때 동과 상세 주소가 나와야 함; addresses 테이블이 없어서 당장 테스트는 불가.
+select rownum as r, a.address_dong, a.address_detail
+from (select rownum as rnum, b.address_dong, .address_detail
+from (select address_dong, address_detail from addresses where address_city=? and address_gu=?) b
+where rownum &lt;=(select count(rownum) from addresses where address_city=? and address_gu=?)) a
+where a.rnum &gt;? ;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs(staff_seq, staff_id, branch_seq, join_date, leave_date, work_part, bank_name, account_num, resume_file, health_file, bank_file) values(staff_seq.nextval, ?, ?, null, null, null, ?, ?, ?, ?, ?);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select rownum as r, a.branch_name, a.address_dong, a.address_detail from (select rownum as rnum, b.branch_name, b.address_dong, b.address_detail
+    from (select branch_name, address_dong, address_detail from branches where address_city=? and address_gu=?) b
+               where rownum &lt;=(select count(rownum) from branches where address_city=? and address_gu=?)) a where a.rnum &gt;?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점 검색 + 페이징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select address_city from addresses;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select address_gu from addresses where address_city=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select rownum as r, a.branch_name, a.address_dong, a.address_detail from (select rownum as rnum, b.branch_name, b.address_dong, b.address_detail
+    from (select branch_name, address_dong, address_detail from branches where address_city=? and address_gu=?) b
+               where rownum &lt;=(select count(rownum) from branches where address_city=? and address_gu=?)) a where a.rnum &gt;? ;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 지역의 지점 목록 보기 + 페이징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(pw) from users where user_id=? and pw=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update users set email=?, address_city=?, address_gu=?, address_dong=?, phone_num=? where user_id=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select name, birth, address_city||' '||address_gu||' '||address_dong as address, phone_num, profile_photo from users where user_id=? ;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select address_city from addresses;
+select address_gu from addresses where address_city=?;
+select address_dong from addresses where address_city=? and address_gu=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update users set pw=? where user_id=? and pw=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update branches set representative=?, license_num=?, branch_phone_num=?, opening_hour=? where branch_seq=(select b.branch_seq from branches b, admins ad where admin_id=? and ad.branch_seq=b.branch_seq);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select license_num, representative, branch_phone_num, opening_hour from branches where branch_seq=(select b.branch_seq from branches b, admins ad where admin_id=? and ad.branch_seq=b.branch_seq);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--1. 모든 정보 변경
+update staffs set resume_file=?, health_file=?, bank_file=?, bank_name=?, account_num=? where staff_id=?
+--2. 일부 정보만 변경
+--(예시: 은행 이름, 계좌번호 변경)
+update staffs set bank_name='신한은행', account_num='110-275-386134' where staff_id='taehun';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select resume_file, health_file, bank_file, bank_name, account_num from staffs where staff_id=?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">--프로필 사진, 속한 지점, 회원인증유형, 이름 보기  
+--직원
+select u.name, u.profile_photo, s.branch_seq, b.branch_name
+from users u, staffs s, branches b
+where u.user_id=?
+and u.user_id=s.staff_id
+and s.branch_seq=b.branch_seq
+--점주
+select </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> u.profile_photo, b.branch_name, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ad.branch_seq, u.name, 
+from users u, admins ad, branches b
+where u.user_id=?
+and u.user_id=ad.admin_id
+and ad.branch_seq=b.branch_seq
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select user_id from users where user_id=? pw=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update users set profile_photo=? where user_id=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매뉴얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블별 배경 색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-412]m&quot;월&quot;\ d&quot;일&quot;\ dddd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1718,8 +2024,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1770,12 +2091,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1854,6 +2193,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1864,7 +2223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1877,15 +2236,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1913,9 +2266,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2036,9 +2386,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2054,18 +2401,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -2074,17 +2409,165 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
       <color rgb="FFFF6699"/>
     </mruColors>
   </colors>
@@ -2395,7 +2878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H48"/>
   <sheetViews>
@@ -2404,160 +2887,160 @@
       <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="39"/>
-    <col min="2" max="2" width="16.09765625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="31.09765625" customWidth="1"/>
-    <col min="4" max="4" width="31.19921875" customWidth="1"/>
-    <col min="5" max="5" width="34.796875" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="36"/>
+    <col min="2" max="2" width="16.125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="31.125" customWidth="1"/>
+    <col min="4" max="4" width="31.25" customWidth="1"/>
+    <col min="5" max="5" width="34.75" customWidth="1"/>
     <col min="6" max="6" width="31.5" customWidth="1"/>
-    <col min="7" max="7" width="34.59765625" customWidth="1"/>
-    <col min="8" max="8" width="31.59765625" customWidth="1"/>
+    <col min="7" max="7" width="34.625" customWidth="1"/>
+    <col min="8" max="8" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="20">
+    <row r="2" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="17">
         <v>43214</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B3" s="20">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="17">
         <v>43215</v>
       </c>
-      <c r="C3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B4" s="20">
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="17">
         <v>43216</v>
       </c>
-      <c r="C4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="20">
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="17">
         <v>43217</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="15" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="21">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="18">
         <v>43218</v>
       </c>
-      <c r="C6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="21">
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="18">
         <v>43219</v>
       </c>
-      <c r="C7" s="18"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="20">
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="17">
         <v>43220</v>
       </c>
-      <c r="C8" s="18"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="20">
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="17">
         <v>43221</v>
       </c>
-      <c r="C9" s="18"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="20">
+      <c r="C9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="17">
         <v>43222</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="20">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="17">
         <v>43223</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="15" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="20">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="17">
         <v>43224</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="15" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="21">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="18">
         <v>43225</v>
       </c>
-      <c r="C13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="21">
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="18">
         <v>43226</v>
       </c>
-      <c r="C14" s="18"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="21">
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="18">
         <v>43227</v>
       </c>
-      <c r="C15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="20">
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="17">
         <v>43228</v>
       </c>
-      <c r="C16" s="18"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="36">
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="33">
         <v>43229</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="15" t="s">
         <v>183</v>
       </c>
       <c r="G17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="87" x14ac:dyDescent="0.4">
-      <c r="B18" s="35">
+    <row r="18" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="32">
         <v>43230</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="34" t="s">
         <v>214</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2576,11 +3059,11 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="87" x14ac:dyDescent="0.4">
-      <c r="B19" s="35">
+    <row r="19" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="32">
         <v>43231</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="34" t="s">
         <v>215</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2599,219 +3082,219 @@
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="21">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="18">
         <v>43232</v>
       </c>
-      <c r="C20" s="18"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="21">
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="18">
         <v>43233</v>
       </c>
-      <c r="C21" s="18"/>
-    </row>
-    <row r="22" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B22" s="22">
+      <c r="C21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="B22" s="19">
         <v>43234</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="34" t="s">
         <v>246</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="22">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="19">
         <v>43235</v>
       </c>
-      <c r="C23" s="18"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="22">
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="19">
         <v>43236</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="15" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="39" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="17">
         <v>43237</v>
       </c>
-      <c r="C25" s="18"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="39" t="s">
+      <c r="C25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="17">
         <v>43238</v>
       </c>
-      <c r="C26" s="18"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B27" s="21">
+      <c r="C26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="18">
         <v>43239</v>
       </c>
-      <c r="C27" s="18"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B28" s="21">
+      <c r="C27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="18">
         <v>43240</v>
       </c>
-      <c r="C28" s="18"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="39" t="s">
+      <c r="C28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="17">
         <v>43241</v>
       </c>
-      <c r="C29" s="18"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="39" t="s">
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="17">
         <v>43242</v>
       </c>
-      <c r="C30" s="18"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B31" s="22">
+      <c r="C30" s="15"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="19">
         <v>43243</v>
       </c>
-      <c r="C31" s="18"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B32" s="22">
+      <c r="C31" s="15"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="19">
         <v>43244</v>
       </c>
-      <c r="C32" s="18"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B33" s="22">
+      <c r="C32" s="15"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="19">
         <v>43245</v>
       </c>
-      <c r="C33" s="18"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B34" s="21">
+      <c r="C33" s="15"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="18">
         <v>43246</v>
       </c>
-      <c r="C34" s="18"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B35" s="21">
+      <c r="C34" s="15"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="18">
         <v>43247</v>
       </c>
-      <c r="C35" s="18"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B36" s="22">
+      <c r="C35" s="15"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="19">
         <v>43248</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B37" s="22">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="19">
         <v>43249</v>
       </c>
-      <c r="C37" s="18"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B38" s="22">
+      <c r="C37" s="15"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="19">
         <v>43250</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="15" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" s="39" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="17">
         <v>43251</v>
       </c>
-      <c r="C39" s="18"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B40" s="20">
+      <c r="C39" s="15"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="17">
         <v>43252</v>
       </c>
-      <c r="C40" s="18"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B41" s="21">
+      <c r="C40" s="15"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="18">
         <v>43253</v>
       </c>
-      <c r="C41" s="18"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B42" s="21">
+      <c r="C41" s="15"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="18">
         <v>43254</v>
       </c>
-      <c r="C42" s="18"/>
-    </row>
-    <row r="43" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="22">
+      <c r="C42" s="15"/>
+    </row>
+    <row r="43" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="19">
         <v>43255</v>
       </c>
-      <c r="C43" s="18"/>
-    </row>
-    <row r="44" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="23">
+      <c r="C43" s="15"/>
+    </row>
+    <row r="44" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="20">
         <v>43256</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B45" s="21">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="18">
         <v>43257</v>
       </c>
-      <c r="C45" s="18"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B46" s="22">
+      <c r="C45" s="15"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="19">
         <v>43258</v>
       </c>
-      <c r="C46" s="18"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B47" s="22">
+      <c r="C46" s="15"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="19">
         <v>43259</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B48" s="20"/>
-      <c r="C48" s="18"/>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="17"/>
+      <c r="C48" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2821,7 +3304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K155"/>
   <sheetViews>
@@ -2830,37 +3313,37 @@
       <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" customWidth="1"/>
-    <col min="2" max="2" width="6.8984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="50.69921875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="23.19921875" customWidth="1"/>
-    <col min="6" max="6" width="19.59765625" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="50.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="11.69921875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="8.69921875" style="9"/>
+    <col min="9" max="9" width="11.625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="8" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>177</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2876,210 +3359,210 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="17">
+    <row r="2" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="17">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="17">
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="J4" s="31"/>
-    </row>
-    <row r="5" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A5" s="17">
+      <c r="J4" s="28"/>
+    </row>
+    <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="32" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="17">
+      <c r="J5" s="28"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="17">
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="17">
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="17">
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="17">
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-    </row>
-    <row r="11" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A11" s="17">
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="J11" s="31"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="17">
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="17">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>156</v>
       </c>
       <c r="E13" s="1"/>
@@ -3091,11 +3574,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="17">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E14" s="1"/>
@@ -3107,705 +3590,705 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="17">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-    </row>
-    <row r="16" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A16" s="17">
+      <c r="D15" s="11"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="14" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="J16" s="25"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="17">
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="17">
+      <c r="D17" s="11"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="14" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="J18" s="25"/>
-    </row>
-    <row r="19" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A19" s="17">
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
         <v>18</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="14" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="J19" s="25"/>
-    </row>
-    <row r="20" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A20" s="17">
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="14" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="J20" s="25"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="17">
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
         <v>20</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="17">
+      <c r="D21" s="26"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
         <v>21</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="17">
+      <c r="D22" s="26"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
         <v>22</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="17">
+      <c r="D23" s="26"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
         <v>23</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="58" t="s">
+      <c r="D24" s="51"/>
+      <c r="E24" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="G24" s="58" t="s">
+      <c r="G24" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="H24" s="55" t="s">
+      <c r="H24" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="59" t="s">
+      <c r="I24" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="J24" s="59"/>
-    </row>
-    <row r="25" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A25" s="17">
+      <c r="J24" s="55"/>
+    </row>
+    <row r="25" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
         <v>24</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58" t="s">
+      <c r="D25" s="51"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54" t="s">
         <v>258</v>
       </c>
-      <c r="G25" s="58" t="s">
+      <c r="G25" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="H25" s="55" t="s">
+      <c r="H25" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="59" t="s">
+      <c r="I25" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="J25" s="59"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="17">
+      <c r="J25" s="55"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
         <v>25</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-    </row>
-    <row r="27" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A27" s="17">
+      <c r="D26" s="51"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+    </row>
+    <row r="27" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
         <v>26</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30" t="s">
+      <c r="C27" s="31"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="G27" s="32" t="s">
+      <c r="G27" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="H27" s="30" t="s">
+      <c r="H27" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="31" t="s">
+      <c r="I27" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="J27" s="31"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="17">
+      <c r="J27" s="28"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
         <v>27</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34" t="s">
+      <c r="B28" s="30"/>
+      <c r="C28" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="17">
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
         <v>28</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="47" t="s">
+      <c r="B29" s="24"/>
+      <c r="C29" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="17">
+      <c r="D29" s="42"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
         <v>29</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="45" t="s">
+      <c r="B30" s="24"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="46" t="s">
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="17">
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
         <v>30</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="45" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="46" t="s">
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="17">
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="14">
         <v>31</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28" t="s">
+      <c r="B32" s="24"/>
+      <c r="C32" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-    </row>
-    <row r="33" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A33" s="17">
+      <c r="D32" s="26"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+    </row>
+    <row r="33" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A33" s="14">
         <v>32</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28" t="s">
+      <c r="B33" s="24"/>
+      <c r="C33" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32" t="s">
+      <c r="D33" s="26"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="G33" s="32" t="s">
+      <c r="G33" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="H33" s="30" t="s">
+      <c r="H33" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="31" t="s">
+      <c r="I33" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="J33" s="31"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="17">
+      <c r="J33" s="28"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="14">
         <v>33</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="28" t="s">
+      <c r="B34" s="24"/>
+      <c r="C34" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="17">
+      <c r="D34" s="26"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="14">
         <v>34</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29" t="s">
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32" t="s">
+      <c r="E35" s="29"/>
+      <c r="F35" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="H35" s="30" t="s">
+      <c r="H35" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I35" s="31" t="s">
+      <c r="I35" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="J35" s="31"/>
-    </row>
-    <row r="36" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A36" s="17">
+      <c r="J35" s="28"/>
+    </row>
+    <row r="36" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="14">
         <v>35</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29" t="s">
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32" t="s">
+      <c r="E36" s="29"/>
+      <c r="F36" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="G36" s="32" t="s">
+      <c r="G36" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="H36" s="30" t="s">
+      <c r="H36" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I36" s="31" t="s">
+      <c r="I36" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="J36" s="31"/>
-    </row>
-    <row r="37" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A37" s="17">
+      <c r="J36" s="28"/>
+    </row>
+    <row r="37" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="14">
         <v>36</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29" t="s">
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32" t="s">
+      <c r="E37" s="29"/>
+      <c r="F37" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="G37" s="32" t="s">
+      <c r="G37" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="H37" s="30" t="s">
+      <c r="H37" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I37" s="31" t="s">
+      <c r="I37" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="J37" s="31"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="17">
+      <c r="J37" s="28"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="14">
         <v>37</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="28" t="s">
+      <c r="B38" s="24"/>
+      <c r="C38" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="17">
+      <c r="D38" s="26"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="14">
         <v>38</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="28" t="s">
+      <c r="B39" s="24"/>
+      <c r="C39" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="17">
+      <c r="D39" s="26"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="14">
         <v>39</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="28" t="s">
+      <c r="B40" s="24"/>
+      <c r="C40" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-    </row>
-    <row r="41" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A41" s="17">
+      <c r="D40" s="26"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+    </row>
+    <row r="41" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A41" s="14">
         <v>40</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="30" t="s">
+      <c r="C41" s="31"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="F41" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G41" s="32" t="s">
+      <c r="G41" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="H41" s="30" t="s">
+      <c r="H41" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="31" t="s">
+      <c r="I41" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="J41" s="31"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="17">
+      <c r="J41" s="28"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="14">
         <v>41</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="53" t="s">
+      <c r="B42" s="24"/>
+      <c r="C42" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="54"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58" t="s">
+      <c r="D42" s="51"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="G42" s="58" t="s">
+      <c r="G42" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="H42" s="55" t="s">
+      <c r="H42" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="I42" s="59" t="s">
+      <c r="I42" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="J42" s="59"/>
-    </row>
-    <row r="43" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A43" s="17">
+      <c r="J42" s="55"/>
+    </row>
+    <row r="43" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="14">
         <v>42</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="53" t="s">
+      <c r="B43" s="24"/>
+      <c r="C43" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="54"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58" t="s">
+      <c r="D43" s="51"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54" t="s">
         <v>258</v>
       </c>
-      <c r="G43" s="58" t="s">
+      <c r="G43" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="H43" s="55" t="s">
+      <c r="H43" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="I43" s="59" t="s">
+      <c r="I43" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="J43" s="59"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="17">
+      <c r="J43" s="55"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
         <v>43</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="28" t="s">
+      <c r="B44" s="24"/>
+      <c r="C44" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-    </row>
-    <row r="45" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A45" s="17">
+      <c r="D44" s="26"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+    </row>
+    <row r="45" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A45" s="14">
         <v>44</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="30" t="s">
+      <c r="C45" s="25"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="F45" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="G45" s="32" t="s">
+      <c r="G45" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="H45" s="30" t="s">
+      <c r="H45" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="31" t="s">
+      <c r="I45" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="J45" s="31"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46" s="17">
+      <c r="J45" s="28"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="14">
         <v>45</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="28" t="s">
+      <c r="B46" s="24"/>
+      <c r="C46" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47" s="17">
+      <c r="D46" s="26"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="14">
         <v>46</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="15" t="s">
+      <c r="C47" s="10"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-    </row>
-    <row r="48" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A48" s="17">
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+    </row>
+    <row r="48" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="14">
         <v>47</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="12" t="s">
+      <c r="B48" s="23"/>
+      <c r="C48" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="14" t="s">
+      <c r="D48" s="11"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="G48" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="25" t="s">
+      <c r="I48" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="J48" s="25"/>
-    </row>
-    <row r="49" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A49" s="17">
+      <c r="J48" s="22"/>
+    </row>
+    <row r="49" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="14">
         <v>48</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="12" t="s">
+      <c r="B49" s="23"/>
+      <c r="C49" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="14" t="s">
+      <c r="D49" s="11"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="H49" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="25" t="s">
+      <c r="I49" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="J49" s="25"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J49" s="22"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3816,12 +4299,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>292</v>
+      <c r="C51" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="E51" t="s">
         <v>123</v>
@@ -3830,33 +4313,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H52" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H53" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E54" t="s">
@@ -3866,22 +4349,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H55" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E56" t="s">
@@ -3891,11 +4374,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E57" t="s">
@@ -3905,7 +4388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3918,49 +4401,49 @@
       <c r="H58" t="s">
         <v>12</v>
       </c>
-      <c r="J58" s="10" t="s">
+      <c r="J58" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J61" s="10" t="s">
+      <c r="J61" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J62" s="10" t="s">
+      <c r="J62" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3974,174 +4457,174 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>65</v>
       </c>
       <c r="H65" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H68" t="s">
         <v>5</v>
       </c>
-      <c r="K68" s="9" t="s">
+      <c r="K68" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E69" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="4" t="s">
         <v>66</v>
       </c>
       <c r="H71" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4152,167 +4635,167 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H84" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="5" t="s">
         <v>74</v>
       </c>
       <c r="H89" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H90" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="5" t="s">
         <v>84</v>
       </c>
       <c r="H92" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="5" t="s">
         <v>85</v>
       </c>
       <c r="H93" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="5" t="s">
         <v>74</v>
       </c>
       <c r="H97" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="5" t="s">
         <v>86</v>
       </c>
       <c r="H98" t="s">
         <v>5</v>
       </c>
-      <c r="K98" s="9" t="s">
+      <c r="K98" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4323,7 +4806,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4337,37 +4820,37 @@
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="4" t="s">
         <v>89</v>
       </c>
       <c r="H104" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="4" t="s">
         <v>90</v>
       </c>
       <c r="H105" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4381,11 +4864,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E107" t="s">
@@ -4395,86 +4878,86 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="4" t="s">
         <v>101</v>
       </c>
       <c r="H108" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="4" t="s">
         <v>102</v>
       </c>
       <c r="H109" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H110" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="K111" s="9" t="s">
+      <c r="K111" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K114" s="9" t="s">
+      <c r="K114" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4485,22 +4968,22 @@
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="4" t="s">
         <v>107</v>
       </c>
       <c r="H117" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="4" t="s">
         <v>131</v>
       </c>
       <c r="E118" t="s">
@@ -4510,140 +4993,140 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D119" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D121" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D125" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="D127" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="D128" s="5" t="s">
         <v>74</v>
       </c>
       <c r="H128" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="D129" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C130" s="4" t="s">
         <v>105</v>
       </c>
       <c r="H130" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" s="5" t="s">
         <v>111</v>
       </c>
       <c r="H131" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D133" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E134" t="s">
@@ -4653,70 +5136,70 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D135" s="5" t="s">
         <v>114</v>
       </c>
       <c r="H135" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D136" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="D137" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D138" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D139" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="D140" s="7" t="s">
+      <c r="D140" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="D141" s="7" t="s">
+      <c r="D141" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C142" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E142" t="s">
@@ -4726,58 +5209,58 @@
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="D143" s="7" t="s">
+      <c r="D143" s="5" t="s">
         <v>135</v>
       </c>
       <c r="H143" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="D144" s="7" t="s">
+      <c r="D144" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="D145" s="7" t="s">
+      <c r="D145" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="D146" s="7" t="s">
+      <c r="D146" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="D147" s="7" t="s">
+      <c r="D147" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="D148" s="7" t="s">
+      <c r="D148" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4788,29 +5271,29 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="C150" s="4" t="s">
         <v>141</v>
       </c>
       <c r="H150" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="C151" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="J151" s="10" t="s">
+      <c r="J151" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4820,14 +5303,14 @@
       <c r="E152" t="s">
         <v>79</v>
       </c>
-      <c r="J152" s="10" t="s">
+      <c r="J152" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="K152" s="9" t="s">
+      <c r="K152" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4837,11 +5320,11 @@
       <c r="E153" t="s">
         <v>152</v>
       </c>
-      <c r="K153" s="9" t="s">
+      <c r="K153" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4852,7 +5335,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H155">
         <f>COUNTA(H2:H154)</f>
         <v>61</v>
@@ -4869,1685 +5352,1829 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" customWidth="1"/>
-    <col min="2" max="2" width="10.19921875" style="50" customWidth="1"/>
-    <col min="3" max="3" width="6.796875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.296875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="62.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="175.296875" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="47" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="72" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="77" customWidth="1"/>
+    <col min="5" max="5" width="62.5" style="66" customWidth="1"/>
+    <col min="6" max="6" width="175.25" customWidth="1"/>
+    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="62" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:7" s="58" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="71"/>
+      <c r="D4" s="78" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" s="67"/>
+      <c r="F4" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="71"/>
+      <c r="D5" s="78" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="C1" s="69" t="s">
+      <c r="E5" s="67"/>
+      <c r="F5" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="G5" s="87" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="93" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="97" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="109" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="D9" s="77" t="s">
         <v>294</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="62" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="109.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="79"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="62" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="43" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="49" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="80" t="s">
+        <v>296</v>
+      </c>
+      <c r="E15" s="68"/>
+      <c r="F15" s="43"/>
+    </row>
+    <row r="16" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="74"/>
+      <c r="D16" s="81" t="s">
+        <v>297</v>
+      </c>
+      <c r="E16" s="69"/>
+      <c r="F16" s="12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="80" t="s">
+        <v>298</v>
+      </c>
+      <c r="E17" s="68"/>
+      <c r="F17" s="43"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="74"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="69" t="s">
+        <v>299</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="74"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="69" t="s">
+        <v>300</v>
+      </c>
+      <c r="F19" s="59" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" s="74"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="69" t="s">
+        <v>302</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="D21" s="77" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="D22" s="77" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="D23" s="77" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="32" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="17">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="17">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="17">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="17">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="17">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="109.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="17">
-        <v>10</v>
-      </c>
-      <c r="B11" s="49" t="s">
+      <c r="C24" s="75"/>
+      <c r="D24" s="82" t="s">
+        <v>304</v>
+      </c>
+      <c r="E24" s="65"/>
+      <c r="F24" s="52" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>305</v>
+      </c>
+      <c r="C25" s="75"/>
+      <c r="D25" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="65"/>
+      <c r="F25" s="52" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <v>25</v>
+      </c>
+      <c r="D26" s="77" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="165" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
+        <v>26</v>
+      </c>
+      <c r="B27" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="32" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="17">
-        <v>11</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C27" s="73" t="s">
+        <v>306</v>
+      </c>
+      <c r="D27" s="79"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="63" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
+        <v>27</v>
+      </c>
+      <c r="C28" s="76"/>
+      <c r="D28" s="83" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
+        <v>28</v>
+      </c>
+      <c r="D29" s="77" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="17">
-        <v>12</v>
-      </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="17">
-        <v>13</v>
-      </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="17">
-        <v>14</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-    </row>
-    <row r="16" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A16" s="17">
-        <v>15</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="47" t="s">
-        <v>301</v>
-      </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="17">
-        <v>17</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A19" s="17">
-        <v>18</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="F19" s="67" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A20" s="17">
-        <v>19</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="17">
-        <v>20</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="17">
-        <v>21</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="17">
-        <v>22</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="17">
-        <v>23</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>230</v>
-      </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="53" t="s">
-        <v>307</v>
-      </c>
-      <c r="E24" s="54"/>
-      <c r="F24" s="55" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="17">
-        <v>24</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="54"/>
-      <c r="F25" s="55" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="17">
-        <v>25</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="A27" s="17">
-        <v>26</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>231</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="32" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="17">
-        <v>27</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="17">
-        <v>28</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="17">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
         <v>29</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="66" t="s">
         <v>156</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="17">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
         <v>30</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>310</v>
+      <c r="E31" s="66" t="s">
+        <v>307</v>
       </c>
       <c r="F31" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="17">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="14">
         <v>31</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="47" t="s">
+      <c r="B32" s="45"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
-    </row>
-    <row r="33" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A33" s="17">
+      <c r="E32" s="68"/>
+      <c r="F32" s="43"/>
+    </row>
+    <row r="33" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A33" s="14">
         <v>32</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="12" t="s">
+      <c r="C33" s="74"/>
+      <c r="D33" s="81" t="s">
+        <v>308</v>
+      </c>
+      <c r="E33" s="69"/>
+      <c r="F33" s="12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="14">
+        <v>33</v>
+      </c>
+      <c r="D34" s="77" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="14">
+        <v>34</v>
+      </c>
+      <c r="B35" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="C35" s="74"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A36" s="14">
+        <v>35</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="C36" s="74"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" s="59" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A37" s="14">
+        <v>36</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="C37" s="74"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="14">
+        <v>37</v>
+      </c>
+      <c r="D38" s="77" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="14">
+        <v>38</v>
+      </c>
+      <c r="B39" s="46"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" s="67"/>
+      <c r="F39" s="60" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="14">
+        <v>39</v>
+      </c>
+      <c r="D40" s="77" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="14">
+        <v>40</v>
+      </c>
+      <c r="B41" s="46" t="s">
+        <v>310</v>
+      </c>
+      <c r="C41" s="73" t="s">
         <v>311</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="14" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="17">
-        <v>33</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="D41" s="79"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="29" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="14">
+        <v>41</v>
+      </c>
+      <c r="B42" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="C42" s="75"/>
+      <c r="D42" s="82" t="s">
+        <v>304</v>
+      </c>
+      <c r="E42" s="65"/>
+      <c r="F42" s="52" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="14">
+        <v>42</v>
+      </c>
+      <c r="B43" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="C43" s="75"/>
+      <c r="D43" s="82" t="s">
+        <v>312</v>
+      </c>
+      <c r="E43" s="65"/>
+      <c r="F43" s="52" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
+        <v>43</v>
+      </c>
+      <c r="D44" s="77" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="14">
+        <v>44</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>310</v>
+      </c>
+      <c r="C45" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="78"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="29" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="14">
+        <v>45</v>
+      </c>
+      <c r="D46" s="77" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="14">
+        <v>46</v>
+      </c>
+      <c r="B47" s="45"/>
+      <c r="C47" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="D47" s="80"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="43"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="14">
+        <v>47</v>
+      </c>
+      <c r="B48" s="45"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="68"/>
+      <c r="F48" s="49"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="14">
+        <v>48</v>
+      </c>
+      <c r="B49" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49" s="74"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="69" t="s">
+        <v>313</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A50" s="14">
+        <v>49</v>
+      </c>
+      <c r="B50" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="C50" s="74"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="69" t="s">
+        <v>300</v>
+      </c>
+      <c r="F50" s="59" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="17">
-        <v>34</v>
-      </c>
-      <c r="B35" s="51" t="s">
+    <row r="51" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A51" s="14">
+        <v>50</v>
+      </c>
+      <c r="B51" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A36" s="17">
-        <v>35</v>
-      </c>
-      <c r="B36" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="F36" s="67" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A37" s="17">
-        <v>36</v>
-      </c>
-      <c r="B37" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="13" t="s">
+      <c r="C51" s="74"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="F37" s="14" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="17">
-        <v>37</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="17">
-        <v>38</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="E39" s="29"/>
-      <c r="F39" s="68" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="17">
-        <v>39</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="17">
-        <v>40</v>
-      </c>
-      <c r="B41" s="49" t="s">
-        <v>313</v>
-      </c>
-      <c r="C41" s="33" t="s">
+      <c r="F51" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="14">
+        <v>51</v>
+      </c>
+      <c r="B52" s="45"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" s="68"/>
+      <c r="F52" s="49"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="14">
+        <v>52</v>
+      </c>
+      <c r="B53" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="C53" s="74"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="F53" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="32" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="17">
-        <v>41</v>
-      </c>
-      <c r="B42" s="56" t="s">
-        <v>239</v>
-      </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="53" t="s">
-        <v>307</v>
-      </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="55" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="17">
-        <v>42</v>
-      </c>
-      <c r="B43" s="56" t="s">
-        <v>239</v>
-      </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="53" t="s">
+    </row>
+    <row r="54" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A54" s="14">
+        <v>53</v>
+      </c>
+      <c r="B54" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="C54" s="74"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="69" t="s">
         <v>315</v>
       </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="55" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="17">
-        <v>43</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="17">
-        <v>44</v>
-      </c>
-      <c r="B45" s="49" t="s">
-        <v>313</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="28"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="32" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="17">
-        <v>45</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="17">
-        <v>46</v>
-      </c>
-      <c r="B47" s="48"/>
-      <c r="C47" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="D47" s="47"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="46"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="17">
-        <v>47</v>
-      </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" s="45"/>
-      <c r="F48" s="52"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="17">
-        <v>48</v>
-      </c>
-      <c r="B49" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="13" t="s">
+      <c r="F54" s="59" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A55" s="14">
+        <v>54</v>
+      </c>
+      <c r="B55" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="C55" s="74"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="69" t="s">
         <v>316</v>
       </c>
-      <c r="F49" s="15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A50" s="17">
-        <v>49</v>
-      </c>
-      <c r="B50" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="F50" s="67" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A51" s="17">
-        <v>50</v>
-      </c>
-      <c r="B51" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="17">
-        <v>51</v>
-      </c>
-      <c r="B52" s="48"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="E52" s="45"/>
-      <c r="F52" s="52"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="17">
-        <v>52</v>
-      </c>
-      <c r="B53" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="F53" s="15" t="s">
+      <c r="F55" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="43">
+        <v>55</v>
+      </c>
+      <c r="B56" s="53"/>
+      <c r="C56" s="75" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A54" s="17">
-        <v>53</v>
-      </c>
-      <c r="B54" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="13" t="s">
+      <c r="D56" s="82"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="64" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="43">
+        <v>56</v>
+      </c>
+      <c r="B57" s="53"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="65"/>
+      <c r="F57" s="52" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="43">
+        <v>57</v>
+      </c>
+      <c r="B58" s="53"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="65" t="s">
         <v>318</v>
       </c>
-      <c r="F54" s="67" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A55" s="17">
-        <v>54</v>
-      </c>
-      <c r="B55" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="C55" s="26"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="13" t="s">
+      <c r="F58" s="52" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="43">
+        <v>58</v>
+      </c>
+      <c r="E59" s="66" t="s">
         <v>319</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A56" s="46">
-        <v>55</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57" s="46">
-        <v>56</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="46">
-        <v>57</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F58" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A59" s="46">
-        <v>58</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="F59" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60" s="46">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="43">
         <v>59</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="B60" s="53"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="E60" s="65"/>
+      <c r="F60" s="65" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="43">
+        <v>60</v>
+      </c>
+      <c r="B61" s="53"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="65" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="43">
+        <v>61</v>
+      </c>
+      <c r="B62" s="53"/>
+      <c r="C62" s="75"/>
+      <c r="D62" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="43">
+        <v>62</v>
+      </c>
+      <c r="B63" s="53"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="82" t="s">
+        <v>320</v>
+      </c>
+      <c r="E63" s="65"/>
+      <c r="F63" s="52" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="43">
+        <v>63</v>
+      </c>
+      <c r="B64" s="103"/>
+      <c r="C64" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="86"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="84" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="43">
+        <v>64</v>
+      </c>
+      <c r="D65" s="77" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="43">
+        <v>65</v>
+      </c>
+      <c r="D66" s="77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="43">
+        <v>66</v>
+      </c>
+      <c r="D67" s="77" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="43">
+        <v>67</v>
+      </c>
+      <c r="D68" s="77" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="43">
+        <v>68</v>
+      </c>
+      <c r="B69" s="103"/>
+      <c r="C69" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="86"/>
+      <c r="E69" s="87"/>
+      <c r="F69" s="87" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="43">
+        <v>69</v>
+      </c>
+      <c r="D70" s="77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="43">
+        <v>70</v>
+      </c>
+      <c r="B71" s="103"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="86" t="s">
+        <v>322</v>
+      </c>
+      <c r="E71" s="87"/>
+      <c r="F71" s="84" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="43">
+        <v>71</v>
+      </c>
+      <c r="D72" s="77" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="43">
+        <v>72</v>
+      </c>
+      <c r="D73" s="77" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="43">
+        <v>73</v>
+      </c>
+      <c r="D74" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="F74" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="43">
+        <v>74</v>
+      </c>
+      <c r="D75" s="77" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="43">
+        <v>75</v>
+      </c>
+      <c r="D76" s="77" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="43">
+        <v>76</v>
+      </c>
+      <c r="B77" s="103"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="86" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A61" s="46">
-        <v>60</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A62" s="46">
-        <v>61</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A63" s="46">
-        <v>62</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="E77" s="87"/>
+      <c r="F77" s="84" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="43">
+        <v>77</v>
+      </c>
+      <c r="D78" s="77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="43">
+        <v>78</v>
+      </c>
+      <c r="D79" s="77" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="43">
+        <v>79</v>
+      </c>
+      <c r="D80" s="77" t="s">
         <v>325</v>
       </c>
-      <c r="F63" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64" s="46">
-        <v>63</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F64" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A65" s="46">
-        <v>64</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A66" s="46">
-        <v>65</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A67" s="46">
-        <v>66</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A68" s="46">
-        <v>67</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A69" s="46">
-        <v>68</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="7"/>
-      <c r="F69" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A70" s="46">
-        <v>69</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A71" s="46">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="43">
+        <v>80</v>
+      </c>
+      <c r="D81" s="77" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="43">
+        <v>81</v>
+      </c>
+      <c r="D82" s="77" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="43">
+        <v>82</v>
+      </c>
+      <c r="D83" s="77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="43">
+        <v>83</v>
+      </c>
+      <c r="D84" s="77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="43">
+        <v>84</v>
+      </c>
+      <c r="D85" s="77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="43">
+        <v>85</v>
+      </c>
+      <c r="D86" s="77" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="43">
+        <v>86</v>
+      </c>
+      <c r="D87" s="77" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="43">
+        <v>87</v>
+      </c>
+      <c r="D88" s="77" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="43">
+        <v>88</v>
+      </c>
+      <c r="C89" s="72" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="43">
+        <v>89</v>
+      </c>
+      <c r="D90" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="F90" s="66"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="43">
+        <v>90</v>
+      </c>
+      <c r="E91" s="66" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="43">
+        <v>91</v>
+      </c>
+      <c r="B92" s="103" t="s">
+        <v>239</v>
+      </c>
+      <c r="C92" s="85"/>
+      <c r="D92" s="86"/>
+      <c r="E92" s="87" t="s">
+        <v>321</v>
+      </c>
+      <c r="F92" s="84" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="43">
+        <v>92</v>
+      </c>
+      <c r="E93" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="F93" s="66"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="43">
+        <v>93</v>
+      </c>
+      <c r="E94" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="D71" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A72" s="46">
-        <v>71</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A73" s="46">
-        <v>72</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A74" s="46">
-        <v>73</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F74" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A75" s="46">
-        <v>74</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A76" s="46">
-        <v>75</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A77" s="46">
-        <v>76</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A78" s="46">
-        <v>77</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A79" s="46">
-        <v>78</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A80" s="46">
-        <v>79</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A81" s="46">
-        <v>80</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A82" s="46">
-        <v>81</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A83" s="46">
-        <v>82</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A84" s="46">
-        <v>83</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A85" s="46">
-        <v>84</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A86" s="46">
-        <v>85</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A87" s="46">
-        <v>86</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A88" s="46">
-        <v>87</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A89" s="46">
-        <v>88</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A90" s="46">
-        <v>89</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F90" s="7"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A91" s="46">
-        <v>90</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A92" s="46">
-        <v>91</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A93" s="46">
-        <v>92</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F93" s="7"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A94" s="46">
-        <v>93</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A95" s="46">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="43">
         <v>94</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="66" t="s">
         <v>74</v>
       </c>
       <c r="F95" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A96" s="46">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="43">
         <v>95</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="B96" s="103"/>
+      <c r="C96" s="85"/>
+      <c r="D96" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="F96" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A97" s="46">
+      <c r="E96" s="87"/>
+      <c r="F96" s="84" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="43">
         <v>96</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E97" s="66" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A98" s="46">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="43">
         <v>97</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="B98" s="103"/>
+      <c r="C98" s="85"/>
+      <c r="D98" s="86"/>
+      <c r="E98" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="F98" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A99" s="46">
+      <c r="F98" s="84" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="43">
         <v>98</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="B99" s="103"/>
+      <c r="C99" s="85"/>
+      <c r="D99" s="86"/>
+      <c r="E99" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="F99" s="7" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A100" s="46">
+      <c r="F99" s="84" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="43">
         <v>99</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A101" s="46">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="43">
         <v>100</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E101" s="66" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A102" s="46">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="43">
         <v>101</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E102" s="66" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A103" s="46">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="43">
         <v>102</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" s="66" t="s">
         <v>74</v>
       </c>
       <c r="F103" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A104" s="46">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="43">
         <v>103</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E104" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F104" s="66" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A105" s="46">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="43">
         <v>104</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E105" s="66" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A106" s="46">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="43">
         <v>105</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="E106" s="66" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A107" s="46">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="43">
         <v>106</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A108" s="46">
+      <c r="C107" s="72" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="43">
         <v>107</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="B108" s="102"/>
+      <c r="C108" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="F108" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A109" s="46">
+      <c r="D108" s="90"/>
+      <c r="E108" s="91"/>
+      <c r="F108" s="92" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="43">
         <v>108</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A110" s="46">
+      <c r="D109" s="77" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="43">
         <v>109</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="B110" s="99"/>
+      <c r="C110" s="94"/>
+      <c r="D110" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="F110" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A111" s="46">
+      <c r="E110" s="96"/>
+      <c r="F110" s="97" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="43">
         <v>110</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="B111" s="99"/>
+      <c r="C111" s="94"/>
+      <c r="D111" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="F111" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A112" s="46">
+      <c r="E111" s="96"/>
+      <c r="F111" s="97" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="231" x14ac:dyDescent="0.3">
+      <c r="A112" s="43">
         <v>111</v>
       </c>
-      <c r="D112" s="64" t="s">
-        <v>344</v>
-      </c>
-      <c r="E112" s="65"/>
-      <c r="F112" s="66" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A113" s="46">
+      <c r="B112" s="99"/>
+      <c r="C112" s="94"/>
+      <c r="D112" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="E112" s="96"/>
+      <c r="F112" s="98" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="43">
         <v>112</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="B113" s="53"/>
+      <c r="C113" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="D113" s="7"/>
+      <c r="D113" s="82"/>
       <c r="E113" s="65"/>
-      <c r="F113" s="66" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A114" s="46">
+      <c r="F113" s="54" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A114" s="43">
         <v>113</v>
       </c>
-      <c r="D114" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="F114" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A115" s="46">
+      <c r="B114" s="99"/>
+      <c r="C114" s="94"/>
+      <c r="D114" s="95" t="s">
+        <v>382</v>
+      </c>
+      <c r="E114" s="96"/>
+      <c r="F114" s="100" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="43">
         <v>114</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="B115" s="99"/>
+      <c r="C115" s="94"/>
+      <c r="D115" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="F115" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A116" s="46">
+      <c r="E115" s="96"/>
+      <c r="F115" s="97" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="43">
         <v>115</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="B116" s="99"/>
+      <c r="C116" s="94"/>
+      <c r="D116" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="F116" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A117" s="46">
+      <c r="E116" s="96"/>
+      <c r="F116" s="97" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A117" s="43">
         <v>116</v>
       </c>
-      <c r="D117" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F117" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A118" s="46">
+      <c r="B117" s="99"/>
+      <c r="C117" s="94"/>
+      <c r="D117" s="101" t="s">
+        <v>386</v>
+      </c>
+      <c r="E117" s="96"/>
+      <c r="F117" s="98" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="43">
         <v>117</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="77" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A119" s="46">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="43">
         <v>118</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="77" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A120" s="46">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="43">
         <v>119</v>
       </c>
-      <c r="D120" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A121" s="46">
+      <c r="D120" s="77" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="43">
         <v>120</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="77" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A122" s="46">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="43">
         <v>121</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D122" s="77" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A123" s="46">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="43">
         <v>122</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="72" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A124" s="46">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="43">
         <v>123</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="B124" s="103"/>
+      <c r="C124" s="85"/>
+      <c r="D124" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="F124" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A125" s="46">
+      <c r="E124" s="87"/>
+      <c r="F124" s="84" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="43">
         <v>124</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="B125" s="103"/>
+      <c r="C125" s="85"/>
+      <c r="D125" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="F125" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A126" s="46">
+      <c r="E125" s="87"/>
+      <c r="F125" s="84" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="43">
         <v>125</v>
       </c>
-      <c r="E126" s="7" t="s">
+      <c r="B126" s="103"/>
+      <c r="C126" s="85"/>
+      <c r="D126" s="86"/>
+      <c r="E126" s="87" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A127" s="46">
+      <c r="F126" s="84" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="43">
         <v>126</v>
       </c>
-      <c r="E127" s="7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A128" s="46">
+      <c r="E127" s="66" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="43">
         <v>127</v>
       </c>
-      <c r="E128" s="7" t="s">
+      <c r="E128" s="66" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A129" s="46">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="43">
         <v>128</v>
       </c>
-      <c r="E129" s="7" t="s">
+      <c r="E129" s="66" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A130" s="46">
+    <row r="130" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A130" s="43">
         <v>129</v>
       </c>
-      <c r="E130" s="7" t="s">
+      <c r="B130" s="110"/>
+      <c r="C130" s="108"/>
+      <c r="D130" s="105"/>
+      <c r="E130" s="106" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A131" s="46">
+      <c r="F130" s="107" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="43">
         <v>130</v>
       </c>
-      <c r="E131" s="7" t="s">
+      <c r="E131" s="66" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A132" s="46">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="43">
         <v>131</v>
       </c>
-      <c r="E132" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A133" s="46">
+      <c r="E132" s="66" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="43">
         <v>132</v>
       </c>
-      <c r="E133" s="7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A134" s="46">
+      <c r="E133" s="66" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="43">
         <v>133</v>
       </c>
-      <c r="E134" s="7" t="s">
+      <c r="E134" s="66" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A135" s="46">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="43">
         <v>134</v>
       </c>
-      <c r="E135" s="7" t="s">
+      <c r="E135" s="66" t="s">
         <v>74</v>
       </c>
       <c r="F135" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A136" s="46">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="43">
         <v>135</v>
       </c>
-      <c r="E136" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A137" s="46">
+      <c r="B136" s="103"/>
+      <c r="C136" s="85"/>
+      <c r="D136" s="86"/>
+      <c r="E136" s="87" t="s">
+        <v>337</v>
+      </c>
+      <c r="F136" s="84" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="43">
         <v>136</v>
       </c>
-      <c r="D137" t="s">
+      <c r="B137" s="103"/>
+      <c r="C137" s="85"/>
+      <c r="D137" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="E137"/>
-      <c r="F137" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A138" s="46">
+      <c r="E137" s="87"/>
+      <c r="F137" s="84" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="43">
         <v>137</v>
       </c>
-      <c r="D138"/>
-      <c r="E138" t="s">
+      <c r="B138" s="103"/>
+      <c r="C138" s="85"/>
+      <c r="D138" s="86"/>
+      <c r="E138" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="F138" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A139" s="46">
+      <c r="F138" s="84" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="43">
         <v>138</v>
       </c>
-      <c r="E139" s="7" t="s">
+      <c r="E139" s="66" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A140" s="46">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="43">
         <v>139</v>
       </c>
-      <c r="E140" s="7" t="s">
+      <c r="E140" s="66" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A141" s="46">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="43">
         <v>140</v>
       </c>
-      <c r="D141" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="F141" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A142" s="46">
+      <c r="B141" s="99"/>
+      <c r="C141" s="94"/>
+      <c r="D141" s="95" t="s">
+        <v>338</v>
+      </c>
+      <c r="E141" s="96"/>
+      <c r="F141" s="97" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="43">
         <v>141</v>
       </c>
-      <c r="E142" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="F142" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A143" s="46">
+      <c r="B142" s="99"/>
+      <c r="C142" s="94"/>
+      <c r="D142" s="95"/>
+      <c r="E142" s="96" t="s">
+        <v>339</v>
+      </c>
+      <c r="F142" s="97" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="43">
         <v>142</v>
       </c>
-      <c r="E143" s="7" t="s">
+      <c r="E143" s="66" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A144" s="46">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="43">
         <v>143</v>
       </c>
-      <c r="E144" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A145" s="46">
+      <c r="E144" s="66" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="43">
         <v>144</v>
       </c>
-      <c r="E145" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A146" s="46">
+      <c r="E145" s="66" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="43">
         <v>145</v>
       </c>
-      <c r="E146" s="7" t="s">
+      <c r="E146" s="66" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A147" s="46">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="43">
         <v>146</v>
       </c>
-      <c r="E147" s="7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A148" s="46">
+      <c r="E147" s="66" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="43">
         <v>147</v>
       </c>
-      <c r="E148" s="7" t="s">
+      <c r="E148" s="66" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A149" s="46">
+    <row r="149" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A149" s="43">
         <v>148</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="B149" s="53"/>
+      <c r="C149" s="75"/>
+      <c r="D149" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A150" s="46">
+      <c r="E149" s="65"/>
+      <c r="F149" s="104" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="43">
         <v>149</v>
       </c>
-      <c r="D150" s="47"/>
-      <c r="E150" s="3" t="s">
+      <c r="B150" s="53"/>
+      <c r="C150" s="75"/>
+      <c r="D150" s="82"/>
+      <c r="E150" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="F150" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A151" s="46">
+      <c r="F150" s="65" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="43">
         <v>150</v>
       </c>
-      <c r="E151" s="7" t="s">
+      <c r="E151" s="66" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A152" s="46">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="43">
         <v>151</v>
       </c>
-      <c r="E152" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A153" s="46">
+      <c r="E152" s="66" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="43">
         <v>152</v>
       </c>
-      <c r="E153" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A154" s="46">
+      <c r="E153" s="66" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="43">
         <v>153</v>
       </c>
-      <c r="E154" s="7" t="s">
+      <c r="E154" s="66" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A155" s="46">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="43">
         <v>154</v>
       </c>
-      <c r="E155" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A156" s="46">
+      <c r="E155" s="66" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="43">
         <v>155</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="72" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="A157" s="46">
+    <row r="157" spans="1:6" ht="247.5" x14ac:dyDescent="0.3">
+      <c r="A157" s="43">
         <v>156</v>
       </c>
-      <c r="D157" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="F157" s="63" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A158" s="46">
+      <c r="B157" s="103"/>
+      <c r="C157" s="85"/>
+      <c r="D157" s="86" t="s">
+        <v>346</v>
+      </c>
+      <c r="E157" s="87"/>
+      <c r="F157" s="88" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="43">
         <v>157</v>
       </c>
-      <c r="D158" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A159" s="46">
+      <c r="D158" s="77" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="43">
         <v>158</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="72" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A160" s="46">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="43">
         <v>159</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="72" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A161" s="46">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="43">
         <v>160</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="72" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B161"/>
+  <autoFilter ref="B1:B161" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="1">
     <mergeCell ref="C1:E1"/>
   </mergeCells>
@@ -6558,7 +7185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -6566,24 +7193,24 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="44" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="41" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:3" s="38" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="38" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="44">
+    <row r="2" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -6593,8 +7220,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="44">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="41">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -6604,16 +7231,16 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="44">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="41">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="44">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="41">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -6623,16 +7250,16 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="44">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="41">
         <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="44">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="41">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -6642,118 +7269,118 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="44">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="41">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="44">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="44">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="44">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="44">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="41">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="44">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="41">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="44">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="41">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="44">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="41">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="44">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="41">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="44">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="41">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="44">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="41">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="44">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="41">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="44">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="41">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="44">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="41">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="44">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="41">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="44">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="41">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" s="44">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="41">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" s="44">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="41">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="44">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="41">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="44">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="41">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="44">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="41">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" s="44">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="41">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" s="44">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="41">
         <v>29</v>
       </c>
     </row>
@@ -6764,7 +7391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -6772,26 +7399,26 @@
       <selection activeCell="E9" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.796875" style="44" customWidth="1"/>
-    <col min="3" max="3" width="79.8984375" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="41" customWidth="1"/>
+    <col min="3" max="3" width="79.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="40" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:4" s="37" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="42"/>
-    </row>
-    <row r="2" spans="1:4" ht="52.8" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="44">
+      <c r="D1" s="39"/>
+    </row>
+    <row r="2" spans="1:4" ht="50.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -6801,79 +7428,79 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="A3" s="44">
+    <row r="3" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A3" s="41">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="44">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="44">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="44">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="41">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="44">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="41">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="44">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="41">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="44">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="44">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="44">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="44">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="41">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="44">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="41">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="44">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="41">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="44">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="41">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="44">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="41">
         <v>15</v>
       </c>
     </row>

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{41F6C046-1D78-4474-A312-59CCA54126F5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="진행일정" sheetId="3" r:id="rId1"/>
@@ -20,9 +19,9 @@
     <sheet name="발표컨텐츠" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SQL!$B$1:$B$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SQL!$B$1:$B$162</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="414">
   <si>
     <t>업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -755,9 +754,6 @@
   </si>
   <si>
     <t>모델링</t>
-  </si>
-  <si>
-    <t>서블릿 컨테이너 시작</t>
   </si>
   <si>
     <t>1차 완성/테스트</t>
@@ -1024,13 +1020,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DAO 인터페이스 설계
-직원관련 table들 물리모델링
-직원관련 table 더미데이터 작성
-직원조회 관련 기능 SQL문 추출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DAILY_TASKS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1427,10 +1416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프로필 사진 첨부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자 정보 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1487,10 +1472,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select staff_id from staffs where branch_seq=? and join_date is not null and leave_date is null;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select distinct space_type from manual_tasks m, space_types s, task_types t 
 where m.space_type_seq = s.space_type_seq and m.task_type_seq = t.task_type_seq and t.task_type=?;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1501,15 +1482,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select staff_id from staffs where branch_seq=? and join_date is not null and leave_date is null;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>update daily_tasks set importance=? where daily_task=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete daily_tasks where assgin_date=? and assign_type=? and assign_detail=? and daily_task=?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1721,46 +1694,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>--전체 직원 목록 보기  select u.profile_photo, u.name from users u, staffs s where s.branch_seq=? And u.user_id=s.staff_id;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select u.profile_photo, u.name from users u, staffs s where s.branch_seq=? And s.join_date is null And u.user_id=s.staff_id order by u.name asc;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>update staffs set join_date=? where staff_id=?;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select u.profile_photo, u.name from users u, staffs s where s.branch_seq=? and s.join_date is not null and s.leave_date is null And u.user_id=s.staff_id order by u.name asc;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>update staffs set leave_date=? where staff_id=?;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select u.profile_photo, u.name from users u, staffs s where s.branch_seq=? and s.join_date is not null and s.leave_date is not null And u.user_id=s.staff_id order by u.name asc;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select staff_id, join_date, leave_date, work_part, bank_name, account_num, resume_file, health_file, bank_file from staffs where staff_id=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select user_id, pw from users where user_id=? And pw=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( ?, ?, ?, ?, ?, ?, ?, ?, ?, ?, 1, ? );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select count(phone_num) from users where phone_num=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select count(user_id) from users where user_id = ?;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1774,48 +1715,6 @@
   </si>
   <si>
     <t>select phone_num from users where user_id=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into admins(admin_seq, admin_id, branch_seq, approve_date, revoke_date) values(admin_seq.nextval, ?, (select branch_seq from branches where branch_name=?), null, null);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select count(license_num) from branches where branch_name=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select representative, branch_name, address_city||' '||address_gu||' '||address_dong||' '||address_detail as address, opening_hour from branches where license_num=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--지점 주소 정보 페이징(조건 설정하기 전에 모든 지점들이 출력되어야 함)
-select rownum as r, a.branch_name, a.address_dong, a.address_detail
- from (select rownum as rnum, branch_name, address_dong, address_detail
- from (select branch_name, address_dong, address_detail
-            from branches)
-                   where rownum &lt;=(select count(rownum) from branches)) a
-                    where a.rnum &gt;0 ;    
---회원가입 시 주소 정보 페이징: 시/도, 군/구가 선택되었을 때 동과 상세 주소가 나와야 함; addresses 테이블이 없어서 당장 테스트는 불가.
-select rownum as r, a.address_dong, a.address_detail
-from (select rownum as rnum, b.address_dong, .address_detail
-from (select address_dong, address_detail from addresses where address_city=? and address_gu=?) b
-where rownum &lt;=(select count(rownum) from addresses where address_city=? and address_gu=?)) a
-where a.rnum &gt;? ;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into staffs(staff_seq, staff_id, branch_seq, join_date, leave_date, work_part, bank_name, account_num, resume_file, health_file, bank_file) values(staff_seq.nextval, ?, ?, null, null, null, ?, ?, ?, ?, ?);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select rownum as r, a.branch_name, a.address_dong, a.address_detail from (select rownum as rnum, b.branch_name, b.address_dong, b.address_detail
-    from (select branch_name, address_dong, address_detail from branches where address_city=? and address_gu=?) b
-               where rownum &lt;=(select count(rownum) from branches where address_city=? and address_gu=?)) a where a.rnum &gt;?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지점 검색 + 페이징</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1837,33 +1736,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select count(pw) from users where user_id=? and pw=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>update users set email=?, address_city=?, address_gu=?, address_dong=?, phone_num=? where user_id=?;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select name, birth, address_city||' '||address_gu||' '||address_dong as address, phone_num, profile_photo from users where user_id=? ;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select address_city from addresses;
-select address_gu from addresses where address_city=?;
-select address_dong from addresses where address_city=? and address_gu=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>update users set pw=? where user_id=? and pw=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update branches set representative=?, license_num=?, branch_phone_num=?, opening_hour=? where branch_seq=(select b.branch_seq from branches b, admins ad where admin_id=? and ad.branch_seq=b.branch_seq);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select license_num, representative, branch_phone_num, opening_hour from branches where branch_seq=(select b.branch_seq from branches b, admins ad where admin_id=? and ad.branch_seq=b.branch_seq);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1958,11 +1835,170 @@
     <t>주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>delete daily_tasks where assgin_date=? and assign_type=? and assign_detail=? and daily_task=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--전체 직원 목록 보기 
+select u.profile_photo, u.name, u.gender, u.birth, s.work_part from users u, staffs s where s.branch_seq=? And u.user_id=s.staff_id;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select u.profile_photo, u.name, u.gender, u.birth, s.work_part from users u, staffs s where s.branch_seq=? And s.join_date is null And u.user_id=s.staff_id order by u.name asc;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select u.profile_photo, u.name, u.gender, u.birth, s.work_part from users u, staffs s where s.branch_seq=? and s.join_date is not null and s.leave_date is null And u.user_id=s.staff_id order by u.name asc;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서블릿 컨테이너 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나머지 SQL문 추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyVO 설계
+DailyDAO 인터페이스, 구현
+dailyMapper 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManualVO 설계
+ManualDAO 인터페이스, 구현
+manualMapper 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDBC - DAO 인터페이스 설계
+직원관련 table들 물리모델링
+직원관련 table 더미데이터 작성
+직원조회 관련 기능 SQL문 추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myBatis - DAO 인터페이스 설계
+VO 설계
+mapper 설계
+DAO 구현
+DAO 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select s.staff_id, u.name, u.profile_photo from staffs s, users u where s.staff_id=u.user_id and branch_seq=? and join_date is not null and leave_date is null;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete staffs where staff_id=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#다시짜야함. 재승인요청or재입사 했을 경우도 같이 출력됨.
+select u.profile_photo, u.name, u.gender, u.birth from users u, staffs s where s.branch_seq=? and s.join_date is not null and s.leave_date is not null And u.user_id=s.staff_id order by u.name asc;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select u.profile_photo, u.name, u.gender, u.birth, s.join_date, s.leave_date, s.work_part, s.bank_name, s.account_num, s.resume_file, s.health_file, s.bank_file from users u, staffs s where staff_id=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select user_id from users where user_id=? And pw=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( ?, ?, ?, ?, ?, ?, ?, ?, ?, ?, 1, ? );
+* 유의사항 : status가 1이면 가입상태, 0이면 탈퇴상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(phone_num) from users where phone_num=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into admins(admin_seq, admin_id, branch_seq) values(admin_seq.nextval, ?, (select branch_seq from branches where branch_name=?));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(license_num) from branches where license_num=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select representative, branch_name, address_city, address_gu, address_dong, address_detail, opening_hour from head_branches where license_num=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본사DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--지점 주소 정보 페이징(조건 설정하기 전에 모든 지점들이 출력되어야 함)
+select rownum as r, a.branch_name, a.address_dong, a.address_detail
+ from (select rownum as rnum, branch_name, address_dong, address_detail
+ from (select branch_name, address_dong, address_detail
+            from branches)
+                   where rownum &lt;=(select count(rownum) from branches)) a
+                    where a.rnum &gt;0 ;
+--회원가입 시 주소 정보 페이징: 시/도, 군/구가 선택되었을 때 동과 상세 주소가 나와야 함; addresses 테이블이 없어서 당장 테스트는 불가.
+select rownum as r, a.address_dong, a.address_detail
+from (select rownum as rnum, b.address_dong, .address_detail
+from (select address_dong, address_detail from addresses where address_city=? and address_gu=?) b
+where rownum &lt;=(select count(rownum) from addresses where address_city=? and address_gu=?)) a
+where a.rnum &gt;? ;
+#태훈오빠 명치 쎄게 맞을 준비하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs(staff_seq, staff_id, branch_seq, bank_name, account_num, resume_file, health_file, bank_file) values(staff_seq.nextval, ?, ?, ?, ?, ?, ?, ?);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(pw) from users where user_id=? and pw=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select name, birth, address_city, address_gu, address_dong, phone_num, profile_photo from users where user_id=? ;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시/도 선택지 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구/군 선택지 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동 선택지 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select address_dong from addresses where address_city=? and address_gu=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 사진 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update branches set representative=?, license_num=?, branch_phone_num=?, opening_hour=? where branch_seq=(select b.branch_seq from branches b, admins ad where admin_id=? and ad.branch_seq=b.branch_seq);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select license_num, representative, branch_phone_num, opening_hour from branches where branch_seq=(select b.branch_seq from branches b, admins ad where admin_id=? and ad.branch_seq=b.branch_seq);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기까지봄 5/16밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-412]m&quot;월&quot;\ d&quot;일&quot;\ dddd"/>
   </numFmts>
@@ -2040,7 +2076,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2110,6 +2146,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2223,7 +2277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2407,160 +2461,184 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 2" xfId="1"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2568,6 +2646,7 @@
   <colors>
     <mruColors>
       <color rgb="FFCC99FF"/>
+      <color rgb="FF66FFFF"/>
       <color rgb="FFFF6699"/>
     </mruColors>
   </colors>
@@ -2878,54 +2957,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="36"/>
-    <col min="2" max="2" width="16.125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="31.125" customWidth="1"/>
-    <col min="4" max="4" width="31.25" customWidth="1"/>
-    <col min="5" max="5" width="34.75" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" style="36"/>
+    <col min="2" max="2" width="16.09765625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="31.09765625" customWidth="1"/>
+    <col min="4" max="4" width="31.19921875" customWidth="1"/>
+    <col min="5" max="5" width="34.69921875" customWidth="1"/>
     <col min="6" max="6" width="31.5" customWidth="1"/>
-    <col min="7" max="7" width="34.625" customWidth="1"/>
-    <col min="8" max="8" width="31.625" customWidth="1"/>
+    <col min="7" max="7" width="34.59765625" customWidth="1"/>
+    <col min="8" max="8" width="31.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B2" s="17">
         <v>43214</v>
       </c>
@@ -2933,19 +3012,19 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B3" s="17">
         <v>43215</v>
       </c>
       <c r="C3" s="15"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B4" s="17">
         <v>43216</v>
       </c>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B5" s="17">
         <v>43217</v>
       </c>
@@ -2953,31 +3032,31 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B6" s="18">
         <v>43218</v>
       </c>
       <c r="C6" s="15"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B7" s="18">
         <v>43219</v>
       </c>
       <c r="C7" s="15"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B8" s="17">
         <v>43220</v>
       </c>
       <c r="C8" s="15"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B9" s="17">
         <v>43221</v>
       </c>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B10" s="17">
         <v>43222</v>
       </c>
@@ -2985,7 +3064,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B11" s="17">
         <v>43223</v>
       </c>
@@ -2993,7 +3072,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B12" s="17">
         <v>43224</v>
       </c>
@@ -3001,31 +3080,31 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B13" s="18">
         <v>43225</v>
       </c>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B14" s="18">
         <v>43226</v>
       </c>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B15" s="18">
         <v>43227</v>
       </c>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B16" s="17">
         <v>43228</v>
       </c>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B17" s="33">
         <v>43229</v>
       </c>
@@ -3033,266 +3112,283 @@
         <v>183</v>
       </c>
       <c r="G17" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="87" x14ac:dyDescent="0.4">
       <c r="B18" s="32">
         <v>43230</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="G18" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:8" ht="87" x14ac:dyDescent="0.4">
       <c r="B19" s="32">
         <v>43231</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B20" s="18">
         <v>43232</v>
       </c>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B21" s="18">
         <v>43233</v>
       </c>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B22" s="19">
         <v>43234</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>246</v>
+        <v>389</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="87" x14ac:dyDescent="0.4">
       <c r="B23" s="19">
         <v>43235</v>
       </c>
-      <c r="C23" s="15"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="15" t="s">
+        <v>385</v>
+      </c>
       <c r="B24" s="19">
         <v>43236</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B25" s="17">
         <v>43237</v>
       </c>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B26" s="17">
         <v>43238</v>
       </c>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B27" s="18">
         <v>43239</v>
       </c>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B28" s="18">
         <v>43240</v>
       </c>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B29" s="17">
         <v>43241</v>
       </c>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B30" s="17">
         <v>43242</v>
       </c>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B31" s="19">
         <v>43243</v>
       </c>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B32" s="19">
         <v>43244</v>
       </c>
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B33" s="19">
         <v>43245</v>
       </c>
       <c r="C33" s="15"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B34" s="18">
         <v>43246</v>
       </c>
       <c r="C34" s="15"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B35" s="18">
         <v>43247</v>
       </c>
       <c r="C35" s="15"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B36" s="19">
         <v>43248</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B37" s="19">
         <v>43249</v>
       </c>
       <c r="C37" s="15"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B38" s="19">
         <v>43250</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B39" s="17">
         <v>43251</v>
       </c>
       <c r="C39" s="15"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B40" s="17">
         <v>43252</v>
       </c>
       <c r="C40" s="15"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B41" s="18">
         <v>43253</v>
       </c>
       <c r="C41" s="15"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B42" s="18">
         <v>43254</v>
       </c>
       <c r="C42" s="15"/>
     </row>
-    <row r="43" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B43" s="19">
         <v>43255</v>
       </c>
       <c r="C43" s="15"/>
     </row>
-    <row r="44" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="20">
         <v>43256</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B45" s="18">
         <v>43257</v>
       </c>
       <c r="C45" s="15"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B46" s="19">
         <v>43258</v>
       </c>
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B47" s="19">
         <v>43259</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B48" s="17"/>
       <c r="C48" s="15"/>
     </row>
@@ -3304,7 +3400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K155"/>
   <sheetViews>
@@ -3313,30 +3409,30 @@
       <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="50.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="23.25" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="4.69921875" customWidth="1"/>
+    <col min="2" max="2" width="6.8984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="50.69921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.19921875" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="7"/>
+    <col min="9" max="9" width="11.59765625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="11.69921875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
@@ -3359,7 +3455,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -3377,13 +3473,13 @@
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="27"/>
@@ -3393,55 +3489,55 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="25" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="14">
         <v>4</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="27"/>
       <c r="F5" s="29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -3457,7 +3553,7 @@
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -3473,7 +3569,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -3489,7 +3585,7 @@
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -3505,7 +3601,7 @@
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -3521,12 +3617,12 @@
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" s="14">
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="26"/>
@@ -3534,20 +3630,20 @@
         <v>7</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H11" s="27" t="s">
         <v>47</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -3558,7 +3654,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -3567,14 +3663,14 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -3583,19 +3679,19 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="14">
         <v>14</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="13"/>
@@ -3605,7 +3701,7 @@
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -3615,20 +3711,20 @@
       <c r="D16" s="11"/>
       <c r="E16" s="13"/>
       <c r="F16" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -3643,7 +3739,7 @@
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -3653,20 +3749,20 @@
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>12</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J18" s="22"/>
     </row>
-    <row r="19" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -3676,20 +3772,20 @@
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>12</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J19" s="22"/>
     </row>
-    <row r="20" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -3699,20 +3795,20 @@
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>12</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J20" s="22"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -3727,7 +3823,7 @@
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -3742,12 +3838,12 @@
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="14">
         <v>22</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="29"/>
@@ -3757,7 +3853,7 @@
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -3769,20 +3865,20 @@
         <v>172</v>
       </c>
       <c r="F24" s="54" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G24" s="54" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H24" s="52" t="s">
         <v>41</v>
       </c>
       <c r="I24" s="55" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J24" s="55"/>
     </row>
-    <row r="25" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -3792,20 +3888,20 @@
       <c r="D25" s="51"/>
       <c r="E25" s="54"/>
       <c r="F25" s="54" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G25" s="54" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H25" s="52" t="s">
         <v>44</v>
       </c>
       <c r="I25" s="55" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J25" s="55"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -3820,12 +3916,12 @@
       <c r="I26" s="55"/>
       <c r="J26" s="55"/>
     </row>
-    <row r="27" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A27" s="14">
         <v>26</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="26"/>
@@ -3833,20 +3929,20 @@
         <v>37</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H27" s="27" t="s">
         <v>48</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J27" s="28"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -3862,7 +3958,7 @@
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -3878,7 +3974,7 @@
       <c r="I29" s="57"/>
       <c r="J29" s="57"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -3896,7 +3992,7 @@
       <c r="I30" s="57"/>
       <c r="J30" s="57"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -3914,7 +4010,7 @@
       <c r="I31" s="57"/>
       <c r="J31" s="57"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -3930,7 +4026,7 @@
       <c r="I32" s="28"/>
       <c r="J32" s="28"/>
     </row>
-    <row r="33" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -3941,20 +4037,20 @@
       <c r="D33" s="26"/>
       <c r="E33" s="29"/>
       <c r="F33" s="29" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H33" s="27" t="s">
         <v>5</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J33" s="28"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -3970,7 +4066,7 @@
       <c r="I34" s="28"/>
       <c r="J34" s="28"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -3981,20 +4077,20 @@
       </c>
       <c r="E35" s="29"/>
       <c r="F35" s="29" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H35" s="27" t="s">
         <v>5</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J35" s="28"/>
     </row>
-    <row r="36" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -4005,20 +4101,20 @@
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="29" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H36" s="27" t="s">
         <v>5</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J36" s="28"/>
     </row>
-    <row r="37" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -4029,20 +4125,20 @@
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="29" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H37" s="27" t="s">
         <v>5</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J37" s="28"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -4058,7 +4154,7 @@
       <c r="I38" s="28"/>
       <c r="J38" s="28"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -4074,7 +4170,7 @@
       <c r="I39" s="28"/>
       <c r="J39" s="28"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -4090,12 +4186,12 @@
       <c r="I40" s="28"/>
       <c r="J40" s="28"/>
     </row>
-    <row r="41" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A41" s="14">
         <v>40</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C41" s="31"/>
       <c r="D41" s="26"/>
@@ -4103,20 +4199,20 @@
         <v>8</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H41" s="27" t="s">
         <v>13</v>
       </c>
       <c r="I41" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J41" s="28"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -4127,20 +4223,20 @@
       <c r="D42" s="51"/>
       <c r="E42" s="54"/>
       <c r="F42" s="54" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G42" s="54" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H42" s="52" t="s">
         <v>41</v>
       </c>
       <c r="I42" s="55" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J42" s="55"/>
     </row>
-    <row r="43" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -4151,20 +4247,20 @@
       <c r="D43" s="51"/>
       <c r="E43" s="54"/>
       <c r="F43" s="54" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G43" s="54" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H43" s="52" t="s">
         <v>44</v>
       </c>
       <c r="I43" s="55" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J43" s="55"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -4180,7 +4276,7 @@
       <c r="I44" s="28"/>
       <c r="J44" s="28"/>
     </row>
-    <row r="45" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -4193,20 +4289,20 @@
         <v>10</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H45" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J45" s="28"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -4222,7 +4318,7 @@
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -4240,7 +4336,7 @@
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
     </row>
-    <row r="48" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -4251,20 +4347,20 @@
       <c r="D48" s="11"/>
       <c r="E48" s="13"/>
       <c r="F48" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J48" s="22"/>
     </row>
-    <row r="49" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -4275,20 +4371,20 @@
       <c r="D49" s="11"/>
       <c r="E49" s="13"/>
       <c r="F49" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>5</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J49" s="22"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4299,12 +4395,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E51" t="s">
         <v>123</v>
@@ -4313,7 +4409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4324,7 +4420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4335,7 +4431,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4349,7 +4445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4360,7 +4456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4374,7 +4470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4388,7 +4484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4405,7 +4501,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4413,7 +4509,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4421,7 +4517,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4432,7 +4528,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4443,7 +4539,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4457,7 +4553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4465,7 +4561,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4476,7 +4572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4484,7 +4580,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4492,7 +4588,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4506,7 +4602,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4517,7 +4613,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4525,7 +4621,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4536,7 +4632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4544,7 +4640,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4552,7 +4648,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4560,7 +4656,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4568,7 +4664,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4576,7 +4672,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4584,7 +4680,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4592,7 +4688,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4600,7 +4696,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4608,7 +4704,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4616,7 +4712,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4624,7 +4720,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4635,7 +4731,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4646,7 +4742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4654,7 +4750,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4662,7 +4758,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4670,7 +4766,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4678,7 +4774,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4689,7 +4785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4700,7 +4796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4708,7 +4804,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4719,7 +4815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4730,7 +4826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4738,7 +4834,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4746,7 +4842,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4754,7 +4850,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4765,7 +4861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4779,7 +4875,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4787,7 +4883,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4795,7 +4891,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4806,7 +4902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4820,7 +4916,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4828,7 +4924,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4839,7 +4935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4850,7 +4946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4864,7 +4960,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4878,7 +4974,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4889,7 +4985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4900,7 +4996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4911,7 +5007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4922,7 +5018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4930,7 +5026,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4938,7 +5034,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4949,7 +5045,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4957,7 +5053,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4968,7 +5064,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4979,7 +5075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4993,7 +5089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5001,7 +5097,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5009,7 +5105,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5017,7 +5113,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5025,7 +5121,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5033,7 +5129,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5041,7 +5137,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5049,7 +5145,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5057,7 +5153,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5065,7 +5161,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5076,7 +5172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5084,7 +5180,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5095,7 +5191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5106,7 +5202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5114,7 +5210,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5122,7 +5218,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5136,7 +5232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5147,7 +5243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5155,7 +5251,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5163,7 +5259,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5171,7 +5267,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5179,7 +5275,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5187,7 +5283,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5195,7 +5291,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5209,7 +5305,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5220,7 +5316,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5228,7 +5324,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5236,7 +5332,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5244,7 +5340,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5252,7 +5348,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5260,7 +5356,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5271,7 +5367,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5282,7 +5378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5293,7 +5389,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5310,7 +5406,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5324,7 +5420,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5335,7 +5431,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H155">
         <f>COUNTA(H2:H154)</f>
         <v>61</v>
@@ -5352,1829 +5448,1848 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153"/>
+    <sheetView tabSelected="1" topLeftCell="E145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="47" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="72" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="77" customWidth="1"/>
-    <col min="5" max="5" width="62.5" style="66" customWidth="1"/>
-    <col min="6" max="6" width="175.25" customWidth="1"/>
+    <col min="1" max="1" width="4.69921875" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" style="47" customWidth="1"/>
+    <col min="3" max="3" width="6.69921875" style="70" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" style="75" customWidth="1"/>
+    <col min="5" max="5" width="62.5" style="64" customWidth="1"/>
+    <col min="6" max="6" width="179" customWidth="1"/>
     <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="58" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="58" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="108" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="58" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>229</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="58" t="s">
-        <v>292</v>
-      </c>
       <c r="G1" s="58" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="45"/>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="68" t="s">
         <v>46</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="45"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="77" t="s">
-        <v>203</v>
+      <c r="C3" s="68"/>
+      <c r="D3" s="75" t="s">
+        <v>202</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="78" t="s">
-        <v>236</v>
-      </c>
-      <c r="E4" s="67"/>
+        <v>229</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" s="65"/>
       <c r="F4" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A5" s="14">
         <v>4</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="E5" s="67"/>
+        <v>229</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="D5" s="76" t="s">
+        <v>291</v>
+      </c>
+      <c r="E5" s="65"/>
       <c r="F5" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="G5" s="87" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+      <c r="G5" s="85" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="G6" s="93" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="91" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="97" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" s="95" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="G8" s="109" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" s="106" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="D9" s="77" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="75" t="s">
+        <v>292</v>
+      </c>
+      <c r="G9" s="117" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="75" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="109.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="109.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="14">
         <v>10</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="C11" s="73" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="62" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D11" s="77"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="61" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="75" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="14">
         <v>12</v>
       </c>
       <c r="B13" s="45"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="68" t="s">
+      <c r="C13" s="68"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="66" t="s">
         <v>156</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="14">
         <v>13</v>
       </c>
       <c r="B14" s="45"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="68" t="s">
+      <c r="C14" s="68"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="66" t="s">
         <v>159</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="14">
         <v>14</v>
       </c>
       <c r="B15" s="45"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="80" t="s">
-        <v>296</v>
-      </c>
-      <c r="E15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="78" t="s">
+        <v>294</v>
+      </c>
+      <c r="E15" s="66"/>
       <c r="F15" s="43"/>
     </row>
-    <row r="16" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A16" s="14">
         <v>15</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="81" t="s">
-        <v>297</v>
-      </c>
-      <c r="E16" s="69"/>
+        <v>237</v>
+      </c>
+      <c r="C16" s="72"/>
+      <c r="D16" s="79" t="s">
+        <v>295</v>
+      </c>
+      <c r="E16" s="67"/>
       <c r="F16" s="12" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="14">
         <v>16</v>
       </c>
       <c r="B17" s="45"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="80" t="s">
-        <v>298</v>
-      </c>
-      <c r="E17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="78" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" s="66"/>
       <c r="F17" s="43"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="14">
         <v>17</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="69" t="s">
-        <v>299</v>
+        <v>230</v>
+      </c>
+      <c r="C18" s="72"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="67" t="s">
+        <v>297</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A19" s="14">
         <v>18</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="69" t="s">
-        <v>300</v>
+        <v>230</v>
+      </c>
+      <c r="C19" s="72"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="67" t="s">
+        <v>298</v>
       </c>
       <c r="F19" s="59" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A20" s="14">
         <v>19</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="69" t="s">
-        <v>302</v>
+        <v>230</v>
+      </c>
+      <c r="C20" s="72"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="67" t="s">
+        <v>300</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="14">
         <v>20</v>
       </c>
-      <c r="D21" s="77" t="s">
+      <c r="D21" s="75" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="14">
         <v>21</v>
       </c>
-      <c r="D22" s="77" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D22" s="75" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="14">
         <v>22</v>
       </c>
-      <c r="D23" s="77" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D23" s="75" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="14">
         <v>23</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="82" t="s">
-        <v>304</v>
-      </c>
-      <c r="E24" s="65"/>
+        <v>229</v>
+      </c>
+      <c r="C24" s="73"/>
+      <c r="D24" s="80" t="s">
+        <v>302</v>
+      </c>
+      <c r="E24" s="63"/>
       <c r="F24" s="52" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="14">
         <v>24</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>305</v>
-      </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="82" t="s">
+        <v>303</v>
+      </c>
+      <c r="C25" s="73"/>
+      <c r="D25" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="65"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="52" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="14">
         <v>25</v>
       </c>
-      <c r="D26" s="77" t="s">
+      <c r="D26" s="75" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="165" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="174" x14ac:dyDescent="0.4">
       <c r="A27" s="14">
         <v>26</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="C27" s="73" t="s">
-        <v>306</v>
-      </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="63" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+      <c r="C27" s="71" t="s">
+        <v>304</v>
+      </c>
+      <c r="D27" s="77"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="62" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="14">
         <v>27</v>
       </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="83" t="s">
+      <c r="C28" s="74"/>
+      <c r="D28" s="81" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="14">
         <v>28</v>
       </c>
-      <c r="D29" s="77" t="s">
+      <c r="D29" s="75" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="14">
         <v>29</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="64" t="s">
         <v>156</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="14">
         <v>30</v>
       </c>
-      <c r="E31" s="66" t="s">
-        <v>307</v>
+      <c r="E31" s="64" t="s">
+        <v>305</v>
       </c>
       <c r="F31" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="14">
         <v>31</v>
       </c>
       <c r="B32" s="45"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="80" t="s">
-        <v>198</v>
-      </c>
-      <c r="E32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="E32" s="66"/>
       <c r="F32" s="43"/>
     </row>
-    <row r="33" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A33" s="14">
         <v>32</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="81" t="s">
-        <v>308</v>
-      </c>
-      <c r="E33" s="69"/>
+        <v>232</v>
+      </c>
+      <c r="C33" s="72"/>
+      <c r="D33" s="79" t="s">
+        <v>306</v>
+      </c>
+      <c r="E33" s="67"/>
       <c r="F33" s="12" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="14">
         <v>33</v>
       </c>
-      <c r="D34" s="77" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D34" s="75" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="14">
         <v>34</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="C35" s="74"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="C35" s="72"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="67" t="s">
         <v>156</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A36" s="14">
         <v>35</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="C36" s="74"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" s="72"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="67" t="s">
         <v>158</v>
       </c>
       <c r="F36" s="59" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A37" s="14">
         <v>36</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="C37" s="72"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="67" t="s">
         <v>160</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="14">
         <v>37</v>
       </c>
-      <c r="D38" s="77" t="s">
+      <c r="D38" s="75" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="14">
         <v>38</v>
       </c>
       <c r="B39" s="46"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="78" t="s">
+      <c r="C39" s="69"/>
+      <c r="D39" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="E39" s="67"/>
+      <c r="E39" s="65"/>
       <c r="F39" s="60" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="14">
         <v>39</v>
       </c>
-      <c r="D40" s="77" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D40" s="75" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="14">
         <v>40</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>310</v>
-      </c>
-      <c r="C41" s="73" t="s">
-        <v>311</v>
-      </c>
-      <c r="D41" s="79"/>
-      <c r="E41" s="67"/>
+        <v>308</v>
+      </c>
+      <c r="C41" s="71" t="s">
+        <v>309</v>
+      </c>
+      <c r="D41" s="77"/>
+      <c r="E41" s="65"/>
       <c r="F41" s="29" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="14">
         <v>41</v>
       </c>
       <c r="B42" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="C42" s="75"/>
-      <c r="D42" s="82" t="s">
-        <v>304</v>
-      </c>
-      <c r="E42" s="65"/>
+        <v>238</v>
+      </c>
+      <c r="C42" s="73"/>
+      <c r="D42" s="80" t="s">
+        <v>302</v>
+      </c>
+      <c r="E42" s="63"/>
       <c r="F42" s="52" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="14">
         <v>42</v>
       </c>
       <c r="B43" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="C43" s="75"/>
-      <c r="D43" s="82" t="s">
-        <v>312</v>
-      </c>
-      <c r="E43" s="65"/>
+        <v>238</v>
+      </c>
+      <c r="C43" s="73"/>
+      <c r="D43" s="80" t="s">
+        <v>310</v>
+      </c>
+      <c r="E43" s="63"/>
       <c r="F43" s="52" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="14">
         <v>43</v>
       </c>
-      <c r="D44" s="77" t="s">
+      <c r="D44" s="75" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="14">
         <v>44</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>310</v>
-      </c>
-      <c r="C45" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="C45" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="78"/>
-      <c r="E45" s="67"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="65"/>
       <c r="F45" s="29" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="14">
         <v>45</v>
       </c>
-      <c r="D46" s="77" t="s">
+      <c r="D46" s="75" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="14">
         <v>46</v>
       </c>
       <c r="B47" s="45"/>
-      <c r="C47" s="70" t="s">
+      <c r="C47" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="D47" s="80"/>
-      <c r="E47" s="68"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="66"/>
       <c r="F47" s="43"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="14">
         <v>47</v>
       </c>
       <c r="B48" s="45"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="80" t="s">
+      <c r="C48" s="68"/>
+      <c r="D48" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="68"/>
+      <c r="E48" s="66"/>
       <c r="F48" s="49"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="14">
         <v>48</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="C49" s="74"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="69" t="s">
-        <v>313</v>
+        <v>232</v>
+      </c>
+      <c r="C49" s="72"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="67" t="s">
+        <v>311</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A50" s="14">
         <v>49</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="C50" s="74"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="69" t="s">
-        <v>300</v>
+        <v>232</v>
+      </c>
+      <c r="C50" s="72"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="67" t="s">
+        <v>298</v>
       </c>
       <c r="F50" s="59" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A51" s="14">
         <v>50</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="C51" s="74"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="C51" s="72"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="67" t="s">
         <v>160</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="14">
         <v>51</v>
       </c>
       <c r="B52" s="45"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="80" t="s">
+      <c r="C52" s="68"/>
+      <c r="D52" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="E52" s="68"/>
+      <c r="E52" s="66"/>
       <c r="F52" s="49"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="14">
         <v>52</v>
       </c>
       <c r="B53" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="C53" s="74"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="69" t="s">
-        <v>234</v>
+        <v>231</v>
+      </c>
+      <c r="C53" s="72"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="67" t="s">
+        <v>233</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A54" s="14">
         <v>53</v>
       </c>
       <c r="B54" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="C54" s="74"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="69" t="s">
-        <v>315</v>
+        <v>231</v>
+      </c>
+      <c r="C54" s="72"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="67" t="s">
+        <v>313</v>
       </c>
       <c r="F54" s="59" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A55" s="14">
         <v>54</v>
       </c>
       <c r="B55" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="C55" s="74"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="69" t="s">
-        <v>316</v>
+        <v>231</v>
+      </c>
+      <c r="C55" s="72"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="67" t="s">
+        <v>314</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A56" s="43">
         <v>55</v>
       </c>
-      <c r="B56" s="53"/>
-      <c r="C56" s="75" t="s">
-        <v>317</v>
-      </c>
-      <c r="D56" s="82"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="64" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="45"/>
+      <c r="C56" s="68" t="s">
+        <v>315</v>
+      </c>
+      <c r="D56" s="78"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="109" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="43">
         <v>56</v>
       </c>
       <c r="B57" s="53"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="82" t="s">
+      <c r="C57" s="73"/>
+      <c r="D57" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="65"/>
+      <c r="E57" s="63"/>
       <c r="F57" s="52" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="43">
         <v>57</v>
       </c>
       <c r="B58" s="53"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="65" t="s">
-        <v>318</v>
+      <c r="C58" s="73"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="63" t="s">
+        <v>316</v>
       </c>
       <c r="F58" s="52" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="43">
         <v>58</v>
       </c>
-      <c r="E59" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="F59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="53"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="F59" s="52" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="43">
         <v>59</v>
       </c>
       <c r="B60" s="53"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="82" t="s">
+      <c r="C60" s="73"/>
+      <c r="D60" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E60" s="63"/>
+      <c r="F60" s="63" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="43">
         <v>60</v>
       </c>
       <c r="B61" s="53"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="65" t="s">
+      <c r="C61" s="73"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="65" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F61" s="63" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A62" s="43">
         <v>61</v>
       </c>
       <c r="B62" s="53"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="82" t="s">
+      <c r="C62" s="73"/>
+      <c r="D62" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E62" s="63"/>
+      <c r="F62" s="110" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="43">
         <v>62</v>
       </c>
       <c r="B63" s="53"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="82" t="s">
-        <v>320</v>
-      </c>
-      <c r="E63" s="65"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="E63" s="63"/>
       <c r="F63" s="52" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="43">
         <v>63</v>
       </c>
-      <c r="B64" s="103"/>
-      <c r="C64" s="85" t="s">
+      <c r="B64" s="100"/>
+      <c r="C64" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="86"/>
-      <c r="E64" s="87"/>
-      <c r="F64" s="84" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D64" s="84"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="82" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="43">
         <v>64</v>
       </c>
-      <c r="D65" s="77" t="s">
+      <c r="D65" s="75" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="43">
         <v>65</v>
       </c>
-      <c r="D66" s="77" t="s">
+      <c r="D66" s="75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="43">
         <v>66</v>
       </c>
-      <c r="D67" s="77" t="s">
+      <c r="D67" s="75" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="43">
         <v>67</v>
       </c>
-      <c r="D68" s="77" t="s">
+      <c r="D68" s="75" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A69" s="43">
         <v>68</v>
       </c>
-      <c r="B69" s="103"/>
-      <c r="C69" s="85" t="s">
+      <c r="B69" s="100"/>
+      <c r="C69" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="86"/>
-      <c r="E69" s="87"/>
-      <c r="F69" s="87" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D69" s="84"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="111" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="43">
         <v>69</v>
       </c>
-      <c r="D70" s="77" t="s">
+      <c r="D70" s="75" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="43">
         <v>70</v>
       </c>
-      <c r="B71" s="103"/>
-      <c r="C71" s="85"/>
-      <c r="D71" s="86" t="s">
-        <v>322</v>
-      </c>
-      <c r="E71" s="87"/>
-      <c r="F71" s="84" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B71" s="100"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="84" t="s">
+        <v>320</v>
+      </c>
+      <c r="E71" s="85"/>
+      <c r="F71" s="82" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="43">
         <v>71</v>
       </c>
-      <c r="D72" s="77" t="s">
+      <c r="D72" s="75" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="43">
         <v>72</v>
       </c>
-      <c r="D73" s="77" t="s">
+      <c r="D73" s="75" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="43">
         <v>73</v>
       </c>
-      <c r="D74" s="77" t="s">
+      <c r="D74" s="75" t="s">
         <v>74</v>
       </c>
       <c r="F74" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="43">
         <v>74</v>
       </c>
-      <c r="D75" s="77" t="s">
+      <c r="D75" s="75" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="43">
         <v>75</v>
       </c>
-      <c r="D76" s="77" t="s">
+      <c r="D76" s="75" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="43">
         <v>76</v>
       </c>
-      <c r="B77" s="103"/>
-      <c r="C77" s="85"/>
-      <c r="D77" s="86" t="s">
-        <v>324</v>
-      </c>
-      <c r="E77" s="87"/>
-      <c r="F77" s="84" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B77" s="100"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="84" t="s">
+        <v>322</v>
+      </c>
+      <c r="E77" s="85"/>
+      <c r="F77" s="82" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="43">
         <v>77</v>
       </c>
-      <c r="D78" s="77" t="s">
+      <c r="D78" s="75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="43">
         <v>78</v>
       </c>
-      <c r="D79" s="77" t="s">
+      <c r="D79" s="75" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="43">
         <v>79</v>
       </c>
-      <c r="D80" s="77" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D80" s="75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="43">
         <v>80</v>
       </c>
-      <c r="D81" s="77" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D81" s="75" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="43">
         <v>81</v>
       </c>
-      <c r="D82" s="77" t="s">
+      <c r="D82" s="75" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="43">
         <v>82</v>
       </c>
-      <c r="D83" s="77" t="s">
+      <c r="D83" s="75" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="43">
         <v>83</v>
       </c>
-      <c r="D84" s="77" t="s">
+      <c r="D84" s="75" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="43">
         <v>84</v>
       </c>
-      <c r="D85" s="77" t="s">
+      <c r="D85" s="75" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="43">
         <v>85</v>
       </c>
-      <c r="D86" s="77" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D86" s="75" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="43">
         <v>86</v>
       </c>
-      <c r="D87" s="77" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D87" s="75" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="43">
         <v>87</v>
       </c>
-      <c r="D88" s="77" t="s">
+      <c r="D88" s="75" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="43">
         <v>88</v>
       </c>
-      <c r="C89" s="72" t="s">
+      <c r="C89" s="70" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="43">
         <v>89</v>
       </c>
-      <c r="D90" s="77" t="s">
+      <c r="D90" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="F90" s="66"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F90" s="64"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="43">
         <v>90</v>
       </c>
-      <c r="E91" s="66" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E91" s="64" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="43">
         <v>91</v>
       </c>
-      <c r="B92" s="103" t="s">
-        <v>239</v>
-      </c>
-      <c r="C92" s="85"/>
-      <c r="D92" s="86"/>
-      <c r="E92" s="87" t="s">
-        <v>321</v>
-      </c>
-      <c r="F92" s="84" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B92" s="100" t="s">
+        <v>238</v>
+      </c>
+      <c r="C92" s="83"/>
+      <c r="D92" s="84"/>
+      <c r="E92" s="85" t="s">
+        <v>319</v>
+      </c>
+      <c r="F92" s="82" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="43">
         <v>92</v>
       </c>
-      <c r="E93" s="66" t="s">
+      <c r="E93" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="F93" s="66"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F93" s="64"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="43">
         <v>93</v>
       </c>
-      <c r="E94" s="66" t="s">
+      <c r="E94" s="64" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="43">
         <v>94</v>
       </c>
-      <c r="E95" s="66" t="s">
+      <c r="E95" s="64" t="s">
         <v>74</v>
       </c>
       <c r="F95" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="43">
         <v>95</v>
       </c>
-      <c r="B96" s="103"/>
-      <c r="C96" s="85"/>
-      <c r="D96" s="86" t="s">
+      <c r="B96" s="100"/>
+      <c r="C96" s="83"/>
+      <c r="D96" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="E96" s="87"/>
-      <c r="F96" s="84" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E96" s="85"/>
+      <c r="F96" s="82" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="43">
         <v>96</v>
       </c>
-      <c r="E97" s="66" t="s">
+      <c r="E97" s="64" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="43">
         <v>97</v>
       </c>
-      <c r="B98" s="103"/>
-      <c r="C98" s="85"/>
-      <c r="D98" s="86"/>
-      <c r="E98" s="87" t="s">
+      <c r="B98" s="100"/>
+      <c r="C98" s="83"/>
+      <c r="D98" s="84"/>
+      <c r="E98" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="F98" s="84" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F98" s="82" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="43">
         <v>98</v>
       </c>
-      <c r="B99" s="103"/>
-      <c r="C99" s="85"/>
-      <c r="D99" s="86"/>
-      <c r="E99" s="87" t="s">
+      <c r="B99" s="100"/>
+      <c r="C99" s="83"/>
+      <c r="D99" s="84"/>
+      <c r="E99" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="F99" s="84" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F99" s="82" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="43">
         <v>99</v>
       </c>
-      <c r="E100" s="66" t="s">
+      <c r="E100" s="64" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="43">
         <v>100</v>
       </c>
-      <c r="E101" s="66" t="s">
+      <c r="E101" s="64" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="43">
         <v>101</v>
       </c>
-      <c r="E102" s="66" t="s">
+      <c r="E102" s="64" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="43">
         <v>102</v>
       </c>
-      <c r="E103" s="66" t="s">
+      <c r="E103" s="64" t="s">
         <v>74</v>
       </c>
       <c r="F103" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="43">
         <v>103</v>
       </c>
-      <c r="E104" s="66" t="s">
+      <c r="E104" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="F104" s="66" t="s">
+      <c r="F104" s="64" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="43">
         <v>104</v>
       </c>
-      <c r="E105" s="66" t="s">
+      <c r="E105" s="64" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="43">
         <v>105</v>
       </c>
-      <c r="E106" s="66" t="s">
+      <c r="E106" s="64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="43">
         <v>106</v>
       </c>
-      <c r="C107" s="72" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C107" s="70" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="43">
         <v>107</v>
       </c>
-      <c r="B108" s="102"/>
-      <c r="C108" s="89" t="s">
+      <c r="B108" s="99"/>
+      <c r="C108" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="D108" s="90"/>
-      <c r="E108" s="91"/>
-      <c r="F108" s="92" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D108" s="88"/>
+      <c r="E108" s="89"/>
+      <c r="F108" s="90" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="43">
         <v>108</v>
       </c>
-      <c r="D109" s="77" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D109" s="75" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="43">
         <v>109</v>
       </c>
-      <c r="B110" s="99"/>
-      <c r="C110" s="94"/>
-      <c r="D110" s="95" t="s">
+      <c r="B110" s="97"/>
+      <c r="C110" s="92"/>
+      <c r="D110" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="E110" s="96"/>
-      <c r="F110" s="97" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E110" s="94"/>
+      <c r="F110" s="95" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="43">
         <v>110</v>
       </c>
-      <c r="B111" s="99"/>
-      <c r="C111" s="94"/>
-      <c r="D111" s="95" t="s">
+      <c r="B111" s="113"/>
+      <c r="C111" s="114"/>
+      <c r="D111" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="E111" s="96"/>
-      <c r="F111" s="97" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="231" x14ac:dyDescent="0.3">
+      <c r="E111" s="116"/>
+      <c r="F111" s="117" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="261" x14ac:dyDescent="0.4">
       <c r="A112" s="43">
         <v>111</v>
       </c>
-      <c r="B112" s="99"/>
-      <c r="C112" s="94"/>
-      <c r="D112" s="95" t="s">
-        <v>332</v>
-      </c>
-      <c r="E112" s="96"/>
-      <c r="F112" s="98" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B112" s="97"/>
+      <c r="C112" s="92"/>
+      <c r="D112" s="93" t="s">
+        <v>330</v>
+      </c>
+      <c r="E112" s="94"/>
+      <c r="F112" s="118" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="43">
         <v>112</v>
       </c>
       <c r="B113" s="53"/>
-      <c r="C113" s="75" t="s">
+      <c r="C113" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="D113" s="82"/>
-      <c r="E113" s="65"/>
+      <c r="D113" s="80"/>
+      <c r="E113" s="63"/>
       <c r="F113" s="54" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="43">
+        <v>114</v>
+      </c>
+      <c r="B114" s="107"/>
+      <c r="C114" s="105"/>
+      <c r="D114" s="102" t="s">
+        <v>101</v>
+      </c>
+      <c r="E114" s="103"/>
+      <c r="F114" s="106" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A115" s="43">
+        <v>115</v>
+      </c>
+      <c r="B115" s="107"/>
+      <c r="C115" s="105"/>
+      <c r="D115" s="102" t="s">
+        <v>102</v>
+      </c>
+      <c r="E115" s="103"/>
+      <c r="F115" s="106" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A116" s="43">
+        <v>116</v>
+      </c>
+      <c r="B116" s="97"/>
+      <c r="C116" s="92"/>
+      <c r="D116" s="98" t="s">
+        <v>365</v>
+      </c>
+      <c r="E116" s="94"/>
+      <c r="F116" s="96" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A117" s="43">
+        <v>117</v>
+      </c>
+      <c r="D117" s="75" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A118" s="43">
+        <v>118</v>
+      </c>
+      <c r="D118" s="75" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A119" s="43">
+        <v>119</v>
+      </c>
+      <c r="D119" s="75" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A120" s="43">
+        <v>120</v>
+      </c>
+      <c r="D120" s="75" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A121" s="43">
+        <v>121</v>
+      </c>
+      <c r="D121" s="75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A122" s="43">
+        <v>122</v>
+      </c>
+      <c r="C122" s="70" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A123" s="43">
+        <v>123</v>
+      </c>
+      <c r="B123" s="100"/>
+      <c r="C123" s="83"/>
+      <c r="D123" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="E123" s="85"/>
+      <c r="F123" s="82" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A124" s="43">
+        <v>124</v>
+      </c>
+      <c r="B124" s="100"/>
+      <c r="C124" s="83"/>
+      <c r="D124" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="E124" s="85"/>
+      <c r="F124" s="82" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A125" s="43">
+        <v>125</v>
+      </c>
+      <c r="B125" s="100"/>
+      <c r="C125" s="83"/>
+      <c r="D125" s="84"/>
+      <c r="E125" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="F125" s="82" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A126" s="43">
+        <v>126</v>
+      </c>
+      <c r="E126" s="64" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A127" s="43">
+        <v>127</v>
+      </c>
+      <c r="E127" s="64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A128" s="43">
+        <v>128</v>
+      </c>
+      <c r="E128" s="64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A129" s="43"/>
+      <c r="B129" s="107"/>
+      <c r="C129" s="105"/>
+      <c r="D129" s="102"/>
+      <c r="E129" s="103" t="s">
+        <v>406</v>
+      </c>
+      <c r="F129" s="106" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A130" s="43"/>
+      <c r="B130" s="107"/>
+      <c r="C130" s="105"/>
+      <c r="D130" s="102"/>
+      <c r="E130" s="103" t="s">
+        <v>407</v>
+      </c>
+      <c r="F130" s="106" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A131" s="43">
+        <v>129</v>
+      </c>
+      <c r="B131" s="107"/>
+      <c r="C131" s="105"/>
+      <c r="D131" s="102"/>
+      <c r="E131" s="103" t="s">
+        <v>408</v>
+      </c>
+      <c r="F131" s="104" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A132" s="43">
+        <v>130</v>
+      </c>
+      <c r="E132" s="64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A133" s="43">
+        <v>131</v>
+      </c>
+      <c r="E133" s="64" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A134" s="43">
+        <v>132</v>
+      </c>
+      <c r="E134" s="64" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A135" s="43">
+        <v>133</v>
+      </c>
+      <c r="E135" s="64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A136" s="43">
+        <v>134</v>
+      </c>
+      <c r="E136" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="F136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A137" s="43">
+        <v>135</v>
+      </c>
+      <c r="B137" s="100"/>
+      <c r="C137" s="83"/>
+      <c r="D137" s="84"/>
+      <c r="E137" s="85" t="s">
+        <v>410</v>
+      </c>
+      <c r="F137" s="82" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A138" s="43">
+        <v>136</v>
+      </c>
+      <c r="B138" s="100"/>
+      <c r="C138" s="83"/>
+      <c r="D138" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="E138" s="85"/>
+      <c r="F138" s="82" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A139" s="43">
+        <v>137</v>
+      </c>
+      <c r="B139" s="100"/>
+      <c r="C139" s="83"/>
+      <c r="D139" s="84"/>
+      <c r="E139" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="F139" s="82" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A140" s="43">
+        <v>138</v>
+      </c>
+      <c r="E140" s="64" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A141" s="43">
+        <v>139</v>
+      </c>
+      <c r="E141" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="B114" s="99"/>
-      <c r="C114" s="94"/>
-      <c r="D114" s="95" t="s">
-        <v>382</v>
-      </c>
-      <c r="E114" s="96"/>
-      <c r="F114" s="100" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="43">
-        <v>114</v>
-      </c>
-      <c r="B115" s="99"/>
-      <c r="C115" s="94"/>
-      <c r="D115" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E115" s="96"/>
-      <c r="F115" s="97" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="43">
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A142" s="43">
+        <v>140</v>
+      </c>
+      <c r="B142" s="97"/>
+      <c r="C142" s="92"/>
+      <c r="D142" s="93" t="s">
+        <v>335</v>
+      </c>
+      <c r="E142" s="94"/>
+      <c r="F142" s="95" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A143" s="43">
+        <v>141</v>
+      </c>
+      <c r="B143" s="97"/>
+      <c r="C143" s="92"/>
+      <c r="D143" s="93"/>
+      <c r="E143" s="94" t="s">
+        <v>336</v>
+      </c>
+      <c r="F143" s="95" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A144" s="43">
+        <v>142</v>
+      </c>
+      <c r="E144" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="B116" s="99"/>
-      <c r="C116" s="94"/>
-      <c r="D116" s="95" t="s">
-        <v>102</v>
-      </c>
-      <c r="E116" s="96"/>
-      <c r="F116" s="97" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A117" s="43">
-        <v>116</v>
-      </c>
-      <c r="B117" s="99"/>
-      <c r="C117" s="94"/>
-      <c r="D117" s="101" t="s">
-        <v>386</v>
-      </c>
-      <c r="E117" s="96"/>
-      <c r="F117" s="98" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="43">
-        <v>117</v>
-      </c>
-      <c r="D118" s="77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="43">
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A145" s="43">
+        <v>143</v>
+      </c>
+      <c r="E145" s="64" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A146" s="43">
+        <v>144</v>
+      </c>
+      <c r="E146" s="64" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A147" s="43">
+        <v>145</v>
+      </c>
+      <c r="E147" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="D119" s="77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="43">
-        <v>119</v>
-      </c>
-      <c r="D120" s="77" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="43">
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A148" s="43">
+        <v>146</v>
+      </c>
+      <c r="E148" s="64" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A149" s="43">
+        <v>147</v>
+      </c>
+      <c r="E149" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="D121" s="77" t="s">
+      <c r="F149" s="112" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="87" x14ac:dyDescent="0.4">
+      <c r="A150" s="43">
+        <v>148</v>
+      </c>
+      <c r="B150" s="53"/>
+      <c r="C150" s="73"/>
+      <c r="D150" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="E150" s="63"/>
+      <c r="F150" s="101" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A151" s="43">
+        <v>149</v>
+      </c>
+      <c r="B151" s="53"/>
+      <c r="C151" s="73"/>
+      <c r="D151" s="80"/>
+      <c r="E151" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="F151" s="63" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A152" s="43">
+        <v>150</v>
+      </c>
+      <c r="E152" s="64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A153" s="43">
+        <v>151</v>
+      </c>
+      <c r="E153" s="64" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A154" s="43">
+        <v>152</v>
+      </c>
+      <c r="E154" s="64" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A155" s="43">
+        <v>153</v>
+      </c>
+      <c r="E155" s="64" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="43">
-        <v>121</v>
-      </c>
-      <c r="D122" s="77" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="43">
-        <v>122</v>
-      </c>
-      <c r="C123" s="72" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="43">
-        <v>123</v>
-      </c>
-      <c r="B124" s="103"/>
-      <c r="C124" s="85"/>
-      <c r="D124" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="E124" s="87"/>
-      <c r="F124" s="84" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="43">
-        <v>124</v>
-      </c>
-      <c r="B125" s="103"/>
-      <c r="C125" s="85"/>
-      <c r="D125" s="86" t="s">
-        <v>131</v>
-      </c>
-      <c r="E125" s="87"/>
-      <c r="F125" s="84" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="43">
-        <v>125</v>
-      </c>
-      <c r="B126" s="103"/>
-      <c r="C126" s="85"/>
-      <c r="D126" s="86"/>
-      <c r="E126" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="F126" s="84" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="43">
-        <v>126</v>
-      </c>
-      <c r="E127" s="66" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="43">
-        <v>127</v>
-      </c>
-      <c r="E128" s="66" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="43">
-        <v>128</v>
-      </c>
-      <c r="E129" s="66" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A130" s="43">
-        <v>129</v>
-      </c>
-      <c r="B130" s="110"/>
-      <c r="C130" s="108"/>
-      <c r="D130" s="105"/>
-      <c r="E130" s="106" t="s">
-        <v>60</v>
-      </c>
-      <c r="F130" s="107" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="43">
-        <v>130</v>
-      </c>
-      <c r="E131" s="66" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="43">
-        <v>131</v>
-      </c>
-      <c r="E132" s="66" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="43">
-        <v>132</v>
-      </c>
-      <c r="E133" s="66" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="43">
-        <v>133</v>
-      </c>
-      <c r="E134" s="66" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="43">
-        <v>134</v>
-      </c>
-      <c r="E135" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="F135" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="43">
-        <v>135</v>
-      </c>
-      <c r="B136" s="103"/>
-      <c r="C136" s="85"/>
-      <c r="D136" s="86"/>
-      <c r="E136" s="87" t="s">
-        <v>337</v>
-      </c>
-      <c r="F136" s="84" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="43">
-        <v>136</v>
-      </c>
-      <c r="B137" s="103"/>
-      <c r="C137" s="85"/>
-      <c r="D137" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="E137" s="87"/>
-      <c r="F137" s="84" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="43">
-        <v>137</v>
-      </c>
-      <c r="B138" s="103"/>
-      <c r="C138" s="85"/>
-      <c r="D138" s="86"/>
-      <c r="E138" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="F138" s="84" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="43">
-        <v>138</v>
-      </c>
-      <c r="E139" s="66" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="43">
-        <v>139</v>
-      </c>
-      <c r="E140" s="66" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="43">
-        <v>140</v>
-      </c>
-      <c r="B141" s="99"/>
-      <c r="C141" s="94"/>
-      <c r="D141" s="95" t="s">
-        <v>338</v>
-      </c>
-      <c r="E141" s="96"/>
-      <c r="F141" s="97" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="43">
-        <v>141</v>
-      </c>
-      <c r="B142" s="99"/>
-      <c r="C142" s="94"/>
-      <c r="D142" s="95"/>
-      <c r="E142" s="96" t="s">
-        <v>339</v>
-      </c>
-      <c r="F142" s="97" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="43">
-        <v>142</v>
-      </c>
-      <c r="E143" s="66" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="43">
-        <v>143</v>
-      </c>
-      <c r="E144" s="66" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="43">
-        <v>144</v>
-      </c>
-      <c r="E145" s="66" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="43">
-        <v>145</v>
-      </c>
-      <c r="E146" s="66" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="43">
-        <v>146</v>
-      </c>
-      <c r="E147" s="66" t="s">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A156" s="43">
+        <v>154</v>
+      </c>
+      <c r="E156" s="64" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="43">
-        <v>147</v>
-      </c>
-      <c r="E148" s="66" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A149" s="43">
-        <v>148</v>
-      </c>
-      <c r="B149" s="53"/>
-      <c r="C149" s="75"/>
-      <c r="D149" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="E149" s="65"/>
-      <c r="F149" s="104" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="43">
-        <v>149</v>
-      </c>
-      <c r="B150" s="53"/>
-      <c r="C150" s="75"/>
-      <c r="D150" s="82"/>
-      <c r="E150" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="F150" s="65" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="43">
-        <v>150</v>
-      </c>
-      <c r="E151" s="66" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="43">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A157" s="43">
+        <v>155</v>
+      </c>
+      <c r="C157" s="70" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="261" x14ac:dyDescent="0.4">
+      <c r="A158" s="43">
+        <v>156</v>
+      </c>
+      <c r="B158" s="100"/>
+      <c r="C158" s="83"/>
+      <c r="D158" s="84" t="s">
+        <v>343</v>
+      </c>
+      <c r="E158" s="85"/>
+      <c r="F158" s="86" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A159" s="43">
+        <v>157</v>
+      </c>
+      <c r="D159" s="75" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A160" s="43">
+        <v>158</v>
+      </c>
+      <c r="C160" s="70" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A161" s="43">
+        <v>159</v>
+      </c>
+      <c r="C161" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="E152" s="66" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="43">
-        <v>152</v>
-      </c>
-      <c r="E153" s="66" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="43">
-        <v>153</v>
-      </c>
-      <c r="E154" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="43">
-        <v>154</v>
-      </c>
-      <c r="E155" s="66" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="43">
-        <v>155</v>
-      </c>
-      <c r="C156" s="72" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="247.5" x14ac:dyDescent="0.3">
-      <c r="A157" s="43">
-        <v>156</v>
-      </c>
-      <c r="B157" s="103"/>
-      <c r="C157" s="85"/>
-      <c r="D157" s="86" t="s">
-        <v>346</v>
-      </c>
-      <c r="E157" s="87"/>
-      <c r="F157" s="88" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="43">
-        <v>157</v>
-      </c>
-      <c r="D158" s="77" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="43">
-        <v>158</v>
-      </c>
-      <c r="C159" s="72" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="43">
-        <v>159</v>
-      </c>
-      <c r="C160" s="72" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="43">
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A162" s="43">
         <v>160</v>
       </c>
-      <c r="C161" s="72" t="s">
+      <c r="C162" s="70" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B161" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="B1:B162"/>
   <mergeCells count="1">
     <mergeCell ref="C1:E1"/>
   </mergeCells>
@@ -7185,7 +7300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -7193,193 +7308,193 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="41" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="38" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="38" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="41">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="41">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="41">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="41">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="41">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="41">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="41">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="41">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="41">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="41">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <v>29</v>
       </c>
@@ -7391,7 +7506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -7399,107 +7514,107 @@
       <selection activeCell="E9" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="41" customWidth="1"/>
-    <col min="3" max="3" width="79.875" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="79.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="37" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="37" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D1" s="39"/>
     </row>
-    <row r="2" spans="1:4" ht="50.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="52.8" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="41">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A3" s="41">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="41">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="41">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <v>15</v>
       </c>

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="413">
   <si>
     <t>업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1755,6 +1755,201 @@
     <t>select resume_file, health_file, bank_file, bank_name, account_num from staffs where staff_id=?</t>
   </si>
   <si>
+    <t>select user_id from users where user_id=? pw=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update users set profile_photo=? where user_id=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매뉴얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블별 배경 색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete daily_tasks where assgin_date=? and assign_type=? and assign_detail=? and daily_task=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--전체 직원 목록 보기 
+select u.profile_photo, u.name, u.gender, u.birth, s.work_part from users u, staffs s where s.branch_seq=? And u.user_id=s.staff_id;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select u.profile_photo, u.name, u.gender, u.birth, s.work_part from users u, staffs s where s.branch_seq=? And s.join_date is null And u.user_id=s.staff_id order by u.name asc;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select u.profile_photo, u.name, u.gender, u.birth, s.work_part from users u, staffs s where s.branch_seq=? and s.join_date is not null and s.leave_date is null And u.user_id=s.staff_id order by u.name asc;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서블릿 컨테이너 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나머지 SQL문 추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyVO 설계
+DailyDAO 인터페이스, 구현
+dailyMapper 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManualVO 설계
+ManualDAO 인터페이스, 구현
+manualMapper 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDBC - DAO 인터페이스 설계
+직원관련 table들 물리모델링
+직원관련 table 더미데이터 작성
+직원조회 관련 기능 SQL문 추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myBatis - DAO 인터페이스 설계
+VO 설계
+mapper 설계
+DAO 구현
+DAO 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select s.staff_id, u.name, u.profile_photo from staffs s, users u where s.staff_id=u.user_id and branch_seq=? and join_date is not null and leave_date is null;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete staffs where staff_id=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#다시짜야함. 재승인요청or재입사 했을 경우도 같이 출력됨.
+select u.profile_photo, u.name, u.gender, u.birth from users u, staffs s where s.branch_seq=? and s.join_date is not null and s.leave_date is not null And u.user_id=s.staff_id order by u.name asc;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select u.profile_photo, u.name, u.gender, u.birth, s.join_date, s.leave_date, s.work_part, s.bank_name, s.account_num, s.resume_file, s.health_file, s.bank_file from users u, staffs s where staff_id=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select user_id from users where user_id=? And pw=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( ?, ?, ?, ?, ?, ?, ?, ?, ?, ?, 1, ? );
+* 유의사항 : status가 1이면 가입상태, 0이면 탈퇴상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(phone_num) from users where phone_num=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into admins(admin_seq, admin_id, branch_seq) values(admin_seq.nextval, ?, (select branch_seq from branches where branch_name=?));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(license_num) from branches where license_num=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select representative, branch_name, address_city, address_gu, address_dong, address_detail, opening_hour from head_branches where license_num=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본사DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--지점 주소 정보 페이징(조건 설정하기 전에 모든 지점들이 출력되어야 함)
+select rownum as r, a.branch_name, a.address_dong, a.address_detail
+ from (select rownum as rnum, branch_name, address_dong, address_detail
+ from (select branch_name, address_dong, address_detail
+            from branches)
+                   where rownum &lt;=(select count(rownum) from branches)) a
+                    where a.rnum &gt;0 ;
+--회원가입 시 주소 정보 페이징: 시/도, 군/구가 선택되었을 때 동과 상세 주소가 나와야 함; addresses 테이블이 없어서 당장 테스트는 불가.
+select rownum as r, a.address_dong, a.address_detail
+from (select rownum as rnum, b.address_dong, .address_detail
+from (select address_dong, address_detail from addresses where address_city=? and address_gu=?) b
+where rownum &lt;=(select count(rownum) from addresses where address_city=? and address_gu=?)) a
+where a.rnum &gt;? ;
+#태훈오빠 명치 쎄게 맞을 준비하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs(staff_seq, staff_id, branch_seq, bank_name, account_num, resume_file, health_file, bank_file) values(staff_seq.nextval, ?, ?, ?, ?, ?, ?, ?);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(pw) from users where user_id=? and pw=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select name, birth, address_city, address_gu, address_dong, phone_num, profile_photo from users where user_id=? ;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시/도 선택지 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구/군 선택지 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동 선택지 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select address_dong from addresses where address_city=? and address_gu=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 사진 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update branches set representative=?, license_num=?, branch_phone_num=?, opening_hour=? where branch_seq=(select b.branch_seq from branches b, admins ad where admin_id=? and ad.branch_seq=b.branch_seq);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select license_num, representative, branch_phone_num, opening_hour from branches where branch_seq=(select b.branch_seq from branches b, admins ad where admin_id=? and ad.branch_seq=b.branch_seq);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">--프로필 사진, 속한 지점, 회원인증유형, 이름 보기  
 --직원
@@ -1786,212 +1981,13 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">ad.branch_seq, u.name, 
-from users u, admins ad, branches b
+      <t xml:space="preserve">a.branch_seq, u.name, 
+from users u, admins a, branches b
 where u.user_id=?
-and u.user_id=ad.admin_id
-and ad.branch_seq=b.branch_seq
+and u.user_id=a.admin_id
+and a.branch_seq=b.branch_seq
 </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select user_id from users where user_id=? pw=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update users set profile_photo=? where user_id=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일일업무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매뉴얼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블별 배경 색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete daily_tasks where assgin_date=? and assign_type=? and assign_detail=? and daily_task=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--전체 직원 목록 보기 
-select u.profile_photo, u.name, u.gender, u.birth, s.work_part from users u, staffs s where s.branch_seq=? And u.user_id=s.staff_id;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select u.profile_photo, u.name, u.gender, u.birth, s.work_part from users u, staffs s where s.branch_seq=? And s.join_date is null And u.user_id=s.staff_id order by u.name asc;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select u.profile_photo, u.name, u.gender, u.birth, s.work_part from users u, staffs s where s.branch_seq=? and s.join_date is not null and s.leave_date is null And u.user_id=s.staff_id order by u.name asc;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서블릿 컨테이너 시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나머지 SQL문 추출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DailyVO 설계
-DailyDAO 인터페이스, 구현
-dailyMapper 설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ManualVO 설계
-ManualDAO 인터페이스, 구현
-manualMapper 설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JDBC - DAO 인터페이스 설계
-직원관련 table들 물리모델링
-직원관련 table 더미데이터 작성
-직원조회 관련 기능 SQL문 추출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myBatis - DAO 인터페이스 설계
-VO 설계
-mapper 설계
-DAO 구현
-DAO 테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select s.staff_id, u.name, u.profile_photo from staffs s, users u where s.staff_id=u.user_id and branch_seq=? and join_date is not null and leave_date is null;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete staffs where staff_id=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#다시짜야함. 재승인요청or재입사 했을 경우도 같이 출력됨.
-select u.profile_photo, u.name, u.gender, u.birth from users u, staffs s where s.branch_seq=? and s.join_date is not null and s.leave_date is not null And u.user_id=s.staff_id order by u.name asc;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select u.profile_photo, u.name, u.gender, u.birth, s.join_date, s.leave_date, s.work_part, s.bank_name, s.account_num, s.resume_file, s.health_file, s.bank_file from users u, staffs s where staff_id=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select user_id from users where user_id=? And pw=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( ?, ?, ?, ?, ?, ?, ?, ?, ?, ?, 1, ? );
-* 유의사항 : status가 1이면 가입상태, 0이면 탈퇴상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select count(phone_num) from users where phone_num=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into admins(admin_seq, admin_id, branch_seq) values(admin_seq.nextval, ?, (select branch_seq from branches where branch_name=?));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select count(license_num) from branches where license_num=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select representative, branch_name, address_city, address_gu, address_dong, address_detail, opening_hour from head_branches where license_num=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>본사DB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--지점 주소 정보 페이징(조건 설정하기 전에 모든 지점들이 출력되어야 함)
-select rownum as r, a.branch_name, a.address_dong, a.address_detail
- from (select rownum as rnum, branch_name, address_dong, address_detail
- from (select branch_name, address_dong, address_detail
-            from branches)
-                   where rownum &lt;=(select count(rownum) from branches)) a
-                    where a.rnum &gt;0 ;
---회원가입 시 주소 정보 페이징: 시/도, 군/구가 선택되었을 때 동과 상세 주소가 나와야 함; addresses 테이블이 없어서 당장 테스트는 불가.
-select rownum as r, a.address_dong, a.address_detail
-from (select rownum as rnum, b.address_dong, .address_detail
-from (select address_dong, address_detail from addresses where address_city=? and address_gu=?) b
-where rownum &lt;=(select count(rownum) from addresses where address_city=? and address_gu=?)) a
-where a.rnum &gt;? ;
-#태훈오빠 명치 쎄게 맞을 준비하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into staffs(staff_seq, staff_id, branch_seq, bank_name, account_num, resume_file, health_file, bank_file) values(staff_seq.nextval, ?, ?, ?, ?, ?, ?, ?);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select count(pw) from users where user_id=? and pw=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select name, birth, address_city, address_gu, address_dong, phone_num, profile_photo from users where user_id=? ;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시/도 선택지 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구/군 선택지 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동 선택지 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select address_dong from addresses where address_city=? and address_gu=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로필 사진 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update branches set representative=?, license_num=?, branch_phone_num=?, opening_hour=? where branch_seq=(select b.branch_seq from branches b, admins ad where admin_id=? and ad.branch_seq=b.branch_seq);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select license_num, representative, branch_phone_num, opening_hour from branches where branch_seq=(select b.branch_seq from branches b, admins ad where admin_id=? and ad.branch_seq=b.branch_seq);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여기까지봄 5/16밤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2002,7 +1998,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-412]m&quot;월&quot;\ d&quot;일&quot;\ dddd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2076,7 +2072,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2146,12 +2142,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC99FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2277,7 +2267,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2602,38 +2592,35 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2966,7 +2953,7 @@
       <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="8.69921875" style="36"/>
     <col min="2" max="2" width="16.09765625" style="21" customWidth="1"/>
@@ -2978,7 +2965,7 @@
     <col min="8" max="8" width="31.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="21.6" thickBot="1">
       <c r="A1" s="35" t="s">
         <v>215</v>
       </c>
@@ -3004,7 +2991,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="18" thickTop="1">
       <c r="B2" s="17">
         <v>43214</v>
       </c>
@@ -3012,19 +2999,19 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="B3" s="17">
         <v>43215</v>
       </c>
       <c r="C3" s="15"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="B4" s="17">
         <v>43216</v>
       </c>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="B5" s="17">
         <v>43217</v>
       </c>
@@ -3032,31 +3019,31 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="B6" s="18">
         <v>43218</v>
       </c>
       <c r="C6" s="15"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="B7" s="18">
         <v>43219</v>
       </c>
       <c r="C7" s="15"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="B8" s="17">
         <v>43220</v>
       </c>
       <c r="C8" s="15"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8">
       <c r="B9" s="17">
         <v>43221</v>
       </c>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8">
       <c r="B10" s="17">
         <v>43222</v>
       </c>
@@ -3064,7 +3051,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8">
       <c r="B11" s="17">
         <v>43223</v>
       </c>
@@ -3072,7 +3059,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8">
       <c r="B12" s="17">
         <v>43224</v>
       </c>
@@ -3080,31 +3067,31 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8">
       <c r="B13" s="18">
         <v>43225</v>
       </c>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8">
       <c r="B14" s="18">
         <v>43226</v>
       </c>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8">
       <c r="B15" s="18">
         <v>43227</v>
       </c>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8">
       <c r="B16" s="17">
         <v>43228</v>
       </c>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8">
       <c r="B17" s="33">
         <v>43229</v>
       </c>
@@ -3115,7 +3102,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="87" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="87">
       <c r="B18" s="32">
         <v>43230</v>
       </c>
@@ -3138,7 +3125,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="87" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="87">
       <c r="B19" s="32">
         <v>43231</v>
       </c>
@@ -3161,24 +3148,24 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8">
       <c r="B20" s="18">
         <v>43232</v>
       </c>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8">
       <c r="B21" s="18">
         <v>43233</v>
       </c>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="69.599999999999994">
       <c r="B22" s="19">
         <v>43234</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>283</v>
@@ -3196,38 +3183,38 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="87" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="87">
       <c r="B23" s="19">
         <v>43235</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B24" s="19">
         <v>43236</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8">
       <c r="A25" s="36" t="s">
         <v>209</v>
       </c>
@@ -3236,7 +3223,7 @@
       </c>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8">
       <c r="A26" s="36" t="s">
         <v>209</v>
       </c>
@@ -3245,19 +3232,19 @@
       </c>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8">
       <c r="B27" s="18">
         <v>43239</v>
       </c>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8">
       <c r="B28" s="18">
         <v>43240</v>
       </c>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8">
       <c r="A29" s="36" t="s">
         <v>210</v>
       </c>
@@ -3266,7 +3253,7 @@
       </c>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8">
       <c r="A30" s="36" t="s">
         <v>211</v>
       </c>
@@ -3275,37 +3262,37 @@
       </c>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8">
       <c r="B31" s="19">
         <v>43243</v>
       </c>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8">
       <c r="B32" s="19">
         <v>43244</v>
       </c>
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3">
       <c r="B33" s="19">
         <v>43245</v>
       </c>
       <c r="C33" s="15"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3">
       <c r="B34" s="18">
         <v>43246</v>
       </c>
       <c r="C34" s="15"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3">
       <c r="B35" s="18">
         <v>43247</v>
       </c>
       <c r="C35" s="15"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3">
       <c r="B36" s="19">
         <v>43248</v>
       </c>
@@ -3313,13 +3300,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3">
       <c r="B37" s="19">
         <v>43249</v>
       </c>
       <c r="C37" s="15"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3">
       <c r="B38" s="19">
         <v>43250</v>
       </c>
@@ -3327,7 +3314,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3">
       <c r="A39" s="36" t="s">
         <v>209</v>
       </c>
@@ -3336,31 +3323,31 @@
       </c>
       <c r="C39" s="15"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3">
       <c r="B40" s="17">
         <v>43252</v>
       </c>
       <c r="C40" s="15"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3">
       <c r="B41" s="18">
         <v>43253</v>
       </c>
       <c r="C41" s="15"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3">
       <c r="B42" s="18">
         <v>43254</v>
       </c>
       <c r="C42" s="15"/>
     </row>
-    <row r="43" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" ht="18" thickBot="1">
       <c r="B43" s="19">
         <v>43255</v>
       </c>
       <c r="C43" s="15"/>
     </row>
-    <row r="44" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" ht="18" thickBot="1">
       <c r="B44" s="20">
         <v>43256</v>
       </c>
@@ -3368,19 +3355,19 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3">
       <c r="B45" s="18">
         <v>43257</v>
       </c>
       <c r="C45" s="15"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3">
       <c r="B46" s="19">
         <v>43258</v>
       </c>
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3">
       <c r="B47" s="19">
         <v>43259</v>
       </c>
@@ -3388,7 +3375,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3">
       <c r="B48" s="17"/>
       <c r="C48" s="15"/>
     </row>
@@ -3409,7 +3396,7 @@
       <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="4.69921875" customWidth="1"/>
     <col min="2" max="2" width="6.8984375" style="3" customWidth="1"/>
@@ -3424,15 +3411,15 @@
     <col min="11" max="11" width="8.69921875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="21.6" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
@@ -3455,7 +3442,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="18" thickTop="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -3473,7 +3460,7 @@
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -3489,7 +3476,7 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -3513,7 +3500,7 @@
       </c>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="34.799999999999997">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -3537,7 +3524,7 @@
       </c>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -3553,7 +3540,7 @@
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -3569,7 +3556,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -3585,7 +3572,7 @@
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -3601,7 +3588,7 @@
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -3617,7 +3604,7 @@
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="34.799999999999997">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -3643,7 +3630,7 @@
       </c>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -3654,7 +3641,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -3670,7 +3657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -3686,7 +3673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -3701,7 +3688,7 @@
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="16" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="34.799999999999997">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -3724,7 +3711,7 @@
       </c>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -3739,7 +3726,7 @@
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -3762,7 +3749,7 @@
       </c>
       <c r="J18" s="22"/>
     </row>
-    <row r="19" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="52.2">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -3785,7 +3772,7 @@
       </c>
       <c r="J19" s="22"/>
     </row>
-    <row r="20" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" ht="52.2">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -3808,7 +3795,7 @@
       </c>
       <c r="J20" s="22"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -3823,7 +3810,7 @@
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -3838,7 +3825,7 @@
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -3853,7 +3840,7 @@
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -3878,7 +3865,7 @@
       </c>
       <c r="J24" s="55"/>
     </row>
-    <row r="25" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" ht="52.2">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -3901,7 +3888,7 @@
       </c>
       <c r="J25" s="55"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -3916,7 +3903,7 @@
       <c r="I26" s="55"/>
       <c r="J26" s="55"/>
     </row>
-    <row r="27" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" ht="34.799999999999997">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -3942,7 +3929,7 @@
       </c>
       <c r="J27" s="28"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -3958,7 +3945,7 @@
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -3974,7 +3961,7 @@
       <c r="I29" s="57"/>
       <c r="J29" s="57"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -3992,7 +3979,7 @@
       <c r="I30" s="57"/>
       <c r="J30" s="57"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -4010,7 +3997,7 @@
       <c r="I31" s="57"/>
       <c r="J31" s="57"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -4026,7 +4013,7 @@
       <c r="I32" s="28"/>
       <c r="J32" s="28"/>
     </row>
-    <row r="33" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" ht="34.799999999999997">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -4050,7 +4037,7 @@
       </c>
       <c r="J33" s="28"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -4066,7 +4053,7 @@
       <c r="I34" s="28"/>
       <c r="J34" s="28"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -4090,7 +4077,7 @@
       </c>
       <c r="J35" s="28"/>
     </row>
-    <row r="36" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" ht="52.2">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -4114,7 +4101,7 @@
       </c>
       <c r="J36" s="28"/>
     </row>
-    <row r="37" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" ht="52.2">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -4138,7 +4125,7 @@
       </c>
       <c r="J37" s="28"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -4154,7 +4141,7 @@
       <c r="I38" s="28"/>
       <c r="J38" s="28"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -4170,7 +4157,7 @@
       <c r="I39" s="28"/>
       <c r="J39" s="28"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -4186,7 +4173,7 @@
       <c r="I40" s="28"/>
       <c r="J40" s="28"/>
     </row>
-    <row r="41" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" ht="34.799999999999997">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -4212,7 +4199,7 @@
       </c>
       <c r="J41" s="28"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -4236,7 +4223,7 @@
       </c>
       <c r="J42" s="55"/>
     </row>
-    <row r="43" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" ht="52.2">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -4260,7 +4247,7 @@
       </c>
       <c r="J43" s="55"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -4276,7 +4263,7 @@
       <c r="I44" s="28"/>
       <c r="J44" s="28"/>
     </row>
-    <row r="45" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" ht="34.799999999999997">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -4302,7 +4289,7 @@
       </c>
       <c r="J45" s="28"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -4318,7 +4305,7 @@
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -4336,7 +4323,7 @@
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
     </row>
-    <row r="48" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" ht="52.2">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -4360,7 +4347,7 @@
       </c>
       <c r="J48" s="22"/>
     </row>
-    <row r="49" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" ht="52.2">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -4384,7 +4371,7 @@
       </c>
       <c r="J49" s="22"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4395,7 +4382,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4409,7 +4396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4420,7 +4407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4431,7 +4418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4445,7 +4432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4456,7 +4443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4470,7 +4457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4484,7 +4471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4501,7 +4488,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4509,7 +4496,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4517,7 +4504,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4528,7 +4515,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4539,7 +4526,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4553,7 +4540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4561,7 +4548,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4572,7 +4559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4580,7 +4567,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4588,7 +4575,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4602,7 +4589,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4613,7 +4600,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4621,7 +4608,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4632,7 +4619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4640,7 +4627,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4648,7 +4635,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4656,7 +4643,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4664,7 +4651,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4672,7 +4659,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4680,7 +4667,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4688,7 +4675,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4696,7 +4683,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4704,7 +4691,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4712,7 +4699,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4720,7 +4707,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4731,7 +4718,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4742,7 +4729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4750,7 +4737,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4758,7 +4745,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4766,7 +4753,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4774,7 +4761,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4785,7 +4772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4796,7 +4783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4804,7 +4791,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4815,7 +4802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4826,7 +4813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4834,7 +4821,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4842,7 +4829,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4850,7 +4837,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4861,7 +4848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4875,7 +4862,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4883,7 +4870,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4891,7 +4878,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4902,7 +4889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:11">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4916,7 +4903,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4924,7 +4911,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:11">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4935,7 +4922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:11">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4946,7 +4933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:11">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4960,7 +4947,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:11">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4974,7 +4961,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:11">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4985,7 +4972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:11">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4996,7 +4983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:11">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5007,7 +4994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:11">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5018,7 +5005,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:11">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5026,7 +5013,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:11">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5034,7 +5021,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:11">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5045,7 +5032,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:11">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5053,7 +5040,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:11">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5064,7 +5051,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:11">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5075,7 +5062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:11">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5089,7 +5076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:11">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5097,7 +5084,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:11">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5105,7 +5092,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:11">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5113,7 +5100,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:11">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5121,7 +5108,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:11">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5129,7 +5116,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:11">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5137,7 +5124,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:11">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5145,7 +5132,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:11">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5153,7 +5140,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:11">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5161,7 +5148,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:11">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5172,7 +5159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5180,7 +5167,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5191,7 +5178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5202,7 +5189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5210,7 +5197,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5218,7 +5205,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5232,7 +5219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5243,7 +5230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5251,7 +5238,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5259,7 +5246,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5267,7 +5254,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5275,7 +5262,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5283,7 +5270,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5291,7 +5278,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5305,7 +5292,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5316,7 +5303,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5324,7 +5311,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:11">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5332,7 +5319,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:11">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5340,7 +5327,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:11">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5348,7 +5335,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:11">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5356,7 +5343,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:11">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5367,7 +5354,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:11">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5378,7 +5365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:11">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5389,7 +5376,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:11">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5406,7 +5393,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:11">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5420,7 +5407,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:11">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5431,7 +5418,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:11">
       <c r="H155">
         <f>COUNTA(H2:H154)</f>
         <v>61</v>
@@ -5452,11 +5439,11 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F150" sqref="F150"/>
+    <sheetView tabSelected="1" topLeftCell="F147" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H147" sqref="H147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="4.69921875" customWidth="1"/>
     <col min="2" max="2" width="10.19921875" style="47" customWidth="1"/>
@@ -5467,26 +5454,26 @@
     <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="58" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="58" customFormat="1" ht="21.6" thickBot="1">
       <c r="A1" s="58" t="s">
         <v>288</v>
       </c>
       <c r="B1" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="117" t="s">
         <v>289</v>
       </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
       <c r="F1" s="58" t="s">
         <v>290</v>
       </c>
       <c r="G1" s="58" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" thickTop="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -5495,10 +5482,10 @@
         <v>46</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -5508,10 +5495,10 @@
         <v>202</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -5527,10 +5514,10 @@
         <v>351</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="69.599999999999994">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -5546,10 +5533,10 @@
         <v>352</v>
       </c>
       <c r="G5" s="85" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -5557,10 +5544,10 @@
         <v>150</v>
       </c>
       <c r="G6" s="91" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -5568,10 +5555,10 @@
         <v>154</v>
       </c>
       <c r="G7" s="95" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -5579,21 +5566,21 @@
         <v>147</v>
       </c>
       <c r="G8" s="106" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>8</v>
       </c>
       <c r="D9" s="75" t="s">
         <v>292</v>
       </c>
-      <c r="G9" s="117" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G9" s="115" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -5601,7 +5588,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="109.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="109.2" customHeight="1">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -5617,7 +5604,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -5625,7 +5612,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -5639,7 +5626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -5653,7 +5640,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -5665,7 +5652,7 @@
       <c r="E15" s="66"/>
       <c r="F15" s="43"/>
     </row>
-    <row r="16" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="69.599999999999994">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -5681,7 +5668,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -5693,7 +5680,7 @@
       <c r="E17" s="66"/>
       <c r="F17" s="43"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -5709,7 +5696,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="34.799999999999997">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -5725,7 +5712,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="34.799999999999997">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -5741,7 +5728,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -5749,7 +5736,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -5757,7 +5744,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -5765,7 +5752,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -5781,7 +5768,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -5794,10 +5781,10 @@
       </c>
       <c r="E25" s="63"/>
       <c r="F25" s="52" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -5805,7 +5792,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="174" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="174">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -5821,7 +5808,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -5830,7 +5817,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -5838,7 +5825,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -5849,7 +5836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -5860,7 +5847,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -5872,7 +5859,7 @@
       <c r="E32" s="66"/>
       <c r="F32" s="43"/>
     </row>
-    <row r="33" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" ht="69.599999999999994">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -5888,7 +5875,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -5896,7 +5883,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -5912,7 +5899,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" ht="34.799999999999997">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -5928,7 +5915,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" ht="34.799999999999997">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -5944,7 +5931,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -5952,7 +5939,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -5966,7 +5953,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -5974,7 +5961,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -5990,7 +5977,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -6006,7 +5993,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -6019,10 +6006,10 @@
       </c>
       <c r="E43" s="63"/>
       <c r="F43" s="52" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -6030,7 +6017,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -6043,10 +6030,10 @@
       <c r="D45" s="76"/>
       <c r="E45" s="65"/>
       <c r="F45" s="29" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -6054,7 +6041,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -6066,7 +6053,7 @@
       <c r="E47" s="66"/>
       <c r="F47" s="43"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -6078,7 +6065,7 @@
       <c r="E48" s="66"/>
       <c r="F48" s="49"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -6094,7 +6081,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" ht="34.799999999999997">
       <c r="A50" s="14">
         <v>49</v>
       </c>
@@ -6110,7 +6097,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" ht="34.799999999999997">
       <c r="A51" s="14">
         <v>50</v>
       </c>
@@ -6126,7 +6113,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6">
       <c r="A52" s="14">
         <v>51</v>
       </c>
@@ -6138,7 +6125,7 @@
       <c r="E52" s="66"/>
       <c r="F52" s="49"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6">
       <c r="A53" s="14">
         <v>52</v>
       </c>
@@ -6154,7 +6141,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" ht="34.799999999999997">
       <c r="A54" s="14">
         <v>53</v>
       </c>
@@ -6170,7 +6157,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" ht="34.799999999999997">
       <c r="A55" s="14">
         <v>54</v>
       </c>
@@ -6186,7 +6173,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" ht="34.799999999999997">
       <c r="A56" s="43">
         <v>55</v>
       </c>
@@ -6196,11 +6183,11 @@
       </c>
       <c r="D56" s="78"/>
       <c r="E56" s="66"/>
-      <c r="F56" s="109" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F56" s="108" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="43">
         <v>56</v>
       </c>
@@ -6211,10 +6198,10 @@
       </c>
       <c r="E57" s="63"/>
       <c r="F57" s="52" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="43">
         <v>57</v>
       </c>
@@ -6228,7 +6215,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6">
       <c r="A59" s="43">
         <v>58</v>
       </c>
@@ -6239,10 +6226,10 @@
         <v>317</v>
       </c>
       <c r="F59" s="52" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="43">
         <v>59</v>
       </c>
@@ -6253,10 +6240,10 @@
       </c>
       <c r="E60" s="63"/>
       <c r="F60" s="63" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="43">
         <v>60</v>
       </c>
@@ -6270,7 +6257,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" ht="34.799999999999997">
       <c r="A62" s="43">
         <v>61</v>
       </c>
@@ -6280,11 +6267,11 @@
         <v>21</v>
       </c>
       <c r="E62" s="63"/>
-      <c r="F62" s="110" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F62" s="109" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="43">
         <v>62</v>
       </c>
@@ -6295,10 +6282,10 @@
       </c>
       <c r="E63" s="63"/>
       <c r="F63" s="52" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="43">
         <v>63</v>
       </c>
@@ -6309,10 +6296,10 @@
       <c r="D64" s="84"/>
       <c r="E64" s="85"/>
       <c r="F64" s="82" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="43">
         <v>64</v>
       </c>
@@ -6320,7 +6307,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6">
       <c r="A66" s="43">
         <v>65</v>
       </c>
@@ -6328,7 +6315,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6">
       <c r="A67" s="43">
         <v>66</v>
       </c>
@@ -6336,7 +6323,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6">
       <c r="A68" s="43">
         <v>67</v>
       </c>
@@ -6344,7 +6331,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" ht="34.799999999999997">
       <c r="A69" s="43">
         <v>68</v>
       </c>
@@ -6354,11 +6341,11 @@
       </c>
       <c r="D69" s="84"/>
       <c r="E69" s="85"/>
-      <c r="F69" s="111" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F69" s="110" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="43">
         <v>69</v>
       </c>
@@ -6366,7 +6353,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6">
       <c r="A71" s="43">
         <v>70</v>
       </c>
@@ -6377,10 +6364,10 @@
       </c>
       <c r="E71" s="85"/>
       <c r="F71" s="82" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="43">
         <v>71</v>
       </c>
@@ -6388,7 +6375,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6">
       <c r="A73" s="43">
         <v>72</v>
       </c>
@@ -6396,7 +6383,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6">
       <c r="A74" s="43">
         <v>73</v>
       </c>
@@ -6407,7 +6394,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6">
       <c r="A75" s="43">
         <v>74</v>
       </c>
@@ -6415,7 +6402,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6">
       <c r="A76" s="43">
         <v>75</v>
       </c>
@@ -6423,7 +6410,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6">
       <c r="A77" s="43">
         <v>76</v>
       </c>
@@ -6437,7 +6424,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6">
       <c r="A78" s="43">
         <v>77</v>
       </c>
@@ -6445,7 +6432,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6">
       <c r="A79" s="43">
         <v>78</v>
       </c>
@@ -6453,7 +6440,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6">
       <c r="A80" s="43">
         <v>79</v>
       </c>
@@ -6461,7 +6448,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6">
       <c r="A81" s="43">
         <v>80</v>
       </c>
@@ -6469,7 +6456,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6">
       <c r="A82" s="43">
         <v>81</v>
       </c>
@@ -6477,7 +6464,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6">
       <c r="A83" s="43">
         <v>82</v>
       </c>
@@ -6485,7 +6472,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6">
       <c r="A84" s="43">
         <v>83</v>
       </c>
@@ -6493,7 +6480,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6">
       <c r="A85" s="43">
         <v>84</v>
       </c>
@@ -6501,7 +6488,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6">
       <c r="A86" s="43">
         <v>85</v>
       </c>
@@ -6509,7 +6496,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6">
       <c r="A87" s="43">
         <v>86</v>
       </c>
@@ -6517,7 +6504,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6">
       <c r="A88" s="43">
         <v>87</v>
       </c>
@@ -6525,7 +6512,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6">
       <c r="A89" s="43">
         <v>88</v>
       </c>
@@ -6533,7 +6520,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6">
       <c r="A90" s="43">
         <v>89</v>
       </c>
@@ -6542,7 +6529,7 @@
       </c>
       <c r="F90" s="64"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6">
       <c r="A91" s="43">
         <v>90</v>
       </c>
@@ -6550,7 +6537,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6">
       <c r="A92" s="43">
         <v>91</v>
       </c>
@@ -6566,7 +6553,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6">
       <c r="A93" s="43">
         <v>92</v>
       </c>
@@ -6575,7 +6562,7 @@
       </c>
       <c r="F93" s="64"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6">
       <c r="A94" s="43">
         <v>93</v>
       </c>
@@ -6583,7 +6570,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6">
       <c r="A95" s="43">
         <v>94</v>
       </c>
@@ -6594,7 +6581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6">
       <c r="A96" s="43">
         <v>95</v>
       </c>
@@ -6608,7 +6595,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6">
       <c r="A97" s="43">
         <v>96</v>
       </c>
@@ -6616,7 +6603,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6">
       <c r="A98" s="43">
         <v>97</v>
       </c>
@@ -6630,7 +6617,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:6">
       <c r="A99" s="43">
         <v>98</v>
       </c>
@@ -6644,7 +6631,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6">
       <c r="A100" s="43">
         <v>99</v>
       </c>
@@ -6652,7 +6639,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:6">
       <c r="A101" s="43">
         <v>100</v>
       </c>
@@ -6660,7 +6647,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6">
       <c r="A102" s="43">
         <v>101</v>
       </c>
@@ -6668,7 +6655,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:6">
       <c r="A103" s="43">
         <v>102</v>
       </c>
@@ -6679,7 +6666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:6">
       <c r="A104" s="43">
         <v>103</v>
       </c>
@@ -6690,7 +6677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:6">
       <c r="A105" s="43">
         <v>104</v>
       </c>
@@ -6698,7 +6685,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:6">
       <c r="A106" s="43">
         <v>105</v>
       </c>
@@ -6706,7 +6693,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:6">
       <c r="A107" s="43">
         <v>106</v>
       </c>
@@ -6714,7 +6701,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:6">
       <c r="A108" s="43">
         <v>107</v>
       </c>
@@ -6725,10 +6712,10 @@
       <c r="D108" s="88"/>
       <c r="E108" s="89"/>
       <c r="F108" s="90" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="43">
         <v>108</v>
       </c>
@@ -6736,7 +6723,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:6">
       <c r="A110" s="43">
         <v>109</v>
       </c>
@@ -6747,24 +6734,24 @@
       </c>
       <c r="E110" s="94"/>
       <c r="F110" s="95" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="43">
         <v>110</v>
       </c>
-      <c r="B111" s="113"/>
-      <c r="C111" s="114"/>
-      <c r="D111" s="115" t="s">
+      <c r="B111" s="111"/>
+      <c r="C111" s="112"/>
+      <c r="D111" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="E111" s="116"/>
-      <c r="F111" s="117" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="261" x14ac:dyDescent="0.4">
+      <c r="E111" s="114"/>
+      <c r="F111" s="115" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="261">
       <c r="A112" s="43">
         <v>111</v>
       </c>
@@ -6774,11 +6761,11 @@
         <v>330</v>
       </c>
       <c r="E112" s="94"/>
-      <c r="F112" s="118" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F112" s="116" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="43">
         <v>112</v>
       </c>
@@ -6789,10 +6776,10 @@
       <c r="D113" s="80"/>
       <c r="E113" s="63"/>
       <c r="F113" s="54" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="43">
         <v>114</v>
       </c>
@@ -6806,7 +6793,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6">
       <c r="A115" s="43">
         <v>115</v>
       </c>
@@ -6820,7 +6807,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:6" ht="52.2">
       <c r="A116" s="43">
         <v>116</v>
       </c>
@@ -6834,7 +6821,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:6">
       <c r="A117" s="43">
         <v>117</v>
       </c>
@@ -6842,7 +6829,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:6">
       <c r="A118" s="43">
         <v>118</v>
       </c>
@@ -6850,7 +6837,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:6">
       <c r="A119" s="43">
         <v>119</v>
       </c>
@@ -6858,7 +6845,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6">
       <c r="A120" s="43">
         <v>120</v>
       </c>
@@ -6866,7 +6853,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6">
       <c r="A121" s="43">
         <v>121</v>
       </c>
@@ -6874,7 +6861,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:6">
       <c r="A122" s="43">
         <v>122</v>
       </c>
@@ -6882,7 +6869,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:6">
       <c r="A123" s="43">
         <v>123</v>
       </c>
@@ -6893,10 +6880,10 @@
       </c>
       <c r="E123" s="85"/>
       <c r="F123" s="82" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="43">
         <v>124</v>
       </c>
@@ -6910,7 +6897,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:6">
       <c r="A125" s="43">
         <v>125</v>
       </c>
@@ -6921,10 +6908,10 @@
         <v>144</v>
       </c>
       <c r="F125" s="82" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="43">
         <v>126</v>
       </c>
@@ -6932,7 +6919,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:6">
       <c r="A127" s="43">
         <v>127</v>
       </c>
@@ -6940,7 +6927,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:6">
       <c r="A128" s="43">
         <v>128</v>
       </c>
@@ -6948,31 +6935,31 @@
         <v>110</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:6">
       <c r="A129" s="43"/>
       <c r="B129" s="107"/>
       <c r="C129" s="105"/>
       <c r="D129" s="102"/>
       <c r="E129" s="103" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F129" s="106" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:6">
       <c r="A130" s="43"/>
       <c r="B130" s="107"/>
       <c r="C130" s="105"/>
       <c r="D130" s="102"/>
       <c r="E130" s="103" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F130" s="106" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:6">
       <c r="A131" s="43">
         <v>129</v>
       </c>
@@ -6980,13 +6967,13 @@
       <c r="C131" s="105"/>
       <c r="D131" s="102"/>
       <c r="E131" s="103" t="s">
+        <v>407</v>
+      </c>
+      <c r="F131" s="104" t="s">
         <v>408</v>
       </c>
-      <c r="F131" s="104" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="43">
         <v>130</v>
       </c>
@@ -6994,7 +6981,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:6">
       <c r="A133" s="43">
         <v>131</v>
       </c>
@@ -7002,7 +6989,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:6">
       <c r="A134" s="43">
         <v>132</v>
       </c>
@@ -7010,7 +6997,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:6">
       <c r="A135" s="43">
         <v>133</v>
       </c>
@@ -7018,7 +7005,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:6">
       <c r="A136" s="43">
         <v>134</v>
       </c>
@@ -7029,7 +7016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:6">
       <c r="A137" s="43">
         <v>135</v>
       </c>
@@ -7037,13 +7024,13 @@
       <c r="C137" s="83"/>
       <c r="D137" s="84"/>
       <c r="E137" s="85" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F137" s="82" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="43">
         <v>136</v>
       </c>
@@ -7057,7 +7044,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:6">
       <c r="A139" s="43">
         <v>137</v>
       </c>
@@ -7068,10 +7055,10 @@
         <v>111</v>
       </c>
       <c r="F139" s="82" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="43">
         <v>138</v>
       </c>
@@ -7079,7 +7066,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:6">
       <c r="A141" s="43">
         <v>139</v>
       </c>
@@ -7087,7 +7074,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:6">
       <c r="A142" s="43">
         <v>140</v>
       </c>
@@ -7098,10 +7085,10 @@
       </c>
       <c r="E142" s="94"/>
       <c r="F142" s="95" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="43">
         <v>141</v>
       </c>
@@ -7112,10 +7099,10 @@
         <v>336</v>
       </c>
       <c r="F143" s="95" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="43">
         <v>142</v>
       </c>
@@ -7123,7 +7110,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:6">
       <c r="A145" s="43">
         <v>143</v>
       </c>
@@ -7131,7 +7118,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:6">
       <c r="A146" s="43">
         <v>144</v>
       </c>
@@ -7139,7 +7126,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:6">
       <c r="A147" s="43">
         <v>145</v>
       </c>
@@ -7147,7 +7134,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:6">
       <c r="A148" s="43">
         <v>146</v>
       </c>
@@ -7155,18 +7142,16 @@
         <v>339</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:6">
       <c r="A149" s="43">
         <v>147</v>
       </c>
       <c r="E149" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="F149" s="112" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="87" x14ac:dyDescent="0.4">
+      <c r="F149" s="43"/>
+    </row>
+    <row r="150" spans="1:6" ht="87">
       <c r="A150" s="43">
         <v>148</v>
       </c>
@@ -7180,7 +7165,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:6">
       <c r="A151" s="43">
         <v>149</v>
       </c>
@@ -7194,7 +7179,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:6">
       <c r="A152" s="43">
         <v>150</v>
       </c>
@@ -7202,7 +7187,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:6">
       <c r="A153" s="43">
         <v>151</v>
       </c>
@@ -7210,7 +7195,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:6">
       <c r="A154" s="43">
         <v>152</v>
       </c>
@@ -7218,7 +7203,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:6">
       <c r="A155" s="43">
         <v>153</v>
       </c>
@@ -7226,7 +7211,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:6">
       <c r="A156" s="43">
         <v>154</v>
       </c>
@@ -7234,7 +7219,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:6">
       <c r="A157" s="43">
         <v>155</v>
       </c>
@@ -7242,7 +7227,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="261" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:6" ht="261">
       <c r="A158" s="43">
         <v>156</v>
       </c>
@@ -7253,10 +7238,10 @@
       </c>
       <c r="E158" s="85"/>
       <c r="F158" s="86" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" s="43">
         <v>157</v>
       </c>
@@ -7264,7 +7249,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:6">
       <c r="A160" s="43">
         <v>158</v>
       </c>
@@ -7272,7 +7257,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:3">
       <c r="A161" s="43">
         <v>159</v>
       </c>
@@ -7280,7 +7265,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:3">
       <c r="A162" s="43">
         <v>160</v>
       </c>
@@ -7308,12 +7293,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="11.3984375" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="38" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="38" customFormat="1" ht="21.6" thickBot="1">
       <c r="A1" s="40" t="s">
         <v>234</v>
       </c>
@@ -7324,7 +7309,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="18" thickTop="1">
       <c r="A2" s="41">
         <v>1</v>
       </c>
@@ -7335,7 +7320,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" s="41">
         <v>2</v>
       </c>
@@ -7346,7 +7331,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4" s="41">
         <v>3</v>
       </c>
@@ -7354,7 +7339,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="A5" s="41">
         <v>4</v>
       </c>
@@ -7365,7 +7350,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3">
       <c r="A6" s="41">
         <v>5</v>
       </c>
@@ -7373,7 +7358,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3">
       <c r="A7" s="41">
         <v>6</v>
       </c>
@@ -7384,117 +7369,117 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3">
       <c r="A8" s="41">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3">
       <c r="A9" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3">
       <c r="A10" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3">
       <c r="A11" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3">
       <c r="A12" s="41">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3">
       <c r="A13" s="41">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3">
       <c r="A14" s="41">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3">
       <c r="A15" s="41">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3">
       <c r="A16" s="41">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1">
       <c r="A17" s="41">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1">
       <c r="A18" s="41">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1">
       <c r="A19" s="41">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1">
       <c r="A20" s="41">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1">
       <c r="A21" s="41">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1">
       <c r="A22" s="41">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1">
       <c r="A23" s="41">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1">
       <c r="A24" s="41">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1">
       <c r="A25" s="41">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1">
       <c r="A26" s="41">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1">
       <c r="A27" s="41">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1">
       <c r="A28" s="41">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1">
       <c r="A29" s="41">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1">
       <c r="A30" s="41">
         <v>29</v>
       </c>
@@ -7514,13 +7499,13 @@
       <selection activeCell="E9" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="5.69921875" style="41" customWidth="1"/>
     <col min="3" max="3" width="79.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="37" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="37" customFormat="1" ht="21.6" thickBot="1">
       <c r="A1" s="40" t="s">
         <v>31</v>
       </c>
@@ -7532,7 +7517,7 @@
       </c>
       <c r="D1" s="39"/>
     </row>
-    <row r="2" spans="1:4" ht="52.8" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="52.8" thickTop="1">
       <c r="A2" s="41">
         <v>1</v>
       </c>
@@ -7543,7 +7528,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="104.4">
       <c r="A3" s="41">
         <v>2</v>
       </c>
@@ -7554,67 +7539,67 @@
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="A4" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4">
       <c r="A5" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4">
       <c r="A6" s="41">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4">
       <c r="A7" s="41">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4">
       <c r="A8" s="41">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4">
       <c r="A9" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4">
       <c r="A10" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4">
       <c r="A11" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4">
       <c r="A12" s="41">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4">
       <c r="A13" s="41">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4">
       <c r="A14" s="41">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4">
       <c r="A15" s="41">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4">
       <c r="A16" s="41">
         <v>15</v>
       </c>

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -1893,23 +1893,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>--지점 주소 정보 페이징(조건 설정하기 전에 모든 지점들이 출력되어야 함)
-select rownum as r, a.branch_name, a.address_dong, a.address_detail
- from (select rownum as rnum, branch_name, address_dong, address_detail
- from (select branch_name, address_dong, address_detail
-            from branches)
-                   where rownum &lt;=(select count(rownum) from branches)) a
-                    where a.rnum &gt;0 ;
---회원가입 시 주소 정보 페이징: 시/도, 군/구가 선택되었을 때 동과 상세 주소가 나와야 함; addresses 테이블이 없어서 당장 테스트는 불가.
-select rownum as r, a.address_dong, a.address_detail
-from (select rownum as rnum, b.address_dong, .address_detail
-from (select address_dong, address_detail from addresses where address_city=? and address_gu=?) b
-where rownum &lt;=(select count(rownum) from addresses where address_city=? and address_gu=?)) a
-where a.rnum &gt;? ;
-#태훈오빠 명치 쎄게 맞을 준비하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>insert into staffs(staff_seq, staff_id, branch_seq, bank_name, account_num, resume_file, health_file, bank_file) values(staff_seq.nextval, ?, ?, ?, ?, ?, ?, ?);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1988,6 +1971,22 @@
 and a.branch_seq=b.branch_seq
 </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--지점 주소 정보 페이징(조건 설정하기 전에 모든 지점들이 출력되어야 함)
+select rownum as r, a.branch_name, a.address_dong, a.address_detail
+ from (select rownum as rnum, branch_name, address_dong, address_detail
+ from (select branch_name, address_dong, address_detail
+            from head_branches)
+                   where rownum &lt;=(select count(rownum) from branches)) a
+                    where a.rnum &gt;0 ;
+--회원가입 시 주소 정보 페이징: 시/도, 군/구가 선택되었을 때 동과 상세 주소가 나와야 함
+select rownum as r, a.address_dong, a.address_detail
+from (select rownum as rnum, b.address_dong, b.address_detail
+from (select address_dong, address_detail from head_branches where address_city=? and address_gu=?) b
+where rownum &lt;=(select count(rownum) from head_branches where address_city=? and address_gu=?)) a
+where a.rnum &gt;? ;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2072,7 +2071,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2142,12 +2141,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC99FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2267,7 +2260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2601,23 +2594,20 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3415,11 +3405,11 @@
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5439,8 +5429,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F147" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H147" sqref="H147"/>
+    <sheetView tabSelected="1" topLeftCell="F107" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -5461,11 +5451,11 @@
       <c r="B1" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="116" t="s">
         <v>289</v>
       </c>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
       <c r="F1" s="58" t="s">
         <v>290</v>
       </c>
@@ -6751,7 +6741,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="261">
+    <row r="112" spans="1:6" ht="243.6">
       <c r="A112" s="43">
         <v>111</v>
       </c>
@@ -6761,8 +6751,8 @@
         <v>330</v>
       </c>
       <c r="E112" s="94"/>
-      <c r="F112" s="116" t="s">
-        <v>401</v>
+      <c r="F112" s="96" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6776,7 +6766,7 @@
       <c r="D113" s="80"/>
       <c r="E113" s="63"/>
       <c r="F113" s="54" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6880,7 +6870,7 @@
       </c>
       <c r="E123" s="85"/>
       <c r="F123" s="82" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6908,7 +6898,7 @@
         <v>144</v>
       </c>
       <c r="F125" s="82" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6941,7 +6931,7 @@
       <c r="C129" s="105"/>
       <c r="D129" s="102"/>
       <c r="E129" s="103" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F129" s="106" t="s">
         <v>362</v>
@@ -6953,7 +6943,7 @@
       <c r="C130" s="105"/>
       <c r="D130" s="102"/>
       <c r="E130" s="103" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F130" s="106" t="s">
         <v>363</v>
@@ -6967,10 +6957,10 @@
       <c r="C131" s="105"/>
       <c r="D131" s="102"/>
       <c r="E131" s="103" t="s">
+        <v>406</v>
+      </c>
+      <c r="F131" s="104" t="s">
         <v>407</v>
-      </c>
-      <c r="F131" s="104" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -7024,7 +7014,7 @@
       <c r="C137" s="83"/>
       <c r="D137" s="84"/>
       <c r="E137" s="85" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F137" s="82" t="s">
         <v>371</v>
@@ -7085,7 +7075,7 @@
       </c>
       <c r="E142" s="94"/>
       <c r="F142" s="95" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -7099,7 +7089,7 @@
         <v>336</v>
       </c>
       <c r="F143" s="95" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -7238,7 +7228,7 @@
       </c>
       <c r="E158" s="85"/>
       <c r="F158" s="86" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="159" spans="1:6">

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{157F7DF6-D61E-4314-87C6-93113C49263F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="진행일정" sheetId="3" r:id="rId1"/>
@@ -19,9 +20,9 @@
     <sheet name="발표컨텐츠" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SQL!$B$1:$B$162</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SQL!$F$1:$F$163</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="415">
   <si>
     <t>업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1702,14 +1703,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select count(user_id) from users where user_id = ?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select count(phone_num) from users where phone_num= ? ;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>update users set pw=? where user_id=?;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1733,10 +1726,6 @@
   </si>
   <si>
     <t>선택한 지역의 지점 목록 보기 + 페이징</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update users set email=?, address_city=?, address_gu=?, address_dong=?, phone_num=? where user_id=?;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1868,15 +1857,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( ?, ?, ?, ?, ?, ?, ?, ?, ?, ?, 1, ? );
-* 유의사항 : status가 1이면 가입상태, 0이면 탈퇴상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select count(phone_num) from users where phone_num=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>insert into admins(admin_seq, admin_id, branch_seq) values(admin_seq.nextval, ?, (select branch_seq from branches where branch_name=?));</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1894,14 +1874,6 @@
   </si>
   <si>
     <t>insert into staffs(staff_seq, staff_id, branch_seq, bank_name, account_num, resume_file, health_file, bank_file) values(staff_seq.nextval, ?, ?, ?, ?, ?, ?, ?);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select count(pw) from users where user_id=? and pw=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select name, birth, address_city, address_gu, address_dong, phone_num, profile_photo from users where user_id=? ;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1989,15 +1961,52 @@
 where a.rnum &gt;? ;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( ?, ?, ?, ?, ?, ?, ?, ?, ?, ?, 1, ? );
+* 유의사항 : status가 1이면 가입상태, 0이면 탈퇴상태/UI바꾸기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select phone_num from users where phone_num=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select user_id from users where user_id = ?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select phone_num from users where phone_num= ? ;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select pw from users where user_id=? and pw=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update users set birth=?, email=?, address_city=?, address_gu=?, address_dong=?, phone_num=?, profile_photo=? where user_id=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select name, birth, email, address_city||' '||address_gu||' '||address_dong as address, phone_num, profile_photo from users where user_id=? ;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update users set status=0 where user_id=? And pw=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-412]m&quot;월&quot;\ d&quot;일&quot;\ dddd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2615,7 +2624,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2934,7 +2943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H48"/>
   <sheetViews>
@@ -2943,19 +2952,19 @@
       <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="36"/>
-    <col min="2" max="2" width="16.09765625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="31.09765625" customWidth="1"/>
-    <col min="4" max="4" width="31.19921875" customWidth="1"/>
-    <col min="5" max="5" width="34.69921875" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="36"/>
+    <col min="2" max="2" width="16.125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="31.125" customWidth="1"/>
+    <col min="4" max="4" width="31.25" customWidth="1"/>
+    <col min="5" max="5" width="34.75" customWidth="1"/>
     <col min="6" max="6" width="31.5" customWidth="1"/>
-    <col min="7" max="7" width="34.59765625" customWidth="1"/>
-    <col min="8" max="8" width="31.59765625" customWidth="1"/>
+    <col min="7" max="7" width="34.625" customWidth="1"/>
+    <col min="8" max="8" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="21.6" thickBot="1">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
         <v>215</v>
       </c>
@@ -2981,7 +2990,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" thickTop="1">
+    <row r="2" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="17">
         <v>43214</v>
       </c>
@@ -2989,19 +2998,19 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="17">
         <v>43215</v>
       </c>
       <c r="C3" s="15"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="17">
         <v>43216</v>
       </c>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="17">
         <v>43217</v>
       </c>
@@ -3009,31 +3018,31 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="18">
         <v>43218</v>
       </c>
       <c r="C6" s="15"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="18">
         <v>43219</v>
       </c>
       <c r="C7" s="15"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="17">
         <v>43220</v>
       </c>
       <c r="C8" s="15"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="17">
         <v>43221</v>
       </c>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="17">
         <v>43222</v>
       </c>
@@ -3041,7 +3050,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="17">
         <v>43223</v>
       </c>
@@ -3049,7 +3058,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="17">
         <v>43224</v>
       </c>
@@ -3057,31 +3066,31 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="18">
         <v>43225</v>
       </c>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="18">
         <v>43226</v>
       </c>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="18">
         <v>43227</v>
       </c>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="17">
         <v>43228</v>
       </c>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="33">
         <v>43229</v>
       </c>
@@ -3092,7 +3101,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="87">
+    <row r="18" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B18" s="32">
         <v>43230</v>
       </c>
@@ -3115,7 +3124,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="87">
+    <row r="19" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B19" s="32">
         <v>43231</v>
       </c>
@@ -3138,24 +3147,24 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" s="18">
         <v>43232</v>
       </c>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" s="18">
         <v>43233</v>
       </c>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:8" ht="69.599999999999994">
+    <row r="22" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="B22" s="19">
         <v>43234</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>283</v>
@@ -3173,38 +3182,38 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="87">
+    <row r="23" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B23" s="19">
         <v>43235</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B24" s="19">
         <v>43236</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="36" t="s">
         <v>209</v>
       </c>
@@ -3213,7 +3222,7 @@
       </c>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="36" t="s">
         <v>209</v>
       </c>
@@ -3222,19 +3231,19 @@
       </c>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" s="18">
         <v>43239</v>
       </c>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" s="18">
         <v>43240</v>
       </c>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="36" t="s">
         <v>210</v>
       </c>
@@ -3243,7 +3252,7 @@
       </c>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="36" t="s">
         <v>211</v>
       </c>
@@ -3252,37 +3261,37 @@
       </c>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" s="19">
         <v>43243</v>
       </c>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" s="19">
         <v>43244</v>
       </c>
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" s="19">
         <v>43245</v>
       </c>
       <c r="C33" s="15"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" s="18">
         <v>43246</v>
       </c>
       <c r="C34" s="15"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B35" s="18">
         <v>43247</v>
       </c>
       <c r="C35" s="15"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36" s="19">
         <v>43248</v>
       </c>
@@ -3290,13 +3299,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B37" s="19">
         <v>43249</v>
       </c>
       <c r="C37" s="15"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B38" s="19">
         <v>43250</v>
       </c>
@@ -3304,7 +3313,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="36" t="s">
         <v>209</v>
       </c>
@@ -3313,31 +3322,31 @@
       </c>
       <c r="C39" s="15"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B40" s="17">
         <v>43252</v>
       </c>
       <c r="C40" s="15"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B41" s="18">
         <v>43253</v>
       </c>
       <c r="C41" s="15"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" s="18">
         <v>43254</v>
       </c>
       <c r="C42" s="15"/>
     </row>
-    <row r="43" spans="1:3" ht="18" thickBot="1">
+    <row r="43" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="19">
         <v>43255</v>
       </c>
       <c r="C43" s="15"/>
     </row>
-    <row r="44" spans="1:3" ht="18" thickBot="1">
+    <row r="44" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="20">
         <v>43256</v>
       </c>
@@ -3345,19 +3354,19 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B45" s="18">
         <v>43257</v>
       </c>
       <c r="C45" s="15"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B46" s="19">
         <v>43258</v>
       </c>
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B47" s="19">
         <v>43259</v>
       </c>
@@ -3365,7 +3374,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B48" s="17"/>
       <c r="C48" s="15"/>
     </row>
@@ -3377,7 +3386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K155"/>
   <sheetViews>
@@ -3386,22 +3395,22 @@
       <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" customWidth="1"/>
-    <col min="2" max="2" width="6.8984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="50.69921875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="23.19921875" customWidth="1"/>
-    <col min="6" max="6" width="19.59765625" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="50.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="11.69921875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.69921875" style="7"/>
+    <col min="9" max="9" width="11.625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="8" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="21.6" thickBot="1">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -3432,7 +3441,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" thickTop="1">
+    <row r="2" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -3450,7 +3459,7 @@
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -3466,7 +3475,7 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -3490,7 +3499,7 @@
       </c>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="34.799999999999997">
+    <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -3514,7 +3523,7 @@
       </c>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -3530,7 +3539,7 @@
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -3546,7 +3555,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -3562,7 +3571,7 @@
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -3578,7 +3587,7 @@
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -3594,7 +3603,7 @@
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="34.799999999999997">
+    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -3620,7 +3629,7 @@
       </c>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -3631,7 +3640,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -3647,7 +3656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -3663,7 +3672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -3678,7 +3687,7 @@
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="16" spans="1:11" ht="34.799999999999997">
+    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -3701,7 +3710,7 @@
       </c>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -3716,7 +3725,7 @@
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -3739,7 +3748,7 @@
       </c>
       <c r="J18" s="22"/>
     </row>
-    <row r="19" spans="1:10" ht="52.2">
+    <row r="19" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -3762,7 +3771,7 @@
       </c>
       <c r="J19" s="22"/>
     </row>
-    <row r="20" spans="1:10" ht="52.2">
+    <row r="20" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -3785,7 +3794,7 @@
       </c>
       <c r="J20" s="22"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -3800,7 +3809,7 @@
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -3815,7 +3824,7 @@
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -3830,7 +3839,7 @@
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -3855,7 +3864,7 @@
       </c>
       <c r="J24" s="55"/>
     </row>
-    <row r="25" spans="1:10" ht="52.2">
+    <row r="25" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -3878,7 +3887,7 @@
       </c>
       <c r="J25" s="55"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -3893,7 +3902,7 @@
       <c r="I26" s="55"/>
       <c r="J26" s="55"/>
     </row>
-    <row r="27" spans="1:10" ht="34.799999999999997">
+    <row r="27" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -3919,7 +3928,7 @@
       </c>
       <c r="J27" s="28"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -3935,7 +3944,7 @@
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -3951,7 +3960,7 @@
       <c r="I29" s="57"/>
       <c r="J29" s="57"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -3969,7 +3978,7 @@
       <c r="I30" s="57"/>
       <c r="J30" s="57"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -3987,7 +3996,7 @@
       <c r="I31" s="57"/>
       <c r="J31" s="57"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -4003,7 +4012,7 @@
       <c r="I32" s="28"/>
       <c r="J32" s="28"/>
     </row>
-    <row r="33" spans="1:10" ht="34.799999999999997">
+    <row r="33" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -4027,7 +4036,7 @@
       </c>
       <c r="J33" s="28"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -4043,7 +4052,7 @@
       <c r="I34" s="28"/>
       <c r="J34" s="28"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -4067,7 +4076,7 @@
       </c>
       <c r="J35" s="28"/>
     </row>
-    <row r="36" spans="1:10" ht="52.2">
+    <row r="36" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -4091,7 +4100,7 @@
       </c>
       <c r="J36" s="28"/>
     </row>
-    <row r="37" spans="1:10" ht="52.2">
+    <row r="37" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -4115,7 +4124,7 @@
       </c>
       <c r="J37" s="28"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -4131,7 +4140,7 @@
       <c r="I38" s="28"/>
       <c r="J38" s="28"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -4147,7 +4156,7 @@
       <c r="I39" s="28"/>
       <c r="J39" s="28"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -4163,7 +4172,7 @@
       <c r="I40" s="28"/>
       <c r="J40" s="28"/>
     </row>
-    <row r="41" spans="1:10" ht="34.799999999999997">
+    <row r="41" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -4189,7 +4198,7 @@
       </c>
       <c r="J41" s="28"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -4213,7 +4222,7 @@
       </c>
       <c r="J42" s="55"/>
     </row>
-    <row r="43" spans="1:10" ht="52.2">
+    <row r="43" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -4237,7 +4246,7 @@
       </c>
       <c r="J43" s="55"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -4253,7 +4262,7 @@
       <c r="I44" s="28"/>
       <c r="J44" s="28"/>
     </row>
-    <row r="45" spans="1:10" ht="34.799999999999997">
+    <row r="45" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -4279,7 +4288,7 @@
       </c>
       <c r="J45" s="28"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -4295,7 +4304,7 @@
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -4313,7 +4322,7 @@
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
     </row>
-    <row r="48" spans="1:10" ht="52.2">
+    <row r="48" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -4337,7 +4346,7 @@
       </c>
       <c r="J48" s="22"/>
     </row>
-    <row r="49" spans="1:10" ht="52.2">
+    <row r="49" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -4361,7 +4370,7 @@
       </c>
       <c r="J49" s="22"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4372,7 +4381,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4386,7 +4395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4397,7 +4406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4408,7 +4417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4422,7 +4431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4433,7 +4442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4447,7 +4456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4461,7 +4470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4478,7 +4487,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4486,7 +4495,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4494,7 +4503,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4505,7 +4514,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4516,7 +4525,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4530,7 +4539,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4538,7 +4547,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4549,7 +4558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4557,7 +4566,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4565,7 +4574,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4579,7 +4588,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4590,7 +4599,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4598,7 +4607,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4609,7 +4618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4617,7 +4626,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4625,7 +4634,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4633,7 +4642,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4641,7 +4650,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4649,7 +4658,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4657,7 +4666,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4665,7 +4674,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4673,7 +4682,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4681,7 +4690,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4689,7 +4698,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4697,7 +4706,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4708,7 +4717,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4719,7 +4728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4727,7 +4736,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4735,7 +4744,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4743,7 +4752,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4751,7 +4760,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4762,7 +4771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4773,7 +4782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4781,7 +4790,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4792,7 +4801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4803,7 +4812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4811,7 +4820,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4819,7 +4828,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4827,7 +4836,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4838,7 +4847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4852,7 +4861,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4860,7 +4869,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4868,7 +4877,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4879,7 +4888,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4893,7 +4902,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4901,7 +4910,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4912,7 +4921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4923,7 +4932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4937,7 +4946,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4951,7 +4960,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4962,7 +4971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4973,7 +4982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4984,7 +4993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4995,7 +5004,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5003,7 +5012,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5011,7 +5020,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5022,7 +5031,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5030,7 +5039,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5041,7 +5050,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5052,7 +5061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5066,7 +5075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5074,7 +5083,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5082,7 +5091,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5090,7 +5099,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5098,7 +5107,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5106,7 +5115,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5114,7 +5123,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5122,7 +5131,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5130,7 +5139,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5138,7 +5147,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5149,7 +5158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5157,7 +5166,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5168,7 +5177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5179,7 +5188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5187,7 +5196,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5195,7 +5204,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5209,7 +5218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5220,7 +5229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5228,7 +5237,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5236,7 +5245,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5244,7 +5253,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5252,7 +5261,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5260,7 +5269,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5268,7 +5277,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5282,7 +5291,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5293,7 +5302,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5301,7 +5310,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5309,7 +5318,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5317,7 +5326,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5325,7 +5334,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5333,7 +5342,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5344,7 +5353,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5355,7 +5364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5366,7 +5375,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5383,7 +5392,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5397,7 +5406,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5408,7 +5417,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H155">
         <f>COUNTA(H2:H154)</f>
         <v>61</v>
@@ -5425,26 +5434,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:G162"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F107" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" customWidth="1"/>
-    <col min="2" max="2" width="10.19921875" style="47" customWidth="1"/>
-    <col min="3" max="3" width="6.69921875" style="70" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" style="75" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="47" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="70" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="75" customWidth="1"/>
     <col min="5" max="5" width="62.5" style="64" customWidth="1"/>
     <col min="6" max="6" width="179" customWidth="1"/>
     <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="58" customFormat="1" ht="21.6" thickBot="1">
+    <row r="1" spans="1:7" s="58" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
         <v>288</v>
       </c>
@@ -5460,10 +5469,10 @@
         <v>290</v>
       </c>
       <c r="G1" s="58" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" thickTop="1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -5472,10 +5481,10 @@
         <v>46</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -5485,10 +5494,10 @@
         <v>202</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -5504,10 +5513,10 @@
         <v>351</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="69.599999999999994">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -5523,10 +5532,10 @@
         <v>352</v>
       </c>
       <c r="G5" s="85" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -5534,10 +5543,10 @@
         <v>150</v>
       </c>
       <c r="G6" s="91" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -5545,10 +5554,10 @@
         <v>154</v>
       </c>
       <c r="G7" s="95" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -5556,10 +5565,10 @@
         <v>147</v>
       </c>
       <c r="G8" s="106" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -5567,10 +5576,10 @@
         <v>292</v>
       </c>
       <c r="G9" s="115" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -5578,7 +5587,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="109.2" customHeight="1">
+    <row r="11" spans="1:7" ht="109.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -5594,7 +5603,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -5602,7 +5611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -5616,7 +5625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -5630,7 +5639,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -5642,7 +5651,7 @@
       <c r="E15" s="66"/>
       <c r="F15" s="43"/>
     </row>
-    <row r="16" spans="1:7" ht="69.599999999999994">
+    <row r="16" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -5658,7 +5667,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -5670,7 +5679,7 @@
       <c r="E17" s="66"/>
       <c r="F17" s="43"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -5686,7 +5695,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="34.799999999999997">
+    <row r="19" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -5702,7 +5711,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="34.799999999999997">
+    <row r="20" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -5718,7 +5727,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -5726,7 +5735,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -5734,7 +5743,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -5742,7 +5751,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -5758,7 +5767,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -5771,10 +5780,10 @@
       </c>
       <c r="E25" s="63"/>
       <c r="F25" s="52" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -5782,7 +5791,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="174">
+    <row r="27" spans="1:6" ht="165" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -5798,7 +5807,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -5807,7 +5816,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -5815,7 +5824,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -5826,7 +5835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -5837,7 +5846,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -5849,7 +5858,7 @@
       <c r="E32" s="66"/>
       <c r="F32" s="43"/>
     </row>
-    <row r="33" spans="1:6" ht="69.599999999999994">
+    <row r="33" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -5865,7 +5874,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -5873,7 +5882,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -5889,7 +5898,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="34.799999999999997">
+    <row r="36" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -5905,7 +5914,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="34.799999999999997">
+    <row r="37" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -5921,7 +5930,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -5929,7 +5938,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -5943,7 +5952,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -5951,7 +5960,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -5967,7 +5976,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -5983,7 +5992,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -5996,10 +6005,10 @@
       </c>
       <c r="E43" s="63"/>
       <c r="F43" s="52" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -6007,7 +6016,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -6020,10 +6029,10 @@
       <c r="D45" s="76"/>
       <c r="E45" s="65"/>
       <c r="F45" s="29" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -6031,7 +6040,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -6043,7 +6052,7 @@
       <c r="E47" s="66"/>
       <c r="F47" s="43"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -6055,7 +6064,7 @@
       <c r="E48" s="66"/>
       <c r="F48" s="49"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -6071,7 +6080,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="34.799999999999997">
+    <row r="50" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>49</v>
       </c>
@@ -6087,7 +6096,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="34.799999999999997">
+    <row r="51" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>50</v>
       </c>
@@ -6103,7 +6112,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <v>51</v>
       </c>
@@ -6115,7 +6124,7 @@
       <c r="E52" s="66"/>
       <c r="F52" s="49"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <v>52</v>
       </c>
@@ -6131,7 +6140,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="34.799999999999997">
+    <row r="54" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <v>53</v>
       </c>
@@ -6147,7 +6156,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="34.799999999999997">
+    <row r="55" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
         <v>54</v>
       </c>
@@ -6163,7 +6172,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="34.799999999999997">
+    <row r="56" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A56" s="43">
         <v>55</v>
       </c>
@@ -6174,10 +6183,10 @@
       <c r="D56" s="78"/>
       <c r="E56" s="66"/>
       <c r="F56" s="108" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="43">
         <v>56</v>
       </c>
@@ -6188,10 +6197,10 @@
       </c>
       <c r="E57" s="63"/>
       <c r="F57" s="52" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="43">
         <v>57</v>
       </c>
@@ -6205,7 +6214,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="43">
         <v>58</v>
       </c>
@@ -6216,10 +6225,10 @@
         <v>317</v>
       </c>
       <c r="F59" s="52" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="43">
         <v>59</v>
       </c>
@@ -6230,10 +6239,10 @@
       </c>
       <c r="E60" s="63"/>
       <c r="F60" s="63" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="43">
         <v>60</v>
       </c>
@@ -6247,7 +6256,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="34.799999999999997">
+    <row r="62" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="43">
         <v>61</v>
       </c>
@@ -6258,10 +6267,10 @@
       </c>
       <c r="E62" s="63"/>
       <c r="F62" s="109" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="43">
         <v>62</v>
       </c>
@@ -6272,10 +6281,10 @@
       </c>
       <c r="E63" s="63"/>
       <c r="F63" s="52" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="43">
         <v>63</v>
       </c>
@@ -6286,10 +6295,10 @@
       <c r="D64" s="84"/>
       <c r="E64" s="85"/>
       <c r="F64" s="82" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="43">
         <v>64</v>
       </c>
@@ -6297,7 +6306,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="43">
         <v>65</v>
       </c>
@@ -6305,7 +6314,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="43">
         <v>66</v>
       </c>
@@ -6313,7 +6322,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="43">
         <v>67</v>
       </c>
@@ -6321,7 +6330,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="34.799999999999997">
+    <row r="69" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A69" s="43">
         <v>68</v>
       </c>
@@ -6332,10 +6341,10 @@
       <c r="D69" s="84"/>
       <c r="E69" s="85"/>
       <c r="F69" s="110" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="43">
         <v>69</v>
       </c>
@@ -6343,7 +6352,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="43">
         <v>70</v>
       </c>
@@ -6354,10 +6363,10 @@
       </c>
       <c r="E71" s="85"/>
       <c r="F71" s="82" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="43">
         <v>71</v>
       </c>
@@ -6365,7 +6374,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="43">
         <v>72</v>
       </c>
@@ -6373,7 +6382,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="43">
         <v>73</v>
       </c>
@@ -6384,7 +6393,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="43">
         <v>74</v>
       </c>
@@ -6392,7 +6401,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="43">
         <v>75</v>
       </c>
@@ -6400,7 +6409,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="43">
         <v>76</v>
       </c>
@@ -6411,10 +6420,10 @@
       </c>
       <c r="E77" s="85"/>
       <c r="F77" s="82" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="43">
         <v>77</v>
       </c>
@@ -6422,7 +6431,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="43">
         <v>78</v>
       </c>
@@ -6430,7 +6439,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="43">
         <v>79</v>
       </c>
@@ -6438,7 +6447,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="43">
         <v>80</v>
       </c>
@@ -6446,7 +6455,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="43">
         <v>81</v>
       </c>
@@ -6454,7 +6463,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="43">
         <v>82</v>
       </c>
@@ -6462,7 +6471,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="43">
         <v>83</v>
       </c>
@@ -6470,7 +6479,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="43">
         <v>84</v>
       </c>
@@ -6478,7 +6487,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="43">
         <v>85</v>
       </c>
@@ -6486,7 +6495,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="43">
         <v>86</v>
       </c>
@@ -6494,7 +6503,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="43">
         <v>87</v>
       </c>
@@ -6502,7 +6511,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="43">
         <v>88</v>
       </c>
@@ -6510,7 +6519,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="43">
         <v>89</v>
       </c>
@@ -6519,7 +6528,7 @@
       </c>
       <c r="F90" s="64"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="43">
         <v>90</v>
       </c>
@@ -6527,7 +6536,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="43">
         <v>91</v>
       </c>
@@ -6540,10 +6549,10 @@
         <v>319</v>
       </c>
       <c r="F92" s="82" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="43">
         <v>92</v>
       </c>
@@ -6552,7 +6561,7 @@
       </c>
       <c r="F93" s="64"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="43">
         <v>93</v>
       </c>
@@ -6560,7 +6569,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="43">
         <v>94</v>
       </c>
@@ -6571,7 +6580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="43">
         <v>95</v>
       </c>
@@ -6582,10 +6591,10 @@
       </c>
       <c r="E96" s="85"/>
       <c r="F96" s="82" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="43">
         <v>96</v>
       </c>
@@ -6593,7 +6602,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="43">
         <v>97</v>
       </c>
@@ -6604,10 +6613,10 @@
         <v>84</v>
       </c>
       <c r="F98" s="82" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="43">
         <v>98</v>
       </c>
@@ -6618,10 +6627,10 @@
         <v>85</v>
       </c>
       <c r="F99" s="82" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="43">
         <v>99</v>
       </c>
@@ -6629,7 +6638,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="43">
         <v>100</v>
       </c>
@@ -6637,7 +6646,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="43">
         <v>101</v>
       </c>
@@ -6645,7 +6654,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="43">
         <v>102</v>
       </c>
@@ -6656,7 +6665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="43">
         <v>103</v>
       </c>
@@ -6667,7 +6676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="43">
         <v>104</v>
       </c>
@@ -6675,7 +6684,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="43">
         <v>105</v>
       </c>
@@ -6683,588 +6692,606 @@
         <v>67</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="43">
         <v>106</v>
       </c>
-      <c r="C107" s="70" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="B107" s="100"/>
+      <c r="C107" s="83" t="s">
+        <v>413</v>
+      </c>
+      <c r="D107" s="84"/>
+      <c r="E107" s="85"/>
+      <c r="F107" s="82" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="43">
         <v>107</v>
       </c>
-      <c r="B108" s="99"/>
-      <c r="C108" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="D108" s="88"/>
-      <c r="E108" s="89"/>
-      <c r="F108" s="90" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="C108" s="70" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="43">
         <v>108</v>
       </c>
-      <c r="D109" s="75" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="B109" s="99"/>
+      <c r="C109" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="D109" s="88"/>
+      <c r="E109" s="89"/>
+      <c r="F109" s="90" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="43">
         <v>109</v>
       </c>
-      <c r="B110" s="97"/>
-      <c r="C110" s="92"/>
-      <c r="D110" s="93" t="s">
-        <v>89</v>
-      </c>
-      <c r="E110" s="94"/>
-      <c r="F110" s="95" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="D110" s="75" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="43">
         <v>110</v>
       </c>
-      <c r="B111" s="111"/>
-      <c r="C111" s="112"/>
-      <c r="D111" s="113" t="s">
-        <v>90</v>
-      </c>
-      <c r="E111" s="114"/>
-      <c r="F111" s="115" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="243.6">
+      <c r="B111" s="97"/>
+      <c r="C111" s="92"/>
+      <c r="D111" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="E111" s="94"/>
+      <c r="F111" s="95" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="43">
         <v>111</v>
       </c>
-      <c r="B112" s="97"/>
-      <c r="C112" s="92"/>
-      <c r="D112" s="93" t="s">
-        <v>330</v>
-      </c>
-      <c r="E112" s="94"/>
-      <c r="F112" s="96" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="B112" s="111"/>
+      <c r="C112" s="112"/>
+      <c r="D112" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="E112" s="114"/>
+      <c r="F112" s="115" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="231" x14ac:dyDescent="0.3">
       <c r="A113" s="43">
         <v>112</v>
       </c>
-      <c r="B113" s="53"/>
-      <c r="C113" s="73" t="s">
+      <c r="B113" s="97"/>
+      <c r="C113" s="92"/>
+      <c r="D113" s="93" t="s">
+        <v>330</v>
+      </c>
+      <c r="E113" s="94"/>
+      <c r="F113" s="96" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="43">
+        <v>113</v>
+      </c>
+      <c r="B114" s="53"/>
+      <c r="C114" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="D113" s="80"/>
-      <c r="E113" s="63"/>
-      <c r="F113" s="54" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="43">
+      <c r="D114" s="80"/>
+      <c r="E114" s="63"/>
+      <c r="F114" s="54" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="43">
         <v>114</v>
-      </c>
-      <c r="B114" s="107"/>
-      <c r="C114" s="105"/>
-      <c r="D114" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="E114" s="103"/>
-      <c r="F114" s="106" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="43">
-        <v>115</v>
       </c>
       <c r="B115" s="107"/>
       <c r="C115" s="105"/>
       <c r="D115" s="102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E115" s="103"/>
       <c r="F115" s="106" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="43">
+        <v>115</v>
+      </c>
+      <c r="B116" s="107"/>
+      <c r="C116" s="105"/>
+      <c r="D116" s="102" t="s">
+        <v>102</v>
+      </c>
+      <c r="E116" s="103"/>
+      <c r="F116" s="106" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A117" s="43">
+        <v>116</v>
+      </c>
+      <c r="B117" s="97"/>
+      <c r="C117" s="92"/>
+      <c r="D117" s="98" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="52.2">
-      <c r="A116" s="43">
-        <v>116</v>
-      </c>
-      <c r="B116" s="97"/>
-      <c r="C116" s="92"/>
-      <c r="D116" s="98" t="s">
-        <v>365</v>
-      </c>
-      <c r="E116" s="94"/>
-      <c r="F116" s="96" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="43">
+      <c r="E117" s="94"/>
+      <c r="F117" s="96" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="43">
         <v>117</v>
       </c>
-      <c r="D117" s="75" t="s">
+      <c r="D118" s="75" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="43">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="43">
         <v>118</v>
       </c>
-      <c r="D118" s="75" t="s">
+      <c r="D119" s="75" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="43">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="43">
         <v>119</v>
       </c>
-      <c r="D119" s="75" t="s">
+      <c r="D120" s="75" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="43">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="43">
         <v>120</v>
       </c>
-      <c r="D120" s="75" t="s">
+      <c r="D121" s="75" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="43">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="43">
         <v>121</v>
       </c>
-      <c r="D121" s="75" t="s">
+      <c r="D122" s="75" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="43">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="43">
         <v>122</v>
       </c>
-      <c r="C122" s="70" t="s">
+      <c r="C123" s="70" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="43">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="43">
         <v>123</v>
-      </c>
-      <c r="B123" s="100"/>
-      <c r="C123" s="83"/>
-      <c r="D123" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E123" s="85"/>
-      <c r="F123" s="82" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="43">
-        <v>124</v>
       </c>
       <c r="B124" s="100"/>
       <c r="C124" s="83"/>
       <c r="D124" s="84" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E124" s="85"/>
       <c r="F124" s="82" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="43">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125" s="100"/>
       <c r="C125" s="83"/>
-      <c r="D125" s="84"/>
-      <c r="E125" s="85" t="s">
+      <c r="D125" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="E125" s="85"/>
+      <c r="F125" s="82" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="43">
+        <v>125</v>
+      </c>
+      <c r="B126" s="100"/>
+      <c r="C126" s="83"/>
+      <c r="D126" s="84"/>
+      <c r="E126" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="F125" s="82" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="43">
+      <c r="F126" s="82" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="43">
         <v>126</v>
       </c>
-      <c r="E126" s="64" t="s">
+      <c r="E127" s="64" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="43">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="43">
         <v>127</v>
       </c>
-      <c r="E127" s="64" t="s">
+      <c r="E128" s="64" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="43">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="43">
         <v>128</v>
       </c>
-      <c r="E128" s="64" t="s">
+      <c r="E129" s="64" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="43"/>
-      <c r="B129" s="107"/>
-      <c r="C129" s="105"/>
-      <c r="D129" s="102"/>
-      <c r="E129" s="103" t="s">
-        <v>404</v>
-      </c>
-      <c r="F129" s="106" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="43"/>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="43">
+        <v>129</v>
+      </c>
       <c r="B130" s="107"/>
       <c r="C130" s="105"/>
       <c r="D130" s="102"/>
       <c r="E130" s="103" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F130" s="106" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="43">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131" s="107"/>
       <c r="C131" s="105"/>
       <c r="D131" s="102"/>
       <c r="E131" s="103" t="s">
-        <v>406</v>
-      </c>
-      <c r="F131" s="104" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>398</v>
+      </c>
+      <c r="F131" s="106" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="43">
-        <v>130</v>
-      </c>
-      <c r="E132" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" s="107"/>
+      <c r="C132" s="105"/>
+      <c r="D132" s="102"/>
+      <c r="E132" s="103" t="s">
+        <v>399</v>
+      </c>
+      <c r="F132" s="104" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="43">
+        <v>132</v>
+      </c>
+      <c r="E133" s="64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="43">
-        <v>131</v>
-      </c>
-      <c r="E133" s="64" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="43">
+        <v>133</v>
+      </c>
+      <c r="E134" s="64" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="43">
-        <v>132</v>
-      </c>
-      <c r="E134" s="64" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="43">
+        <v>134</v>
+      </c>
+      <c r="E135" s="64" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="43">
-        <v>133</v>
-      </c>
-      <c r="E135" s="64" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="43">
+        <v>135</v>
+      </c>
+      <c r="E136" s="64" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="43">
-        <v>134</v>
-      </c>
-      <c r="E136" s="64" t="s">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="43">
+        <v>136</v>
+      </c>
+      <c r="E137" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F137" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="43">
-        <v>135</v>
-      </c>
-      <c r="B137" s="100"/>
-      <c r="C137" s="83"/>
-      <c r="D137" s="84"/>
-      <c r="E137" s="85" t="s">
-        <v>408</v>
-      </c>
-      <c r="F137" s="82" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="43">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" s="100"/>
       <c r="C138" s="83"/>
-      <c r="D138" s="84" t="s">
-        <v>105</v>
-      </c>
-      <c r="E138" s="85"/>
+      <c r="D138" s="84"/>
+      <c r="E138" s="85" t="s">
+        <v>401</v>
+      </c>
       <c r="F138" s="82" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="43">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="100"/>
       <c r="C139" s="83"/>
-      <c r="D139" s="84"/>
-      <c r="E139" s="85" t="s">
+      <c r="D139" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="E139" s="85"/>
+      <c r="F139" s="82" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="43">
+        <v>139</v>
+      </c>
+      <c r="B140" s="100"/>
+      <c r="C140" s="83"/>
+      <c r="D140" s="84"/>
+      <c r="E140" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="F139" s="82" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="43">
-        <v>138</v>
-      </c>
-      <c r="E140" s="64" t="s">
+      <c r="F140" s="82" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="43">
+        <v>140</v>
+      </c>
+      <c r="E141" s="64" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="43">
-        <v>139</v>
-      </c>
-      <c r="E141" s="64" t="s">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="43">
+        <v>141</v>
+      </c>
+      <c r="E142" s="64" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="43">
-        <v>140</v>
-      </c>
-      <c r="B142" s="97"/>
-      <c r="C142" s="92"/>
-      <c r="D142" s="93" t="s">
-        <v>335</v>
-      </c>
-      <c r="E142" s="94"/>
-      <c r="F142" s="95" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="43">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143" s="97"/>
       <c r="C143" s="92"/>
-      <c r="D143" s="93"/>
-      <c r="E143" s="94" t="s">
+      <c r="D143" s="93" t="s">
+        <v>335</v>
+      </c>
+      <c r="E143" s="94"/>
+      <c r="F143" s="95" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="43">
+        <v>143</v>
+      </c>
+      <c r="B144" s="97"/>
+      <c r="C144" s="92"/>
+      <c r="D144" s="93"/>
+      <c r="E144" s="94" t="s">
         <v>336</v>
       </c>
-      <c r="F143" s="95" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="43">
-        <v>142</v>
-      </c>
-      <c r="E144" s="64" t="s">
+      <c r="F144" s="95" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="43">
+        <v>144</v>
+      </c>
+      <c r="E145" s="64" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="43">
-        <v>143</v>
-      </c>
-      <c r="E145" s="64" t="s">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="43">
+        <v>145</v>
+      </c>
+      <c r="E146" s="64" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="43">
-        <v>144</v>
-      </c>
-      <c r="E146" s="64" t="s">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="43">
+        <v>146</v>
+      </c>
+      <c r="E147" s="64" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="43">
-        <v>145</v>
-      </c>
-      <c r="E147" s="64" t="s">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="43">
+        <v>147</v>
+      </c>
+      <c r="E148" s="64" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="43">
-        <v>146</v>
-      </c>
-      <c r="E148" s="64" t="s">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="43">
+        <v>148</v>
+      </c>
+      <c r="E149" s="64" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="43">
-        <v>147</v>
-      </c>
-      <c r="E149" s="64" t="s">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="43">
+        <v>149</v>
+      </c>
+      <c r="E150" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="F149" s="43"/>
-    </row>
-    <row r="150" spans="1:6" ht="87">
-      <c r="A150" s="43">
-        <v>148</v>
-      </c>
-      <c r="B150" s="53"/>
-      <c r="C150" s="73"/>
-      <c r="D150" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="E150" s="63"/>
-      <c r="F150" s="101" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="F150" s="43"/>
+    </row>
+    <row r="151" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A151" s="43">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" s="53"/>
       <c r="C151" s="73"/>
-      <c r="D151" s="80"/>
-      <c r="E151" s="63" t="s">
+      <c r="D151" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="E151" s="63"/>
+      <c r="F151" s="101" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="43">
+        <v>151</v>
+      </c>
+      <c r="B152" s="53"/>
+      <c r="C152" s="73"/>
+      <c r="D152" s="80"/>
+      <c r="E152" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="F151" s="63" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="43">
-        <v>150</v>
-      </c>
-      <c r="E152" s="64" t="s">
+      <c r="F152" s="63" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="43">
+        <v>152</v>
+      </c>
+      <c r="E153" s="64" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="43">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="43">
+        <v>153</v>
+      </c>
+      <c r="E154" s="64" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="43">
+        <v>154</v>
+      </c>
+      <c r="E155" s="64" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="43">
+        <v>155</v>
+      </c>
+      <c r="E156" s="64" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="43">
+        <v>156</v>
+      </c>
+      <c r="E157" s="64" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="43">
+        <v>157</v>
+      </c>
+      <c r="C158" s="70" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="247.5" x14ac:dyDescent="0.3">
+      <c r="A159" s="43">
+        <v>158</v>
+      </c>
+      <c r="B159" s="100"/>
+      <c r="C159" s="83"/>
+      <c r="D159" s="84" t="s">
+        <v>343</v>
+      </c>
+      <c r="E159" s="85"/>
+      <c r="F159" s="86" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="43">
+        <v>159</v>
+      </c>
+      <c r="D160" s="75" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="43">
+        <v>160</v>
+      </c>
+      <c r="C161" s="70" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="43">
+        <v>161</v>
+      </c>
+      <c r="C162" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="E153" s="64" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="43">
-        <v>152</v>
-      </c>
-      <c r="E154" s="64" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="43">
-        <v>153</v>
-      </c>
-      <c r="E155" s="64" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="43">
-        <v>154</v>
-      </c>
-      <c r="E156" s="64" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="43">
-        <v>155</v>
-      </c>
-      <c r="C157" s="70" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="261">
-      <c r="A158" s="43">
-        <v>156</v>
-      </c>
-      <c r="B158" s="100"/>
-      <c r="C158" s="83"/>
-      <c r="D158" s="84" t="s">
-        <v>343</v>
-      </c>
-      <c r="E158" s="85"/>
-      <c r="F158" s="86" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159" s="43">
-        <v>157</v>
-      </c>
-      <c r="D159" s="75" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="43">
-        <v>158</v>
-      </c>
-      <c r="C160" s="70" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="43">
-        <v>159</v>
-      </c>
-      <c r="C161" s="70" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="43">
-        <v>160</v>
-      </c>
-      <c r="C162" s="70" t="s">
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="43">
+        <v>162</v>
+      </c>
+      <c r="C163" s="70" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B162"/>
+  <autoFilter ref="F1:F163" xr:uid="{212E1B19-03B9-48D4-B4CF-B5F99003D090}"/>
   <mergeCells count="1">
     <mergeCell ref="C1:E1"/>
   </mergeCells>
@@ -7275,7 +7302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -7283,12 +7310,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="41" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="38" customFormat="1" ht="21.6" thickBot="1">
+    <row r="1" spans="1:3" s="38" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
         <v>234</v>
       </c>
@@ -7299,7 +7326,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" thickTop="1">
+    <row r="2" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41">
         <v>1</v>
       </c>
@@ -7310,7 +7337,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="41">
         <v>2</v>
       </c>
@@ -7321,7 +7348,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="41">
         <v>3</v>
       </c>
@@ -7329,7 +7356,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="41">
         <v>4</v>
       </c>
@@ -7340,7 +7367,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="41">
         <v>5</v>
       </c>
@@ -7348,7 +7375,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="41">
         <v>6</v>
       </c>
@@ -7359,117 +7386,117 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="41">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="41">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="41">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <v>29</v>
       </c>
@@ -7481,7 +7508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -7489,13 +7516,13 @@
       <selection activeCell="E9" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" style="41" customWidth="1"/>
-    <col min="3" max="3" width="79.8984375" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="41" customWidth="1"/>
+    <col min="3" max="3" width="79.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="37" customFormat="1" ht="21.6" thickBot="1">
+    <row r="1" spans="1:4" s="37" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
         <v>31</v>
       </c>
@@ -7507,7 +7534,7 @@
       </c>
       <c r="D1" s="39"/>
     </row>
-    <row r="2" spans="1:4" ht="52.8" thickTop="1">
+    <row r="2" spans="1:4" ht="50.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41">
         <v>1</v>
       </c>
@@ -7518,7 +7545,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="104.4">
+    <row r="3" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A3" s="41">
         <v>2</v>
       </c>
@@ -7529,67 +7556,67 @@
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="41">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="41">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="41">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>15</v>
       </c>

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{157F7DF6-D61E-4314-87C6-93113C49263F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DACDBF3B-AA1B-4F59-AF78-3869D84932BE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1905,47 +1905,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">--프로필 사진, 속한 지점, 회원인증유형, 이름 보기  
---직원
-select u.name, u.profile_photo, s.branch_seq, b.branch_name
-from users u, staffs s, branches b
-where u.user_id=?
-and u.user_id=s.staff_id
-and s.branch_seq=b.branch_seq
---점주
-select </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> u.profile_photo, b.branch_name, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">a.branch_seq, u.name, 
-from users u, admins a, branches b
-where u.user_id=?
-and u.user_id=a.admin_id
-and a.branch_seq=b.branch_seq
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>--지점 주소 정보 페이징(조건 설정하기 전에 모든 지점들이 출력되어야 함)
 select rownum as r, a.branch_name, a.address_dong, a.address_detail
  from (select rownum as rnum, branch_name, address_dong, address_detail
@@ -1998,6 +1957,23 @@
     <t>update users set status=0 where user_id=? And pw=?;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">--프로필 사진, 속한 지점, 회원인증유형, 이름 보기  
+--직원
+select u.profile_photo, b.branch_name,  u.name
+from users u, staffs s, branches b
+where u.user_id=?
+and u.user_id=s.staff_id
+and s.branch_seq=b.branch_seq
+--점주
+select u.profile_photo, b.branch_name,  u.name
+from users u, admins a, branches b
+where u.user_id=?
+and u.user_id=a.admin_id
+and a.branch_seq=b.branch_seq
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2006,7 +1982,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-412]m&quot;월&quot;\ d&quot;일&quot;\ dddd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2627,7 +2603,16 @@
     <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2948,11 +2933,11 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.75" style="36"/>
     <col min="2" max="2" width="16.125" style="21" customWidth="1"/>
@@ -2964,7 +2949,7 @@
     <col min="8" max="8" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="21" thickBot="1">
       <c r="A1" s="35" t="s">
         <v>215</v>
       </c>
@@ -2990,7 +2975,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="17.25" thickTop="1">
       <c r="B2" s="17">
         <v>43214</v>
       </c>
@@ -2998,19 +2983,19 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="B3" s="17">
         <v>43215</v>
       </c>
       <c r="C3" s="15"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="B4" s="17">
         <v>43216</v>
       </c>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="B5" s="17">
         <v>43217</v>
       </c>
@@ -3018,31 +3003,31 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="B6" s="18">
         <v>43218</v>
       </c>
       <c r="C6" s="15"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="B7" s="18">
         <v>43219</v>
       </c>
       <c r="C7" s="15"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="B8" s="17">
         <v>43220</v>
       </c>
       <c r="C8" s="15"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="B9" s="17">
         <v>43221</v>
       </c>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="B10" s="17">
         <v>43222</v>
       </c>
@@ -3050,7 +3035,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="B11" s="17">
         <v>43223</v>
       </c>
@@ -3058,7 +3043,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="B12" s="17">
         <v>43224</v>
       </c>
@@ -3066,31 +3051,31 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="B13" s="18">
         <v>43225</v>
       </c>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="B14" s="18">
         <v>43226</v>
       </c>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="B15" s="18">
         <v>43227</v>
       </c>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="B16" s="17">
         <v>43228</v>
       </c>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="B17" s="33">
         <v>43229</v>
       </c>
@@ -3101,7 +3086,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="82.5">
       <c r="B18" s="32">
         <v>43230</v>
       </c>
@@ -3124,7 +3109,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="82.5">
       <c r="B19" s="32">
         <v>43231</v>
       </c>
@@ -3147,19 +3132,19 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="B20" s="18">
         <v>43232</v>
       </c>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="B21" s="18">
         <v>43233</v>
       </c>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="66">
       <c r="B22" s="19">
         <v>43234</v>
       </c>
@@ -3182,7 +3167,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="82.5">
       <c r="B23" s="19">
         <v>43235</v>
       </c>
@@ -3205,7 +3190,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="15" t="s">
         <v>381</v>
       </c>
@@ -3213,7 +3198,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="36" t="s">
         <v>209</v>
       </c>
@@ -3222,7 +3207,7 @@
       </c>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="36" t="s">
         <v>209</v>
       </c>
@@ -3231,19 +3216,19 @@
       </c>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="B27" s="18">
         <v>43239</v>
       </c>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="B28" s="18">
         <v>43240</v>
       </c>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" s="36" t="s">
         <v>210</v>
       </c>
@@ -3252,7 +3237,7 @@
       </c>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" s="36" t="s">
         <v>211</v>
       </c>
@@ -3261,37 +3246,37 @@
       </c>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="B31" s="19">
         <v>43243</v>
       </c>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="B32" s="19">
         <v>43244</v>
       </c>
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="B33" s="19">
         <v>43245</v>
       </c>
       <c r="C33" s="15"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="B34" s="18">
         <v>43246</v>
       </c>
       <c r="C34" s="15"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="B35" s="18">
         <v>43247</v>
       </c>
       <c r="C35" s="15"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="B36" s="19">
         <v>43248</v>
       </c>
@@ -3299,13 +3284,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="B37" s="19">
         <v>43249</v>
       </c>
       <c r="C37" s="15"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="B38" s="19">
         <v>43250</v>
       </c>
@@ -3313,7 +3298,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" s="36" t="s">
         <v>209</v>
       </c>
@@ -3322,31 +3307,31 @@
       </c>
       <c r="C39" s="15"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="B40" s="17">
         <v>43252</v>
       </c>
       <c r="C40" s="15"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="B41" s="18">
         <v>43253</v>
       </c>
       <c r="C41" s="15"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="B42" s="18">
         <v>43254</v>
       </c>
       <c r="C42" s="15"/>
     </row>
-    <row r="43" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="17.25" thickBot="1">
       <c r="B43" s="19">
         <v>43255</v>
       </c>
       <c r="C43" s="15"/>
     </row>
-    <row r="44" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="17.25" thickBot="1">
       <c r="B44" s="20">
         <v>43256</v>
       </c>
@@ -3354,19 +3339,19 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="B45" s="18">
         <v>43257</v>
       </c>
       <c r="C45" s="15"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="B46" s="19">
         <v>43258</v>
       </c>
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="B47" s="19">
         <v>43259</v>
       </c>
@@ -3374,7 +3359,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="B48" s="17"/>
       <c r="C48" s="15"/>
     </row>
@@ -3395,7 +3380,7 @@
       <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="2" width="6.875" style="3" customWidth="1"/>
@@ -3410,7 +3395,7 @@
     <col min="11" max="11" width="8.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="21" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -3441,7 +3426,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="17.25" thickTop="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -3459,7 +3444,7 @@
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -3475,7 +3460,7 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -3499,7 +3484,7 @@
       </c>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="33">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -3523,7 +3508,7 @@
       </c>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -3539,7 +3524,7 @@
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -3555,7 +3540,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -3571,7 +3556,7 @@
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -3587,7 +3572,7 @@
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -3603,7 +3588,7 @@
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="33">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -3629,7 +3614,7 @@
       </c>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -3640,7 +3625,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -3656,7 +3641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -3672,7 +3657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -3687,7 +3672,7 @@
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="33">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -3710,7 +3695,7 @@
       </c>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -3725,7 +3710,7 @@
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -3748,7 +3733,7 @@
       </c>
       <c r="J18" s="22"/>
     </row>
-    <row r="19" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="49.5">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -3771,7 +3756,7 @@
       </c>
       <c r="J19" s="22"/>
     </row>
-    <row r="20" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="49.5">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -3794,7 +3779,7 @@
       </c>
       <c r="J20" s="22"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -3809,7 +3794,7 @@
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -3824,7 +3809,7 @@
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -3839,7 +3824,7 @@
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -3864,7 +3849,7 @@
       </c>
       <c r="J24" s="55"/>
     </row>
-    <row r="25" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="49.5">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -3887,7 +3872,7 @@
       </c>
       <c r="J25" s="55"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -3902,7 +3887,7 @@
       <c r="I26" s="55"/>
       <c r="J26" s="55"/>
     </row>
-    <row r="27" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="33">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -3928,7 +3913,7 @@
       </c>
       <c r="J27" s="28"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -3944,7 +3929,7 @@
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -3960,7 +3945,7 @@
       <c r="I29" s="57"/>
       <c r="J29" s="57"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -3978,7 +3963,7 @@
       <c r="I30" s="57"/>
       <c r="J30" s="57"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -3996,7 +3981,7 @@
       <c r="I31" s="57"/>
       <c r="J31" s="57"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -4012,7 +3997,7 @@
       <c r="I32" s="28"/>
       <c r="J32" s="28"/>
     </row>
-    <row r="33" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="33">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -4036,7 +4021,7 @@
       </c>
       <c r="J33" s="28"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -4052,7 +4037,7 @@
       <c r="I34" s="28"/>
       <c r="J34" s="28"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -4076,7 +4061,7 @@
       </c>
       <c r="J35" s="28"/>
     </row>
-    <row r="36" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="49.5">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -4100,7 +4085,7 @@
       </c>
       <c r="J36" s="28"/>
     </row>
-    <row r="37" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="49.5">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -4124,7 +4109,7 @@
       </c>
       <c r="J37" s="28"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -4140,7 +4125,7 @@
       <c r="I38" s="28"/>
       <c r="J38" s="28"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -4156,7 +4141,7 @@
       <c r="I39" s="28"/>
       <c r="J39" s="28"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -4172,7 +4157,7 @@
       <c r="I40" s="28"/>
       <c r="J40" s="28"/>
     </row>
-    <row r="41" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="33">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -4198,7 +4183,7 @@
       </c>
       <c r="J41" s="28"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -4222,7 +4207,7 @@
       </c>
       <c r="J42" s="55"/>
     </row>
-    <row r="43" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="49.5">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -4246,7 +4231,7 @@
       </c>
       <c r="J43" s="55"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -4262,7 +4247,7 @@
       <c r="I44" s="28"/>
       <c r="J44" s="28"/>
     </row>
-    <row r="45" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="33">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -4288,7 +4273,7 @@
       </c>
       <c r="J45" s="28"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -4304,7 +4289,7 @@
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -4322,7 +4307,7 @@
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
     </row>
-    <row r="48" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="49.5">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -4346,7 +4331,7 @@
       </c>
       <c r="J48" s="22"/>
     </row>
-    <row r="49" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="49.5">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -4370,7 +4355,7 @@
       </c>
       <c r="J49" s="22"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4381,7 +4366,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4395,7 +4380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4406,7 +4391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4417,7 +4402,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4431,7 +4416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4442,7 +4427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4456,7 +4441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4470,7 +4455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4487,7 +4472,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4495,7 +4480,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4503,7 +4488,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4514,7 +4499,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4525,7 +4510,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4539,7 +4524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4547,7 +4532,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4558,7 +4543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4566,7 +4551,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4574,7 +4559,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4588,7 +4573,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4599,7 +4584,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4607,7 +4592,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4618,7 +4603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4626,7 +4611,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4634,7 +4619,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4642,7 +4627,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4650,7 +4635,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4658,7 +4643,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4666,7 +4651,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4674,7 +4659,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4682,7 +4667,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4690,7 +4675,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4698,7 +4683,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4706,7 +4691,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4717,7 +4702,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4728,7 +4713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4736,7 +4721,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4744,7 +4729,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4752,7 +4737,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4760,7 +4745,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4771,7 +4756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4782,7 +4767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4790,7 +4775,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4801,7 +4786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4812,7 +4797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4820,7 +4805,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4828,7 +4813,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4836,7 +4821,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4847,7 +4832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4861,7 +4846,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4869,7 +4854,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4877,7 +4862,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4888,7 +4873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4902,7 +4887,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4910,7 +4895,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4921,7 +4906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4932,7 +4917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4946,7 +4931,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4960,7 +4945,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4971,7 +4956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4982,7 +4967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4993,7 +4978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5004,7 +4989,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5012,7 +4997,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5020,7 +5005,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5031,7 +5016,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5039,7 +5024,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5050,7 +5035,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5061,7 +5046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5075,7 +5060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5083,7 +5068,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5091,7 +5076,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5099,7 +5084,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5107,7 +5092,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5115,7 +5100,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5123,7 +5108,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5131,7 +5116,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5139,7 +5124,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5147,7 +5132,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5158,7 +5143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5166,7 +5151,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5177,7 +5162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5188,7 +5173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5196,7 +5181,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5204,7 +5189,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5218,7 +5203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5229,7 +5214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5237,7 +5222,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5245,7 +5230,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5253,7 +5238,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5261,7 +5246,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5269,7 +5254,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5277,7 +5262,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5291,7 +5276,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5302,7 +5287,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5310,7 +5295,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5318,7 +5303,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5326,7 +5311,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5334,7 +5319,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5342,7 +5327,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5353,7 +5338,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5364,7 +5349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5375,7 +5360,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5392,7 +5377,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5406,7 +5391,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5417,7 +5402,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11">
       <c r="H155">
         <f>COUNTA(H2:H154)</f>
         <v>61</v>
@@ -5435,14 +5420,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet6"/>
+  <sheetPr codeName="Sheet6" filterMode="1"/>
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F136" sqref="F136"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="2" width="10.25" style="47" customWidth="1"/>
@@ -5453,7 +5438,7 @@
     <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="58" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="58" customFormat="1" ht="21" thickBot="1">
       <c r="A1" s="58" t="s">
         <v>288</v>
       </c>
@@ -5472,7 +5457,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="17.25" hidden="1" thickTop="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -5484,7 +5469,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="17.25" hidden="1" thickTop="1">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -5497,7 +5482,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="17.25" hidden="1" thickTop="1">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -5516,7 +5501,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="66.75" hidden="1" thickTop="1">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -5535,7 +5520,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="17.25" hidden="1" thickTop="1">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -5546,7 +5531,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="17.25" hidden="1" thickTop="1">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -5557,7 +5542,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="17.25" hidden="1" thickTop="1">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -5568,7 +5553,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="17.25" hidden="1" thickTop="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -5579,7 +5564,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="17.25" hidden="1" thickTop="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -5587,7 +5572,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="109.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="109.15" hidden="1" customHeight="1">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -5603,7 +5588,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="17.25" hidden="1" thickTop="1">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -5611,7 +5596,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="17.25" hidden="1" thickTop="1">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -5625,7 +5610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="17.25" hidden="1" thickTop="1">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -5639,7 +5624,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="17.25" hidden="1" thickTop="1">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -5651,7 +5636,7 @@
       <c r="E15" s="66"/>
       <c r="F15" s="43"/>
     </row>
-    <row r="16" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="66.75" hidden="1" thickTop="1">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -5667,7 +5652,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -5679,7 +5664,7 @@
       <c r="E17" s="66"/>
       <c r="F17" s="43"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -5695,7 +5680,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="33.75" hidden="1" thickTop="1">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -5711,7 +5696,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="33.75" hidden="1" thickTop="1">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -5727,7 +5712,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -5735,7 +5720,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -5743,7 +5728,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -5751,7 +5736,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -5767,7 +5752,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -5783,7 +5768,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -5791,7 +5776,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="165" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="165.75" hidden="1" thickTop="1">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -5807,7 +5792,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -5816,7 +5801,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -5824,7 +5809,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -5835,7 +5820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -5846,7 +5831,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -5858,7 +5843,7 @@
       <c r="E32" s="66"/>
       <c r="F32" s="43"/>
     </row>
-    <row r="33" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="66.75" hidden="1" thickTop="1">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -5874,7 +5859,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -5882,7 +5867,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -5898,7 +5883,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="33.75" hidden="1" thickTop="1">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -5914,7 +5899,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="33.75" hidden="1" thickTop="1">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -5930,7 +5915,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -5938,7 +5923,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -5952,7 +5937,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -5960,7 +5945,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -5976,7 +5961,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -5992,7 +5977,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -6008,7 +5993,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -6016,7 +6001,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -6032,7 +6017,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -6040,7 +6025,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -6052,7 +6037,7 @@
       <c r="E47" s="66"/>
       <c r="F47" s="43"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -6064,7 +6049,7 @@
       <c r="E48" s="66"/>
       <c r="F48" s="49"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -6080,7 +6065,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="33.75" hidden="1" thickTop="1">
       <c r="A50" s="14">
         <v>49</v>
       </c>
@@ -6096,7 +6081,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="33.75" hidden="1" thickTop="1">
       <c r="A51" s="14">
         <v>50</v>
       </c>
@@ -6112,7 +6097,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A52" s="14">
         <v>51</v>
       </c>
@@ -6124,7 +6109,7 @@
       <c r="E52" s="66"/>
       <c r="F52" s="49"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A53" s="14">
         <v>52</v>
       </c>
@@ -6140,7 +6125,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="33.75" hidden="1" thickTop="1">
       <c r="A54" s="14">
         <v>53</v>
       </c>
@@ -6156,7 +6141,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="33.75" hidden="1" thickTop="1">
       <c r="A55" s="14">
         <v>54</v>
       </c>
@@ -6172,7 +6157,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="33.75" hidden="1" thickTop="1">
       <c r="A56" s="43">
         <v>55</v>
       </c>
@@ -6186,7 +6171,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A57" s="43">
         <v>56</v>
       </c>
@@ -6200,7 +6185,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A58" s="43">
         <v>57</v>
       </c>
@@ -6214,7 +6199,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A59" s="43">
         <v>58</v>
       </c>
@@ -6228,7 +6213,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A60" s="43">
         <v>59</v>
       </c>
@@ -6242,7 +6227,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A61" s="43">
         <v>60</v>
       </c>
@@ -6256,7 +6241,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="33.75" hidden="1" thickTop="1">
       <c r="A62" s="43">
         <v>61</v>
       </c>
@@ -6270,7 +6255,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="17.25" hidden="1" thickTop="1">
       <c r="A63" s="43">
         <v>62</v>
       </c>
@@ -6284,7 +6269,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="17.25" thickTop="1">
       <c r="A64" s="43">
         <v>63</v>
       </c>
@@ -6298,7 +6283,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" hidden="1">
       <c r="A65" s="43">
         <v>64</v>
       </c>
@@ -6306,7 +6291,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" hidden="1">
       <c r="A66" s="43">
         <v>65</v>
       </c>
@@ -6314,7 +6299,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" hidden="1">
       <c r="A67" s="43">
         <v>66</v>
       </c>
@@ -6322,7 +6307,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" hidden="1">
       <c r="A68" s="43">
         <v>67</v>
       </c>
@@ -6330,7 +6315,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="33">
       <c r="A69" s="43">
         <v>68</v>
       </c>
@@ -6341,10 +6326,10 @@
       <c r="D69" s="84"/>
       <c r="E69" s="85"/>
       <c r="F69" s="110" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1">
       <c r="A70" s="43">
         <v>69</v>
       </c>
@@ -6352,7 +6337,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="43">
         <v>70</v>
       </c>
@@ -6363,10 +6348,10 @@
       </c>
       <c r="E71" s="85"/>
       <c r="F71" s="82" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" hidden="1">
       <c r="A72" s="43">
         <v>71</v>
       </c>
@@ -6374,7 +6359,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" hidden="1">
       <c r="A73" s="43">
         <v>72</v>
       </c>
@@ -6382,7 +6367,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" hidden="1">
       <c r="A74" s="43">
         <v>73</v>
       </c>
@@ -6393,7 +6378,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" hidden="1">
       <c r="A75" s="43">
         <v>74</v>
       </c>
@@ -6401,7 +6386,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" hidden="1">
       <c r="A76" s="43">
         <v>75</v>
       </c>
@@ -6409,7 +6394,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" s="43">
         <v>76</v>
       </c>
@@ -6420,10 +6405,10 @@
       </c>
       <c r="E77" s="85"/>
       <c r="F77" s="82" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" hidden="1">
       <c r="A78" s="43">
         <v>77</v>
       </c>
@@ -6431,7 +6416,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" hidden="1">
       <c r="A79" s="43">
         <v>78</v>
       </c>
@@ -6439,7 +6424,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" hidden="1">
       <c r="A80" s="43">
         <v>79</v>
       </c>
@@ -6447,7 +6432,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" hidden="1">
       <c r="A81" s="43">
         <v>80</v>
       </c>
@@ -6455,7 +6440,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" hidden="1">
       <c r="A82" s="43">
         <v>81</v>
       </c>
@@ -6463,7 +6448,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" hidden="1">
       <c r="A83" s="43">
         <v>82</v>
       </c>
@@ -6471,7 +6456,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" hidden="1">
       <c r="A84" s="43">
         <v>83</v>
       </c>
@@ -6479,7 +6464,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" hidden="1">
       <c r="A85" s="43">
         <v>84</v>
       </c>
@@ -6487,7 +6472,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" hidden="1">
       <c r="A86" s="43">
         <v>85</v>
       </c>
@@ -6495,7 +6480,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" hidden="1">
       <c r="A87" s="43">
         <v>86</v>
       </c>
@@ -6503,7 +6488,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" hidden="1">
       <c r="A88" s="43">
         <v>87</v>
       </c>
@@ -6511,7 +6496,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" hidden="1">
       <c r="A89" s="43">
         <v>88</v>
       </c>
@@ -6519,7 +6504,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" hidden="1">
       <c r="A90" s="43">
         <v>89</v>
       </c>
@@ -6528,7 +6513,7 @@
       </c>
       <c r="F90" s="64"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" hidden="1">
       <c r="A91" s="43">
         <v>90</v>
       </c>
@@ -6536,7 +6521,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92" s="43">
         <v>91</v>
       </c>
@@ -6549,10 +6534,10 @@
         <v>319</v>
       </c>
       <c r="F92" s="82" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" hidden="1">
       <c r="A93" s="43">
         <v>92</v>
       </c>
@@ -6561,7 +6546,7 @@
       </c>
       <c r="F93" s="64"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" hidden="1">
       <c r="A94" s="43">
         <v>93</v>
       </c>
@@ -6569,7 +6554,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" hidden="1">
       <c r="A95" s="43">
         <v>94</v>
       </c>
@@ -6580,7 +6565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96" s="43">
         <v>95</v>
       </c>
@@ -6594,7 +6579,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" hidden="1">
       <c r="A97" s="43">
         <v>96</v>
       </c>
@@ -6602,7 +6587,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6">
       <c r="A98" s="43">
         <v>97</v>
       </c>
@@ -6613,10 +6598,10 @@
         <v>84</v>
       </c>
       <c r="F98" s="82" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="43">
         <v>98</v>
       </c>
@@ -6630,7 +6615,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" hidden="1">
       <c r="A100" s="43">
         <v>99</v>
       </c>
@@ -6638,7 +6623,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" hidden="1">
       <c r="A101" s="43">
         <v>100</v>
       </c>
@@ -6646,7 +6631,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" hidden="1">
       <c r="A102" s="43">
         <v>101</v>
       </c>
@@ -6654,7 +6639,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" hidden="1">
       <c r="A103" s="43">
         <v>102</v>
       </c>
@@ -6665,7 +6650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" hidden="1">
       <c r="A104" s="43">
         <v>103</v>
       </c>
@@ -6676,7 +6661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" hidden="1">
       <c r="A105" s="43">
         <v>104</v>
       </c>
@@ -6684,7 +6669,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" hidden="1">
       <c r="A106" s="43">
         <v>105</v>
       </c>
@@ -6692,21 +6677,21 @@
         <v>67</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107" s="43">
         <v>106</v>
       </c>
       <c r="B107" s="100"/>
       <c r="C107" s="83" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D107" s="84"/>
       <c r="E107" s="85"/>
       <c r="F107" s="82" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" hidden="1">
       <c r="A108" s="43">
         <v>107</v>
       </c>
@@ -6714,7 +6699,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" hidden="1">
       <c r="A109" s="43">
         <v>108</v>
       </c>
@@ -6728,7 +6713,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" hidden="1">
       <c r="A110" s="43">
         <v>109</v>
       </c>
@@ -6736,7 +6721,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" hidden="1">
       <c r="A111" s="43">
         <v>110</v>
       </c>
@@ -6750,7 +6735,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" hidden="1">
       <c r="A112" s="43">
         <v>111</v>
       </c>
@@ -6764,7 +6749,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="231" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="231" hidden="1">
       <c r="A113" s="43">
         <v>112</v>
       </c>
@@ -6775,10 +6760,10 @@
       </c>
       <c r="E113" s="94"/>
       <c r="F113" s="96" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" hidden="1">
       <c r="A114" s="43">
         <v>113</v>
       </c>
@@ -6792,7 +6777,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" hidden="1">
       <c r="A115" s="43">
         <v>114</v>
       </c>
@@ -6806,7 +6791,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" hidden="1">
       <c r="A116" s="43">
         <v>115</v>
       </c>
@@ -6820,7 +6805,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="49.5" hidden="1">
       <c r="A117" s="43">
         <v>116</v>
       </c>
@@ -6834,7 +6819,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" hidden="1">
       <c r="A118" s="43">
         <v>117</v>
       </c>
@@ -6842,7 +6827,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" hidden="1">
       <c r="A119" s="43">
         <v>118</v>
       </c>
@@ -6850,7 +6835,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" hidden="1">
       <c r="A120" s="43">
         <v>119</v>
       </c>
@@ -6858,7 +6843,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" hidden="1">
       <c r="A121" s="43">
         <v>120</v>
       </c>
@@ -6866,7 +6851,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" hidden="1">
       <c r="A122" s="43">
         <v>121</v>
       </c>
@@ -6874,7 +6859,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" hidden="1">
       <c r="A123" s="43">
         <v>122</v>
       </c>
@@ -6882,7 +6867,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6">
       <c r="A124" s="43">
         <v>123</v>
       </c>
@@ -6893,10 +6878,10 @@
       </c>
       <c r="E124" s="85"/>
       <c r="F124" s="82" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="43">
         <v>124</v>
       </c>
@@ -6907,10 +6892,10 @@
       </c>
       <c r="E125" s="85"/>
       <c r="F125" s="82" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="43">
         <v>125</v>
       </c>
@@ -6921,10 +6906,10 @@
         <v>144</v>
       </c>
       <c r="F126" s="82" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" hidden="1">
       <c r="A127" s="43">
         <v>126</v>
       </c>
@@ -6932,7 +6917,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" hidden="1">
       <c r="A128" s="43">
         <v>127</v>
       </c>
@@ -6940,7 +6925,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" hidden="1">
       <c r="A129" s="43">
         <v>128</v>
       </c>
@@ -6948,7 +6933,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" hidden="1">
       <c r="A130" s="43">
         <v>129</v>
       </c>
@@ -6962,7 +6947,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" hidden="1">
       <c r="A131" s="43">
         <v>130</v>
       </c>
@@ -6976,7 +6961,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" hidden="1">
       <c r="A132" s="43">
         <v>131</v>
       </c>
@@ -6990,7 +6975,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" hidden="1">
       <c r="A133" s="43">
         <v>132</v>
       </c>
@@ -6998,7 +6983,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" hidden="1">
       <c r="A134" s="43">
         <v>133</v>
       </c>
@@ -7006,7 +6991,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" hidden="1">
       <c r="A135" s="43">
         <v>134</v>
       </c>
@@ -7014,7 +6999,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" hidden="1">
       <c r="A136" s="43">
         <v>135</v>
       </c>
@@ -7022,7 +7007,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" hidden="1">
       <c r="A137" s="43">
         <v>136</v>
       </c>
@@ -7033,7 +7018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6">
       <c r="A138" s="43">
         <v>137</v>
       </c>
@@ -7047,7 +7032,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6">
       <c r="A139" s="43">
         <v>138</v>
       </c>
@@ -7061,7 +7046,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6">
       <c r="A140" s="43">
         <v>139</v>
       </c>
@@ -7075,7 +7060,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" hidden="1">
       <c r="A141" s="43">
         <v>140</v>
       </c>
@@ -7083,7 +7068,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" hidden="1">
       <c r="A142" s="43">
         <v>141</v>
       </c>
@@ -7091,7 +7076,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" hidden="1">
       <c r="A143" s="43">
         <v>142</v>
       </c>
@@ -7105,7 +7090,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" hidden="1">
       <c r="A144" s="43">
         <v>143</v>
       </c>
@@ -7119,7 +7104,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" hidden="1">
       <c r="A145" s="43">
         <v>144</v>
       </c>
@@ -7127,7 +7112,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" hidden="1">
       <c r="A146" s="43">
         <v>145</v>
       </c>
@@ -7135,7 +7120,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" hidden="1">
       <c r="A147" s="43">
         <v>146</v>
       </c>
@@ -7143,7 +7128,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" hidden="1">
       <c r="A148" s="43">
         <v>147</v>
       </c>
@@ -7151,7 +7136,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" hidden="1">
       <c r="A149" s="43">
         <v>148</v>
       </c>
@@ -7159,7 +7144,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" hidden="1">
       <c r="A150" s="43">
         <v>149</v>
       </c>
@@ -7168,7 +7153,7 @@
       </c>
       <c r="F150" s="43"/>
     </row>
-    <row r="151" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" ht="82.5" hidden="1">
       <c r="A151" s="43">
         <v>150</v>
       </c>
@@ -7182,7 +7167,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" hidden="1">
       <c r="A152" s="43">
         <v>151</v>
       </c>
@@ -7196,7 +7181,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" hidden="1">
       <c r="A153" s="43">
         <v>152</v>
       </c>
@@ -7204,7 +7189,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" hidden="1">
       <c r="A154" s="43">
         <v>153</v>
       </c>
@@ -7212,7 +7197,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" hidden="1">
       <c r="A155" s="43">
         <v>154</v>
       </c>
@@ -7220,7 +7205,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" hidden="1">
       <c r="A156" s="43">
         <v>155</v>
       </c>
@@ -7228,7 +7213,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" hidden="1">
       <c r="A157" s="43">
         <v>156</v>
       </c>
@@ -7236,7 +7221,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" hidden="1">
       <c r="A158" s="43">
         <v>157</v>
       </c>
@@ -7244,7 +7229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="247.5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" ht="264">
       <c r="A159" s="43">
         <v>158</v>
       </c>
@@ -7255,10 +7240,10 @@
       </c>
       <c r="E159" s="85"/>
       <c r="F159" s="86" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" hidden="1">
       <c r="A160" s="43">
         <v>159</v>
       </c>
@@ -7266,7 +7251,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" hidden="1">
       <c r="A161" s="43">
         <v>160</v>
       </c>
@@ -7274,7 +7259,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" hidden="1">
       <c r="A162" s="43">
         <v>161</v>
       </c>
@@ -7282,7 +7267,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" hidden="1">
       <c r="A163" s="43">
         <v>162</v>
       </c>
@@ -7291,7 +7276,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F163" xr:uid="{212E1B19-03B9-48D4-B4CF-B5F99003D090}"/>
+  <autoFilter ref="F1:F163" xr:uid="{212E1B19-03B9-48D4-B4CF-B5F99003D090}">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="C1:E1"/>
   </mergeCells>
@@ -7310,12 +7299,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.375" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="38" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="38" customFormat="1" ht="21" thickBot="1">
       <c r="A1" s="40" t="s">
         <v>234</v>
       </c>
@@ -7326,7 +7315,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="17.25" thickTop="1">
       <c r="A2" s="41">
         <v>1</v>
       </c>
@@ -7337,7 +7326,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="41">
         <v>2</v>
       </c>
@@ -7348,7 +7337,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="41">
         <v>3</v>
       </c>
@@ -7356,7 +7345,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="41">
         <v>4</v>
       </c>
@@ -7367,7 +7356,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="41">
         <v>5</v>
       </c>
@@ -7375,7 +7364,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="41">
         <v>6</v>
       </c>
@@ -7386,117 +7375,117 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="41">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="41">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="41">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="41">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="41">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="41">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="41">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="41">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="41">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="41">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="41">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" s="41">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" s="41">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1">
       <c r="A24" s="41">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1">
       <c r="A25" s="41">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1">
       <c r="A26" s="41">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1">
       <c r="A27" s="41">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1">
       <c r="A28" s="41">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1">
       <c r="A29" s="41">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1">
       <c r="A30" s="41">
         <v>29</v>
       </c>
@@ -7516,13 +7505,13 @@
       <selection activeCell="E9" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.75" style="41" customWidth="1"/>
     <col min="3" max="3" width="79.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="37" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="37" customFormat="1" ht="21" thickBot="1">
       <c r="A1" s="40" t="s">
         <v>31</v>
       </c>
@@ -7534,7 +7523,7 @@
       </c>
       <c r="D1" s="39"/>
     </row>
-    <row r="2" spans="1:4" ht="50.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="50.25" thickTop="1">
       <c r="A2" s="41">
         <v>1</v>
       </c>
@@ -7545,7 +7534,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="99">
       <c r="A3" s="41">
         <v>2</v>
       </c>
@@ -7556,67 +7545,67 @@
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="41">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="41">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="41">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="41">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="41">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="41">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="41">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="41">
         <v>15</v>
       </c>

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DACDBF3B-AA1B-4F59-AF78-3869D84932BE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0753C2C3-DB0D-42D7-9A16-0980B165AE1A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1946,10 +1946,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select name, birth, email, address_city||' '||address_gu||' '||address_dong as address, phone_num, profile_photo from users where user_id=? ;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원탈퇴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1972,6 +1968,10 @@
 and u.user_id=a.admin_id
 and a.branch_seq=b.branch_seq
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">select name, to_char(birth, 'yyyy/mm/dd'), email, address_city||' '||address_gu||' '||address_dong as address, phone_num, profile_photo from users where user_id=? </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5423,8 +5423,8 @@
   <sheetPr codeName="Sheet6" filterMode="1"/>
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F159" sqref="F159"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126:F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6683,12 +6683,12 @@
       </c>
       <c r="B107" s="100"/>
       <c r="C107" s="83" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D107" s="84"/>
       <c r="E107" s="85"/>
       <c r="F107" s="82" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="108" spans="1:6" hidden="1">
@@ -6906,7 +6906,7 @@
         <v>144</v>
       </c>
       <c r="F126" s="82" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="127" spans="1:6" hidden="1">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="E159" s="85"/>
       <c r="F159" s="86" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="160" spans="1:6" hidden="1">

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\matrix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0753C2C3-DB0D-42D7-9A16-0980B165AE1A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{89D410B4-3B2E-4F50-9F21-7510A3189D51}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="416">
   <si>
     <t>업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1974,6 +1974,10 @@
     <t xml:space="preserve">select name, to_char(birth, 'yyyy/mm/dd'), email, address_city||' '||address_gu||' '||address_dong as address, phone_num, profile_photo from users where user_id=? </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>same</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1982,7 +1986,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-412]m&quot;월&quot;\ d&quot;일&quot;\ dddd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2937,7 +2941,7 @@
       <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.75" style="36"/>
     <col min="2" max="2" width="16.125" style="21" customWidth="1"/>
@@ -2949,7 +2953,7 @@
     <col min="8" max="8" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="21" thickBot="1">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
         <v>215</v>
       </c>
@@ -2975,7 +2979,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" thickTop="1">
+    <row r="2" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="17">
         <v>43214</v>
       </c>
@@ -2983,19 +2987,19 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="17">
         <v>43215</v>
       </c>
       <c r="C3" s="15"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="17">
         <v>43216</v>
       </c>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="17">
         <v>43217</v>
       </c>
@@ -3003,31 +3007,31 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="18">
         <v>43218</v>
       </c>
       <c r="C6" s="15"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="18">
         <v>43219</v>
       </c>
       <c r="C7" s="15"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="17">
         <v>43220</v>
       </c>
       <c r="C8" s="15"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="17">
         <v>43221</v>
       </c>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="17">
         <v>43222</v>
       </c>
@@ -3035,7 +3039,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="17">
         <v>43223</v>
       </c>
@@ -3043,7 +3047,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="17">
         <v>43224</v>
       </c>
@@ -3051,31 +3055,31 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="18">
         <v>43225</v>
       </c>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="18">
         <v>43226</v>
       </c>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="18">
         <v>43227</v>
       </c>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="17">
         <v>43228</v>
       </c>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="33">
         <v>43229</v>
       </c>
@@ -3086,7 +3090,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="82.5">
+    <row r="18" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B18" s="32">
         <v>43230</v>
       </c>
@@ -3109,7 +3113,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="82.5">
+    <row r="19" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B19" s="32">
         <v>43231</v>
       </c>
@@ -3132,19 +3136,19 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" s="18">
         <v>43232</v>
       </c>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" s="18">
         <v>43233</v>
       </c>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:8" ht="66">
+    <row r="22" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="B22" s="19">
         <v>43234</v>
       </c>
@@ -3167,7 +3171,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="82.5">
+    <row r="23" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B23" s="19">
         <v>43235</v>
       </c>
@@ -3190,7 +3194,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>381</v>
       </c>
@@ -3198,7 +3202,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="36" t="s">
         <v>209</v>
       </c>
@@ -3207,7 +3211,7 @@
       </c>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="36" t="s">
         <v>209</v>
       </c>
@@ -3216,19 +3220,19 @@
       </c>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" s="18">
         <v>43239</v>
       </c>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" s="18">
         <v>43240</v>
       </c>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="36" t="s">
         <v>210</v>
       </c>
@@ -3237,7 +3241,7 @@
       </c>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="36" t="s">
         <v>211</v>
       </c>
@@ -3246,37 +3250,37 @@
       </c>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" s="19">
         <v>43243</v>
       </c>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" s="19">
         <v>43244</v>
       </c>
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" s="19">
         <v>43245</v>
       </c>
       <c r="C33" s="15"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" s="18">
         <v>43246</v>
       </c>
       <c r="C34" s="15"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B35" s="18">
         <v>43247</v>
       </c>
       <c r="C35" s="15"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36" s="19">
         <v>43248</v>
       </c>
@@ -3284,13 +3288,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B37" s="19">
         <v>43249</v>
       </c>
       <c r="C37" s="15"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B38" s="19">
         <v>43250</v>
       </c>
@@ -3298,7 +3302,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="36" t="s">
         <v>209</v>
       </c>
@@ -3307,31 +3311,31 @@
       </c>
       <c r="C39" s="15"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B40" s="17">
         <v>43252</v>
       </c>
       <c r="C40" s="15"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B41" s="18">
         <v>43253</v>
       </c>
       <c r="C41" s="15"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" s="18">
         <v>43254</v>
       </c>
       <c r="C42" s="15"/>
     </row>
-    <row r="43" spans="1:3" ht="17.25" thickBot="1">
+    <row r="43" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="19">
         <v>43255</v>
       </c>
       <c r="C43" s="15"/>
     </row>
-    <row r="44" spans="1:3" ht="17.25" thickBot="1">
+    <row r="44" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="20">
         <v>43256</v>
       </c>
@@ -3339,19 +3343,19 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B45" s="18">
         <v>43257</v>
       </c>
       <c r="C45" s="15"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B46" s="19">
         <v>43258</v>
       </c>
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B47" s="19">
         <v>43259</v>
       </c>
@@ -3359,7 +3363,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B48" s="17"/>
       <c r="C48" s="15"/>
     </row>
@@ -3376,11 +3380,11 @@
   <dimension ref="A1:K155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="2" width="6.875" style="3" customWidth="1"/>
@@ -3395,7 +3399,7 @@
     <col min="11" max="11" width="8.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="21" thickBot="1">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -3426,7 +3430,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.25" thickTop="1">
+    <row r="2" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -3444,7 +3448,7 @@
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -3460,7 +3464,7 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -3484,7 +3488,7 @@
       </c>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="33">
+    <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -3508,7 +3512,7 @@
       </c>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -3524,7 +3528,7 @@
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -3540,7 +3544,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -3556,7 +3560,7 @@
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -3572,7 +3576,7 @@
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -3588,7 +3592,7 @@
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="33">
+    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -3614,7 +3618,7 @@
       </c>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -3625,7 +3629,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -3641,7 +3645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -3657,7 +3661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -3672,7 +3676,7 @@
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="16" spans="1:11" ht="33">
+    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -3695,7 +3699,7 @@
       </c>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -3710,7 +3714,7 @@
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -3733,7 +3737,7 @@
       </c>
       <c r="J18" s="22"/>
     </row>
-    <row r="19" spans="1:10" ht="49.5">
+    <row r="19" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -3756,7 +3760,7 @@
       </c>
       <c r="J19" s="22"/>
     </row>
-    <row r="20" spans="1:10" ht="49.5">
+    <row r="20" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -3779,7 +3783,7 @@
       </c>
       <c r="J20" s="22"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -3794,7 +3798,7 @@
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -3809,7 +3813,7 @@
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -3824,7 +3828,7 @@
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -3849,7 +3853,7 @@
       </c>
       <c r="J24" s="55"/>
     </row>
-    <row r="25" spans="1:10" ht="49.5">
+    <row r="25" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -3872,7 +3876,7 @@
       </c>
       <c r="J25" s="55"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -3887,7 +3891,7 @@
       <c r="I26" s="55"/>
       <c r="J26" s="55"/>
     </row>
-    <row r="27" spans="1:10" ht="33">
+    <row r="27" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -3913,7 +3917,7 @@
       </c>
       <c r="J27" s="28"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -3929,7 +3933,7 @@
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -3945,7 +3949,7 @@
       <c r="I29" s="57"/>
       <c r="J29" s="57"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -3963,7 +3967,7 @@
       <c r="I30" s="57"/>
       <c r="J30" s="57"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -3981,7 +3985,7 @@
       <c r="I31" s="57"/>
       <c r="J31" s="57"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -3997,7 +4001,7 @@
       <c r="I32" s="28"/>
       <c r="J32" s="28"/>
     </row>
-    <row r="33" spans="1:10" ht="33">
+    <row r="33" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -4021,7 +4025,7 @@
       </c>
       <c r="J33" s="28"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -4037,7 +4041,7 @@
       <c r="I34" s="28"/>
       <c r="J34" s="28"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -4061,7 +4065,7 @@
       </c>
       <c r="J35" s="28"/>
     </row>
-    <row r="36" spans="1:10" ht="49.5">
+    <row r="36" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -4085,7 +4089,7 @@
       </c>
       <c r="J36" s="28"/>
     </row>
-    <row r="37" spans="1:10" ht="49.5">
+    <row r="37" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -4109,7 +4113,7 @@
       </c>
       <c r="J37" s="28"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -4125,7 +4129,7 @@
       <c r="I38" s="28"/>
       <c r="J38" s="28"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -4141,7 +4145,7 @@
       <c r="I39" s="28"/>
       <c r="J39" s="28"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -4157,7 +4161,7 @@
       <c r="I40" s="28"/>
       <c r="J40" s="28"/>
     </row>
-    <row r="41" spans="1:10" ht="33">
+    <row r="41" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -4183,7 +4187,7 @@
       </c>
       <c r="J41" s="28"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -4207,7 +4211,7 @@
       </c>
       <c r="J42" s="55"/>
     </row>
-    <row r="43" spans="1:10" ht="49.5">
+    <row r="43" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -4231,7 +4235,7 @@
       </c>
       <c r="J43" s="55"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -4247,7 +4251,7 @@
       <c r="I44" s="28"/>
       <c r="J44" s="28"/>
     </row>
-    <row r="45" spans="1:10" ht="33">
+    <row r="45" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -4273,7 +4277,7 @@
       </c>
       <c r="J45" s="28"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -4289,7 +4293,7 @@
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -4307,7 +4311,7 @@
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
     </row>
-    <row r="48" spans="1:10" ht="49.5">
+    <row r="48" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -4331,7 +4335,7 @@
       </c>
       <c r="J48" s="22"/>
     </row>
-    <row r="49" spans="1:10" ht="49.5">
+    <row r="49" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -4355,7 +4359,7 @@
       </c>
       <c r="J49" s="22"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4366,7 +4370,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4380,7 +4384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4391,7 +4395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4402,7 +4406,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4416,7 +4420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4427,7 +4431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4441,7 +4445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4455,7 +4459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4472,7 +4476,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4480,7 +4484,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4488,7 +4492,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4499,7 +4503,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4510,7 +4514,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4524,7 +4528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4532,7 +4536,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4543,7 +4547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4551,7 +4555,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4559,7 +4563,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4573,7 +4577,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4584,7 +4588,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4592,7 +4596,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4603,7 +4607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4611,7 +4615,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4619,7 +4623,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4627,7 +4631,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4635,7 +4639,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4643,7 +4647,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4651,7 +4655,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4659,7 +4663,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4667,7 +4671,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4675,7 +4679,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4683,7 +4687,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4691,7 +4695,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4702,7 +4706,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4713,7 +4717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4721,7 +4725,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4729,7 +4733,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4737,7 +4741,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4745,7 +4749,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4756,7 +4760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4767,7 +4771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4775,7 +4779,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4786,7 +4790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4797,7 +4801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4805,7 +4809,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4813,7 +4817,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4821,7 +4825,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4832,7 +4836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4846,7 +4850,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4854,7 +4858,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4862,7 +4866,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4873,7 +4877,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4887,7 +4891,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4895,7 +4899,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4906,7 +4910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4917,7 +4921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4931,7 +4935,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4945,7 +4949,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4956,7 +4960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4967,7 +4971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4978,7 +4982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4989,7 +4993,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4997,7 +5001,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5005,7 +5009,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5016,7 +5020,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5024,7 +5028,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5035,7 +5039,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5046,7 +5050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5060,7 +5064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5068,7 +5072,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5076,7 +5080,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5084,7 +5088,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5092,7 +5096,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5100,7 +5104,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5108,7 +5112,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5116,7 +5120,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5124,7 +5128,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5132,7 +5136,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5143,7 +5147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5151,7 +5155,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5162,7 +5166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5173,7 +5177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5181,7 +5185,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5189,7 +5193,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5203,7 +5207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5214,7 +5218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5222,7 +5226,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5230,7 +5234,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5238,7 +5242,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5246,7 +5250,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5254,7 +5258,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5262,7 +5266,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5276,7 +5280,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5287,7 +5291,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5295,7 +5299,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5303,7 +5307,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5311,7 +5315,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5319,7 +5323,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5327,7 +5331,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5338,7 +5342,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5349,7 +5353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5360,7 +5364,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5377,7 +5381,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5391,7 +5395,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5402,7 +5406,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H155">
         <f>COUNTA(H2:H154)</f>
         <v>61</v>
@@ -5420,14 +5424,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet6" filterMode="1"/>
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126:F126"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="2" width="10.25" style="47" customWidth="1"/>
@@ -5438,7 +5442,7 @@
     <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="58" customFormat="1" ht="21" thickBot="1">
+    <row r="1" spans="1:7" s="58" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
         <v>288</v>
       </c>
@@ -5457,7 +5461,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" hidden="1" thickTop="1">
+    <row r="2" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -5469,7 +5473,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" hidden="1" thickTop="1">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -5482,7 +5486,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" hidden="1" thickTop="1">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -5501,7 +5505,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="66.75" hidden="1" thickTop="1">
+    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -5520,7 +5524,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" hidden="1" thickTop="1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -5531,7 +5535,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" hidden="1" thickTop="1">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -5542,7 +5546,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.25" hidden="1" thickTop="1">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -5553,7 +5557,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.25" hidden="1" thickTop="1">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -5564,7 +5568,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.25" hidden="1" thickTop="1">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -5572,7 +5576,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="109.15" hidden="1" customHeight="1">
+    <row r="11" spans="1:7" ht="109.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -5588,7 +5592,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.25" hidden="1" thickTop="1">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -5596,7 +5600,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.25" hidden="1" thickTop="1">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -5610,7 +5614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.25" hidden="1" thickTop="1">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -5624,7 +5628,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.25" hidden="1" thickTop="1">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -5636,7 +5640,7 @@
       <c r="E15" s="66"/>
       <c r="F15" s="43"/>
     </row>
-    <row r="16" spans="1:7" ht="66.75" hidden="1" thickTop="1">
+    <row r="16" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -5652,7 +5656,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -5664,7 +5668,7 @@
       <c r="E17" s="66"/>
       <c r="F17" s="43"/>
     </row>
-    <row r="18" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -5680,7 +5684,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="33.75" hidden="1" thickTop="1">
+    <row r="19" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -5696,7 +5700,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="33.75" hidden="1" thickTop="1">
+    <row r="20" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -5712,7 +5716,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -5720,7 +5724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -5728,7 +5732,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -5736,7 +5740,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -5752,7 +5756,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -5768,7 +5772,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -5776,7 +5780,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="165.75" hidden="1" thickTop="1">
+    <row r="27" spans="1:6" ht="165" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -5792,7 +5796,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -5801,7 +5805,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -5809,7 +5813,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -5820,7 +5824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -5831,7 +5835,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -5843,7 +5847,7 @@
       <c r="E32" s="66"/>
       <c r="F32" s="43"/>
     </row>
-    <row r="33" spans="1:6" ht="66.75" hidden="1" thickTop="1">
+    <row r="33" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -5859,7 +5863,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -5867,7 +5871,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -5883,7 +5887,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="33.75" hidden="1" thickTop="1">
+    <row r="36" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -5899,7 +5903,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="33.75" hidden="1" thickTop="1">
+    <row r="37" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -5915,7 +5919,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -5923,7 +5927,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -5937,7 +5941,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -5945,7 +5949,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -5961,7 +5965,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -5977,7 +5981,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -5993,7 +5997,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -6001,7 +6005,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -6017,7 +6021,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -6025,7 +6029,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -6037,7 +6041,7 @@
       <c r="E47" s="66"/>
       <c r="F47" s="43"/>
     </row>
-    <row r="48" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -6049,7 +6053,7 @@
       <c r="E48" s="66"/>
       <c r="F48" s="49"/>
     </row>
-    <row r="49" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -6065,7 +6069,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="33.75" hidden="1" thickTop="1">
+    <row r="50" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>49</v>
       </c>
@@ -6081,7 +6085,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="33.75" hidden="1" thickTop="1">
+    <row r="51" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>50</v>
       </c>
@@ -6097,7 +6101,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <v>51</v>
       </c>
@@ -6109,7 +6113,7 @@
       <c r="E52" s="66"/>
       <c r="F52" s="49"/>
     </row>
-    <row r="53" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <v>52</v>
       </c>
@@ -6125,7 +6129,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="33.75" hidden="1" thickTop="1">
+    <row r="54" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <v>53</v>
       </c>
@@ -6141,7 +6145,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="33.75" hidden="1" thickTop="1">
+    <row r="55" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
         <v>54</v>
       </c>
@@ -6157,7 +6161,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="33.75" hidden="1" thickTop="1">
+    <row r="56" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A56" s="43">
         <v>55</v>
       </c>
@@ -6171,7 +6175,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="43">
         <v>56</v>
       </c>
@@ -6185,7 +6189,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="43">
         <v>57</v>
       </c>
@@ -6199,7 +6203,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="43">
         <v>58</v>
       </c>
@@ -6213,7 +6217,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="43">
         <v>59</v>
       </c>
@@ -6227,7 +6231,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="43">
         <v>60</v>
       </c>
@@ -6241,7 +6245,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="33.75" hidden="1" thickTop="1">
+    <row r="62" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="43">
         <v>61</v>
       </c>
@@ -6255,7 +6259,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="17.25" hidden="1" thickTop="1">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="43">
         <v>62</v>
       </c>
@@ -6269,7 +6273,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="17.25" thickTop="1">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="43">
         <v>63</v>
       </c>
@@ -6283,7 +6287,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="43">
         <v>64</v>
       </c>
@@ -6291,7 +6295,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="43">
         <v>65</v>
       </c>
@@ -6299,15 +6303,23 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="43">
         <v>66</v>
       </c>
-      <c r="D67" s="75" t="s">
+      <c r="B67" s="100" t="s">
+        <v>415</v>
+      </c>
+      <c r="C67" s="83"/>
+      <c r="D67" s="84" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" hidden="1">
+      <c r="E67" s="85"/>
+      <c r="F67" s="82" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="43">
         <v>67</v>
       </c>
@@ -6315,7 +6327,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="33">
+    <row r="69" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A69" s="43">
         <v>68</v>
       </c>
@@ -6329,7 +6341,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="43">
         <v>69</v>
       </c>
@@ -6337,7 +6349,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="43">
         <v>70</v>
       </c>
@@ -6351,7 +6363,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="43">
         <v>71</v>
       </c>
@@ -6359,7 +6371,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="43">
         <v>72</v>
       </c>
@@ -6367,7 +6379,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="43">
         <v>73</v>
       </c>
@@ -6378,7 +6390,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="43">
         <v>74</v>
       </c>
@@ -6386,7 +6398,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="43">
         <v>75</v>
       </c>
@@ -6394,7 +6406,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="43">
         <v>76</v>
       </c>
@@ -6408,7 +6420,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="43">
         <v>77</v>
       </c>
@@ -6416,7 +6428,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="43">
         <v>78</v>
       </c>
@@ -6424,7 +6436,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="43">
         <v>79</v>
       </c>
@@ -6432,7 +6444,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="43">
         <v>80</v>
       </c>
@@ -6440,7 +6452,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="43">
         <v>81</v>
       </c>
@@ -6448,7 +6460,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="43">
         <v>82</v>
       </c>
@@ -6456,7 +6468,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="43">
         <v>83</v>
       </c>
@@ -6464,7 +6476,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="43">
         <v>84</v>
       </c>
@@ -6472,7 +6484,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="43">
         <v>85</v>
       </c>
@@ -6480,7 +6492,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="43">
         <v>86</v>
       </c>
@@ -6488,7 +6500,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="43">
         <v>87</v>
       </c>
@@ -6496,7 +6508,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="43">
         <v>88</v>
       </c>
@@ -6504,7 +6516,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="43">
         <v>89</v>
       </c>
@@ -6513,7 +6525,7 @@
       </c>
       <c r="F90" s="64"/>
     </row>
-    <row r="91" spans="1:6" hidden="1">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="43">
         <v>90</v>
       </c>
@@ -6521,7 +6533,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="43">
         <v>91</v>
       </c>
@@ -6537,7 +6549,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="43">
         <v>92</v>
       </c>
@@ -6546,7 +6558,7 @@
       </c>
       <c r="F93" s="64"/>
     </row>
-    <row r="94" spans="1:6" hidden="1">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="43">
         <v>93</v>
       </c>
@@ -6554,7 +6566,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="43">
         <v>94</v>
       </c>
@@ -6565,7 +6577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="43">
         <v>95</v>
       </c>
@@ -6579,7 +6591,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="43">
         <v>96</v>
       </c>
@@ -6587,7 +6599,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="43">
         <v>97</v>
       </c>
@@ -6601,7 +6613,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="43">
         <v>98</v>
       </c>
@@ -6615,7 +6627,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="43">
         <v>99</v>
       </c>
@@ -6623,7 +6635,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="43">
         <v>100</v>
       </c>
@@ -6631,7 +6643,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="43">
         <v>101</v>
       </c>
@@ -6639,7 +6651,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="43">
         <v>102</v>
       </c>
@@ -6650,7 +6662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="43">
         <v>103</v>
       </c>
@@ -6661,7 +6673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="43">
         <v>104</v>
       </c>
@@ -6669,7 +6681,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="43">
         <v>105</v>
       </c>
@@ -6677,7 +6689,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="43">
         <v>106</v>
       </c>
@@ -6691,7 +6703,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="43">
         <v>107</v>
       </c>
@@ -6699,7 +6711,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="43">
         <v>108</v>
       </c>
@@ -6713,7 +6725,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="43">
         <v>109</v>
       </c>
@@ -6721,7 +6733,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="43">
         <v>110</v>
       </c>
@@ -6735,7 +6747,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="43">
         <v>111</v>
       </c>
@@ -6749,7 +6761,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="231" hidden="1">
+    <row r="113" spans="1:6" ht="231" x14ac:dyDescent="0.3">
       <c r="A113" s="43">
         <v>112</v>
       </c>
@@ -6763,7 +6775,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="43">
         <v>113</v>
       </c>
@@ -6777,7 +6789,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="43">
         <v>114</v>
       </c>
@@ -6791,7 +6803,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="43">
         <v>115</v>
       </c>
@@ -6805,7 +6817,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="49.5" hidden="1">
+    <row r="117" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A117" s="43">
         <v>116</v>
       </c>
@@ -6819,7 +6831,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="43">
         <v>117</v>
       </c>
@@ -6827,7 +6839,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="43">
         <v>118</v>
       </c>
@@ -6835,7 +6847,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="43">
         <v>119</v>
       </c>
@@ -6843,7 +6855,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="43">
         <v>120</v>
       </c>
@@ -6851,7 +6863,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="43">
         <v>121</v>
       </c>
@@ -6859,7 +6871,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="43">
         <v>122</v>
       </c>
@@ -6867,7 +6879,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="43">
         <v>123</v>
       </c>
@@ -6881,7 +6893,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="43">
         <v>124</v>
       </c>
@@ -6895,7 +6907,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="43">
         <v>125</v>
       </c>
@@ -6909,7 +6921,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="43">
         <v>126</v>
       </c>
@@ -6917,7 +6929,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="43">
         <v>127</v>
       </c>
@@ -6925,7 +6937,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="43">
         <v>128</v>
       </c>
@@ -6933,7 +6945,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="43">
         <v>129</v>
       </c>
@@ -6947,7 +6959,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="43">
         <v>130</v>
       </c>
@@ -6961,7 +6973,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="43">
         <v>131</v>
       </c>
@@ -6975,7 +6987,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="43">
         <v>132</v>
       </c>
@@ -6983,7 +6995,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="43">
         <v>133</v>
       </c>
@@ -6991,7 +7003,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="43">
         <v>134</v>
       </c>
@@ -6999,7 +7011,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="43">
         <v>135</v>
       </c>
@@ -7007,7 +7019,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="43">
         <v>136</v>
       </c>
@@ -7018,7 +7030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="43">
         <v>137</v>
       </c>
@@ -7032,7 +7044,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="43">
         <v>138</v>
       </c>
@@ -7046,7 +7058,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="43">
         <v>139</v>
       </c>
@@ -7060,7 +7072,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="43">
         <v>140</v>
       </c>
@@ -7068,7 +7080,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="43">
         <v>141</v>
       </c>
@@ -7076,7 +7088,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="43">
         <v>142</v>
       </c>
@@ -7090,7 +7102,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="43">
         <v>143</v>
       </c>
@@ -7104,7 +7116,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="43">
         <v>144</v>
       </c>
@@ -7112,7 +7124,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="43">
         <v>145</v>
       </c>
@@ -7120,7 +7132,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="43">
         <v>146</v>
       </c>
@@ -7128,7 +7140,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="43">
         <v>147</v>
       </c>
@@ -7136,7 +7148,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="43">
         <v>148</v>
       </c>
@@ -7144,7 +7156,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="43">
         <v>149</v>
       </c>
@@ -7153,7 +7165,7 @@
       </c>
       <c r="F150" s="43"/>
     </row>
-    <row r="151" spans="1:6" ht="82.5" hidden="1">
+    <row r="151" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A151" s="43">
         <v>150</v>
       </c>
@@ -7167,7 +7179,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="43">
         <v>151</v>
       </c>
@@ -7181,7 +7193,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="43">
         <v>152</v>
       </c>
@@ -7189,7 +7201,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="43">
         <v>153</v>
       </c>
@@ -7197,7 +7209,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="43">
         <v>154</v>
       </c>
@@ -7205,7 +7217,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="43">
         <v>155</v>
       </c>
@@ -7213,7 +7225,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="43">
         <v>156</v>
       </c>
@@ -7221,7 +7233,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="43">
         <v>157</v>
       </c>
@@ -7229,7 +7241,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="264">
+    <row r="159" spans="1:6" ht="264" x14ac:dyDescent="0.3">
       <c r="A159" s="43">
         <v>158</v>
       </c>
@@ -7243,7 +7255,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="43">
         <v>159</v>
       </c>
@@ -7251,7 +7263,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="43">
         <v>160</v>
       </c>
@@ -7259,7 +7271,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="43">
         <v>161</v>
       </c>
@@ -7267,7 +7279,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="43">
         <v>162</v>
       </c>
@@ -7276,11 +7288,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F163" xr:uid="{212E1B19-03B9-48D4-B4CF-B5F99003D090}">
-    <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="C1:E1"/>
   </mergeCells>
@@ -7299,12 +7306,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.375" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="38" customFormat="1" ht="21" thickBot="1">
+    <row r="1" spans="1:3" s="38" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
         <v>234</v>
       </c>
@@ -7315,7 +7322,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" thickTop="1">
+    <row r="2" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41">
         <v>1</v>
       </c>
@@ -7326,7 +7333,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="41">
         <v>2</v>
       </c>
@@ -7337,7 +7344,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="41">
         <v>3</v>
       </c>
@@ -7345,7 +7352,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="41">
         <v>4</v>
       </c>
@@ -7356,7 +7363,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="41">
         <v>5</v>
       </c>
@@ -7364,7 +7371,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="41">
         <v>6</v>
       </c>
@@ -7375,117 +7382,117 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="41">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="41">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="41">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <v>29</v>
       </c>
@@ -7505,13 +7512,13 @@
       <selection activeCell="E9" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.75" style="41" customWidth="1"/>
     <col min="3" max="3" width="79.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="37" customFormat="1" ht="21" thickBot="1">
+    <row r="1" spans="1:4" s="37" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
         <v>31</v>
       </c>
@@ -7523,7 +7530,7 @@
       </c>
       <c r="D1" s="39"/>
     </row>
-    <row r="2" spans="1:4" ht="50.25" thickTop="1">
+    <row r="2" spans="1:4" ht="50.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41">
         <v>1</v>
       </c>
@@ -7534,7 +7541,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="99">
+    <row r="3" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A3" s="41">
         <v>2</v>
       </c>
@@ -7545,67 +7552,67 @@
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="41">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="41">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="41">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>15</v>
       </c>

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{89D410B4-3B2E-4F50-9F21-7510A3189D51}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B66D0188-1233-45A5-8655-A2EC590523E0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1971,11 +1971,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">select name, to_char(birth, 'yyyy/mm/dd'), email, address_city||' '||address_gu||' '||address_dong as address, phone_num, profile_photo from users where user_id=? </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>same</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">select name, to_char(birth, 'yyyy/mm/dd'), email, address_city, address_gu, address_dong, phone_num, profile_photo from users where user_id=? </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2607,16 +2607,7 @@
     <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -5427,8 +5418,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6308,7 +6299,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="100" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C67" s="83"/>
       <c r="D67" s="84" t="s">
@@ -6918,7 +6909,7 @@
         <v>144</v>
       </c>
       <c r="F126" s="82" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B66D0188-1233-45A5-8655-A2EC590523E0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D55F5D4D-D229-432A-8713-457C39E493E0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="416">
   <si>
     <t>업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5418,8 +5418,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F120" sqref="F120"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6298,17 +6298,15 @@
       <c r="A67" s="43">
         <v>66</v>
       </c>
-      <c r="B67" s="100" t="s">
+      <c r="B67" s="45" t="s">
         <v>414</v>
       </c>
-      <c r="C67" s="83"/>
-      <c r="D67" s="84" t="s">
+      <c r="C67" s="68"/>
+      <c r="D67" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="85"/>
-      <c r="F67" s="82" t="s">
-        <v>391</v>
-      </c>
+      <c r="E67" s="66"/>
+      <c r="F67" s="43"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="43">

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D55F5D4D-D229-432A-8713-457C39E493E0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="진행일정" sheetId="3" r:id="rId1"/>
@@ -20,9 +19,9 @@
     <sheet name="발표컨텐츠" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SQL!$F$1:$F$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SQL!$B$1:$B$163</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1982,7 +1981,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-412]m&quot;월&quot;\ d&quot;일&quot;\ dddd"/>
   </numFmts>
@@ -2604,7 +2603,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 2" xfId="1"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2923,7 +2922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H48"/>
   <sheetViews>
@@ -2932,19 +2931,19 @@
       <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="36"/>
-    <col min="2" max="2" width="16.125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="31.125" customWidth="1"/>
-    <col min="4" max="4" width="31.25" customWidth="1"/>
-    <col min="5" max="5" width="34.75" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" style="36"/>
+    <col min="2" max="2" width="16.09765625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="31.09765625" customWidth="1"/>
+    <col min="4" max="4" width="31.19921875" customWidth="1"/>
+    <col min="5" max="5" width="34.69921875" customWidth="1"/>
     <col min="6" max="6" width="31.5" customWidth="1"/>
-    <col min="7" max="7" width="34.625" customWidth="1"/>
-    <col min="8" max="8" width="31.625" customWidth="1"/>
+    <col min="7" max="7" width="34.59765625" customWidth="1"/>
+    <col min="8" max="8" width="31.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="35" t="s">
         <v>215</v>
       </c>
@@ -2970,7 +2969,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B2" s="17">
         <v>43214</v>
       </c>
@@ -2978,19 +2977,19 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B3" s="17">
         <v>43215</v>
       </c>
       <c r="C3" s="15"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B4" s="17">
         <v>43216</v>
       </c>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B5" s="17">
         <v>43217</v>
       </c>
@@ -2998,31 +2997,31 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B6" s="18">
         <v>43218</v>
       </c>
       <c r="C6" s="15"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B7" s="18">
         <v>43219</v>
       </c>
       <c r="C7" s="15"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B8" s="17">
         <v>43220</v>
       </c>
       <c r="C8" s="15"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B9" s="17">
         <v>43221</v>
       </c>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B10" s="17">
         <v>43222</v>
       </c>
@@ -3030,7 +3029,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B11" s="17">
         <v>43223</v>
       </c>
@@ -3038,7 +3037,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B12" s="17">
         <v>43224</v>
       </c>
@@ -3046,31 +3045,31 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B13" s="18">
         <v>43225</v>
       </c>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B14" s="18">
         <v>43226</v>
       </c>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B15" s="18">
         <v>43227</v>
       </c>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B16" s="17">
         <v>43228</v>
       </c>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B17" s="33">
         <v>43229</v>
       </c>
@@ -3081,7 +3080,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="87" x14ac:dyDescent="0.4">
       <c r="B18" s="32">
         <v>43230</v>
       </c>
@@ -3104,7 +3103,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="87" x14ac:dyDescent="0.4">
       <c r="B19" s="32">
         <v>43231</v>
       </c>
@@ -3127,19 +3126,19 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B20" s="18">
         <v>43232</v>
       </c>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B21" s="18">
         <v>43233</v>
       </c>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B22" s="19">
         <v>43234</v>
       </c>
@@ -3162,7 +3161,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="87" x14ac:dyDescent="0.4">
       <c r="B23" s="19">
         <v>43235</v>
       </c>
@@ -3185,7 +3184,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="15" t="s">
         <v>381</v>
       </c>
@@ -3193,7 +3192,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="36" t="s">
         <v>209</v>
       </c>
@@ -3202,7 +3201,7 @@
       </c>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="36" t="s">
         <v>209</v>
       </c>
@@ -3211,19 +3210,19 @@
       </c>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B27" s="18">
         <v>43239</v>
       </c>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B28" s="18">
         <v>43240</v>
       </c>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="36" t="s">
         <v>210</v>
       </c>
@@ -3232,7 +3231,7 @@
       </c>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="36" t="s">
         <v>211</v>
       </c>
@@ -3241,37 +3240,37 @@
       </c>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B31" s="19">
         <v>43243</v>
       </c>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B32" s="19">
         <v>43244</v>
       </c>
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B33" s="19">
         <v>43245</v>
       </c>
       <c r="C33" s="15"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B34" s="18">
         <v>43246</v>
       </c>
       <c r="C34" s="15"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B35" s="18">
         <v>43247</v>
       </c>
       <c r="C35" s="15"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B36" s="19">
         <v>43248</v>
       </c>
@@ -3279,13 +3278,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B37" s="19">
         <v>43249</v>
       </c>
       <c r="C37" s="15"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B38" s="19">
         <v>43250</v>
       </c>
@@ -3293,7 +3292,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="36" t="s">
         <v>209</v>
       </c>
@@ -3302,31 +3301,31 @@
       </c>
       <c r="C39" s="15"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B40" s="17">
         <v>43252</v>
       </c>
       <c r="C40" s="15"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B41" s="18">
         <v>43253</v>
       </c>
       <c r="C41" s="15"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B42" s="18">
         <v>43254</v>
       </c>
       <c r="C42" s="15"/>
     </row>
-    <row r="43" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B43" s="19">
         <v>43255</v>
       </c>
       <c r="C43" s="15"/>
     </row>
-    <row r="44" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="20">
         <v>43256</v>
       </c>
@@ -3334,19 +3333,19 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B45" s="18">
         <v>43257</v>
       </c>
       <c r="C45" s="15"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B46" s="19">
         <v>43258</v>
       </c>
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B47" s="19">
         <v>43259</v>
       </c>
@@ -3354,7 +3353,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B48" s="17"/>
       <c r="C48" s="15"/>
     </row>
@@ -3366,7 +3365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K155"/>
   <sheetViews>
@@ -3375,22 +3374,22 @@
       <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="50.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="23.25" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="4.69921875" customWidth="1"/>
+    <col min="2" max="2" width="6.8984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="50.69921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.19921875" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="7"/>
+    <col min="9" max="9" width="11.59765625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="11.69921875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -3421,7 +3420,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -3439,7 +3438,7 @@
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -3455,7 +3454,7 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -3479,7 +3478,7 @@
       </c>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -3503,7 +3502,7 @@
       </c>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -3519,7 +3518,7 @@
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -3535,7 +3534,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -3551,7 +3550,7 @@
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -3567,7 +3566,7 @@
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -3583,7 +3582,7 @@
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -3609,7 +3608,7 @@
       </c>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -3620,7 +3619,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -3636,7 +3635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -3652,7 +3651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -3667,7 +3666,7 @@
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -3690,7 +3689,7 @@
       </c>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -3705,7 +3704,7 @@
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -3728,7 +3727,7 @@
       </c>
       <c r="J18" s="22"/>
     </row>
-    <row r="19" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -3751,7 +3750,7 @@
       </c>
       <c r="J19" s="22"/>
     </row>
-    <row r="20" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -3774,7 +3773,7 @@
       </c>
       <c r="J20" s="22"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -3789,7 +3788,7 @@
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -3804,7 +3803,7 @@
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -3819,7 +3818,7 @@
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -3844,7 +3843,7 @@
       </c>
       <c r="J24" s="55"/>
     </row>
-    <row r="25" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -3867,7 +3866,7 @@
       </c>
       <c r="J25" s="55"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -3882,7 +3881,7 @@
       <c r="I26" s="55"/>
       <c r="J26" s="55"/>
     </row>
-    <row r="27" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -3908,7 +3907,7 @@
       </c>
       <c r="J27" s="28"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -3924,7 +3923,7 @@
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -3940,7 +3939,7 @@
       <c r="I29" s="57"/>
       <c r="J29" s="57"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -3958,7 +3957,7 @@
       <c r="I30" s="57"/>
       <c r="J30" s="57"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -3976,7 +3975,7 @@
       <c r="I31" s="57"/>
       <c r="J31" s="57"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -3992,7 +3991,7 @@
       <c r="I32" s="28"/>
       <c r="J32" s="28"/>
     </row>
-    <row r="33" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -4016,7 +4015,7 @@
       </c>
       <c r="J33" s="28"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -4032,7 +4031,7 @@
       <c r="I34" s="28"/>
       <c r="J34" s="28"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -4056,7 +4055,7 @@
       </c>
       <c r="J35" s="28"/>
     </row>
-    <row r="36" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -4080,7 +4079,7 @@
       </c>
       <c r="J36" s="28"/>
     </row>
-    <row r="37" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -4104,7 +4103,7 @@
       </c>
       <c r="J37" s="28"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -4120,7 +4119,7 @@
       <c r="I38" s="28"/>
       <c r="J38" s="28"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -4136,7 +4135,7 @@
       <c r="I39" s="28"/>
       <c r="J39" s="28"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -4152,7 +4151,7 @@
       <c r="I40" s="28"/>
       <c r="J40" s="28"/>
     </row>
-    <row r="41" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -4178,7 +4177,7 @@
       </c>
       <c r="J41" s="28"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -4202,7 +4201,7 @@
       </c>
       <c r="J42" s="55"/>
     </row>
-    <row r="43" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -4226,7 +4225,7 @@
       </c>
       <c r="J43" s="55"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -4242,7 +4241,7 @@
       <c r="I44" s="28"/>
       <c r="J44" s="28"/>
     </row>
-    <row r="45" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -4268,7 +4267,7 @@
       </c>
       <c r="J45" s="28"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -4284,7 +4283,7 @@
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -4302,7 +4301,7 @@
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
     </row>
-    <row r="48" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -4326,7 +4325,7 @@
       </c>
       <c r="J48" s="22"/>
     </row>
-    <row r="49" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -4350,7 +4349,7 @@
       </c>
       <c r="J49" s="22"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4361,7 +4360,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4375,7 +4374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4386,7 +4385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4397,7 +4396,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4411,7 +4410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4422,7 +4421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4436,7 +4435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4450,7 +4449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4467,7 +4466,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4475,7 +4474,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4483,7 +4482,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4494,7 +4493,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4505,7 +4504,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4519,7 +4518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4527,7 +4526,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4538,7 +4537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4546,7 +4545,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4554,7 +4553,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4568,7 +4567,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4579,7 +4578,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4587,7 +4586,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4598,7 +4597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4606,7 +4605,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4614,7 +4613,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4622,7 +4621,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4630,7 +4629,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4638,7 +4637,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4646,7 +4645,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4654,7 +4653,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4662,7 +4661,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4670,7 +4669,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4678,7 +4677,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4686,7 +4685,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4697,7 +4696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4708,7 +4707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4716,7 +4715,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4724,7 +4723,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4732,7 +4731,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4740,7 +4739,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4751,7 +4750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4762,7 +4761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4770,7 +4769,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4781,7 +4780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4792,7 +4791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4800,7 +4799,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4808,7 +4807,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4816,7 +4815,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4827,7 +4826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4841,7 +4840,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4849,7 +4848,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4857,7 +4856,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4868,7 +4867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4882,7 +4881,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4890,7 +4889,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4901,7 +4900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4912,7 +4911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4926,7 +4925,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4940,7 +4939,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4951,7 +4950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4962,7 +4961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4973,7 +4972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4984,7 +4983,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4992,7 +4991,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5000,7 +4999,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5011,7 +5010,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5019,7 +5018,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5030,7 +5029,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5041,7 +5040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5055,7 +5054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5063,7 +5062,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5071,7 +5070,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5079,7 +5078,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5087,7 +5086,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5095,7 +5094,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5103,7 +5102,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5111,7 +5110,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5119,7 +5118,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5127,7 +5126,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5138,7 +5137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5146,7 +5145,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5157,7 +5156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5168,7 +5167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5176,7 +5175,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5184,7 +5183,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5198,7 +5197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5209,7 +5208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5217,7 +5216,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5225,7 +5224,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5233,7 +5232,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5241,7 +5240,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5249,7 +5248,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5257,7 +5256,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5271,7 +5270,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5282,7 +5281,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5290,7 +5289,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5298,7 +5297,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5306,7 +5305,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5314,7 +5313,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5322,7 +5321,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5333,7 +5332,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5344,7 +5343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5355,7 +5354,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5372,7 +5371,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5386,7 +5385,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5397,7 +5396,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H155">
         <f>COUNTA(H2:H154)</f>
         <v>61</v>
@@ -5414,26 +5413,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="47" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="70" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="75" customWidth="1"/>
+    <col min="1" max="1" width="4.69921875" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" style="47" customWidth="1"/>
+    <col min="3" max="3" width="6.69921875" style="70" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" style="75" customWidth="1"/>
     <col min="5" max="5" width="62.5" style="64" customWidth="1"/>
     <col min="6" max="6" width="179" customWidth="1"/>
     <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="58" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="58" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="58" t="s">
         <v>288</v>
       </c>
@@ -5452,7 +5451,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -5464,7 +5463,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -5477,7 +5476,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -5496,7 +5495,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -5515,7 +5514,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -5526,7 +5525,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -5537,7 +5536,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -5548,7 +5547,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -5559,7 +5558,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -5567,7 +5566,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="109.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="109.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -5583,7 +5582,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -5591,7 +5590,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -5605,7 +5604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -5619,7 +5618,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -5631,7 +5630,7 @@
       <c r="E15" s="66"/>
       <c r="F15" s="43"/>
     </row>
-    <row r="16" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -5647,7 +5646,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -5659,7 +5658,7 @@
       <c r="E17" s="66"/>
       <c r="F17" s="43"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -5675,7 +5674,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -5691,7 +5690,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -5707,7 +5706,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -5715,7 +5714,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -5723,7 +5722,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -5731,7 +5730,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -5747,7 +5746,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -5763,7 +5762,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -5771,7 +5770,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="165" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="174" x14ac:dyDescent="0.4">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -5787,7 +5786,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -5796,7 +5795,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -5804,7 +5803,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -5815,7 +5814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -5826,7 +5825,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -5838,7 +5837,7 @@
       <c r="E32" s="66"/>
       <c r="F32" s="43"/>
     </row>
-    <row r="33" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -5854,7 +5853,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -5862,7 +5861,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -5878,7 +5877,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -5894,7 +5893,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -5910,7 +5909,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -5918,7 +5917,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -5932,7 +5931,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -5940,7 +5939,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -5956,7 +5955,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -5972,7 +5971,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -5988,7 +5987,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -5996,7 +5995,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -6012,7 +6011,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -6020,7 +6019,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -6032,7 +6031,7 @@
       <c r="E47" s="66"/>
       <c r="F47" s="43"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -6044,7 +6043,7 @@
       <c r="E48" s="66"/>
       <c r="F48" s="49"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -6060,7 +6059,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A50" s="14">
         <v>49</v>
       </c>
@@ -6076,7 +6075,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A51" s="14">
         <v>50</v>
       </c>
@@ -6092,7 +6091,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="14">
         <v>51</v>
       </c>
@@ -6104,7 +6103,7 @@
       <c r="E52" s="66"/>
       <c r="F52" s="49"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="14">
         <v>52</v>
       </c>
@@ -6120,7 +6119,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A54" s="14">
         <v>53</v>
       </c>
@@ -6136,7 +6135,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A55" s="14">
         <v>54</v>
       </c>
@@ -6152,7 +6151,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A56" s="43">
         <v>55</v>
       </c>
@@ -6166,7 +6165,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="43">
         <v>56</v>
       </c>
@@ -6180,7 +6179,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="43">
         <v>57</v>
       </c>
@@ -6194,7 +6193,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="43">
         <v>58</v>
       </c>
@@ -6208,7 +6207,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="43">
         <v>59</v>
       </c>
@@ -6222,7 +6221,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="43">
         <v>60</v>
       </c>
@@ -6236,7 +6235,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A62" s="43">
         <v>61</v>
       </c>
@@ -6250,7 +6249,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="43">
         <v>62</v>
       </c>
@@ -6264,7 +6263,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="43">
         <v>63</v>
       </c>
@@ -6278,7 +6277,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="43">
         <v>64</v>
       </c>
@@ -6286,7 +6285,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="43">
         <v>65</v>
       </c>
@@ -6294,7 +6293,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="43">
         <v>66</v>
       </c>
@@ -6308,7 +6307,7 @@
       <c r="E67" s="66"/>
       <c r="F67" s="43"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="43">
         <v>67</v>
       </c>
@@ -6316,7 +6315,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A69" s="43">
         <v>68</v>
       </c>
@@ -6330,7 +6329,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="43">
         <v>69</v>
       </c>
@@ -6338,7 +6337,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="43">
         <v>70</v>
       </c>
@@ -6352,7 +6351,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="43">
         <v>71</v>
       </c>
@@ -6360,7 +6359,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="43">
         <v>72</v>
       </c>
@@ -6368,7 +6367,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="43">
         <v>73</v>
       </c>
@@ -6379,7 +6378,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="43">
         <v>74</v>
       </c>
@@ -6387,7 +6386,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="43">
         <v>75</v>
       </c>
@@ -6395,7 +6394,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="43">
         <v>76</v>
       </c>
@@ -6409,7 +6408,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="43">
         <v>77</v>
       </c>
@@ -6417,7 +6416,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="43">
         <v>78</v>
       </c>
@@ -6425,7 +6424,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="43">
         <v>79</v>
       </c>
@@ -6433,7 +6432,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="43">
         <v>80</v>
       </c>
@@ -6441,7 +6440,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="43">
         <v>81</v>
       </c>
@@ -6449,7 +6448,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="43">
         <v>82</v>
       </c>
@@ -6457,7 +6456,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="43">
         <v>83</v>
       </c>
@@ -6465,7 +6464,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="43">
         <v>84</v>
       </c>
@@ -6473,7 +6472,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="43">
         <v>85</v>
       </c>
@@ -6481,7 +6480,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="43">
         <v>86</v>
       </c>
@@ -6489,7 +6488,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="43">
         <v>87</v>
       </c>
@@ -6497,7 +6496,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="43">
         <v>88</v>
       </c>
@@ -6505,7 +6504,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="43">
         <v>89</v>
       </c>
@@ -6514,7 +6513,7 @@
       </c>
       <c r="F90" s="64"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="43">
         <v>90</v>
       </c>
@@ -6522,7 +6521,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="43">
         <v>91</v>
       </c>
@@ -6538,7 +6537,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="43">
         <v>92</v>
       </c>
@@ -6547,7 +6546,7 @@
       </c>
       <c r="F93" s="64"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="43">
         <v>93</v>
       </c>
@@ -6555,7 +6554,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="43">
         <v>94</v>
       </c>
@@ -6566,7 +6565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="43">
         <v>95</v>
       </c>
@@ -6580,7 +6579,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="43">
         <v>96</v>
       </c>
@@ -6588,7 +6587,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="43">
         <v>97</v>
       </c>
@@ -6602,7 +6601,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="43">
         <v>98</v>
       </c>
@@ -6616,7 +6615,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="43">
         <v>99</v>
       </c>
@@ -6624,7 +6623,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="43">
         <v>100</v>
       </c>
@@ -6632,7 +6631,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="43">
         <v>101</v>
       </c>
@@ -6640,7 +6639,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="43">
         <v>102</v>
       </c>
@@ -6651,7 +6650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="43">
         <v>103</v>
       </c>
@@ -6662,7 +6661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="43">
         <v>104</v>
       </c>
@@ -6670,7 +6669,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="43">
         <v>105</v>
       </c>
@@ -6678,7 +6677,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="43">
         <v>106</v>
       </c>
@@ -6692,7 +6691,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="43">
         <v>107</v>
       </c>
@@ -6700,7 +6699,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="43">
         <v>108</v>
       </c>
@@ -6714,7 +6713,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="43">
         <v>109</v>
       </c>
@@ -6722,7 +6721,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="43">
         <v>110</v>
       </c>
@@ -6736,7 +6735,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="43">
         <v>111</v>
       </c>
@@ -6750,7 +6749,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="231" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="243.6" x14ac:dyDescent="0.4">
       <c r="A113" s="43">
         <v>112</v>
       </c>
@@ -6764,7 +6763,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="43">
         <v>113</v>
       </c>
@@ -6778,7 +6777,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="43">
         <v>114</v>
       </c>
@@ -6792,7 +6791,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="43">
         <v>115</v>
       </c>
@@ -6806,7 +6805,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A117" s="43">
         <v>116</v>
       </c>
@@ -6820,7 +6819,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="43">
         <v>117</v>
       </c>
@@ -6828,7 +6827,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="43">
         <v>118</v>
       </c>
@@ -6836,7 +6835,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="43">
         <v>119</v>
       </c>
@@ -6844,7 +6843,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" s="43">
         <v>120</v>
       </c>
@@ -6852,7 +6851,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="43">
         <v>121</v>
       </c>
@@ -6860,7 +6859,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="43">
         <v>122</v>
       </c>
@@ -6868,7 +6867,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" s="43">
         <v>123</v>
       </c>
@@ -6882,7 +6881,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="43">
         <v>124</v>
       </c>
@@ -6896,7 +6895,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="43">
         <v>125</v>
       </c>
@@ -6910,7 +6909,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="43">
         <v>126</v>
       </c>
@@ -6918,7 +6917,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="43">
         <v>127</v>
       </c>
@@ -6926,7 +6925,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="43">
         <v>128</v>
       </c>
@@ -6934,7 +6933,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="43">
         <v>129</v>
       </c>
@@ -6948,7 +6947,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="43">
         <v>130</v>
       </c>
@@ -6962,7 +6961,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" s="43">
         <v>131</v>
       </c>
@@ -6976,7 +6975,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="43">
         <v>132</v>
       </c>
@@ -6984,7 +6983,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="43">
         <v>133</v>
       </c>
@@ -6992,7 +6991,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" s="43">
         <v>134</v>
       </c>
@@ -7000,7 +6999,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" s="43">
         <v>135</v>
       </c>
@@ -7008,7 +7007,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="43">
         <v>136</v>
       </c>
@@ -7019,7 +7018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="43">
         <v>137</v>
       </c>
@@ -7033,7 +7032,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" s="43">
         <v>138</v>
       </c>
@@ -7047,7 +7046,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" s="43">
         <v>139</v>
       </c>
@@ -7061,7 +7060,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="43">
         <v>140</v>
       </c>
@@ -7069,7 +7068,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="43">
         <v>141</v>
       </c>
@@ -7077,7 +7076,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" s="43">
         <v>142</v>
       </c>
@@ -7091,7 +7090,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" s="43">
         <v>143</v>
       </c>
@@ -7105,7 +7104,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" s="43">
         <v>144</v>
       </c>
@@ -7113,7 +7112,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" s="43">
         <v>145</v>
       </c>
@@ -7121,7 +7120,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" s="43">
         <v>146</v>
       </c>
@@ -7129,7 +7128,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" s="43">
         <v>147</v>
       </c>
@@ -7137,7 +7136,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" s="43">
         <v>148</v>
       </c>
@@ -7145,7 +7144,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" s="43">
         <v>149</v>
       </c>
@@ -7154,7 +7153,7 @@
       </c>
       <c r="F150" s="43"/>
     </row>
-    <row r="151" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" ht="87" x14ac:dyDescent="0.4">
       <c r="A151" s="43">
         <v>150</v>
       </c>
@@ -7168,7 +7167,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" s="43">
         <v>151</v>
       </c>
@@ -7182,7 +7181,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" s="43">
         <v>152</v>
       </c>
@@ -7190,7 +7189,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" s="43">
         <v>153</v>
       </c>
@@ -7198,7 +7197,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" s="43">
         <v>154</v>
       </c>
@@ -7206,7 +7205,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" s="43">
         <v>155</v>
       </c>
@@ -7214,7 +7213,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" s="43">
         <v>156</v>
       </c>
@@ -7222,7 +7221,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" s="43">
         <v>157</v>
       </c>
@@ -7230,7 +7229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="264" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" ht="278.39999999999998" x14ac:dyDescent="0.4">
       <c r="A159" s="43">
         <v>158</v>
       </c>
@@ -7244,7 +7243,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" s="43">
         <v>159</v>
       </c>
@@ -7252,7 +7251,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="43">
         <v>160</v>
       </c>
@@ -7260,7 +7259,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="43">
         <v>161</v>
       </c>
@@ -7268,7 +7267,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="43">
         <v>162</v>
       </c>
@@ -7277,6 +7276,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B163"/>
   <mergeCells count="1">
     <mergeCell ref="C1:E1"/>
   </mergeCells>
@@ -7287,7 +7287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -7295,12 +7295,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="41" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="38" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="38" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="40" t="s">
         <v>234</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="41">
         <v>1</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="41">
         <v>2</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="41">
         <v>3</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="41">
         <v>4</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="41">
         <v>5</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <v>6</v>
       </c>
@@ -7371,117 +7371,117 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="41">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="41">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="41">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="41">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="41">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="41">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="41">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="41">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="41">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="41">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="41">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="41">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="41">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <v>29</v>
       </c>
@@ -7493,7 +7493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -7501,13 +7501,13 @@
       <selection activeCell="E9" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="41" customWidth="1"/>
-    <col min="3" max="3" width="79.875" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="79.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="37" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="37" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="40" t="s">
         <v>31</v>
       </c>
@@ -7519,7 +7519,7 @@
       </c>
       <c r="D1" s="39"/>
     </row>
-    <row r="2" spans="1:4" ht="50.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="52.8" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="41">
         <v>1</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A3" s="41">
         <v>2</v>
       </c>
@@ -7541,67 +7541,67 @@
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="41">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="41">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="41">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="41">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="41">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="41">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <v>15</v>
       </c>

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7858FB58-E19A-4717-9E90-956E67B38B9A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="진행일정" sheetId="3" r:id="rId1"/>
@@ -19,9 +20,9 @@
     <sheet name="발표컨텐츠" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SQL!$B$1:$B$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SQL!$B$1:$B$164</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="418">
   <si>
     <t>업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1792,14 +1793,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select u.profile_photo, u.name, u.gender, u.birth, s.work_part from users u, staffs s where s.branch_seq=? And s.join_date is null And u.user_id=s.staff_id order by u.name asc;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select u.profile_photo, u.name, u.gender, u.birth, s.work_part from users u, staffs s where s.branch_seq=? and s.join_date is not null and s.leave_date is null And u.user_id=s.staff_id order by u.name asc;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>서블릿 컨테이너 시작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1845,10 +1838,6 @@
   <si>
     <t>#다시짜야함. 재승인요청or재입사 했을 경우도 같이 출력됨.
 select u.profile_photo, u.name, u.gender, u.birth from users u, staffs s where s.branch_seq=? and s.join_date is not null and s.leave_date is not null And u.user_id=s.staff_id order by u.name asc;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select u.profile_photo, u.name, u.gender, u.birth, s.join_date, s.leave_date, s.work_part, s.bank_name, s.account_num, s.resume_file, s.health_file, s.bank_file from users u, staffs s where staff_id=?;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1977,11 +1966,31 @@
     <t xml:space="preserve">select name, to_char(birth, 'yyyy/mm/dd'), email, address_city, address_gu, address_dong, phone_num, profile_photo from users where user_id=? </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>직원 소속파트 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update staffs set work_part=#{workPart} where staff_id=#{staffId} and branch_seq=#{branchSeq} and join_date is not null and leave_date is null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select s.staff_id, u.gender, u.name, u.profile_photo, u.birth, s.work_part  from users u, staffs s where s.branch_seq=? and s.join_date is not null and s.leave_date is null And u.user_id=s.staff_id order by u.name asc;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select u.profile_photo, u.name, u.gender, u.birth from users u, staffs s where s.branch_seq=? And s.join_date is null And u.user_id=s.staff_id order by u.name asc;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select u.profile_photo, u.name, u.gender, u.birth, s.join_date, s.leave_date, s.work_part, s.bank_name, s.account_num, s.resume_file, s.health_file, s.bank_file, u.phone_num from users u, staffs s where staff_id=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-412]m&quot;월&quot;\ d&quot;일&quot;\ dddd"/>
   </numFmts>
@@ -2603,7 +2612,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2922,7 +2931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H48"/>
   <sheetViews>
@@ -2931,19 +2940,19 @@
       <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="36"/>
-    <col min="2" max="2" width="16.09765625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="31.09765625" customWidth="1"/>
-    <col min="4" max="4" width="31.19921875" customWidth="1"/>
-    <col min="5" max="5" width="34.69921875" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="36"/>
+    <col min="2" max="2" width="16.08203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="31.08203125" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" customWidth="1"/>
     <col min="6" max="6" width="31.5" customWidth="1"/>
-    <col min="7" max="7" width="34.59765625" customWidth="1"/>
-    <col min="8" max="8" width="31.59765625" customWidth="1"/>
+    <col min="7" max="7" width="34.58203125" customWidth="1"/>
+    <col min="8" max="8" width="31.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="35" t="s">
         <v>215</v>
       </c>
@@ -2969,7 +2978,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B2" s="17">
         <v>43214</v>
       </c>
@@ -2977,19 +2986,19 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B3" s="17">
         <v>43215</v>
       </c>
       <c r="C3" s="15"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4" s="17">
         <v>43216</v>
       </c>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="17">
         <v>43217</v>
       </c>
@@ -2997,31 +3006,31 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="18">
         <v>43218</v>
       </c>
       <c r="C6" s="15"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="18">
         <v>43219</v>
       </c>
       <c r="C7" s="15"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="17">
         <v>43220</v>
       </c>
       <c r="C8" s="15"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="17">
         <v>43221</v>
       </c>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="17">
         <v>43222</v>
       </c>
@@ -3029,7 +3038,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" s="17">
         <v>43223</v>
       </c>
@@ -3037,7 +3046,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" s="17">
         <v>43224</v>
       </c>
@@ -3045,31 +3054,31 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" s="18">
         <v>43225</v>
       </c>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" s="18">
         <v>43226</v>
       </c>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B15" s="18">
         <v>43227</v>
       </c>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B16" s="17">
         <v>43228</v>
       </c>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B17" s="33">
         <v>43229</v>
       </c>
@@ -3080,7 +3089,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="87" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="85" x14ac:dyDescent="0.45">
       <c r="B18" s="32">
         <v>43230</v>
       </c>
@@ -3103,7 +3112,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="87" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="85" x14ac:dyDescent="0.45">
       <c r="B19" s="32">
         <v>43231</v>
       </c>
@@ -3126,24 +3135,24 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B20" s="18">
         <v>43232</v>
       </c>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B21" s="18">
         <v>43233</v>
       </c>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="68" x14ac:dyDescent="0.45">
       <c r="B22" s="19">
         <v>43234</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>283</v>
@@ -3161,38 +3170,38 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="87" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="85" x14ac:dyDescent="0.45">
       <c r="B23" s="19">
         <v>43235</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B24" s="19">
         <v>43236</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="36" t="s">
         <v>209</v>
       </c>
@@ -3201,7 +3210,7 @@
       </c>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="36" t="s">
         <v>209</v>
       </c>
@@ -3210,19 +3219,19 @@
       </c>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B27" s="18">
         <v>43239</v>
       </c>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B28" s="18">
         <v>43240</v>
       </c>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="36" t="s">
         <v>210</v>
       </c>
@@ -3231,7 +3240,7 @@
       </c>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="36" t="s">
         <v>211</v>
       </c>
@@ -3240,37 +3249,37 @@
       </c>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B31" s="19">
         <v>43243</v>
       </c>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B32" s="19">
         <v>43244</v>
       </c>
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B33" s="19">
         <v>43245</v>
       </c>
       <c r="C33" s="15"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B34" s="18">
         <v>43246</v>
       </c>
       <c r="C34" s="15"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B35" s="18">
         <v>43247</v>
       </c>
       <c r="C35" s="15"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B36" s="19">
         <v>43248</v>
       </c>
@@ -3278,13 +3287,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B37" s="19">
         <v>43249</v>
       </c>
       <c r="C37" s="15"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B38" s="19">
         <v>43250</v>
       </c>
@@ -3292,7 +3301,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="36" t="s">
         <v>209</v>
       </c>
@@ -3301,31 +3310,31 @@
       </c>
       <c r="C39" s="15"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B40" s="17">
         <v>43252</v>
       </c>
       <c r="C40" s="15"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B41" s="18">
         <v>43253</v>
       </c>
       <c r="C41" s="15"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B42" s="18">
         <v>43254</v>
       </c>
       <c r="C42" s="15"/>
     </row>
-    <row r="43" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B43" s="19">
         <v>43255</v>
       </c>
       <c r="C43" s="15"/>
     </row>
-    <row r="44" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="20">
         <v>43256</v>
       </c>
@@ -3333,19 +3342,19 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B45" s="18">
         <v>43257</v>
       </c>
       <c r="C45" s="15"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B46" s="19">
         <v>43258</v>
       </c>
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B47" s="19">
         <v>43259</v>
       </c>
@@ -3353,7 +3362,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B48" s="17"/>
       <c r="C48" s="15"/>
     </row>
@@ -3365,7 +3374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K155"/>
   <sheetViews>
@@ -3374,22 +3383,22 @@
       <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" customWidth="1"/>
-    <col min="2" max="2" width="6.8984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="50.69921875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="23.19921875" customWidth="1"/>
-    <col min="6" max="6" width="19.59765625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.9140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.4140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.58203125" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="11.69921875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.69921875" style="7"/>
+    <col min="9" max="9" width="11.58203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -3420,7 +3429,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -3438,7 +3447,7 @@
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -3454,7 +3463,7 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -3478,7 +3487,7 @@
       </c>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.45">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -3502,7 +3511,7 @@
       </c>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -3518,7 +3527,7 @@
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -3534,7 +3543,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -3550,7 +3559,7 @@
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -3566,7 +3575,7 @@
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -3582,7 +3591,7 @@
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="34" x14ac:dyDescent="0.45">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -3608,7 +3617,7 @@
       </c>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -3619,7 +3628,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -3635,7 +3644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -3651,7 +3660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -3666,7 +3675,7 @@
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="16" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="34" x14ac:dyDescent="0.45">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -3689,7 +3698,7 @@
       </c>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -3704,7 +3713,7 @@
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -3727,7 +3736,7 @@
       </c>
       <c r="J18" s="22"/>
     </row>
-    <row r="19" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -3750,7 +3759,7 @@
       </c>
       <c r="J19" s="22"/>
     </row>
-    <row r="20" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -3773,7 +3782,7 @@
       </c>
       <c r="J20" s="22"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -3788,7 +3797,7 @@
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -3803,7 +3812,7 @@
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -3818,7 +3827,7 @@
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -3843,7 +3852,7 @@
       </c>
       <c r="J24" s="55"/>
     </row>
-    <row r="25" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -3866,7 +3875,7 @@
       </c>
       <c r="J25" s="55"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -3881,7 +3890,7 @@
       <c r="I26" s="55"/>
       <c r="J26" s="55"/>
     </row>
-    <row r="27" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" ht="34" x14ac:dyDescent="0.45">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -3907,7 +3916,7 @@
       </c>
       <c r="J27" s="28"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -3923,7 +3932,7 @@
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -3939,7 +3948,7 @@
       <c r="I29" s="57"/>
       <c r="J29" s="57"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -3957,7 +3966,7 @@
       <c r="I30" s="57"/>
       <c r="J30" s="57"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -3975,7 +3984,7 @@
       <c r="I31" s="57"/>
       <c r="J31" s="57"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -3991,7 +4000,7 @@
       <c r="I32" s="28"/>
       <c r="J32" s="28"/>
     </row>
-    <row r="33" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" ht="34" x14ac:dyDescent="0.45">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -4015,7 +4024,7 @@
       </c>
       <c r="J33" s="28"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -4031,7 +4040,7 @@
       <c r="I34" s="28"/>
       <c r="J34" s="28"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -4055,7 +4064,7 @@
       </c>
       <c r="J35" s="28"/>
     </row>
-    <row r="36" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -4079,7 +4088,7 @@
       </c>
       <c r="J36" s="28"/>
     </row>
-    <row r="37" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -4103,7 +4112,7 @@
       </c>
       <c r="J37" s="28"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -4119,7 +4128,7 @@
       <c r="I38" s="28"/>
       <c r="J38" s="28"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -4135,7 +4144,7 @@
       <c r="I39" s="28"/>
       <c r="J39" s="28"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -4151,7 +4160,7 @@
       <c r="I40" s="28"/>
       <c r="J40" s="28"/>
     </row>
-    <row r="41" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" ht="34" x14ac:dyDescent="0.45">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -4177,7 +4186,7 @@
       </c>
       <c r="J41" s="28"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -4201,7 +4210,7 @@
       </c>
       <c r="J42" s="55"/>
     </row>
-    <row r="43" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -4225,7 +4234,7 @@
       </c>
       <c r="J43" s="55"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -4241,7 +4250,7 @@
       <c r="I44" s="28"/>
       <c r="J44" s="28"/>
     </row>
-    <row r="45" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" ht="34" x14ac:dyDescent="0.45">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -4267,7 +4276,7 @@
       </c>
       <c r="J45" s="28"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -4283,7 +4292,7 @@
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -4301,7 +4310,7 @@
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
     </row>
-    <row r="48" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -4325,7 +4334,7 @@
       </c>
       <c r="J48" s="22"/>
     </row>
-    <row r="49" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -4349,7 +4358,7 @@
       </c>
       <c r="J49" s="22"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4360,7 +4369,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4374,7 +4383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4385,7 +4394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4396,7 +4405,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4410,7 +4419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4421,7 +4430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4435,7 +4444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4449,7 +4458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4466,7 +4475,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4474,7 +4483,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4482,7 +4491,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4493,7 +4502,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4504,7 +4513,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4518,7 +4527,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4526,7 +4535,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4537,7 +4546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4545,7 +4554,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4553,7 +4562,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4567,7 +4576,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4578,7 +4587,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4586,7 +4595,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4597,7 +4606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4605,7 +4614,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4613,7 +4622,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4621,7 +4630,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4629,7 +4638,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4637,7 +4646,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4645,7 +4654,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4653,7 +4662,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4661,7 +4670,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4669,7 +4678,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4677,7 +4686,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4685,7 +4694,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4696,7 +4705,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4707,7 +4716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4715,7 +4724,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4723,7 +4732,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4731,7 +4740,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4739,7 +4748,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4750,7 +4759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4761,7 +4770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4769,7 +4778,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4780,7 +4789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4791,7 +4800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4799,7 +4808,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4807,7 +4816,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4815,7 +4824,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4826,7 +4835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4840,7 +4849,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4848,7 +4857,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4856,7 +4865,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4867,7 +4876,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4881,7 +4890,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4889,7 +4898,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4900,7 +4909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4911,7 +4920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4925,7 +4934,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4939,7 +4948,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4950,7 +4959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4961,7 +4970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4972,7 +4981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4983,7 +4992,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4991,7 +5000,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4999,7 +5008,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5010,7 +5019,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5018,7 +5027,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5029,7 +5038,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5040,7 +5049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5054,7 +5063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5062,7 +5071,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5070,7 +5079,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5078,7 +5087,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5086,7 +5095,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5094,7 +5103,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5102,7 +5111,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5110,7 +5119,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5118,7 +5127,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5126,7 +5135,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5137,7 +5146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5145,7 +5154,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5156,7 +5165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5167,7 +5176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5175,7 +5184,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5183,7 +5192,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5197,7 +5206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5208,7 +5217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5216,7 +5225,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5224,7 +5233,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5232,7 +5241,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5240,7 +5249,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5248,7 +5257,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5256,7 +5265,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5270,7 +5279,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5281,7 +5290,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5289,7 +5298,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5297,7 +5306,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5305,7 +5314,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5313,7 +5322,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5321,7 +5330,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5332,7 +5341,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5343,7 +5352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5354,7 +5363,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5371,7 +5380,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5385,7 +5394,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5396,7 +5405,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H155">
         <f>COUNTA(H2:H154)</f>
         <v>61</v>
@@ -5413,26 +5422,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="F55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" customWidth="1"/>
-    <col min="2" max="2" width="10.19921875" style="47" customWidth="1"/>
-    <col min="3" max="3" width="6.69921875" style="70" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" style="75" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="70" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" style="75" customWidth="1"/>
     <col min="5" max="5" width="62.5" style="64" customWidth="1"/>
     <col min="6" max="6" width="179" customWidth="1"/>
     <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="58" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="58" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="58" t="s">
         <v>288</v>
       </c>
@@ -5451,7 +5460,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -5463,7 +5472,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -5476,7 +5485,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -5495,7 +5504,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.45">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -5514,7 +5523,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -5525,7 +5534,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -5536,7 +5545,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -5547,7 +5556,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -5555,10 +5564,10 @@
         <v>292</v>
       </c>
       <c r="G9" s="115" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -5566,7 +5575,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="109.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="109.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -5582,7 +5591,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -5590,7 +5599,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -5604,7 +5613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -5618,7 +5627,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -5630,7 +5639,7 @@
       <c r="E15" s="66"/>
       <c r="F15" s="43"/>
     </row>
-    <row r="16" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="68" x14ac:dyDescent="0.45">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -5646,7 +5655,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -5658,7 +5667,7 @@
       <c r="E17" s="66"/>
       <c r="F17" s="43"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -5674,7 +5683,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.45">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -5690,7 +5699,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.45">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -5706,7 +5715,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -5714,7 +5723,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -5722,7 +5731,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -5730,7 +5739,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -5746,7 +5755,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -5759,10 +5768,10 @@
       </c>
       <c r="E25" s="63"/>
       <c r="F25" s="52" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -5770,7 +5779,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="174" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="170" x14ac:dyDescent="0.45">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -5786,7 +5795,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -5795,7 +5804,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -5803,7 +5812,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -5814,7 +5823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -5825,7 +5834,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -5837,7 +5846,7 @@
       <c r="E32" s="66"/>
       <c r="F32" s="43"/>
     </row>
-    <row r="33" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" ht="68" x14ac:dyDescent="0.45">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -5853,7 +5862,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -5861,7 +5870,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -5877,7 +5886,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" ht="34" x14ac:dyDescent="0.45">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -5893,7 +5902,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" ht="34" x14ac:dyDescent="0.45">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -5909,7 +5918,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -5917,7 +5926,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -5931,7 +5940,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -5939,7 +5948,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -5955,7 +5964,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -5971,7 +5980,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -5984,10 +5993,10 @@
       </c>
       <c r="E43" s="63"/>
       <c r="F43" s="52" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -5995,7 +6004,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -6011,7 +6020,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -6019,7 +6028,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -6031,7 +6040,7 @@
       <c r="E47" s="66"/>
       <c r="F47" s="43"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -6043,7 +6052,7 @@
       <c r="E48" s="66"/>
       <c r="F48" s="49"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -6059,7 +6068,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" ht="34" x14ac:dyDescent="0.45">
       <c r="A50" s="14">
         <v>49</v>
       </c>
@@ -6075,7 +6084,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.45">
       <c r="A51" s="14">
         <v>50</v>
       </c>
@@ -6091,7 +6100,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="14">
         <v>51</v>
       </c>
@@ -6103,7 +6112,7 @@
       <c r="E52" s="66"/>
       <c r="F52" s="49"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="14">
         <v>52</v>
       </c>
@@ -6119,7 +6128,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.45">
       <c r="A54" s="14">
         <v>53</v>
       </c>
@@ -6135,7 +6144,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.45">
       <c r="A55" s="14">
         <v>54</v>
       </c>
@@ -6151,7 +6160,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" ht="34" x14ac:dyDescent="0.45">
       <c r="A56" s="43">
         <v>55</v>
       </c>
@@ -6165,7 +6174,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="43">
         <v>56</v>
       </c>
@@ -6176,10 +6185,10 @@
       </c>
       <c r="E57" s="63"/>
       <c r="F57" s="52" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="43">
         <v>57</v>
       </c>
@@ -6193,7 +6202,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="43">
         <v>58</v>
       </c>
@@ -6204,10 +6213,10 @@
         <v>317</v>
       </c>
       <c r="F59" s="52" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="43">
         <v>59</v>
       </c>
@@ -6218,10 +6227,10 @@
       </c>
       <c r="E60" s="63"/>
       <c r="F60" s="63" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="43">
         <v>60</v>
       </c>
@@ -6235,1048 +6244,1060 @@
         <v>357</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A62" s="43">
-        <v>61</v>
-      </c>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="43"/>
       <c r="B62" s="53"/>
       <c r="C62" s="73"/>
-      <c r="D62" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" s="63"/>
-      <c r="F62" s="109" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D62" s="80"/>
+      <c r="E62" s="63" t="s">
+        <v>413</v>
+      </c>
+      <c r="F62" s="63" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="34" x14ac:dyDescent="0.45">
       <c r="A63" s="43">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="53"/>
       <c r="C63" s="73"/>
       <c r="D63" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="63"/>
+      <c r="F63" s="109" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" s="43">
+        <v>62</v>
+      </c>
+      <c r="B64" s="53"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="80" t="s">
         <v>318</v>
       </c>
-      <c r="E63" s="63"/>
-      <c r="F63" s="52" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64" s="43">
+      <c r="E64" s="63"/>
+      <c r="F64" s="52" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="43">
         <v>63</v>
       </c>
-      <c r="B64" s="100"/>
-      <c r="C64" s="83" t="s">
+      <c r="B65" s="100"/>
+      <c r="C65" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="84"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="82" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A65" s="43">
+      <c r="D65" s="84"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="82" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="43">
         <v>64</v>
       </c>
-      <c r="D65" s="75" t="s">
+      <c r="D66" s="75" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A66" s="43">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" s="43">
         <v>65</v>
       </c>
-      <c r="D66" s="75" t="s">
+      <c r="D67" s="75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A67" s="43">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" s="43">
         <v>66</v>
       </c>
-      <c r="B67" s="45" t="s">
-        <v>414</v>
-      </c>
-      <c r="C67" s="68"/>
-      <c r="D67" s="78" t="s">
+      <c r="B68" s="45" t="s">
+        <v>411</v>
+      </c>
+      <c r="C68" s="68"/>
+      <c r="D68" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="66"/>
-      <c r="F67" s="43"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A68" s="43">
+      <c r="E68" s="66"/>
+      <c r="F68" s="43"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" s="43">
         <v>67</v>
       </c>
-      <c r="D68" s="75" t="s">
+      <c r="D69" s="75" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A69" s="43">
+    <row r="70" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+      <c r="A70" s="43">
         <v>68</v>
       </c>
-      <c r="B69" s="100"/>
-      <c r="C69" s="83" t="s">
+      <c r="B70" s="100"/>
+      <c r="C70" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="84"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="110" t="s">
+      <c r="D70" s="84"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="110" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" s="43">
+        <v>69</v>
+      </c>
+      <c r="D71" s="75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" s="43">
+        <v>70</v>
+      </c>
+      <c r="B72" s="100"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="84" t="s">
+        <v>320</v>
+      </c>
+      <c r="E72" s="85"/>
+      <c r="F72" s="82" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" s="43">
+        <v>71</v>
+      </c>
+      <c r="D73" s="75" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" s="43">
+        <v>72</v>
+      </c>
+      <c r="D74" s="75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" s="43">
+        <v>73</v>
+      </c>
+      <c r="D75" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="F75" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="43">
+        <v>74</v>
+      </c>
+      <c r="D76" s="75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" s="43">
+        <v>75</v>
+      </c>
+      <c r="D77" s="75" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" s="43">
+        <v>76</v>
+      </c>
+      <c r="B78" s="100"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="84" t="s">
+        <v>322</v>
+      </c>
+      <c r="E78" s="85"/>
+      <c r="F78" s="82" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="43">
+        <v>77</v>
+      </c>
+      <c r="D79" s="75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" s="43">
+        <v>78</v>
+      </c>
+      <c r="D80" s="75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" s="43">
+        <v>79</v>
+      </c>
+      <c r="D81" s="75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" s="43">
+        <v>80</v>
+      </c>
+      <c r="D82" s="75" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" s="43">
+        <v>81</v>
+      </c>
+      <c r="D83" s="75" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84" s="43">
+        <v>82</v>
+      </c>
+      <c r="D84" s="75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85" s="43">
+        <v>83</v>
+      </c>
+      <c r="D85" s="75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A86" s="43">
+        <v>84</v>
+      </c>
+      <c r="D86" s="75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87" s="43">
+        <v>85</v>
+      </c>
+      <c r="D87" s="75" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88" s="43">
+        <v>86</v>
+      </c>
+      <c r="D88" s="75" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89" s="43">
+        <v>87</v>
+      </c>
+      <c r="D89" s="75" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" s="43">
+        <v>88</v>
+      </c>
+      <c r="C90" s="70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91" s="43">
+        <v>89</v>
+      </c>
+      <c r="D91" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="F91" s="64"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A92" s="43">
+        <v>90</v>
+      </c>
+      <c r="E92" s="64" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A93" s="43">
+        <v>91</v>
+      </c>
+      <c r="B93" s="100" t="s">
+        <v>238</v>
+      </c>
+      <c r="C93" s="83"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="85" t="s">
+        <v>319</v>
+      </c>
+      <c r="F93" s="82" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A70" s="43">
-        <v>69</v>
-      </c>
-      <c r="D70" s="75" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A71" s="43">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94" s="43">
+        <v>92</v>
+      </c>
+      <c r="E94" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="F94" s="64"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95" s="43">
+        <v>93</v>
+      </c>
+      <c r="E95" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="100"/>
-      <c r="C71" s="83"/>
-      <c r="D71" s="84" t="s">
-        <v>320</v>
-      </c>
-      <c r="E71" s="85"/>
-      <c r="F71" s="82" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A72" s="43">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A96" s="43">
+        <v>94</v>
+      </c>
+      <c r="E96" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="F96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A97" s="43">
+        <v>95</v>
+      </c>
+      <c r="B97" s="100"/>
+      <c r="C97" s="83"/>
+      <c r="D97" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="E97" s="85"/>
+      <c r="F97" s="82" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98" s="43">
+        <v>96</v>
+      </c>
+      <c r="E98" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D72" s="75" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A73" s="43">
-        <v>72</v>
-      </c>
-      <c r="D73" s="75" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A74" s="43">
-        <v>73</v>
-      </c>
-      <c r="D74" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="F74" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A75" s="43">
-        <v>74</v>
-      </c>
-      <c r="D75" s="75" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A76" s="43">
-        <v>75</v>
-      </c>
-      <c r="D76" s="75" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A77" s="43">
-        <v>76</v>
-      </c>
-      <c r="B77" s="100"/>
-      <c r="C77" s="83"/>
-      <c r="D77" s="84" t="s">
-        <v>322</v>
-      </c>
-      <c r="E77" s="85"/>
-      <c r="F77" s="82" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A78" s="43">
-        <v>77</v>
-      </c>
-      <c r="D78" s="75" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A79" s="43">
-        <v>78</v>
-      </c>
-      <c r="D79" s="75" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A80" s="43">
-        <v>79</v>
-      </c>
-      <c r="D80" s="75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A81" s="43">
-        <v>80</v>
-      </c>
-      <c r="D81" s="75" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A82" s="43">
-        <v>81</v>
-      </c>
-      <c r="D82" s="75" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A83" s="43">
-        <v>82</v>
-      </c>
-      <c r="D83" s="75" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A84" s="43">
-        <v>83</v>
-      </c>
-      <c r="D84" s="75" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A85" s="43">
-        <v>84</v>
-      </c>
-      <c r="D85" s="75" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A86" s="43">
-        <v>85</v>
-      </c>
-      <c r="D86" s="75" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A87" s="43">
-        <v>86</v>
-      </c>
-      <c r="D87" s="75" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A88" s="43">
-        <v>87</v>
-      </c>
-      <c r="D88" s="75" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A89" s="43">
-        <v>88</v>
-      </c>
-      <c r="C89" s="70" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A90" s="43">
-        <v>89</v>
-      </c>
-      <c r="D90" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="F90" s="64"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A91" s="43">
-        <v>90</v>
-      </c>
-      <c r="E91" s="64" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A92" s="43">
-        <v>91</v>
-      </c>
-      <c r="B92" s="100" t="s">
-        <v>238</v>
-      </c>
-      <c r="C92" s="83"/>
-      <c r="D92" s="84"/>
-      <c r="E92" s="85" t="s">
-        <v>319</v>
-      </c>
-      <c r="F92" s="82" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A93" s="43">
-        <v>92</v>
-      </c>
-      <c r="E93" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="F93" s="64"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A94" s="43">
-        <v>93</v>
-      </c>
-      <c r="E94" s="64" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A95" s="43">
-        <v>94</v>
-      </c>
-      <c r="E95" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="F95" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A96" s="43">
-        <v>95</v>
-      </c>
-      <c r="B96" s="100"/>
-      <c r="C96" s="83"/>
-      <c r="D96" s="84" t="s">
-        <v>33</v>
-      </c>
-      <c r="E96" s="85"/>
-      <c r="F96" s="82" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A97" s="43">
-        <v>96</v>
-      </c>
-      <c r="E97" s="64" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A98" s="43">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A99" s="43">
         <v>97</v>
-      </c>
-      <c r="B98" s="100"/>
-      <c r="C98" s="83"/>
-      <c r="D98" s="84"/>
-      <c r="E98" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="F98" s="82" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A99" s="43">
-        <v>98</v>
       </c>
       <c r="B99" s="100"/>
       <c r="C99" s="83"/>
       <c r="D99" s="84"/>
       <c r="E99" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="F99" s="82" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A100" s="43">
+        <v>98</v>
+      </c>
+      <c r="B100" s="100"/>
+      <c r="C100" s="83"/>
+      <c r="D100" s="84"/>
+      <c r="E100" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="F99" s="82" t="s">
+      <c r="F100" s="82" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A100" s="43">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A101" s="43">
         <v>99</v>
       </c>
-      <c r="E100" s="64" t="s">
+      <c r="E101" s="64" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A101" s="43">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A102" s="43">
         <v>100</v>
       </c>
-      <c r="E101" s="64" t="s">
+      <c r="E102" s="64" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A102" s="43">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A103" s="43">
         <v>101</v>
       </c>
-      <c r="E102" s="64" t="s">
+      <c r="E103" s="64" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A103" s="43">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A104" s="43">
         <v>102</v>
       </c>
-      <c r="E103" s="64" t="s">
+      <c r="E104" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F104" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A104" s="43">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A105" s="43">
         <v>103</v>
       </c>
-      <c r="E104" s="64" t="s">
+      <c r="E105" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="F104" s="64" t="s">
+      <c r="F105" s="64" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A105" s="43">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A106" s="43">
         <v>104</v>
       </c>
-      <c r="E105" s="64" t="s">
+      <c r="E106" s="64" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A106" s="43">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A107" s="43">
         <v>105</v>
       </c>
-      <c r="E106" s="64" t="s">
+      <c r="E107" s="64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A107" s="43">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A108" s="43">
         <v>106</v>
       </c>
-      <c r="B107" s="100"/>
-      <c r="C107" s="83" t="s">
-        <v>411</v>
-      </c>
-      <c r="D107" s="84"/>
-      <c r="E107" s="85"/>
-      <c r="F107" s="82" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A108" s="43">
+      <c r="B108" s="100"/>
+      <c r="C108" s="83" t="s">
+        <v>408</v>
+      </c>
+      <c r="D108" s="84"/>
+      <c r="E108" s="85"/>
+      <c r="F108" s="82" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A109" s="43">
         <v>107</v>
       </c>
-      <c r="C108" s="70" t="s">
+      <c r="C109" s="70" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A109" s="43">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A110" s="43">
         <v>108</v>
       </c>
-      <c r="B109" s="99"/>
-      <c r="C109" s="87" t="s">
+      <c r="B110" s="99"/>
+      <c r="C110" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="D109" s="88"/>
-      <c r="E109" s="89"/>
-      <c r="F109" s="90" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A110" s="43">
+      <c r="D110" s="88"/>
+      <c r="E110" s="89"/>
+      <c r="F110" s="90" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A111" s="43">
         <v>109</v>
       </c>
-      <c r="D110" s="75" t="s">
+      <c r="D111" s="75" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A111" s="43">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A112" s="43">
         <v>110</v>
       </c>
-      <c r="B111" s="97"/>
-      <c r="C111" s="92"/>
-      <c r="D111" s="93" t="s">
+      <c r="B112" s="97"/>
+      <c r="C112" s="92"/>
+      <c r="D112" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="E111" s="94"/>
-      <c r="F111" s="95" t="s">
+      <c r="E112" s="94"/>
+      <c r="F112" s="95" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A113" s="43">
+        <v>111</v>
+      </c>
+      <c r="B113" s="111"/>
+      <c r="C113" s="112"/>
+      <c r="D113" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="E113" s="114"/>
+      <c r="F113" s="115" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="238" x14ac:dyDescent="0.45">
+      <c r="A114" s="43">
+        <v>112</v>
+      </c>
+      <c r="B114" s="97"/>
+      <c r="C114" s="92"/>
+      <c r="D114" s="93" t="s">
+        <v>330</v>
+      </c>
+      <c r="E114" s="94"/>
+      <c r="F114" s="96" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A115" s="43">
+        <v>113</v>
+      </c>
+      <c r="B115" s="53"/>
+      <c r="C115" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="D115" s="80"/>
+      <c r="E115" s="63"/>
+      <c r="F115" s="54" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A112" s="43">
-        <v>111</v>
-      </c>
-      <c r="B112" s="111"/>
-      <c r="C112" s="112"/>
-      <c r="D112" s="113" t="s">
-        <v>90</v>
-      </c>
-      <c r="E112" s="114"/>
-      <c r="F112" s="115" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="A113" s="43">
-        <v>112</v>
-      </c>
-      <c r="B113" s="97"/>
-      <c r="C113" s="92"/>
-      <c r="D113" s="93" t="s">
-        <v>330</v>
-      </c>
-      <c r="E113" s="94"/>
-      <c r="F113" s="96" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A114" s="43">
-        <v>113</v>
-      </c>
-      <c r="B114" s="53"/>
-      <c r="C114" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="D114" s="80"/>
-      <c r="E114" s="63"/>
-      <c r="F114" s="54" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A115" s="43">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A116" s="43">
         <v>114</v>
-      </c>
-      <c r="B115" s="107"/>
-      <c r="C115" s="105"/>
-      <c r="D115" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="E115" s="103"/>
-      <c r="F115" s="106" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A116" s="43">
-        <v>115</v>
       </c>
       <c r="B116" s="107"/>
       <c r="C116" s="105"/>
       <c r="D116" s="102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E116" s="103"/>
       <c r="F116" s="106" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A117" s="43">
+        <v>115</v>
+      </c>
+      <c r="B117" s="107"/>
+      <c r="C117" s="105"/>
+      <c r="D117" s="102" t="s">
+        <v>102</v>
+      </c>
+      <c r="E117" s="103"/>
+      <c r="F117" s="106" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A117" s="43">
+    <row r="118" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+      <c r="A118" s="43">
         <v>116</v>
       </c>
-      <c r="B117" s="97"/>
-      <c r="C117" s="92"/>
-      <c r="D117" s="98" t="s">
+      <c r="B118" s="97"/>
+      <c r="C118" s="92"/>
+      <c r="D118" s="98" t="s">
         <v>363</v>
       </c>
-      <c r="E117" s="94"/>
-      <c r="F117" s="96" t="s">
+      <c r="E118" s="94"/>
+      <c r="F118" s="96" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A118" s="43">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A119" s="43">
         <v>117</v>
       </c>
-      <c r="D118" s="75" t="s">
+      <c r="D119" s="75" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A119" s="43">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A120" s="43">
         <v>118</v>
       </c>
-      <c r="D119" s="75" t="s">
+      <c r="D120" s="75" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A120" s="43">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A121" s="43">
         <v>119</v>
       </c>
-      <c r="D120" s="75" t="s">
+      <c r="D121" s="75" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A121" s="43">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A122" s="43">
         <v>120</v>
       </c>
-      <c r="D121" s="75" t="s">
+      <c r="D122" s="75" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A122" s="43">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A123" s="43">
         <v>121</v>
       </c>
-      <c r="D122" s="75" t="s">
+      <c r="D123" s="75" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A123" s="43">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A124" s="43">
         <v>122</v>
       </c>
-      <c r="C123" s="70" t="s">
+      <c r="C124" s="70" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A124" s="43">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A125" s="43">
         <v>123</v>
-      </c>
-      <c r="B124" s="100"/>
-      <c r="C124" s="83"/>
-      <c r="D124" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E124" s="85"/>
-      <c r="F124" s="82" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A125" s="43">
-        <v>124</v>
       </c>
       <c r="B125" s="100"/>
       <c r="C125" s="83"/>
       <c r="D125" s="84" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E125" s="85"/>
       <c r="F125" s="82" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="43">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="100"/>
       <c r="C126" s="83"/>
-      <c r="D126" s="84"/>
-      <c r="E126" s="85" t="s">
+      <c r="D126" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="E126" s="85"/>
+      <c r="F126" s="82" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A127" s="43">
+        <v>125</v>
+      </c>
+      <c r="B127" s="100"/>
+      <c r="C127" s="83"/>
+      <c r="D127" s="84"/>
+      <c r="E127" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="F126" s="82" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A127" s="43">
+      <c r="F127" s="82" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A128" s="43">
         <v>126</v>
       </c>
-      <c r="E127" s="64" t="s">
+      <c r="E128" s="64" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A128" s="43">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A129" s="43">
         <v>127</v>
       </c>
-      <c r="E128" s="64" t="s">
+      <c r="E129" s="64" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A129" s="43">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A130" s="43">
         <v>128</v>
       </c>
-      <c r="E129" s="64" t="s">
+      <c r="E130" s="64" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A130" s="43">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A131" s="43">
         <v>129</v>
-      </c>
-      <c r="B130" s="107"/>
-      <c r="C130" s="105"/>
-      <c r="D130" s="102"/>
-      <c r="E130" s="103" t="s">
-        <v>397</v>
-      </c>
-      <c r="F130" s="106" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A131" s="43">
-        <v>130</v>
       </c>
       <c r="B131" s="107"/>
       <c r="C131" s="105"/>
       <c r="D131" s="102"/>
       <c r="E131" s="103" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F131" s="106" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" s="43">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="107"/>
       <c r="C132" s="105"/>
       <c r="D132" s="102"/>
       <c r="E132" s="103" t="s">
-        <v>399</v>
-      </c>
-      <c r="F132" s="104" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+        <v>395</v>
+      </c>
+      <c r="F132" s="106" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" s="43">
+        <v>131</v>
+      </c>
+      <c r="B133" s="107"/>
+      <c r="C133" s="105"/>
+      <c r="D133" s="102"/>
+      <c r="E133" s="103" t="s">
+        <v>396</v>
+      </c>
+      <c r="F133" s="104" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A134" s="43">
         <v>132</v>
       </c>
-      <c r="E133" s="64" t="s">
+      <c r="E134" s="64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A134" s="43">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A135" s="43">
         <v>133</v>
       </c>
-      <c r="E134" s="64" t="s">
+      <c r="E135" s="64" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A135" s="43">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A136" s="43">
         <v>134</v>
       </c>
-      <c r="E135" s="64" t="s">
+      <c r="E136" s="64" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A136" s="43">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A137" s="43">
         <v>135</v>
       </c>
-      <c r="E136" s="64" t="s">
+      <c r="E137" s="64" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A137" s="43">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A138" s="43">
         <v>136</v>
       </c>
-      <c r="E137" s="64" t="s">
+      <c r="E138" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F138" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A138" s="43">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A139" s="43">
         <v>137</v>
-      </c>
-      <c r="B138" s="100"/>
-      <c r="C138" s="83"/>
-      <c r="D138" s="84"/>
-      <c r="E138" s="85" t="s">
-        <v>401</v>
-      </c>
-      <c r="F138" s="82" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A139" s="43">
-        <v>138</v>
       </c>
       <c r="B139" s="100"/>
       <c r="C139" s="83"/>
-      <c r="D139" s="84" t="s">
-        <v>105</v>
-      </c>
-      <c r="E139" s="85"/>
+      <c r="D139" s="84"/>
+      <c r="E139" s="85" t="s">
+        <v>398</v>
+      </c>
       <c r="F139" s="82" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" s="43">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="100"/>
       <c r="C140" s="83"/>
-      <c r="D140" s="84"/>
-      <c r="E140" s="85" t="s">
+      <c r="D140" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="E140" s="85"/>
+      <c r="F140" s="82" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A141" s="43">
+        <v>139</v>
+      </c>
+      <c r="B141" s="100"/>
+      <c r="C141" s="83"/>
+      <c r="D141" s="84"/>
+      <c r="E141" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="F140" s="82" t="s">
+      <c r="F141" s="82" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A141" s="43">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A142" s="43">
         <v>140</v>
       </c>
-      <c r="E141" s="64" t="s">
+      <c r="E142" s="64" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A142" s="43">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A143" s="43">
         <v>141</v>
       </c>
-      <c r="E142" s="64" t="s">
+      <c r="E143" s="64" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A143" s="43">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A144" s="43">
         <v>142</v>
-      </c>
-      <c r="B143" s="97"/>
-      <c r="C143" s="92"/>
-      <c r="D143" s="93" t="s">
-        <v>335</v>
-      </c>
-      <c r="E143" s="94"/>
-      <c r="F143" s="95" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A144" s="43">
-        <v>143</v>
       </c>
       <c r="B144" s="97"/>
       <c r="C144" s="92"/>
-      <c r="D144" s="93"/>
-      <c r="E144" s="94" t="s">
+      <c r="D144" s="93" t="s">
+        <v>335</v>
+      </c>
+      <c r="E144" s="94"/>
+      <c r="F144" s="95" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A145" s="43">
+        <v>143</v>
+      </c>
+      <c r="B145" s="97"/>
+      <c r="C145" s="92"/>
+      <c r="D145" s="93"/>
+      <c r="E145" s="94" t="s">
         <v>336</v>
       </c>
-      <c r="F144" s="95" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A145" s="43">
+      <c r="F145" s="95" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A146" s="43">
         <v>144</v>
       </c>
-      <c r="E145" s="64" t="s">
+      <c r="E146" s="64" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A146" s="43">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A147" s="43">
         <v>145</v>
       </c>
-      <c r="E146" s="64" t="s">
+      <c r="E147" s="64" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A147" s="43">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A148" s="43">
         <v>146</v>
       </c>
-      <c r="E147" s="64" t="s">
+      <c r="E148" s="64" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A148" s="43">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A149" s="43">
         <v>147</v>
       </c>
-      <c r="E148" s="64" t="s">
+      <c r="E149" s="64" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A149" s="43">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A150" s="43">
         <v>148</v>
       </c>
-      <c r="E149" s="64" t="s">
+      <c r="E150" s="64" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A150" s="43">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A151" s="43">
         <v>149</v>
       </c>
-      <c r="E150" s="64" t="s">
+      <c r="E151" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="F150" s="43"/>
-    </row>
-    <row r="151" spans="1:6" ht="87" x14ac:dyDescent="0.4">
-      <c r="A151" s="43">
+      <c r="F151" s="43"/>
+    </row>
+    <row r="152" spans="1:6" ht="85" x14ac:dyDescent="0.45">
+      <c r="A152" s="43">
         <v>150</v>
-      </c>
-      <c r="B151" s="53"/>
-      <c r="C151" s="73"/>
-      <c r="D151" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="E151" s="63"/>
-      <c r="F151" s="101" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A152" s="43">
-        <v>151</v>
       </c>
       <c r="B152" s="53"/>
       <c r="C152" s="73"/>
-      <c r="D152" s="80"/>
-      <c r="E152" s="63" t="s">
+      <c r="D152" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="E152" s="63"/>
+      <c r="F152" s="101" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A153" s="43">
+        <v>151</v>
+      </c>
+      <c r="B153" s="53"/>
+      <c r="C153" s="73"/>
+      <c r="D153" s="80"/>
+      <c r="E153" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="F152" s="63" t="s">
+      <c r="F153" s="63" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A153" s="43">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A154" s="43">
         <v>152</v>
       </c>
-      <c r="E153" s="64" t="s">
+      <c r="E154" s="64" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A154" s="43">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A155" s="43">
         <v>153</v>
       </c>
-      <c r="E154" s="64" t="s">
+      <c r="E155" s="64" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A155" s="43">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A156" s="43">
         <v>154</v>
       </c>
-      <c r="E155" s="64" t="s">
+      <c r="E156" s="64" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A156" s="43">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A157" s="43">
         <v>155</v>
       </c>
-      <c r="E156" s="64" t="s">
+      <c r="E157" s="64" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A157" s="43">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A158" s="43">
         <v>156</v>
       </c>
-      <c r="E157" s="64" t="s">
+      <c r="E158" s="64" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A158" s="43">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A159" s="43">
         <v>157</v>
       </c>
-      <c r="C158" s="70" t="s">
+      <c r="C159" s="70" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="278.39999999999998" x14ac:dyDescent="0.4">
-      <c r="A159" s="43">
+    <row r="160" spans="1:6" ht="272" x14ac:dyDescent="0.45">
+      <c r="A160" s="43">
         <v>158</v>
       </c>
-      <c r="B159" s="100"/>
-      <c r="C159" s="83"/>
-      <c r="D159" s="84" t="s">
+      <c r="B160" s="100"/>
+      <c r="C160" s="83"/>
+      <c r="D160" s="84" t="s">
         <v>343</v>
       </c>
-      <c r="E159" s="85"/>
-      <c r="F159" s="86" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A160" s="43">
+      <c r="E160" s="85"/>
+      <c r="F160" s="86" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A161" s="43">
         <v>159</v>
       </c>
-      <c r="D160" s="75" t="s">
+      <c r="D161" s="75" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A161" s="43">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A162" s="43">
         <v>160</v>
       </c>
-      <c r="C161" s="70" t="s">
+      <c r="C162" s="70" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A162" s="43">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A163" s="43">
         <v>161</v>
       </c>
-      <c r="C162" s="70" t="s">
+      <c r="C163" s="70" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A163" s="43">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A164" s="43">
         <v>162</v>
       </c>
-      <c r="C163" s="70" t="s">
+      <c r="C164" s="70" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B163"/>
+  <autoFilter ref="B1:B164" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="1">
     <mergeCell ref="C1:E1"/>
   </mergeCells>
@@ -7287,7 +7308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -7295,12 +7316,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="41" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="38" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="38" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="40" t="s">
         <v>234</v>
       </c>
@@ -7311,7 +7332,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="41">
         <v>1</v>
       </c>
@@ -7322,7 +7343,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="41">
         <v>2</v>
       </c>
@@ -7333,7 +7354,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="41">
         <v>3</v>
       </c>
@@ -7341,7 +7362,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="41">
         <v>4</v>
       </c>
@@ -7352,7 +7373,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="41">
         <v>5</v>
       </c>
@@ -7360,7 +7381,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="41">
         <v>6</v>
       </c>
@@ -7371,117 +7392,117 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="41">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="41">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="41">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="41">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="41">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="41">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="41">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="41">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="41">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="41">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="41">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="41">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="41">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="41">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="41">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="41">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="41">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="41">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="41">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="41">
         <v>29</v>
       </c>
@@ -7493,7 +7514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -7501,13 +7522,13 @@
       <selection activeCell="E9" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" style="41" customWidth="1"/>
-    <col min="3" max="3" width="79.8984375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="79.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="37" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="37" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="40" t="s">
         <v>31</v>
       </c>
@@ -7519,7 +7540,7 @@
       </c>
       <c r="D1" s="39"/>
     </row>
-    <row r="2" spans="1:4" ht="52.8" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="51.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="41">
         <v>1</v>
       </c>
@@ -7530,7 +7551,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A3" s="41">
         <v>2</v>
       </c>
@@ -7541,67 +7562,67 @@
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="41">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="41">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="41">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="41">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="41">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="41">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="41">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="41">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="41">
         <v>15</v>
       </c>

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7858FB58-E19A-4717-9E90-956E67B38B9A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAF840F-AD6E-4D42-8066-4AF77034CD48}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1695,10 +1695,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>update staffs set join_date=? where staff_id=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>update staffs set leave_date=? where staff_id=?;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1984,6 +1980,10 @@
   </si>
   <si>
     <t>select u.profile_photo, u.name, u.gender, u.birth, s.join_date, s.leave_date, s.work_part, s.bank_name, s.account_num, s.resume_file, s.health_file, s.bank_file, u.phone_num from users u, staffs s where staff_id=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update staffs set join_date=? where staff_id=? And branch_seq=?;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3152,7 +3152,7 @@
         <v>43234</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>283</v>
@@ -3175,27 +3175,27 @@
         <v>43235</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B24" s="19">
         <v>43236</v>
@@ -5426,8 +5426,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="F52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5457,7 +5457,7 @@
         <v>290</v>
       </c>
       <c r="G1" s="58" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
@@ -5469,7 +5469,7 @@
         <v>46</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -5482,7 +5482,7 @@
         <v>202</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -5501,7 +5501,7 @@
         <v>351</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.45">
@@ -5520,7 +5520,7 @@
         <v>352</v>
       </c>
       <c r="G5" s="85" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -5531,7 +5531,7 @@
         <v>150</v>
       </c>
       <c r="G6" s="91" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -5542,7 +5542,7 @@
         <v>154</v>
       </c>
       <c r="G7" s="95" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -5553,7 +5553,7 @@
         <v>147</v>
       </c>
       <c r="G8" s="106" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -5564,7 +5564,7 @@
         <v>292</v>
       </c>
       <c r="G9" s="115" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -5768,7 +5768,7 @@
       </c>
       <c r="E25" s="63"/>
       <c r="F25" s="52" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -5993,7 +5993,7 @@
       </c>
       <c r="E43" s="63"/>
       <c r="F43" s="52" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
@@ -6017,7 +6017,7 @@
       <c r="D45" s="76"/>
       <c r="E45" s="65"/>
       <c r="F45" s="29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
@@ -6171,7 +6171,7 @@
       <c r="D56" s="78"/>
       <c r="E56" s="66"/>
       <c r="F56" s="108" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
@@ -6185,7 +6185,7 @@
       </c>
       <c r="E57" s="63"/>
       <c r="F57" s="52" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
@@ -6199,7 +6199,7 @@
         <v>316</v>
       </c>
       <c r="F58" s="52" t="s">
-        <v>356</v>
+        <v>417</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
@@ -6213,7 +6213,7 @@
         <v>317</v>
       </c>
       <c r="F59" s="52" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
@@ -6227,7 +6227,7 @@
       </c>
       <c r="E60" s="63"/>
       <c r="F60" s="63" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
@@ -6241,7 +6241,7 @@
         <v>17</v>
       </c>
       <c r="F61" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
@@ -6250,10 +6250,10 @@
       <c r="C62" s="73"/>
       <c r="D62" s="80"/>
       <c r="E62" s="63" t="s">
+        <v>412</v>
+      </c>
+      <c r="F62" s="63" t="s">
         <v>413</v>
-      </c>
-      <c r="F62" s="63" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="34" x14ac:dyDescent="0.45">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="E63" s="63"/>
       <c r="F63" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
@@ -6281,7 +6281,7 @@
       </c>
       <c r="E64" s="63"/>
       <c r="F64" s="52" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
@@ -6295,7 +6295,7 @@
       <c r="D65" s="84"/>
       <c r="E65" s="85"/>
       <c r="F65" s="82" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
@@ -6319,7 +6319,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C68" s="68"/>
       <c r="D68" s="78" t="s">
@@ -6347,7 +6347,7 @@
       <c r="D70" s="84"/>
       <c r="E70" s="85"/>
       <c r="F70" s="110" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="E72" s="85"/>
       <c r="F72" s="82" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="E78" s="85"/>
       <c r="F78" s="82" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
@@ -6555,7 +6555,7 @@
         <v>319</v>
       </c>
       <c r="F93" s="82" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="E97" s="85"/>
       <c r="F97" s="82" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
@@ -6619,7 +6619,7 @@
         <v>84</v>
       </c>
       <c r="F99" s="82" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
@@ -6633,7 +6633,7 @@
         <v>85</v>
       </c>
       <c r="F100" s="82" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
@@ -6704,12 +6704,12 @@
       </c>
       <c r="B108" s="100"/>
       <c r="C108" s="83" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D108" s="84"/>
       <c r="E108" s="85"/>
       <c r="F108" s="82" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
@@ -6731,7 +6731,7 @@
       <c r="D110" s="88"/>
       <c r="E110" s="89"/>
       <c r="F110" s="90" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
@@ -6753,7 +6753,7 @@
       </c>
       <c r="E112" s="94"/>
       <c r="F112" s="95" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
@@ -6767,7 +6767,7 @@
       </c>
       <c r="E113" s="114"/>
       <c r="F113" s="115" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="238" x14ac:dyDescent="0.45">
@@ -6781,7 +6781,7 @@
       </c>
       <c r="E114" s="94"/>
       <c r="F114" s="96" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
@@ -6795,7 +6795,7 @@
       <c r="D115" s="80"/>
       <c r="E115" s="63"/>
       <c r="F115" s="54" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.45">
@@ -6809,7 +6809,7 @@
       </c>
       <c r="E116" s="103"/>
       <c r="F116" s="106" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="E117" s="103"/>
       <c r="F117" s="106" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="51" x14ac:dyDescent="0.45">
@@ -6833,11 +6833,11 @@
       <c r="B118" s="97"/>
       <c r="C118" s="92"/>
       <c r="D118" s="98" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E118" s="94"/>
       <c r="F118" s="96" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
@@ -6899,7 +6899,7 @@
       </c>
       <c r="E125" s="85"/>
       <c r="F125" s="82" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
@@ -6913,7 +6913,7 @@
       </c>
       <c r="E126" s="85"/>
       <c r="F126" s="82" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.45">
@@ -6927,7 +6927,7 @@
         <v>144</v>
       </c>
       <c r="F127" s="82" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.45">
@@ -6962,10 +6962,10 @@
       <c r="C131" s="105"/>
       <c r="D131" s="102"/>
       <c r="E131" s="103" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F131" s="106" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.45">
@@ -6976,10 +6976,10 @@
       <c r="C132" s="105"/>
       <c r="D132" s="102"/>
       <c r="E132" s="103" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F132" s="106" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.45">
@@ -6990,10 +6990,10 @@
       <c r="C133" s="105"/>
       <c r="D133" s="102"/>
       <c r="E133" s="103" t="s">
+        <v>395</v>
+      </c>
+      <c r="F133" s="104" t="s">
         <v>396</v>
-      </c>
-      <c r="F133" s="104" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.45">
@@ -7047,10 +7047,10 @@
       <c r="C139" s="83"/>
       <c r="D139" s="84"/>
       <c r="E139" s="85" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F139" s="82" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.45">
@@ -7064,7 +7064,7 @@
       </c>
       <c r="E140" s="85"/>
       <c r="F140" s="82" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
@@ -7078,7 +7078,7 @@
         <v>111</v>
       </c>
       <c r="F141" s="82" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.45">
@@ -7108,7 +7108,7 @@
       </c>
       <c r="E144" s="94"/>
       <c r="F144" s="95" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.45">
@@ -7122,7 +7122,7 @@
         <v>336</v>
       </c>
       <c r="F145" s="95" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.45">
@@ -7185,7 +7185,7 @@
       </c>
       <c r="E152" s="63"/>
       <c r="F152" s="101" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.45">
@@ -7199,7 +7199,7 @@
         <v>135</v>
       </c>
       <c r="F153" s="63" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.45">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="E160" s="85"/>
       <c r="F160" s="86" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.45">

--- a/Matrix진행현황관리.xlsx
+++ b/Matrix진행현황관리.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAF840F-AD6E-4D42-8066-4AF77034CD48}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="진행일정" sheetId="3" r:id="rId1"/>
     <sheet name="업무목록" sheetId="1" r:id="rId2"/>
-    <sheet name="SQL" sheetId="6" r:id="rId3"/>
+    <sheet name="SQL" sheetId="7" r:id="rId3"/>
     <sheet name="우선순위" sheetId="4" r:id="rId4"/>
     <sheet name="발표컨텐츠" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SQL!$B$1:$B$164</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="431">
   <si>
     <t>업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1230,47 +1229,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>선택한 날짜에 해당하는 선택한 배정대상에 속한 업무 목록 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지난 날짜 선택시 오른쪽 화살표 버튼 숨기기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매뉴얼 업무 검색해서 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매뉴얼 업무 검색 자동완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매뉴얼 목록 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간분류 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 공간에 속한 업무분류 보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1278,54 +1237,10 @@
 where m.space_type_seq = s.space_type_seq and m.task_type_seq = t.task_type_seq and s.space_type=?;</t>
   </si>
   <si>
-    <t>선택한 공간/업무분류에 속한 업무 목록 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업무 중요여부 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배정할 파트 목록 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>찬영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업무 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 공간에 속한 업무목록 보기(업무분류통합)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매뉴얼 업무 검색 자동완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새로 입력/선택한 업무 및 중요여부 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>태훈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>업무 재배정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배정할 직원 목록 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간분류 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select task_type from task_types;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1338,123 +1253,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>직원 목록 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원 승인 수락</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원 승인 거부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원 상세 정보 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴대폰 번호 중복 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴대폰 번호 중복 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 중복 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름 입력값 형식 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생년월일 도메인 선택지 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소 선택지 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소 선택여부 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴대폰 번호 입력값 형식 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증유형 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업자 등록번호 입력값 형식 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 주소 정보 페이징  </t>
-  </si>
-  <si>
-    <t>통장사본 파일 첨부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 입력값 형식 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴대폰 번호 입력값 형식 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴대폰 인증번호 요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 정보 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 사업자등록번호, 대표자명, 주소, 매장전화번호, 영업시간 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소 시/도 선택지 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소 구/군 선택지 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매장 전화번호 입력값 형식 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새 보건증 파일 첨부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새 통장사본 파일 첨부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계좌번호 입력값 형식 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로필 사진, 속한 지점, 회원인증유형, 이름 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>select m.MANUAL_TASK, s.SPACE_TYPE
@@ -1695,6 +1494,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>update staffs set join_date=? where staff_id=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>update staffs set leave_date=? where staff_id=?;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1748,14 +1551,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일일업무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매뉴얼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>테이블별 배경 색</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1768,24 +1563,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>delete daily_tasks where assgin_date=? and assign_type=? and assign_detail=? and daily_task=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--전체 직원 목록 보기 
-select u.profile_photo, u.name, u.gender, u.birth, s.work_part from users u, staffs s where s.branch_seq=? And u.user_id=s.staff_id;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1816,56 +1598,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>myBatis - DAO 인터페이스 설계
-VO 설계
-mapper 설계
-DAO 구현
-DAO 테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select s.staff_id, u.name, u.profile_photo from staffs s, users u where s.staff_id=u.user_id and branch_seq=? and join_date is not null and leave_date is null;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>delete staffs where staff_id=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#다시짜야함. 재승인요청or재입사 했을 경우도 같이 출력됨.
-select u.profile_photo, u.name, u.gender, u.birth from users u, staffs s where s.branch_seq=? and s.join_date is not null and s.leave_date is not null And u.user_id=s.staff_id order by u.name asc;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select user_id from users where user_id=? And pw=?;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert into admins(admin_seq, admin_id, branch_seq) values(admin_seq.nextval, ?, (select branch_seq from branches where branch_name=?));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select count(license_num) from branches where license_num=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select representative, branch_name, address_city, address_gu, address_dong, address_detail, opening_hour from head_branches where license_num=?;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>본사DB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into staffs(staff_seq, staff_id, branch_seq, bank_name, account_num, resume_file, health_file, bank_file) values(staff_seq.nextval, ?, ?, ?, ?, ?, ?, ?);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시/도 선택지 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구/군 선택지 보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1955,10 +1696,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>same</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">select name, to_char(birth, 'yyyy/mm/dd'), email, address_city, address_gu, address_dong, phone_num, profile_photo from users where user_id=? </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1983,14 +1720,356 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>update staffs set join_date=? where staff_id=? And branch_seq=?;</t>
+    <t>myBatis - Daily/Manual DAO 
+인터페이스 설계
+VO 설계
+mapper 설계
+DAO 구현
+DAO 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myBatis - User/Staff DAO 
+인터페이스 설계
+VO 설계
+mapper 설계
+DAO 구현
+DAO 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaffVO 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaffDAO 인터페이스 설계, 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staffMapper 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL문 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserDAO 인터페이스 설계, 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userMapper 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserVO 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원인증정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAFFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaffDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원인증정보
+회원정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAFFS
+USERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자인증정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMINS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdminDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본사 DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAD_BRANCHES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaffDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본사 DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAD_BRANCHES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDRESSES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMINS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdminDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자인증정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보
+직원인증정보
+관리자인증정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERS
+STAFFS
+ADMINS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화살표로 날짜이동 안됨
+데이트피커 잘 안되고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 버튼만 있고 구현 안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 구현 안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 구현 안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택했을 때 하단 출력 안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 가능 - data에 밀어넣어야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토글 구현 안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이딩 구현 안됨
+staff_id 저장해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한명으로 제한 해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝업 구현 안됨
+수정 기능 구현 안됨
+업무조회 페이지 수정버튼에 연결 안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝업 구현 안됨
+수정 기능 구현 안됨
+업무조회 페이지 재배정 기능에 연결 안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아코디언 구현 되어있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 구현 안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 구현 안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 틀 되어있음
+승인요청/재직/퇴사 각 정보 다름. 수정해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>틀만 있음
+다시 구현 해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>틀만 있음.
+다시 구현 해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>틀만 있음
+다시 구현 해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 연결 안되어있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>틀만 있음
+다시 구현 해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>틀만 있음
+다시 구현해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>틀만 있음
+다시 구현해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현 안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현 끝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAO 예외처리
+SQL 오류 수정
+DAO 테스트
+UI Event 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs(staff_seq, staff_id, branch_seq, bank_name, account_num, resume_file, health_file, bank_file) values(staff_seq.nextval, ?, ?, ?, ?, ?, ?, ?);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select representative, branch_name, address_city, address_gu, address_dong, address_detail, opening_hour from head_branches where license_num=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(license_num) from branches where license_num=?;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into admins(admin_seq, admin_id, branch_seq) values(admin_seq.nextval, ?, (select branch_seq from branches where branch_name=?));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#다시짜야함. 재승인요청or재입사 했을 경우도 같이 출력됨.
+select u.profile_photo, u.name, u.gender, u.birth from users u, staffs s where s.branch_seq=? and s.join_date is not null and s.leave_date is not null And u.user_id=s.staff_id order by u.name asc;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete staffs where staff_id=?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--전체 직원 목록 보기 
+select u.profile_photo, u.name, u.gender, u.birth, s.work_part from users u, staffs s where s.branch_seq=? And u.user_id=s.staff_id;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-412]m&quot;월&quot;\ d&quot;일&quot;\ dddd"/>
   </numFmts>
@@ -2257,7 +2336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2432,179 +2511,203 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2612,7 +2715,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 2" xfId="1"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2931,28 +3034,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="36"/>
-    <col min="2" max="2" width="16.08203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="31.08203125" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" style="36"/>
+    <col min="2" max="2" width="16.09765625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="31.09765625" customWidth="1"/>
+    <col min="4" max="4" width="31.19921875" customWidth="1"/>
+    <col min="5" max="5" width="34.69921875" customWidth="1"/>
     <col min="6" max="6" width="31.5" customWidth="1"/>
-    <col min="7" max="7" width="34.58203125" customWidth="1"/>
-    <col min="8" max="8" width="31.58203125" customWidth="1"/>
+    <col min="7" max="7" width="34.59765625" customWidth="1"/>
+    <col min="8" max="8" width="31.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="35" t="s">
         <v>215</v>
       </c>
@@ -2978,7 +3081,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B2" s="17">
         <v>43214</v>
       </c>
@@ -2986,19 +3089,19 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B3" s="17">
         <v>43215</v>
       </c>
       <c r="C3" s="15"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B4" s="17">
         <v>43216</v>
       </c>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B5" s="17">
         <v>43217</v>
       </c>
@@ -3006,31 +3109,31 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B6" s="18">
         <v>43218</v>
       </c>
       <c r="C6" s="15"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B7" s="18">
         <v>43219</v>
       </c>
       <c r="C7" s="15"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B8" s="17">
         <v>43220</v>
       </c>
       <c r="C8" s="15"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B9" s="17">
         <v>43221</v>
       </c>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B10" s="17">
         <v>43222</v>
       </c>
@@ -3038,7 +3141,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B11" s="17">
         <v>43223</v>
       </c>
@@ -3046,7 +3149,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B12" s="17">
         <v>43224</v>
       </c>
@@ -3054,31 +3157,31 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B13" s="18">
         <v>43225</v>
       </c>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B14" s="18">
         <v>43226</v>
       </c>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B15" s="18">
         <v>43227</v>
       </c>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B16" s="17">
         <v>43228</v>
       </c>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B17" s="33">
         <v>43229</v>
       </c>
@@ -3089,7 +3192,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="85" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="87" x14ac:dyDescent="0.4">
       <c r="B18" s="32">
         <v>43230</v>
       </c>
@@ -3112,7 +3215,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="85" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="87" x14ac:dyDescent="0.4">
       <c r="B19" s="32">
         <v>43231</v>
       </c>
@@ -3135,24 +3238,24 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B20" s="18">
         <v>43232</v>
       </c>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B21" s="18">
         <v>43233</v>
       </c>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:8" ht="68" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B22" s="19">
         <v>43234</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>382</v>
+        <v>328</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>283</v>
@@ -3170,116 +3273,181 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="85" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B23" s="19">
         <v>43235</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="15" t="s">
-        <v>378</v>
+        <v>324</v>
       </c>
       <c r="B24" s="19">
         <v>43236</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C24" s="122" t="s">
+        <v>354</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="36" t="s">
         <v>209</v>
       </c>
       <c r="B25" s="17">
         <v>43237</v>
       </c>
-      <c r="C25" s="15"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C25" s="123"/>
+      <c r="D25" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="36" t="s">
         <v>209</v>
       </c>
       <c r="B26" s="17">
         <v>43238</v>
       </c>
-      <c r="C26" s="15"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C26" s="123"/>
+      <c r="D26" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B27" s="18">
         <v>43239</v>
       </c>
-      <c r="C27" s="15"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C27" s="123"/>
+      <c r="D27" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B28" s="18">
         <v>43240</v>
       </c>
-      <c r="C28" s="15"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C28" s="123"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="36" t="s">
         <v>210</v>
       </c>
       <c r="B29" s="17">
         <v>43241</v>
       </c>
-      <c r="C29" s="15"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C29" s="123"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="36" t="s">
         <v>211</v>
       </c>
       <c r="B30" s="17">
         <v>43242</v>
       </c>
-      <c r="C30" s="15"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C30" s="123"/>
+    </row>
+    <row r="31" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B31" s="19">
         <v>43243</v>
       </c>
-      <c r="C31" s="15"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C31" s="34" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B32" s="19">
         <v>43244</v>
       </c>
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B33" s="19">
         <v>43245</v>
       </c>
       <c r="C33" s="15"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B34" s="18">
         <v>43246</v>
       </c>
       <c r="C34" s="15"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B35" s="18">
         <v>43247</v>
       </c>
       <c r="C35" s="15"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B36" s="19">
         <v>43248</v>
       </c>
@@ -3287,13 +3455,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B37" s="19">
         <v>43249</v>
       </c>
       <c r="C37" s="15"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B38" s="19">
         <v>43250</v>
       </c>
@@ -3301,7 +3469,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="36" t="s">
         <v>209</v>
       </c>
@@ -3310,31 +3478,31 @@
       </c>
       <c r="C39" s="15"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B40" s="17">
         <v>43252</v>
       </c>
       <c r="C40" s="15"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B41" s="18">
         <v>43253</v>
       </c>
       <c r="C41" s="15"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B42" s="18">
         <v>43254</v>
       </c>
       <c r="C42" s="15"/>
     </row>
-    <row r="43" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B43" s="19">
         <v>43255</v>
       </c>
       <c r="C43" s="15"/>
     </row>
-    <row r="44" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="20">
         <v>43256</v>
       </c>
@@ -3342,19 +3510,19 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B45" s="18">
         <v>43257</v>
       </c>
       <c r="C45" s="15"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B46" s="19">
         <v>43258</v>
       </c>
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B47" s="19">
         <v>43259</v>
       </c>
@@ -3362,11 +3530,14 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B48" s="17"/>
       <c r="C48" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C24:C30"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3374,62 +3545,66 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K155"/>
+  <dimension ref="A1:L155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F154" sqref="F154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.9140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="5.4140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="50.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" customWidth="1"/>
-    <col min="6" max="6" width="19.58203125" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="11.58203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="7"/>
+    <col min="1" max="1" width="4.69921875" customWidth="1"/>
+    <col min="2" max="2" width="6.8984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="50.69921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.19921875" customWidth="1"/>
+    <col min="6" max="6" width="39.59765625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="19.59765625" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="11.69921875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="8.69921875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="115" t="s">
+        <v>390</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -3441,13 +3616,14 @@
       <c r="E2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="28"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K2" s="28"/>
+    </row>
+    <row r="3" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -3457,13 +3633,16 @@
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="F3" s="117" t="s">
+        <v>391</v>
+      </c>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="28"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K3" s="28"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -3473,21 +3652,24 @@
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="27"/>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="G4" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="H4" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="I4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="J4" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="J4" s="28"/>
-    </row>
-    <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.45">
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -3497,21 +3679,24 @@
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="27"/>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="G5" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="H5" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="I5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="J5" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="J5" s="28"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K5" s="28"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -3521,13 +3706,16 @@
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
+      <c r="F6" s="28" t="s">
+        <v>393</v>
+      </c>
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="28"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K6" s="28"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -3537,13 +3725,16 @@
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="F7" s="28" t="s">
+        <v>394</v>
+      </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="28"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K7" s="28"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -3553,13 +3744,16 @@
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="F8" s="28" t="s">
+        <v>395</v>
+      </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="28"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K8" s="28"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -3569,13 +3763,16 @@
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="F9" s="28" t="s">
+        <v>395</v>
+      </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="28"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K9" s="28"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -3585,13 +3782,16 @@
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
+      <c r="F10" s="28" t="s">
+        <v>396</v>
+      </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="28"/>
-    </row>
-    <row r="11" spans="1:11" ht="34" x14ac:dyDescent="0.45">
+      <c r="K10" s="28"/>
+    </row>
+    <row r="11" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -3603,21 +3803,24 @@
       <c r="E11" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="G11" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="H11" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="I11" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="J11" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="J11" s="28"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K11" s="28"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -3625,10 +3828,11 @@
         <v>36</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="116"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -3636,15 +3840,16 @@
         <v>156</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="116"/>
+      <c r="G13" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" t="s">
+      <c r="H13" s="1"/>
+      <c r="I13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -3652,15 +3857,16 @@
         <v>159</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="116"/>
+      <c r="G14" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" t="s">
+      <c r="H14" s="1"/>
+      <c r="I14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -3669,13 +3875,16 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="12"/>
+      <c r="F15" s="120" t="s">
+        <v>397</v>
+      </c>
       <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="22"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="22"/>
-    </row>
-    <row r="16" spans="1:11" ht="34" x14ac:dyDescent="0.45">
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -3684,21 +3893,24 @@
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="H16" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="I16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="J16" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K16" s="22"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -3707,13 +3919,14 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="13"/>
-      <c r="F17" s="12"/>
+      <c r="F17" s="22"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="22"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13"/>
       <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K17" s="22"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -3722,21 +3935,24 @@
         <v>157</v>
       </c>
       <c r="E18" s="13"/>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="H18" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="I18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="J18" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.45">
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -3745,21 +3961,24 @@
         <v>158</v>
       </c>
       <c r="E19" s="13"/>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="H19" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="I19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="J19" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.45">
+      <c r="K19" s="22"/>
+    </row>
+    <row r="20" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -3768,21 +3987,24 @@
         <v>160</v>
       </c>
       <c r="E20" s="13"/>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="H20" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="I20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="J20" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K20" s="22"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -3791,13 +4013,16 @@
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
+      <c r="F21" s="117" t="s">
+        <v>400</v>
+      </c>
       <c r="G21" s="29"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="28"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K21" s="28"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -3806,13 +4031,16 @@
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
+      <c r="F22" s="117" t="s">
+        <v>401</v>
+      </c>
       <c r="G22" s="29"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="28"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K22" s="28"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -3821,13 +4049,16 @@
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
+      <c r="F23" s="117" t="s">
+        <v>399</v>
+      </c>
       <c r="G23" s="29"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="27"/>
       <c r="J23" s="28"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K23" s="28"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -3838,21 +4069,22 @@
       <c r="E24" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="F24" s="54" t="s">
+      <c r="F24" s="118"/>
+      <c r="G24" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="G24" s="54" t="s">
+      <c r="H24" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="H24" s="52" t="s">
+      <c r="I24" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="55" t="s">
+      <c r="J24" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="J24" s="55"/>
-    </row>
-    <row r="25" spans="1:10" ht="51" x14ac:dyDescent="0.45">
+      <c r="K24" s="55"/>
+    </row>
+    <row r="25" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -3861,21 +4093,24 @@
       </c>
       <c r="D25" s="51"/>
       <c r="E25" s="54"/>
-      <c r="F25" s="54" t="s">
+      <c r="F25" s="118" t="s">
+        <v>402</v>
+      </c>
+      <c r="G25" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="G25" s="54" t="s">
+      <c r="H25" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="H25" s="52" t="s">
+      <c r="I25" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="55" t="s">
+      <c r="J25" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="J25" s="55"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K25" s="55"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -3884,13 +4119,16 @@
       </c>
       <c r="D26" s="51"/>
       <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
+      <c r="F26" s="118" t="s">
+        <v>403</v>
+      </c>
       <c r="G26" s="54"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="55"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="52"/>
       <c r="J26" s="55"/>
-    </row>
-    <row r="27" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="K26" s="55"/>
+    </row>
+    <row r="27" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -3902,21 +4140,24 @@
       <c r="E27" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="117" t="s">
+        <v>404</v>
+      </c>
+      <c r="G27" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="H27" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="I27" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="28" t="s">
+      <c r="J27" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="J27" s="28"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K27" s="28"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -3926,13 +4167,14 @@
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
+      <c r="F28" s="28"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
-      <c r="I28" s="28"/>
+      <c r="I28" s="27"/>
       <c r="J28" s="28"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K28" s="28"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -3942,13 +4184,14 @@
       </c>
       <c r="D29" s="42"/>
       <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
+      <c r="F29" s="119"/>
       <c r="G29" s="56"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="57"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="43"/>
       <c r="J29" s="57"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K29" s="57"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -3958,15 +4201,16 @@
         <v>156</v>
       </c>
       <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
+      <c r="F30" s="119"/>
       <c r="G30" s="56"/>
-      <c r="H30" s="43" t="s">
+      <c r="H30" s="56"/>
+      <c r="I30" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="57"/>
       <c r="J30" s="57"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K30" s="57"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -3976,15 +4220,16 @@
         <v>159</v>
       </c>
       <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
+      <c r="F31" s="119"/>
       <c r="G31" s="56"/>
-      <c r="H31" s="43" t="s">
+      <c r="H31" s="56"/>
+      <c r="I31" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="57"/>
       <c r="J31" s="57"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K31" s="57"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -3994,13 +4239,14 @@
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="F32" s="117"/>
       <c r="G32" s="29"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="27"/>
       <c r="J32" s="28"/>
-    </row>
-    <row r="33" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="K32" s="28"/>
+    </row>
+    <row r="33" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -4010,21 +4256,22 @@
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="29"/>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="117"/>
+      <c r="G33" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="H33" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="I33" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="28" t="s">
+      <c r="J33" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="J33" s="28"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K33" s="28"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -4034,13 +4281,14 @@
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
+      <c r="F34" s="117"/>
       <c r="G34" s="29"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="28"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="27"/>
       <c r="J34" s="28"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K34" s="28"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -4050,21 +4298,22 @@
         <v>157</v>
       </c>
       <c r="E35" s="29"/>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="117"/>
+      <c r="G35" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="H35" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="H35" s="27" t="s">
+      <c r="I35" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I35" s="28" t="s">
+      <c r="J35" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="J35" s="28"/>
-    </row>
-    <row r="36" spans="1:10" ht="51" x14ac:dyDescent="0.45">
+      <c r="K35" s="28"/>
+    </row>
+    <row r="36" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -4074,21 +4323,22 @@
         <v>158</v>
       </c>
       <c r="E36" s="29"/>
-      <c r="F36" s="29" t="s">
+      <c r="F36" s="117"/>
+      <c r="G36" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="G36" s="29" t="s">
+      <c r="H36" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="H36" s="27" t="s">
+      <c r="I36" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I36" s="28" t="s">
+      <c r="J36" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="J36" s="28"/>
-    </row>
-    <row r="37" spans="1:10" ht="51" x14ac:dyDescent="0.45">
+      <c r="K36" s="28"/>
+    </row>
+    <row r="37" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -4098,21 +4348,22 @@
         <v>160</v>
       </c>
       <c r="E37" s="29"/>
-      <c r="F37" s="29" t="s">
+      <c r="F37" s="117"/>
+      <c r="G37" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="G37" s="29" t="s">
+      <c r="H37" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="H37" s="27" t="s">
+      <c r="I37" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I37" s="28" t="s">
+      <c r="J37" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="J37" s="28"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K37" s="28"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -4122,13 +4373,14 @@
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
+      <c r="F38" s="117"/>
       <c r="G38" s="29"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="28"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="27"/>
       <c r="J38" s="28"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K38" s="28"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -4138,13 +4390,14 @@
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
+      <c r="F39" s="117"/>
       <c r="G39" s="29"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="28"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="27"/>
       <c r="J39" s="28"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K39" s="28"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -4154,13 +4407,14 @@
       </c>
       <c r="D40" s="26"/>
       <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
+      <c r="F40" s="117"/>
       <c r="G40" s="29"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="28"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="27"/>
       <c r="J40" s="28"/>
-    </row>
-    <row r="41" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="K40" s="28"/>
+    </row>
+    <row r="41" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -4172,21 +4426,24 @@
       <c r="E41" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="29" t="s">
+      <c r="F41" s="117" t="s">
+        <v>405</v>
+      </c>
+      <c r="G41" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="G41" s="29" t="s">
+      <c r="H41" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="H41" s="27" t="s">
+      <c r="I41" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="28" t="s">
+      <c r="J41" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="J41" s="28"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K41" s="28"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -4196,21 +4453,22 @@
       </c>
       <c r="D42" s="51"/>
       <c r="E42" s="54"/>
-      <c r="F42" s="54" t="s">
+      <c r="F42" s="118"/>
+      <c r="G42" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="G42" s="54" t="s">
+      <c r="H42" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="H42" s="52" t="s">
+      <c r="I42" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="I42" s="55" t="s">
+      <c r="J42" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="J42" s="55"/>
-    </row>
-    <row r="43" spans="1:10" ht="51" x14ac:dyDescent="0.45">
+      <c r="K42" s="55"/>
+    </row>
+    <row r="43" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -4220,21 +4478,22 @@
       </c>
       <c r="D43" s="51"/>
       <c r="E43" s="54"/>
-      <c r="F43" s="54" t="s">
+      <c r="F43" s="118"/>
+      <c r="G43" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="G43" s="54" t="s">
+      <c r="H43" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="H43" s="52" t="s">
+      <c r="I43" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="I43" s="55" t="s">
+      <c r="J43" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="J43" s="55"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K43" s="55"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -4244,13 +4503,14 @@
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
+      <c r="F44" s="117"/>
       <c r="G44" s="29"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="28"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="27"/>
       <c r="J44" s="28"/>
-    </row>
-    <row r="45" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="K44" s="28"/>
+    </row>
+    <row r="45" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -4262,21 +4522,24 @@
       <c r="E45" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="29" t="s">
+      <c r="F45" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="G45" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="G45" s="29" t="s">
+      <c r="H45" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="H45" s="27" t="s">
+      <c r="I45" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="28" t="s">
+      <c r="J45" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="J45" s="28"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K45" s="28"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -4286,13 +4549,14 @@
       </c>
       <c r="D46" s="26"/>
       <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
+      <c r="F46" s="28"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
-      <c r="I46" s="28"/>
+      <c r="I46" s="27"/>
       <c r="J46" s="28"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K46" s="28"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -4304,13 +4568,16 @@
       <c r="E47" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F47" s="13"/>
+      <c r="F47" s="22" t="s">
+        <v>406</v>
+      </c>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
-      <c r="I47" s="22"/>
+      <c r="I47" s="13"/>
       <c r="J47" s="22"/>
-    </row>
-    <row r="48" spans="1:10" ht="51" x14ac:dyDescent="0.45">
+      <c r="K47" s="22"/>
+    </row>
+    <row r="48" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -4320,21 +4587,24 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="13"/>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="G48" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="G48" s="12" t="s">
+      <c r="H48" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="H48" s="13" t="s">
+      <c r="I48" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="22" t="s">
+      <c r="J48" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="J48" s="22"/>
-    </row>
-    <row r="49" spans="1:10" ht="51" x14ac:dyDescent="0.45">
+      <c r="K48" s="22"/>
+    </row>
+    <row r="49" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -4344,21 +4614,24 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="13"/>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="G49" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="G49" s="12" t="s">
+      <c r="H49" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="I49" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="22" t="s">
+      <c r="J49" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="J49" s="22"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K49" s="22"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4368,8 +4641,11 @@
       <c r="E50" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F50" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4379,33 +4655,69 @@
       <c r="E51" t="s">
         <v>123</v>
       </c>
-      <c r="H51" t="s">
+      <c r="F51" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I51" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J51" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H52" t="s">
+      <c r="F52" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I52" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J52" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H53" t="s">
+      <c r="F53" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I53" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J53" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4415,22 +4727,46 @@
       <c r="E54" t="s">
         <v>124</v>
       </c>
-      <c r="H54" t="s">
+      <c r="F54" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I54" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J54" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H55" t="s">
+      <c r="F55" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I55" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J55" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4440,11 +4776,23 @@
       <c r="E56" t="s">
         <v>125</v>
       </c>
-      <c r="H56" t="s">
+      <c r="F56" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I56" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J56" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4454,11 +4802,23 @@
       <c r="E57" t="s">
         <v>126</v>
       </c>
-      <c r="H57" t="s">
+      <c r="F57" s="116" t="s">
+        <v>411</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I57" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J57" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4468,14 +4828,26 @@
       <c r="E58" t="s">
         <v>23</v>
       </c>
-      <c r="H58" t="s">
+      <c r="F58" s="116" t="s">
+        <v>413</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I58" t="s">
         <v>12</v>
       </c>
       <c r="J58" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="K58" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4483,7 +4855,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4491,29 +4863,29 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J61" s="8" t="s">
+      <c r="K61" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J62" s="8" t="s">
+      <c r="K62" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4523,11 +4895,23 @@
       <c r="E63" t="s">
         <v>127</v>
       </c>
+      <c r="F63" s="116" t="s">
+        <v>412</v>
+      </c>
+      <c r="G63" t="s">
+        <v>367</v>
+      </c>
       <c r="H63" t="s">
+        <v>370</v>
+      </c>
+      <c r="I63" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J63" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4535,18 +4919,27 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="G65" t="s">
+        <v>371</v>
+      </c>
       <c r="H65" t="s">
+        <v>372</v>
+      </c>
+      <c r="I65" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J65" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4554,7 +4947,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4562,21 +4955,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>5</v>
       </c>
-      <c r="K68" s="7" t="s">
+      <c r="L68" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4587,7 +4980,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4595,18 +4988,27 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="G71" t="s">
+        <v>367</v>
+      </c>
       <c r="H71" t="s">
+        <v>372</v>
+      </c>
+      <c r="I71" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J71" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4614,7 +5016,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4622,7 +5024,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4630,7 +5032,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4638,7 +5040,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4646,7 +5048,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4654,7 +5056,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4662,7 +5064,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4670,7 +5072,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4678,7 +5080,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4686,7 +5088,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4694,7 +5096,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c